--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24105500</v>
+        <v>24316300</v>
       </c>
       <c r="E8" s="3">
-        <v>22406900</v>
+        <v>22602800</v>
       </c>
       <c r="F8" s="3">
-        <v>22726400</v>
+        <v>22925100</v>
       </c>
       <c r="G8" s="3">
-        <v>22229000</v>
+        <v>22423400</v>
       </c>
       <c r="H8" s="3">
-        <v>21756900</v>
+        <v>21947100</v>
       </c>
       <c r="I8" s="3">
-        <v>19781600</v>
+        <v>19954500</v>
       </c>
       <c r="J8" s="3">
-        <v>20199900</v>
+        <v>20376500</v>
       </c>
       <c r="K8" s="3">
         <v>20460600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20594100</v>
+        <v>20774100</v>
       </c>
       <c r="E9" s="3">
-        <v>19017400</v>
+        <v>19183600</v>
       </c>
       <c r="F9" s="3">
-        <v>19224900</v>
+        <v>19393000</v>
       </c>
       <c r="G9" s="3">
-        <v>18814200</v>
+        <v>18978700</v>
       </c>
       <c r="H9" s="3">
-        <v>18289400</v>
+        <v>18449300</v>
       </c>
       <c r="I9" s="3">
-        <v>16761000</v>
+        <v>16907500</v>
       </c>
       <c r="J9" s="3">
-        <v>17184800</v>
+        <v>17335000</v>
       </c>
       <c r="K9" s="3">
         <v>17255100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3511400</v>
+        <v>3542100</v>
       </c>
       <c r="E10" s="3">
-        <v>3389500</v>
+        <v>3419200</v>
       </c>
       <c r="F10" s="3">
-        <v>3501500</v>
+        <v>3532100</v>
       </c>
       <c r="G10" s="3">
-        <v>3414800</v>
+        <v>3444600</v>
       </c>
       <c r="H10" s="3">
-        <v>3467500</v>
+        <v>3497800</v>
       </c>
       <c r="I10" s="3">
-        <v>3020600</v>
+        <v>3047000</v>
       </c>
       <c r="J10" s="3">
-        <v>3015100</v>
+        <v>3041500</v>
       </c>
       <c r="K10" s="3">
         <v>3205500</v>
@@ -897,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="E14" s="3">
-        <v>87800</v>
+        <v>88600</v>
       </c>
       <c r="F14" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -930,10 +930,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>93300</v>
+        <v>94100</v>
       </c>
       <c r="E15" s="3">
-        <v>53800</v>
+        <v>54300</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22942700</v>
+        <v>23143300</v>
       </c>
       <c r="E17" s="3">
-        <v>21312200</v>
+        <v>21498500</v>
       </c>
       <c r="F17" s="3">
-        <v>21433000</v>
+        <v>21620400</v>
       </c>
       <c r="G17" s="3">
-        <v>21026700</v>
+        <v>21210500</v>
       </c>
       <c r="H17" s="3">
-        <v>20509500</v>
+        <v>20688900</v>
       </c>
       <c r="I17" s="3">
-        <v>18757100</v>
+        <v>18921100</v>
       </c>
       <c r="J17" s="3">
-        <v>19306100</v>
+        <v>19474900</v>
       </c>
       <c r="K17" s="3">
         <v>19356600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1162800</v>
+        <v>1172900</v>
       </c>
       <c r="E18" s="3">
-        <v>1094700</v>
+        <v>1104300</v>
       </c>
       <c r="F18" s="3">
-        <v>1293400</v>
+        <v>1304800</v>
       </c>
       <c r="G18" s="3">
-        <v>1202300</v>
+        <v>1212800</v>
       </c>
       <c r="H18" s="3">
-        <v>1247300</v>
+        <v>1258200</v>
       </c>
       <c r="I18" s="3">
-        <v>1024400</v>
+        <v>1033400</v>
       </c>
       <c r="J18" s="3">
-        <v>893800</v>
+        <v>901600</v>
       </c>
       <c r="K18" s="3">
         <v>1104000</v>
@@ -1056,10 +1056,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="E20" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="F20" s="3">
         <v>4400</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="I20" s="3">
         <v>-2200</v>
       </c>
       <c r="J20" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="K20" s="3">
         <v>35900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1591600</v>
+        <v>1602200</v>
       </c>
       <c r="E21" s="3">
-        <v>1467500</v>
+        <v>1477400</v>
       </c>
       <c r="F21" s="3">
-        <v>1606900</v>
+        <v>1618400</v>
       </c>
       <c r="G21" s="3">
-        <v>1541000</v>
+        <v>1551700</v>
       </c>
       <c r="H21" s="3">
-        <v>1614500</v>
+        <v>1626100</v>
       </c>
       <c r="I21" s="3">
-        <v>1297200</v>
+        <v>1306300</v>
       </c>
       <c r="J21" s="3">
-        <v>1234600</v>
+        <v>1243000</v>
       </c>
       <c r="K21" s="3">
         <v>1537000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>132900</v>
+        <v>134000</v>
       </c>
       <c r="E22" s="3">
-        <v>120800</v>
+        <v>121800</v>
       </c>
       <c r="F22" s="3">
-        <v>103200</v>
+        <v>104100</v>
       </c>
       <c r="G22" s="3">
-        <v>114200</v>
+        <v>115200</v>
       </c>
       <c r="H22" s="3">
-        <v>164700</v>
+        <v>166100</v>
       </c>
       <c r="I22" s="3">
-        <v>172400</v>
+        <v>173900</v>
       </c>
       <c r="J22" s="3">
-        <v>173500</v>
+        <v>175000</v>
       </c>
       <c r="K22" s="3">
         <v>202000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1057400</v>
+        <v>1066600</v>
       </c>
       <c r="E23" s="3">
-        <v>998100</v>
+        <v>1006800</v>
       </c>
       <c r="F23" s="3">
-        <v>1194600</v>
+        <v>1205100</v>
       </c>
       <c r="G23" s="3">
-        <v>1088100</v>
+        <v>1097600</v>
       </c>
       <c r="H23" s="3">
-        <v>1145200</v>
+        <v>1155200</v>
       </c>
       <c r="I23" s="3">
-        <v>849900</v>
+        <v>857300</v>
       </c>
       <c r="J23" s="3">
-        <v>763100</v>
+        <v>769800</v>
       </c>
       <c r="K23" s="3">
         <v>938000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>304100</v>
+        <v>306800</v>
       </c>
       <c r="E24" s="3">
-        <v>269000</v>
+        <v>271400</v>
       </c>
       <c r="F24" s="3">
-        <v>376600</v>
+        <v>379900</v>
       </c>
       <c r="G24" s="3">
-        <v>362300</v>
+        <v>365500</v>
       </c>
       <c r="H24" s="3">
-        <v>351400</v>
+        <v>354400</v>
       </c>
       <c r="I24" s="3">
-        <v>291000</v>
+        <v>293500</v>
       </c>
       <c r="J24" s="3">
-        <v>255800</v>
+        <v>258100</v>
       </c>
       <c r="K24" s="3">
         <v>320900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>753200</v>
+        <v>759800</v>
       </c>
       <c r="E26" s="3">
-        <v>729100</v>
+        <v>735400</v>
       </c>
       <c r="F26" s="3">
-        <v>818000</v>
+        <v>825200</v>
       </c>
       <c r="G26" s="3">
-        <v>725800</v>
+        <v>732100</v>
       </c>
       <c r="H26" s="3">
-        <v>793900</v>
+        <v>800800</v>
       </c>
       <c r="I26" s="3">
-        <v>558900</v>
+        <v>563800</v>
       </c>
       <c r="J26" s="3">
-        <v>507300</v>
+        <v>511700</v>
       </c>
       <c r="K26" s="3">
         <v>617100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>730200</v>
+        <v>736600</v>
       </c>
       <c r="E27" s="3">
-        <v>714800</v>
+        <v>721000</v>
       </c>
       <c r="F27" s="3">
-        <v>793900</v>
+        <v>800800</v>
       </c>
       <c r="G27" s="3">
-        <v>699400</v>
+        <v>705500</v>
       </c>
       <c r="H27" s="3">
-        <v>768600</v>
+        <v>775300</v>
       </c>
       <c r="I27" s="3">
-        <v>538000</v>
+        <v>542700</v>
       </c>
       <c r="J27" s="3">
-        <v>482000</v>
+        <v>486200</v>
       </c>
       <c r="K27" s="3">
         <v>589000</v>
@@ -1452,10 +1452,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27500</v>
+        <v>-27700</v>
       </c>
       <c r="E32" s="3">
-        <v>-24200</v>
+        <v>-24400</v>
       </c>
       <c r="F32" s="3">
         <v>-4400</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-62600</v>
+        <v>-63100</v>
       </c>
       <c r="I32" s="3">
         <v>2200</v>
       </c>
       <c r="J32" s="3">
-        <v>-42800</v>
+        <v>-43200</v>
       </c>
       <c r="K32" s="3">
         <v>-35900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>730200</v>
+        <v>736600</v>
       </c>
       <c r="E33" s="3">
-        <v>714800</v>
+        <v>721000</v>
       </c>
       <c r="F33" s="3">
-        <v>793900</v>
+        <v>800800</v>
       </c>
       <c r="G33" s="3">
-        <v>699400</v>
+        <v>705500</v>
       </c>
       <c r="H33" s="3">
-        <v>768600</v>
+        <v>775300</v>
       </c>
       <c r="I33" s="3">
-        <v>538000</v>
+        <v>542700</v>
       </c>
       <c r="J33" s="3">
-        <v>482000</v>
+        <v>486200</v>
       </c>
       <c r="K33" s="3">
         <v>589000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>730200</v>
+        <v>736600</v>
       </c>
       <c r="E35" s="3">
-        <v>714800</v>
+        <v>721000</v>
       </c>
       <c r="F35" s="3">
-        <v>793900</v>
+        <v>800800</v>
       </c>
       <c r="G35" s="3">
-        <v>699400</v>
+        <v>705500</v>
       </c>
       <c r="H35" s="3">
-        <v>768600</v>
+        <v>775300</v>
       </c>
       <c r="I35" s="3">
-        <v>538000</v>
+        <v>542700</v>
       </c>
       <c r="J35" s="3">
-        <v>482000</v>
+        <v>486200</v>
       </c>
       <c r="K35" s="3">
         <v>589000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1544900</v>
+        <v>1561500</v>
       </c>
       <c r="E41" s="3">
-        <v>1428500</v>
+        <v>1443800</v>
       </c>
       <c r="F41" s="3">
-        <v>1754600</v>
+        <v>1773500</v>
       </c>
       <c r="G41" s="3">
-        <v>1122200</v>
+        <v>1134200</v>
       </c>
       <c r="H41" s="3">
-        <v>1815000</v>
+        <v>1834500</v>
       </c>
       <c r="I41" s="3">
-        <v>2158700</v>
+        <v>2181900</v>
       </c>
       <c r="J41" s="3">
-        <v>1002500</v>
+        <v>1013200</v>
       </c>
       <c r="K41" s="3">
         <v>1025500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>474300</v>
+        <v>479400</v>
       </c>
       <c r="E42" s="3">
-        <v>440300</v>
+        <v>445000</v>
       </c>
       <c r="F42" s="3">
-        <v>496300</v>
+        <v>501600</v>
       </c>
       <c r="G42" s="3">
-        <v>435900</v>
+        <v>440600</v>
       </c>
       <c r="H42" s="3">
-        <v>416100</v>
+        <v>420600</v>
       </c>
       <c r="I42" s="3">
-        <v>867400</v>
+        <v>876700</v>
       </c>
       <c r="J42" s="3">
-        <v>484200</v>
+        <v>489400</v>
       </c>
       <c r="K42" s="3">
         <v>607000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4891600</v>
+        <v>4944200</v>
       </c>
       <c r="E43" s="3">
-        <v>4485300</v>
+        <v>4533500</v>
       </c>
       <c r="F43" s="3">
-        <v>4442500</v>
+        <v>4490300</v>
       </c>
       <c r="G43" s="3">
-        <v>4407400</v>
+        <v>4454700</v>
       </c>
       <c r="H43" s="3">
-        <v>4229500</v>
+        <v>4274900</v>
       </c>
       <c r="I43" s="3">
-        <v>4037300</v>
+        <v>4080700</v>
       </c>
       <c r="J43" s="3">
-        <v>3804600</v>
+        <v>3845500</v>
       </c>
       <c r="K43" s="3">
         <v>3839400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>322800</v>
+        <v>326300</v>
       </c>
       <c r="E44" s="3">
-        <v>307400</v>
+        <v>310700</v>
       </c>
       <c r="F44" s="3">
-        <v>282200</v>
+        <v>285200</v>
       </c>
       <c r="G44" s="3">
-        <v>294300</v>
+        <v>297400</v>
       </c>
       <c r="H44" s="3">
-        <v>296500</v>
+        <v>299600</v>
       </c>
       <c r="I44" s="3">
-        <v>291000</v>
+        <v>294100</v>
       </c>
       <c r="J44" s="3">
-        <v>297600</v>
+        <v>300800</v>
       </c>
       <c r="K44" s="3">
         <v>332100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1563600</v>
+        <v>1580400</v>
       </c>
       <c r="E45" s="3">
-        <v>1393400</v>
+        <v>1408300</v>
       </c>
       <c r="F45" s="3">
-        <v>1213300</v>
+        <v>1226300</v>
       </c>
       <c r="G45" s="3">
-        <v>1053000</v>
+        <v>1064300</v>
       </c>
       <c r="H45" s="3">
-        <v>1085900</v>
+        <v>1097600</v>
       </c>
       <c r="I45" s="3">
-        <v>1018900</v>
+        <v>1029900</v>
       </c>
       <c r="J45" s="3">
-        <v>980500</v>
+        <v>991100</v>
       </c>
       <c r="K45" s="3">
         <v>817900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8797200</v>
+        <v>8891700</v>
       </c>
       <c r="E46" s="3">
-        <v>8054900</v>
+        <v>8141500</v>
       </c>
       <c r="F46" s="3">
-        <v>8188900</v>
+        <v>8276900</v>
       </c>
       <c r="G46" s="3">
-        <v>7312700</v>
+        <v>7391300</v>
       </c>
       <c r="H46" s="3">
-        <v>7843000</v>
+        <v>7927300</v>
       </c>
       <c r="I46" s="3">
-        <v>8373300</v>
+        <v>8463300</v>
       </c>
       <c r="J46" s="3">
-        <v>6569300</v>
+        <v>6639900</v>
       </c>
       <c r="K46" s="3">
         <v>6622000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1852300</v>
+        <v>1872200</v>
       </c>
       <c r="E47" s="3">
-        <v>912400</v>
+        <v>922200</v>
       </c>
       <c r="F47" s="3">
-        <v>877300</v>
+        <v>886700</v>
       </c>
       <c r="G47" s="3">
-        <v>858600</v>
+        <v>867900</v>
       </c>
       <c r="H47" s="3">
-        <v>744400</v>
+        <v>752400</v>
       </c>
       <c r="I47" s="3">
-        <v>596200</v>
+        <v>602600</v>
       </c>
       <c r="J47" s="3">
-        <v>531400</v>
+        <v>537100</v>
       </c>
       <c r="K47" s="3">
         <v>572200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>751000</v>
+        <v>759100</v>
       </c>
       <c r="E48" s="3">
-        <v>679700</v>
+        <v>687000</v>
       </c>
       <c r="F48" s="3">
-        <v>647800</v>
+        <v>654800</v>
       </c>
       <c r="G48" s="3">
-        <v>663200</v>
+        <v>670300</v>
       </c>
       <c r="H48" s="3">
-        <v>652200</v>
+        <v>659200</v>
       </c>
       <c r="I48" s="3">
-        <v>609400</v>
+        <v>615900</v>
       </c>
       <c r="J48" s="3">
-        <v>592900</v>
+        <v>599300</v>
       </c>
       <c r="K48" s="3">
         <v>644000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7641000</v>
+        <v>7723100</v>
       </c>
       <c r="E49" s="3">
-        <v>6992100</v>
+        <v>7067200</v>
       </c>
       <c r="F49" s="3">
-        <v>6389300</v>
+        <v>6457900</v>
       </c>
       <c r="G49" s="3">
-        <v>6362900</v>
+        <v>6431300</v>
       </c>
       <c r="H49" s="3">
-        <v>6373900</v>
+        <v>6442400</v>
       </c>
       <c r="I49" s="3">
-        <v>6033500</v>
+        <v>6098400</v>
       </c>
       <c r="J49" s="3">
-        <v>5853400</v>
+        <v>5916300</v>
       </c>
       <c r="K49" s="3">
         <v>6276400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>137300</v>
+        <v>138700</v>
       </c>
       <c r="E52" s="3">
-        <v>138300</v>
+        <v>139800</v>
       </c>
       <c r="F52" s="3">
-        <v>228400</v>
+        <v>230800</v>
       </c>
       <c r="G52" s="3">
-        <v>348100</v>
+        <v>351800</v>
       </c>
       <c r="H52" s="3">
-        <v>282200</v>
+        <v>285200</v>
       </c>
       <c r="I52" s="3">
-        <v>284400</v>
+        <v>287400</v>
       </c>
       <c r="J52" s="3">
-        <v>296500</v>
+        <v>299600</v>
       </c>
       <c r="K52" s="3">
         <v>235600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19178800</v>
+        <v>19384900</v>
       </c>
       <c r="E54" s="3">
-        <v>16777400</v>
+        <v>16957700</v>
       </c>
       <c r="F54" s="3">
-        <v>16331700</v>
+        <v>16507200</v>
       </c>
       <c r="G54" s="3">
-        <v>15545500</v>
+        <v>15712500</v>
       </c>
       <c r="H54" s="3">
-        <v>15895700</v>
+        <v>16066600</v>
       </c>
       <c r="I54" s="3">
-        <v>15896800</v>
+        <v>16067700</v>
       </c>
       <c r="J54" s="3">
-        <v>13843600</v>
+        <v>13992400</v>
       </c>
       <c r="K54" s="3">
         <v>14350300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2763700</v>
+        <v>2793400</v>
       </c>
       <c r="E57" s="3">
-        <v>2444100</v>
+        <v>2470400</v>
       </c>
       <c r="F57" s="3">
-        <v>2319000</v>
+        <v>2343900</v>
       </c>
       <c r="G57" s="3">
-        <v>2222400</v>
+        <v>2246200</v>
       </c>
       <c r="H57" s="3">
-        <v>2144400</v>
+        <v>2167400</v>
       </c>
       <c r="I57" s="3">
-        <v>1941300</v>
+        <v>1962100</v>
       </c>
       <c r="J57" s="3">
-        <v>1887500</v>
+        <v>1907700</v>
       </c>
       <c r="K57" s="3">
         <v>4852600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>238300</v>
+        <v>240800</v>
       </c>
       <c r="E58" s="3">
-        <v>491900</v>
+        <v>497200</v>
       </c>
       <c r="F58" s="3">
-        <v>588500</v>
+        <v>594900</v>
       </c>
       <c r="G58" s="3">
-        <v>78000</v>
+        <v>78800</v>
       </c>
       <c r="H58" s="3">
-        <v>388700</v>
+        <v>392900</v>
       </c>
       <c r="I58" s="3">
-        <v>1117800</v>
+        <v>1129800</v>
       </c>
       <c r="J58" s="3">
-        <v>825700</v>
+        <v>834600</v>
       </c>
       <c r="K58" s="3">
         <v>169400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6053300</v>
+        <v>6118300</v>
       </c>
       <c r="E59" s="3">
-        <v>5432900</v>
+        <v>5491300</v>
       </c>
       <c r="F59" s="3">
-        <v>5238600</v>
+        <v>5294900</v>
       </c>
       <c r="G59" s="3">
-        <v>5283600</v>
+        <v>5340400</v>
       </c>
       <c r="H59" s="3">
-        <v>5306600</v>
+        <v>5363700</v>
       </c>
       <c r="I59" s="3">
-        <v>5095800</v>
+        <v>5150600</v>
       </c>
       <c r="J59" s="3">
-        <v>4845500</v>
+        <v>4897500</v>
       </c>
       <c r="K59" s="3">
         <v>2046500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9055200</v>
+        <v>9152500</v>
       </c>
       <c r="E60" s="3">
-        <v>8369000</v>
+        <v>8458900</v>
       </c>
       <c r="F60" s="3">
-        <v>8146100</v>
+        <v>8233600</v>
       </c>
       <c r="G60" s="3">
-        <v>7583900</v>
+        <v>7665400</v>
       </c>
       <c r="H60" s="3">
-        <v>7839700</v>
+        <v>7924000</v>
       </c>
       <c r="I60" s="3">
-        <v>8154800</v>
+        <v>8242500</v>
       </c>
       <c r="J60" s="3">
-        <v>7558600</v>
+        <v>7639900</v>
       </c>
       <c r="K60" s="3">
         <v>7068500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4284400</v>
+        <v>4330400</v>
       </c>
       <c r="E61" s="3">
-        <v>3883600</v>
+        <v>3925400</v>
       </c>
       <c r="F61" s="3">
-        <v>3306100</v>
+        <v>3341600</v>
       </c>
       <c r="G61" s="3">
-        <v>2761500</v>
+        <v>2791100</v>
       </c>
       <c r="H61" s="3">
-        <v>3036000</v>
+        <v>3068600</v>
       </c>
       <c r="I61" s="3">
-        <v>3178700</v>
+        <v>3212900</v>
       </c>
       <c r="J61" s="3">
-        <v>2080700</v>
+        <v>2103100</v>
       </c>
       <c r="K61" s="3">
         <v>2861100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900400</v>
+        <v>910000</v>
       </c>
       <c r="E62" s="3">
-        <v>870700</v>
+        <v>880100</v>
       </c>
       <c r="F62" s="3">
-        <v>959700</v>
+        <v>970000</v>
       </c>
       <c r="G62" s="3">
-        <v>1135300</v>
+        <v>1147500</v>
       </c>
       <c r="H62" s="3">
-        <v>909100</v>
+        <v>918900</v>
       </c>
       <c r="I62" s="3">
-        <v>1026600</v>
+        <v>1037700</v>
       </c>
       <c r="J62" s="3">
-        <v>921200</v>
+        <v>931100</v>
       </c>
       <c r="K62" s="3">
         <v>977300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14286100</v>
+        <v>14439600</v>
       </c>
       <c r="E66" s="3">
-        <v>13172700</v>
+        <v>13314300</v>
       </c>
       <c r="F66" s="3">
-        <v>12449100</v>
+        <v>12582900</v>
       </c>
       <c r="G66" s="3">
-        <v>11518000</v>
+        <v>11641800</v>
       </c>
       <c r="H66" s="3">
-        <v>11822200</v>
+        <v>11949200</v>
       </c>
       <c r="I66" s="3">
-        <v>12395300</v>
+        <v>12528500</v>
       </c>
       <c r="J66" s="3">
-        <v>10601200</v>
+        <v>10715100</v>
       </c>
       <c r="K66" s="3">
         <v>10946100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4785100</v>
+        <v>4836500</v>
       </c>
       <c r="E72" s="3">
-        <v>4166900</v>
+        <v>4211700</v>
       </c>
       <c r="F72" s="3">
-        <v>3793600</v>
+        <v>3834400</v>
       </c>
       <c r="G72" s="3">
-        <v>3302800</v>
+        <v>3338300</v>
       </c>
       <c r="H72" s="3">
-        <v>3102900</v>
+        <v>3136300</v>
       </c>
       <c r="I72" s="3">
-        <v>2545200</v>
+        <v>2572500</v>
       </c>
       <c r="J72" s="3">
-        <v>2308000</v>
+        <v>2332800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4892700</v>
+        <v>4945300</v>
       </c>
       <c r="E76" s="3">
-        <v>3604700</v>
+        <v>3643500</v>
       </c>
       <c r="F76" s="3">
-        <v>3882500</v>
+        <v>3924300</v>
       </c>
       <c r="G76" s="3">
-        <v>4027500</v>
+        <v>4070700</v>
       </c>
       <c r="H76" s="3">
-        <v>4073600</v>
+        <v>4117400</v>
       </c>
       <c r="I76" s="3">
-        <v>3501500</v>
+        <v>3539200</v>
       </c>
       <c r="J76" s="3">
-        <v>3242400</v>
+        <v>3277200</v>
       </c>
       <c r="K76" s="3">
         <v>3404100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>730200</v>
+        <v>736600</v>
       </c>
       <c r="E81" s="3">
-        <v>714800</v>
+        <v>721000</v>
       </c>
       <c r="F81" s="3">
-        <v>793900</v>
+        <v>800800</v>
       </c>
       <c r="G81" s="3">
-        <v>699400</v>
+        <v>705500</v>
       </c>
       <c r="H81" s="3">
-        <v>768600</v>
+        <v>775300</v>
       </c>
       <c r="I81" s="3">
-        <v>538000</v>
+        <v>542700</v>
       </c>
       <c r="J81" s="3">
-        <v>482000</v>
+        <v>486200</v>
       </c>
       <c r="K81" s="3">
         <v>589000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400800</v>
+        <v>404300</v>
       </c>
       <c r="E83" s="3">
-        <v>348100</v>
+        <v>351100</v>
       </c>
       <c r="F83" s="3">
-        <v>308500</v>
+        <v>311200</v>
       </c>
       <c r="G83" s="3">
-        <v>338200</v>
+        <v>341100</v>
       </c>
       <c r="H83" s="3">
-        <v>304100</v>
+        <v>306800</v>
       </c>
       <c r="I83" s="3">
-        <v>274500</v>
+        <v>276900</v>
       </c>
       <c r="J83" s="3">
-        <v>297600</v>
+        <v>300200</v>
       </c>
       <c r="K83" s="3">
         <v>396100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1392300</v>
+        <v>1404400</v>
       </c>
       <c r="E89" s="3">
-        <v>1244000</v>
+        <v>1254900</v>
       </c>
       <c r="F89" s="3">
-        <v>1166100</v>
+        <v>1176300</v>
       </c>
       <c r="G89" s="3">
-        <v>1037600</v>
+        <v>1046700</v>
       </c>
       <c r="H89" s="3">
-        <v>1116700</v>
+        <v>1126400</v>
       </c>
       <c r="I89" s="3">
-        <v>905900</v>
+        <v>913800</v>
       </c>
       <c r="J89" s="3">
-        <v>678600</v>
+        <v>684500</v>
       </c>
       <c r="K89" s="3">
         <v>1142200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-439200</v>
+        <v>-443000</v>
       </c>
       <c r="E91" s="3">
-        <v>-361200</v>
+        <v>-364400</v>
       </c>
       <c r="F91" s="3">
-        <v>-339300</v>
+        <v>-342200</v>
       </c>
       <c r="G91" s="3">
-        <v>-378800</v>
+        <v>-382100</v>
       </c>
       <c r="H91" s="3">
-        <v>-331600</v>
+        <v>-334500</v>
       </c>
       <c r="I91" s="3">
-        <v>-269000</v>
+        <v>-271400</v>
       </c>
       <c r="J91" s="3">
-        <v>-264600</v>
+        <v>-266900</v>
       </c>
       <c r="K91" s="3">
         <v>-345600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-888300</v>
+        <v>-896000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1098000</v>
+        <v>-1107600</v>
       </c>
       <c r="F94" s="3">
-        <v>-672000</v>
+        <v>-677900</v>
       </c>
       <c r="G94" s="3">
-        <v>-532500</v>
+        <v>-537200</v>
       </c>
       <c r="H94" s="3">
-        <v>-415000</v>
+        <v>-418700</v>
       </c>
       <c r="I94" s="3">
-        <v>-370000</v>
+        <v>-373300</v>
       </c>
       <c r="J94" s="3">
-        <v>-345900</v>
+        <v>-348900</v>
       </c>
       <c r="K94" s="3">
         <v>-989600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-442500</v>
+        <v>-446400</v>
       </c>
       <c r="E96" s="3">
-        <v>-451300</v>
+        <v>-455200</v>
       </c>
       <c r="F96" s="3">
-        <v>-394200</v>
+        <v>-397600</v>
       </c>
       <c r="G96" s="3">
-        <v>-367800</v>
+        <v>-371000</v>
       </c>
       <c r="H96" s="3">
-        <v>-303000</v>
+        <v>-305700</v>
       </c>
       <c r="I96" s="3">
-        <v>-272300</v>
+        <v>-274700</v>
       </c>
       <c r="J96" s="3">
-        <v>-263500</v>
+        <v>-265800</v>
       </c>
       <c r="K96" s="3">
         <v>-248000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-448000</v>
+        <v>-451900</v>
       </c>
       <c r="E100" s="3">
-        <v>-378800</v>
+        <v>-382100</v>
       </c>
       <c r="F100" s="3">
-        <v>353600</v>
+        <v>356600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1208900</v>
+        <v>-1219500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1498800</v>
+        <v>-1511900</v>
       </c>
       <c r="I100" s="3">
-        <v>1010200</v>
+        <v>1019000</v>
       </c>
       <c r="J100" s="3">
-        <v>-299800</v>
+        <v>-302400</v>
       </c>
       <c r="K100" s="3">
         <v>-200800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>63700</v>
+        <v>64200</v>
       </c>
       <c r="E101" s="3">
-        <v>-142700</v>
+        <v>-144000</v>
       </c>
       <c r="F101" s="3">
-        <v>-152600</v>
+        <v>-154000</v>
       </c>
       <c r="G101" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="H101" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="I101" s="3">
-        <v>-30700</v>
+        <v>-31000</v>
       </c>
       <c r="J101" s="3">
-        <v>-174600</v>
+        <v>-176100</v>
       </c>
       <c r="K101" s="3">
         <v>61700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>119700</v>
+        <v>120700</v>
       </c>
       <c r="E102" s="3">
-        <v>-375500</v>
+        <v>-378800</v>
       </c>
       <c r="F102" s="3">
-        <v>695000</v>
+        <v>701100</v>
       </c>
       <c r="G102" s="3">
-        <v>-683000</v>
+        <v>-688900</v>
       </c>
       <c r="H102" s="3">
-        <v>-788400</v>
+        <v>-795300</v>
       </c>
       <c r="I102" s="3">
-        <v>1515200</v>
+        <v>1528500</v>
       </c>
       <c r="J102" s="3">
-        <v>-141600</v>
+        <v>-142900</v>
       </c>
       <c r="K102" s="3">
         <v>13500</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24316300</v>
+        <v>25969400</v>
       </c>
       <c r="E8" s="3">
-        <v>22602800</v>
+        <v>24139400</v>
       </c>
       <c r="F8" s="3">
-        <v>22925100</v>
+        <v>24483700</v>
       </c>
       <c r="G8" s="3">
-        <v>22423400</v>
+        <v>23947800</v>
       </c>
       <c r="H8" s="3">
-        <v>21947100</v>
+        <v>23439200</v>
       </c>
       <c r="I8" s="3">
-        <v>19954500</v>
+        <v>21311100</v>
       </c>
       <c r="J8" s="3">
-        <v>20376500</v>
+        <v>21761800</v>
       </c>
       <c r="K8" s="3">
         <v>20460600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20774100</v>
+        <v>22186500</v>
       </c>
       <c r="E9" s="3">
-        <v>19183600</v>
+        <v>20487800</v>
       </c>
       <c r="F9" s="3">
-        <v>19393000</v>
+        <v>20711400</v>
       </c>
       <c r="G9" s="3">
-        <v>18978700</v>
+        <v>20269000</v>
       </c>
       <c r="H9" s="3">
-        <v>18449300</v>
+        <v>19703600</v>
       </c>
       <c r="I9" s="3">
-        <v>16907500</v>
+        <v>18057000</v>
       </c>
       <c r="J9" s="3">
-        <v>17335000</v>
+        <v>18513600</v>
       </c>
       <c r="K9" s="3">
         <v>17255100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3542100</v>
+        <v>3782900</v>
       </c>
       <c r="E10" s="3">
-        <v>3419200</v>
+        <v>3651600</v>
       </c>
       <c r="F10" s="3">
-        <v>3532100</v>
+        <v>3772300</v>
       </c>
       <c r="G10" s="3">
-        <v>3444600</v>
+        <v>3678800</v>
       </c>
       <c r="H10" s="3">
-        <v>3497800</v>
+        <v>3735600</v>
       </c>
       <c r="I10" s="3">
-        <v>3047000</v>
+        <v>3254200</v>
       </c>
       <c r="J10" s="3">
-        <v>3041500</v>
+        <v>3248200</v>
       </c>
       <c r="K10" s="3">
         <v>3205500</v>
@@ -897,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>63100</v>
+        <v>67400</v>
       </c>
       <c r="E14" s="3">
-        <v>88600</v>
+        <v>94600</v>
       </c>
       <c r="F14" s="3">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -930,10 +930,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>94100</v>
+        <v>100500</v>
       </c>
       <c r="E15" s="3">
-        <v>54300</v>
+        <v>58000</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23143300</v>
+        <v>24716700</v>
       </c>
       <c r="E17" s="3">
-        <v>21498500</v>
+        <v>22960100</v>
       </c>
       <c r="F17" s="3">
-        <v>21620400</v>
+        <v>23090200</v>
       </c>
       <c r="G17" s="3">
-        <v>21210500</v>
+        <v>22652500</v>
       </c>
       <c r="H17" s="3">
-        <v>20688900</v>
+        <v>22095400</v>
       </c>
       <c r="I17" s="3">
-        <v>18921100</v>
+        <v>20207500</v>
       </c>
       <c r="J17" s="3">
-        <v>19474900</v>
+        <v>20798900</v>
       </c>
       <c r="K17" s="3">
         <v>19356600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1172900</v>
+        <v>1252700</v>
       </c>
       <c r="E18" s="3">
-        <v>1104300</v>
+        <v>1179400</v>
       </c>
       <c r="F18" s="3">
-        <v>1304800</v>
+        <v>1393500</v>
       </c>
       <c r="G18" s="3">
-        <v>1212800</v>
+        <v>1295300</v>
       </c>
       <c r="H18" s="3">
-        <v>1258200</v>
+        <v>1343800</v>
       </c>
       <c r="I18" s="3">
-        <v>1033400</v>
+        <v>1103600</v>
       </c>
       <c r="J18" s="3">
-        <v>901600</v>
+        <v>962900</v>
       </c>
       <c r="K18" s="3">
         <v>1104000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27700</v>
+        <v>29600</v>
       </c>
       <c r="E20" s="3">
-        <v>24400</v>
+        <v>26000</v>
       </c>
       <c r="F20" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>63100</v>
+        <v>67400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="J20" s="3">
-        <v>43200</v>
+        <v>46100</v>
       </c>
       <c r="K20" s="3">
         <v>35900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1602200</v>
+        <v>1714200</v>
       </c>
       <c r="E21" s="3">
-        <v>1477400</v>
+        <v>1580500</v>
       </c>
       <c r="F21" s="3">
-        <v>1618400</v>
+        <v>1730700</v>
       </c>
       <c r="G21" s="3">
-        <v>1551700</v>
+        <v>1659700</v>
       </c>
       <c r="H21" s="3">
-        <v>1626100</v>
+        <v>1739000</v>
       </c>
       <c r="I21" s="3">
-        <v>1306300</v>
+        <v>1397100</v>
       </c>
       <c r="J21" s="3">
-        <v>1243000</v>
+        <v>1329700</v>
       </c>
       <c r="K21" s="3">
         <v>1537000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>134000</v>
+        <v>143100</v>
       </c>
       <c r="E22" s="3">
-        <v>121800</v>
+        <v>130100</v>
       </c>
       <c r="F22" s="3">
-        <v>104100</v>
+        <v>111200</v>
       </c>
       <c r="G22" s="3">
-        <v>115200</v>
+        <v>123000</v>
       </c>
       <c r="H22" s="3">
-        <v>166100</v>
+        <v>177400</v>
       </c>
       <c r="I22" s="3">
-        <v>173900</v>
+        <v>185700</v>
       </c>
       <c r="J22" s="3">
-        <v>175000</v>
+        <v>186900</v>
       </c>
       <c r="K22" s="3">
         <v>202000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1066600</v>
+        <v>1139100</v>
       </c>
       <c r="E23" s="3">
-        <v>1006800</v>
+        <v>1075300</v>
       </c>
       <c r="F23" s="3">
-        <v>1205100</v>
+        <v>1287000</v>
       </c>
       <c r="G23" s="3">
-        <v>1097600</v>
+        <v>1172300</v>
       </c>
       <c r="H23" s="3">
-        <v>1155200</v>
+        <v>1233800</v>
       </c>
       <c r="I23" s="3">
-        <v>857300</v>
+        <v>915600</v>
       </c>
       <c r="J23" s="3">
-        <v>769800</v>
+        <v>822100</v>
       </c>
       <c r="K23" s="3">
         <v>938000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>306800</v>
+        <v>327700</v>
       </c>
       <c r="E24" s="3">
-        <v>271400</v>
+        <v>289800</v>
       </c>
       <c r="F24" s="3">
-        <v>379900</v>
+        <v>405700</v>
       </c>
       <c r="G24" s="3">
-        <v>365500</v>
+        <v>390400</v>
       </c>
       <c r="H24" s="3">
-        <v>354400</v>
+        <v>378500</v>
       </c>
       <c r="I24" s="3">
-        <v>293500</v>
+        <v>313500</v>
       </c>
       <c r="J24" s="3">
-        <v>258100</v>
+        <v>275600</v>
       </c>
       <c r="K24" s="3">
         <v>320900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>759800</v>
+        <v>811500</v>
       </c>
       <c r="E26" s="3">
-        <v>735400</v>
+        <v>785400</v>
       </c>
       <c r="F26" s="3">
-        <v>825200</v>
+        <v>881300</v>
       </c>
       <c r="G26" s="3">
-        <v>732100</v>
+        <v>781900</v>
       </c>
       <c r="H26" s="3">
-        <v>800800</v>
+        <v>855200</v>
       </c>
       <c r="I26" s="3">
-        <v>563800</v>
+        <v>602100</v>
       </c>
       <c r="J26" s="3">
-        <v>511700</v>
+        <v>546500</v>
       </c>
       <c r="K26" s="3">
         <v>617100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>736600</v>
+        <v>786600</v>
       </c>
       <c r="E27" s="3">
-        <v>721000</v>
+        <v>770100</v>
       </c>
       <c r="F27" s="3">
-        <v>800800</v>
+        <v>855200</v>
       </c>
       <c r="G27" s="3">
-        <v>705500</v>
+        <v>753500</v>
       </c>
       <c r="H27" s="3">
-        <v>775300</v>
+        <v>828000</v>
       </c>
       <c r="I27" s="3">
-        <v>542700</v>
+        <v>579600</v>
       </c>
       <c r="J27" s="3">
-        <v>486200</v>
+        <v>519300</v>
       </c>
       <c r="K27" s="3">
         <v>589000</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27700</v>
+        <v>-29600</v>
       </c>
       <c r="E32" s="3">
-        <v>-24400</v>
+        <v>-26000</v>
       </c>
       <c r="F32" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-63100</v>
+        <v>-67400</v>
       </c>
       <c r="I32" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="J32" s="3">
-        <v>-43200</v>
+        <v>-46100</v>
       </c>
       <c r="K32" s="3">
         <v>-35900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>736600</v>
+        <v>786600</v>
       </c>
       <c r="E33" s="3">
-        <v>721000</v>
+        <v>770100</v>
       </c>
       <c r="F33" s="3">
-        <v>800800</v>
+        <v>855200</v>
       </c>
       <c r="G33" s="3">
-        <v>705500</v>
+        <v>753500</v>
       </c>
       <c r="H33" s="3">
-        <v>775300</v>
+        <v>828000</v>
       </c>
       <c r="I33" s="3">
-        <v>542700</v>
+        <v>579600</v>
       </c>
       <c r="J33" s="3">
-        <v>486200</v>
+        <v>519300</v>
       </c>
       <c r="K33" s="3">
         <v>589000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>736600</v>
+        <v>786600</v>
       </c>
       <c r="E35" s="3">
-        <v>721000</v>
+        <v>770100</v>
       </c>
       <c r="F35" s="3">
-        <v>800800</v>
+        <v>855200</v>
       </c>
       <c r="G35" s="3">
-        <v>705500</v>
+        <v>753500</v>
       </c>
       <c r="H35" s="3">
-        <v>775300</v>
+        <v>828000</v>
       </c>
       <c r="I35" s="3">
-        <v>542700</v>
+        <v>579600</v>
       </c>
       <c r="J35" s="3">
-        <v>486200</v>
+        <v>519300</v>
       </c>
       <c r="K35" s="3">
         <v>589000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1561500</v>
+        <v>1664300</v>
       </c>
       <c r="E41" s="3">
-        <v>1443800</v>
+        <v>1539000</v>
       </c>
       <c r="F41" s="3">
-        <v>1773500</v>
+        <v>1890300</v>
       </c>
       <c r="G41" s="3">
-        <v>1134200</v>
+        <v>1208900</v>
       </c>
       <c r="H41" s="3">
-        <v>1834500</v>
+        <v>1955300</v>
       </c>
       <c r="I41" s="3">
-        <v>2181900</v>
+        <v>2325600</v>
       </c>
       <c r="J41" s="3">
-        <v>1013200</v>
+        <v>1080000</v>
       </c>
       <c r="K41" s="3">
         <v>1025500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>479400</v>
+        <v>511000</v>
       </c>
       <c r="E42" s="3">
-        <v>445000</v>
+        <v>474300</v>
       </c>
       <c r="F42" s="3">
-        <v>501600</v>
+        <v>534700</v>
       </c>
       <c r="G42" s="3">
-        <v>440600</v>
+        <v>469600</v>
       </c>
       <c r="H42" s="3">
-        <v>420600</v>
+        <v>448300</v>
       </c>
       <c r="I42" s="3">
-        <v>876700</v>
+        <v>934500</v>
       </c>
       <c r="J42" s="3">
-        <v>489400</v>
+        <v>521700</v>
       </c>
       <c r="K42" s="3">
         <v>607000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4944200</v>
+        <v>5269800</v>
       </c>
       <c r="E43" s="3">
-        <v>4533500</v>
+        <v>4832100</v>
       </c>
       <c r="F43" s="3">
-        <v>4490300</v>
+        <v>4786000</v>
       </c>
       <c r="G43" s="3">
-        <v>4454700</v>
+        <v>4748200</v>
       </c>
       <c r="H43" s="3">
-        <v>4274900</v>
+        <v>4556500</v>
       </c>
       <c r="I43" s="3">
-        <v>4080700</v>
+        <v>4349500</v>
       </c>
       <c r="J43" s="3">
-        <v>3845500</v>
+        <v>4098700</v>
       </c>
       <c r="K43" s="3">
         <v>3839400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>326300</v>
+        <v>347800</v>
       </c>
       <c r="E44" s="3">
-        <v>310700</v>
+        <v>331200</v>
       </c>
       <c r="F44" s="3">
-        <v>285200</v>
+        <v>304000</v>
       </c>
       <c r="G44" s="3">
-        <v>297400</v>
+        <v>317000</v>
       </c>
       <c r="H44" s="3">
-        <v>299600</v>
+        <v>319400</v>
       </c>
       <c r="I44" s="3">
-        <v>294100</v>
+        <v>313500</v>
       </c>
       <c r="J44" s="3">
-        <v>300800</v>
+        <v>320600</v>
       </c>
       <c r="K44" s="3">
         <v>332100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1580400</v>
+        <v>1684400</v>
       </c>
       <c r="E45" s="3">
-        <v>1408300</v>
+        <v>1501100</v>
       </c>
       <c r="F45" s="3">
-        <v>1226300</v>
+        <v>1307100</v>
       </c>
       <c r="G45" s="3">
-        <v>1064300</v>
+        <v>1134400</v>
       </c>
       <c r="H45" s="3">
-        <v>1097600</v>
+        <v>1169900</v>
       </c>
       <c r="I45" s="3">
-        <v>1029900</v>
+        <v>1097700</v>
       </c>
       <c r="J45" s="3">
-        <v>991100</v>
+        <v>1056300</v>
       </c>
       <c r="K45" s="3">
         <v>817900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8891700</v>
+        <v>9477400</v>
       </c>
       <c r="E46" s="3">
-        <v>8141500</v>
+        <v>8677800</v>
       </c>
       <c r="F46" s="3">
-        <v>8276900</v>
+        <v>8822100</v>
       </c>
       <c r="G46" s="3">
-        <v>7391300</v>
+        <v>7878100</v>
       </c>
       <c r="H46" s="3">
-        <v>7927300</v>
+        <v>8449500</v>
       </c>
       <c r="I46" s="3">
-        <v>8463300</v>
+        <v>9020800</v>
       </c>
       <c r="J46" s="3">
-        <v>6639900</v>
+        <v>7077300</v>
       </c>
       <c r="K46" s="3">
         <v>6622000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1872200</v>
+        <v>1995600</v>
       </c>
       <c r="E47" s="3">
-        <v>922200</v>
+        <v>983000</v>
       </c>
       <c r="F47" s="3">
-        <v>886700</v>
+        <v>945100</v>
       </c>
       <c r="G47" s="3">
-        <v>867900</v>
+        <v>925000</v>
       </c>
       <c r="H47" s="3">
-        <v>752400</v>
+        <v>802000</v>
       </c>
       <c r="I47" s="3">
-        <v>602600</v>
+        <v>642300</v>
       </c>
       <c r="J47" s="3">
-        <v>537100</v>
+        <v>572500</v>
       </c>
       <c r="K47" s="3">
         <v>572200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>759100</v>
+        <v>809100</v>
       </c>
       <c r="E48" s="3">
-        <v>687000</v>
+        <v>732200</v>
       </c>
       <c r="F48" s="3">
-        <v>654800</v>
+        <v>697900</v>
       </c>
       <c r="G48" s="3">
-        <v>670300</v>
+        <v>714500</v>
       </c>
       <c r="H48" s="3">
-        <v>659200</v>
+        <v>702600</v>
       </c>
       <c r="I48" s="3">
-        <v>615900</v>
+        <v>656500</v>
       </c>
       <c r="J48" s="3">
-        <v>599300</v>
+        <v>638800</v>
       </c>
       <c r="K48" s="3">
         <v>644000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7723100</v>
+        <v>8231800</v>
       </c>
       <c r="E49" s="3">
-        <v>7067200</v>
+        <v>7532700</v>
       </c>
       <c r="F49" s="3">
-        <v>6457900</v>
+        <v>6883300</v>
       </c>
       <c r="G49" s="3">
-        <v>6431300</v>
+        <v>6854900</v>
       </c>
       <c r="H49" s="3">
-        <v>6442400</v>
+        <v>6866700</v>
       </c>
       <c r="I49" s="3">
-        <v>6098400</v>
+        <v>6500000</v>
       </c>
       <c r="J49" s="3">
-        <v>5916300</v>
+        <v>6306000</v>
       </c>
       <c r="K49" s="3">
         <v>6276400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>138700</v>
+        <v>147900</v>
       </c>
       <c r="E52" s="3">
-        <v>139800</v>
+        <v>149000</v>
       </c>
       <c r="F52" s="3">
-        <v>230800</v>
+        <v>246000</v>
       </c>
       <c r="G52" s="3">
-        <v>351800</v>
+        <v>375000</v>
       </c>
       <c r="H52" s="3">
-        <v>285200</v>
+        <v>304000</v>
       </c>
       <c r="I52" s="3">
-        <v>287400</v>
+        <v>306400</v>
       </c>
       <c r="J52" s="3">
-        <v>299600</v>
+        <v>319400</v>
       </c>
       <c r="K52" s="3">
         <v>235600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19384900</v>
+        <v>20661700</v>
       </c>
       <c r="E54" s="3">
-        <v>16957700</v>
+        <v>18074700</v>
       </c>
       <c r="F54" s="3">
-        <v>16507200</v>
+        <v>17594500</v>
       </c>
       <c r="G54" s="3">
-        <v>15712500</v>
+        <v>16747500</v>
       </c>
       <c r="H54" s="3">
-        <v>16066600</v>
+        <v>17124800</v>
       </c>
       <c r="I54" s="3">
-        <v>16067700</v>
+        <v>17126000</v>
       </c>
       <c r="J54" s="3">
-        <v>13992400</v>
+        <v>14914000</v>
       </c>
       <c r="K54" s="3">
         <v>14350300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2793400</v>
+        <v>2977400</v>
       </c>
       <c r="E57" s="3">
-        <v>2470400</v>
+        <v>2633100</v>
       </c>
       <c r="F57" s="3">
-        <v>2343900</v>
+        <v>2498300</v>
       </c>
       <c r="G57" s="3">
-        <v>2246200</v>
+        <v>2394200</v>
       </c>
       <c r="H57" s="3">
-        <v>2167400</v>
+        <v>2310200</v>
       </c>
       <c r="I57" s="3">
-        <v>1962100</v>
+        <v>2091400</v>
       </c>
       <c r="J57" s="3">
-        <v>1907700</v>
+        <v>2033400</v>
       </c>
       <c r="K57" s="3">
         <v>4852600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>240800</v>
+        <v>256700</v>
       </c>
       <c r="E58" s="3">
-        <v>497200</v>
+        <v>529900</v>
       </c>
       <c r="F58" s="3">
-        <v>594900</v>
+        <v>634000</v>
       </c>
       <c r="G58" s="3">
-        <v>78800</v>
+        <v>84000</v>
       </c>
       <c r="H58" s="3">
-        <v>392900</v>
+        <v>418700</v>
       </c>
       <c r="I58" s="3">
-        <v>1129800</v>
+        <v>1204200</v>
       </c>
       <c r="J58" s="3">
-        <v>834600</v>
+        <v>889500</v>
       </c>
       <c r="K58" s="3">
         <v>169400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6118300</v>
+        <v>6521300</v>
       </c>
       <c r="E59" s="3">
-        <v>5491300</v>
+        <v>5853000</v>
       </c>
       <c r="F59" s="3">
-        <v>5294900</v>
+        <v>5643600</v>
       </c>
       <c r="G59" s="3">
-        <v>5340400</v>
+        <v>5692100</v>
       </c>
       <c r="H59" s="3">
-        <v>5363700</v>
+        <v>5717000</v>
       </c>
       <c r="I59" s="3">
-        <v>5150600</v>
+        <v>5489800</v>
       </c>
       <c r="J59" s="3">
-        <v>4897500</v>
+        <v>5220100</v>
       </c>
       <c r="K59" s="3">
         <v>2046500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9152500</v>
+        <v>9755400</v>
       </c>
       <c r="E60" s="3">
-        <v>8458900</v>
+        <v>9016100</v>
       </c>
       <c r="F60" s="3">
-        <v>8233600</v>
+        <v>8775900</v>
       </c>
       <c r="G60" s="3">
-        <v>7665400</v>
+        <v>8170300</v>
       </c>
       <c r="H60" s="3">
-        <v>7924000</v>
+        <v>8445900</v>
       </c>
       <c r="I60" s="3">
-        <v>8242500</v>
+        <v>8785400</v>
       </c>
       <c r="J60" s="3">
-        <v>7639900</v>
+        <v>8143100</v>
       </c>
       <c r="K60" s="3">
         <v>7068500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4330400</v>
+        <v>4615700</v>
       </c>
       <c r="E61" s="3">
-        <v>3925400</v>
+        <v>4183900</v>
       </c>
       <c r="F61" s="3">
-        <v>3341600</v>
+        <v>3561700</v>
       </c>
       <c r="G61" s="3">
-        <v>2791100</v>
+        <v>2975000</v>
       </c>
       <c r="H61" s="3">
-        <v>3068600</v>
+        <v>3270700</v>
       </c>
       <c r="I61" s="3">
-        <v>3212900</v>
+        <v>3424500</v>
       </c>
       <c r="J61" s="3">
-        <v>2103100</v>
+        <v>2241600</v>
       </c>
       <c r="K61" s="3">
         <v>2861100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>910000</v>
+        <v>970000</v>
       </c>
       <c r="E62" s="3">
-        <v>880100</v>
+        <v>938000</v>
       </c>
       <c r="F62" s="3">
-        <v>970000</v>
+        <v>1033900</v>
       </c>
       <c r="G62" s="3">
-        <v>1147500</v>
+        <v>1223100</v>
       </c>
       <c r="H62" s="3">
-        <v>918900</v>
+        <v>979400</v>
       </c>
       <c r="I62" s="3">
-        <v>1037700</v>
+        <v>1106000</v>
       </c>
       <c r="J62" s="3">
-        <v>931100</v>
+        <v>992500</v>
       </c>
       <c r="K62" s="3">
         <v>977300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14439600</v>
+        <v>15390700</v>
       </c>
       <c r="E66" s="3">
-        <v>13314300</v>
+        <v>14191300</v>
       </c>
       <c r="F66" s="3">
-        <v>12582900</v>
+        <v>13411700</v>
       </c>
       <c r="G66" s="3">
-        <v>11641800</v>
+        <v>12408600</v>
       </c>
       <c r="H66" s="3">
-        <v>11949200</v>
+        <v>12736300</v>
       </c>
       <c r="I66" s="3">
-        <v>12528500</v>
+        <v>13353800</v>
       </c>
       <c r="J66" s="3">
-        <v>10715100</v>
+        <v>11420900</v>
       </c>
       <c r="K66" s="3">
         <v>10946100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4836500</v>
+        <v>5155100</v>
       </c>
       <c r="E72" s="3">
-        <v>4211700</v>
+        <v>4489100</v>
       </c>
       <c r="F72" s="3">
-        <v>3834400</v>
+        <v>4086900</v>
       </c>
       <c r="G72" s="3">
-        <v>3338300</v>
+        <v>3558200</v>
       </c>
       <c r="H72" s="3">
-        <v>3136300</v>
+        <v>3342900</v>
       </c>
       <c r="I72" s="3">
-        <v>2572500</v>
+        <v>2742000</v>
       </c>
       <c r="J72" s="3">
-        <v>2332800</v>
+        <v>2486500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4945300</v>
+        <v>5271000</v>
       </c>
       <c r="E76" s="3">
-        <v>3643500</v>
+        <v>3883500</v>
       </c>
       <c r="F76" s="3">
-        <v>3924300</v>
+        <v>4182700</v>
       </c>
       <c r="G76" s="3">
-        <v>4070700</v>
+        <v>4338900</v>
       </c>
       <c r="H76" s="3">
-        <v>4117400</v>
+        <v>4388600</v>
       </c>
       <c r="I76" s="3">
-        <v>3539200</v>
+        <v>3772300</v>
       </c>
       <c r="J76" s="3">
-        <v>3277200</v>
+        <v>3493100</v>
       </c>
       <c r="K76" s="3">
         <v>3404100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>736600</v>
+        <v>786600</v>
       </c>
       <c r="E81" s="3">
-        <v>721000</v>
+        <v>770100</v>
       </c>
       <c r="F81" s="3">
-        <v>800800</v>
+        <v>855200</v>
       </c>
       <c r="G81" s="3">
-        <v>705500</v>
+        <v>753500</v>
       </c>
       <c r="H81" s="3">
-        <v>775300</v>
+        <v>828000</v>
       </c>
       <c r="I81" s="3">
-        <v>542700</v>
+        <v>579600</v>
       </c>
       <c r="J81" s="3">
-        <v>486200</v>
+        <v>519300</v>
       </c>
       <c r="K81" s="3">
         <v>589000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>404300</v>
+        <v>431800</v>
       </c>
       <c r="E83" s="3">
-        <v>351100</v>
+        <v>375000</v>
       </c>
       <c r="F83" s="3">
-        <v>311200</v>
+        <v>332400</v>
       </c>
       <c r="G83" s="3">
-        <v>341100</v>
+        <v>364300</v>
       </c>
       <c r="H83" s="3">
-        <v>306800</v>
+        <v>327700</v>
       </c>
       <c r="I83" s="3">
-        <v>276900</v>
+        <v>295700</v>
       </c>
       <c r="J83" s="3">
-        <v>300200</v>
+        <v>320600</v>
       </c>
       <c r="K83" s="3">
         <v>396100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1404400</v>
+        <v>1499900</v>
       </c>
       <c r="E89" s="3">
-        <v>1254900</v>
+        <v>1340200</v>
       </c>
       <c r="F89" s="3">
-        <v>1176300</v>
+        <v>1256200</v>
       </c>
       <c r="G89" s="3">
-        <v>1046700</v>
+        <v>1117800</v>
       </c>
       <c r="H89" s="3">
-        <v>1126400</v>
+        <v>1203000</v>
       </c>
       <c r="I89" s="3">
-        <v>913800</v>
+        <v>975900</v>
       </c>
       <c r="J89" s="3">
-        <v>684500</v>
+        <v>731000</v>
       </c>
       <c r="K89" s="3">
         <v>1142200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-443000</v>
+        <v>-473200</v>
       </c>
       <c r="E91" s="3">
-        <v>-364400</v>
+        <v>-389200</v>
       </c>
       <c r="F91" s="3">
-        <v>-342200</v>
+        <v>-365500</v>
       </c>
       <c r="G91" s="3">
-        <v>-382100</v>
+        <v>-408100</v>
       </c>
       <c r="H91" s="3">
-        <v>-334500</v>
+        <v>-357200</v>
       </c>
       <c r="I91" s="3">
-        <v>-271400</v>
+        <v>-289800</v>
       </c>
       <c r="J91" s="3">
-        <v>-266900</v>
+        <v>-285100</v>
       </c>
       <c r="K91" s="3">
         <v>-345600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-896000</v>
+        <v>-957000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1107600</v>
+        <v>-1182900</v>
       </c>
       <c r="F94" s="3">
-        <v>-677900</v>
+        <v>-723900</v>
       </c>
       <c r="G94" s="3">
-        <v>-537200</v>
+        <v>-573700</v>
       </c>
       <c r="H94" s="3">
-        <v>-418700</v>
+        <v>-447100</v>
       </c>
       <c r="I94" s="3">
-        <v>-373300</v>
+        <v>-398600</v>
       </c>
       <c r="J94" s="3">
-        <v>-348900</v>
+        <v>-372600</v>
       </c>
       <c r="K94" s="3">
         <v>-989600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-446400</v>
+        <v>-476700</v>
       </c>
       <c r="E96" s="3">
-        <v>-455200</v>
+        <v>-486200</v>
       </c>
       <c r="F96" s="3">
-        <v>-397600</v>
+        <v>-424700</v>
       </c>
       <c r="G96" s="3">
-        <v>-371000</v>
+        <v>-396300</v>
       </c>
       <c r="H96" s="3">
-        <v>-305700</v>
+        <v>-326500</v>
       </c>
       <c r="I96" s="3">
-        <v>-274700</v>
+        <v>-293400</v>
       </c>
       <c r="J96" s="3">
-        <v>-265800</v>
+        <v>-283900</v>
       </c>
       <c r="K96" s="3">
         <v>-248000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-451900</v>
+        <v>-482600</v>
       </c>
       <c r="E100" s="3">
-        <v>-382100</v>
+        <v>-408100</v>
       </c>
       <c r="F100" s="3">
-        <v>356600</v>
+        <v>380900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1219500</v>
+        <v>-1302400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1511900</v>
+        <v>-1614700</v>
       </c>
       <c r="I100" s="3">
-        <v>1019000</v>
+        <v>1088300</v>
       </c>
       <c r="J100" s="3">
-        <v>-302400</v>
+        <v>-322900</v>
       </c>
       <c r="K100" s="3">
         <v>-200800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>64200</v>
+        <v>68600</v>
       </c>
       <c r="E101" s="3">
-        <v>-144000</v>
+        <v>-153800</v>
       </c>
       <c r="F101" s="3">
-        <v>-154000</v>
+        <v>-164400</v>
       </c>
       <c r="G101" s="3">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="H101" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="I101" s="3">
-        <v>-31000</v>
+        <v>-33100</v>
       </c>
       <c r="J101" s="3">
-        <v>-176100</v>
+        <v>-188100</v>
       </c>
       <c r="K101" s="3">
         <v>61700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>120700</v>
+        <v>128900</v>
       </c>
       <c r="E102" s="3">
-        <v>-378800</v>
+        <v>-404600</v>
       </c>
       <c r="F102" s="3">
-        <v>701100</v>
+        <v>748800</v>
       </c>
       <c r="G102" s="3">
-        <v>-688900</v>
+        <v>-735800</v>
       </c>
       <c r="H102" s="3">
-        <v>-795300</v>
+        <v>-849300</v>
       </c>
       <c r="I102" s="3">
-        <v>1528500</v>
+        <v>1632400</v>
       </c>
       <c r="J102" s="3">
-        <v>-142900</v>
+        <v>-152600</v>
       </c>
       <c r="K102" s="3">
         <v>13500</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43708</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43343</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42978</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42613</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42247</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41882</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41517</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41152</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40786</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25969400</v>
+        <v>23111800</v>
       </c>
       <c r="E8" s="3">
-        <v>24139400</v>
+        <v>26261400</v>
       </c>
       <c r="F8" s="3">
-        <v>24483700</v>
+        <v>24410900</v>
       </c>
       <c r="G8" s="3">
-        <v>23947800</v>
+        <v>24758900</v>
       </c>
       <c r="H8" s="3">
-        <v>23439200</v>
+        <v>24217100</v>
       </c>
       <c r="I8" s="3">
-        <v>21311100</v>
+        <v>23702700</v>
       </c>
       <c r="J8" s="3">
+        <v>21550700</v>
+      </c>
+      <c r="K8" s="3">
         <v>21761800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20460600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18836100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22186500</v>
+        <v>20146400</v>
       </c>
       <c r="E9" s="3">
-        <v>20487800</v>
+        <v>22435900</v>
       </c>
       <c r="F9" s="3">
-        <v>20711400</v>
+        <v>20718200</v>
       </c>
       <c r="G9" s="3">
-        <v>20269000</v>
+        <v>20944300</v>
       </c>
       <c r="H9" s="3">
-        <v>19703600</v>
+        <v>20496900</v>
       </c>
       <c r="I9" s="3">
-        <v>18057000</v>
+        <v>19925100</v>
       </c>
       <c r="J9" s="3">
+        <v>18260000</v>
+      </c>
+      <c r="K9" s="3">
         <v>18513600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17255100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15880500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3782900</v>
+        <v>2965400</v>
       </c>
       <c r="E10" s="3">
-        <v>3651600</v>
+        <v>3825400</v>
       </c>
       <c r="F10" s="3">
-        <v>3772300</v>
+        <v>3692700</v>
       </c>
       <c r="G10" s="3">
-        <v>3678800</v>
+        <v>3814700</v>
       </c>
       <c r="H10" s="3">
-        <v>3735600</v>
+        <v>3720200</v>
       </c>
       <c r="I10" s="3">
-        <v>3254200</v>
+        <v>3777600</v>
       </c>
       <c r="J10" s="3">
+        <v>3290700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3248200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3205500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2955700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,23 +906,26 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>67400</v>
+        <v>537100</v>
       </c>
       <c r="E14" s="3">
-        <v>94600</v>
+        <v>68200</v>
       </c>
       <c r="F14" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>95700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>13200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -917,26 +936,29 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100500</v>
+        <v>28700</v>
       </c>
       <c r="E15" s="3">
-        <v>58000</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>101700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>58600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -953,12 +975,15 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24716700</v>
+        <v>23034000</v>
       </c>
       <c r="E17" s="3">
-        <v>22960100</v>
+        <v>24994600</v>
       </c>
       <c r="F17" s="3">
-        <v>23090200</v>
+        <v>23218200</v>
       </c>
       <c r="G17" s="3">
-        <v>22652500</v>
+        <v>23349800</v>
       </c>
       <c r="H17" s="3">
-        <v>22095400</v>
+        <v>22907200</v>
       </c>
       <c r="I17" s="3">
-        <v>20207500</v>
+        <v>22343800</v>
       </c>
       <c r="J17" s="3">
+        <v>20434700</v>
+      </c>
+      <c r="K17" s="3">
         <v>20798900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19356600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17833700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1252700</v>
+        <v>77800</v>
       </c>
       <c r="E18" s="3">
-        <v>1179400</v>
+        <v>1266800</v>
       </c>
       <c r="F18" s="3">
-        <v>1393500</v>
+        <v>1192600</v>
       </c>
       <c r="G18" s="3">
-        <v>1295300</v>
+        <v>1409100</v>
       </c>
       <c r="H18" s="3">
-        <v>1343800</v>
+        <v>1309800</v>
       </c>
       <c r="I18" s="3">
-        <v>1103600</v>
+        <v>1358900</v>
       </c>
       <c r="J18" s="3">
+        <v>1116100</v>
+      </c>
+      <c r="K18" s="3">
         <v>962900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1104000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1002400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29600</v>
+        <v>-167500</v>
       </c>
       <c r="E20" s="3">
-        <v>26000</v>
+        <v>29900</v>
       </c>
       <c r="F20" s="3">
-        <v>4700</v>
+        <v>26300</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="H20" s="3">
-        <v>67400</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>68200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>46100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>35900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1714200</v>
+        <v>977700</v>
       </c>
       <c r="E21" s="3">
-        <v>1580500</v>
+        <v>1731500</v>
       </c>
       <c r="F21" s="3">
-        <v>1730700</v>
+        <v>1596600</v>
       </c>
       <c r="G21" s="3">
-        <v>1659700</v>
+        <v>1748700</v>
       </c>
       <c r="H21" s="3">
-        <v>1739000</v>
+        <v>1676800</v>
       </c>
       <c r="I21" s="3">
-        <v>1397100</v>
+        <v>1757100</v>
       </c>
       <c r="J21" s="3">
+        <v>1411500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1329700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1537000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1306600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>143100</v>
+        <v>174600</v>
       </c>
       <c r="E22" s="3">
-        <v>130100</v>
+        <v>144700</v>
       </c>
       <c r="F22" s="3">
-        <v>111200</v>
+        <v>131600</v>
       </c>
       <c r="G22" s="3">
-        <v>123000</v>
+        <v>112400</v>
       </c>
       <c r="H22" s="3">
-        <v>177400</v>
+        <v>124400</v>
       </c>
       <c r="I22" s="3">
-        <v>185700</v>
+        <v>179400</v>
       </c>
       <c r="J22" s="3">
+        <v>187800</v>
+      </c>
+      <c r="K22" s="3">
         <v>186900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>202000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>173700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1139100</v>
+        <v>-264400</v>
       </c>
       <c r="E23" s="3">
-        <v>1075300</v>
+        <v>1151900</v>
       </c>
       <c r="F23" s="3">
-        <v>1287000</v>
+        <v>1087300</v>
       </c>
       <c r="G23" s="3">
-        <v>1172300</v>
+        <v>1301500</v>
       </c>
       <c r="H23" s="3">
-        <v>1233800</v>
+        <v>1185400</v>
       </c>
       <c r="I23" s="3">
-        <v>915600</v>
+        <v>1247600</v>
       </c>
       <c r="J23" s="3">
+        <v>925900</v>
+      </c>
+      <c r="K23" s="3">
         <v>822100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>938000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>846300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>327700</v>
+        <v>117200</v>
       </c>
       <c r="E24" s="3">
-        <v>289800</v>
+        <v>331300</v>
       </c>
       <c r="F24" s="3">
-        <v>405700</v>
+        <v>293100</v>
       </c>
       <c r="G24" s="3">
-        <v>390400</v>
+        <v>410300</v>
       </c>
       <c r="H24" s="3">
-        <v>378500</v>
+        <v>394700</v>
       </c>
       <c r="I24" s="3">
-        <v>313500</v>
+        <v>382800</v>
       </c>
       <c r="J24" s="3">
+        <v>317000</v>
+      </c>
+      <c r="K24" s="3">
         <v>275600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>320900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>293500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>811500</v>
+        <v>-381600</v>
       </c>
       <c r="E26" s="3">
-        <v>785400</v>
+        <v>820600</v>
       </c>
       <c r="F26" s="3">
-        <v>881300</v>
+        <v>794300</v>
       </c>
       <c r="G26" s="3">
-        <v>781900</v>
+        <v>891200</v>
       </c>
       <c r="H26" s="3">
-        <v>855200</v>
+        <v>790700</v>
       </c>
       <c r="I26" s="3">
-        <v>602100</v>
+        <v>864900</v>
       </c>
       <c r="J26" s="3">
+        <v>608900</v>
+      </c>
+      <c r="K26" s="3">
         <v>546500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>617100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>552900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>786600</v>
+        <v>-376800</v>
       </c>
       <c r="E27" s="3">
-        <v>770100</v>
+        <v>795500</v>
       </c>
       <c r="F27" s="3">
-        <v>855200</v>
+        <v>778700</v>
       </c>
       <c r="G27" s="3">
-        <v>753500</v>
+        <v>864900</v>
       </c>
       <c r="H27" s="3">
-        <v>828000</v>
+        <v>762000</v>
       </c>
       <c r="I27" s="3">
-        <v>579600</v>
+        <v>837300</v>
       </c>
       <c r="J27" s="3">
+        <v>586100</v>
+      </c>
+      <c r="K27" s="3">
         <v>519300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>589000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>529400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29600</v>
+        <v>167500</v>
       </c>
       <c r="E32" s="3">
-        <v>-26000</v>
+        <v>-29900</v>
       </c>
       <c r="F32" s="3">
-        <v>-4700</v>
+        <v>-26300</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-4800</v>
       </c>
       <c r="H32" s="3">
-        <v>-67400</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-46100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-35900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>786600</v>
+        <v>-376800</v>
       </c>
       <c r="E33" s="3">
-        <v>770100</v>
+        <v>795500</v>
       </c>
       <c r="F33" s="3">
-        <v>855200</v>
+        <v>778700</v>
       </c>
       <c r="G33" s="3">
-        <v>753500</v>
+        <v>864900</v>
       </c>
       <c r="H33" s="3">
-        <v>828000</v>
+        <v>762000</v>
       </c>
       <c r="I33" s="3">
-        <v>579600</v>
+        <v>837300</v>
       </c>
       <c r="J33" s="3">
+        <v>586100</v>
+      </c>
+      <c r="K33" s="3">
         <v>519300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>589000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>529400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>786600</v>
+        <v>-376800</v>
       </c>
       <c r="E35" s="3">
-        <v>770100</v>
+        <v>795500</v>
       </c>
       <c r="F35" s="3">
-        <v>855200</v>
+        <v>778700</v>
       </c>
       <c r="G35" s="3">
-        <v>753500</v>
+        <v>864900</v>
       </c>
       <c r="H35" s="3">
-        <v>828000</v>
+        <v>762000</v>
       </c>
       <c r="I35" s="3">
-        <v>579600</v>
+        <v>837300</v>
       </c>
       <c r="J35" s="3">
+        <v>586100</v>
+      </c>
+      <c r="K35" s="3">
         <v>519300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>589000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>529400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43708</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43343</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42978</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42613</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42247</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41882</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41517</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41152</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40786</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1664300</v>
+        <v>2001200</v>
       </c>
       <c r="E41" s="3">
-        <v>1539000</v>
+        <v>1683100</v>
       </c>
       <c r="F41" s="3">
-        <v>1890300</v>
+        <v>1556300</v>
       </c>
       <c r="G41" s="3">
-        <v>1208900</v>
+        <v>1911500</v>
       </c>
       <c r="H41" s="3">
-        <v>1955300</v>
+        <v>1222500</v>
       </c>
       <c r="I41" s="3">
-        <v>2325600</v>
+        <v>1977300</v>
       </c>
       <c r="J41" s="3">
+        <v>2351700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1080000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1025500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1177300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>511000</v>
+        <v>471300</v>
       </c>
       <c r="E42" s="3">
-        <v>474300</v>
+        <v>516800</v>
       </c>
       <c r="F42" s="3">
-        <v>534700</v>
+        <v>479700</v>
       </c>
       <c r="G42" s="3">
-        <v>469600</v>
+        <v>540700</v>
       </c>
       <c r="H42" s="3">
-        <v>448300</v>
+        <v>474900</v>
       </c>
       <c r="I42" s="3">
-        <v>934500</v>
+        <v>453400</v>
       </c>
       <c r="J42" s="3">
+        <v>945000</v>
+      </c>
+      <c r="K42" s="3">
         <v>521700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>607000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>532900</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5269800</v>
+        <v>4760900</v>
       </c>
       <c r="E43" s="3">
-        <v>4832100</v>
+        <v>5329100</v>
       </c>
       <c r="F43" s="3">
-        <v>4786000</v>
+        <v>4886500</v>
       </c>
       <c r="G43" s="3">
-        <v>4748200</v>
+        <v>4839800</v>
       </c>
       <c r="H43" s="3">
-        <v>4556500</v>
+        <v>4801500</v>
       </c>
       <c r="I43" s="3">
-        <v>4349500</v>
+        <v>4607800</v>
       </c>
       <c r="J43" s="3">
+        <v>4398400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4098700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3839400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3609500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>347800</v>
+        <v>309800</v>
       </c>
       <c r="E44" s="3">
-        <v>331200</v>
+        <v>351700</v>
       </c>
       <c r="F44" s="3">
-        <v>304000</v>
+        <v>334900</v>
       </c>
       <c r="G44" s="3">
+        <v>307400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>320600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>323000</v>
+      </c>
+      <c r="J44" s="3">
         <v>317000</v>
       </c>
-      <c r="H44" s="3">
-        <v>319400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>313500</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>320600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>332100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>295800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1684400</v>
+        <v>1575400</v>
       </c>
       <c r="E45" s="3">
-        <v>1501100</v>
+        <v>1703400</v>
       </c>
       <c r="F45" s="3">
-        <v>1307100</v>
+        <v>1518000</v>
       </c>
       <c r="G45" s="3">
-        <v>1134400</v>
+        <v>1321800</v>
       </c>
       <c r="H45" s="3">
-        <v>1169900</v>
+        <v>1147200</v>
       </c>
       <c r="I45" s="3">
-        <v>1097700</v>
+        <v>1183000</v>
       </c>
       <c r="J45" s="3">
+        <v>1110100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1056300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>817900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>895600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9477400</v>
+        <v>9118600</v>
       </c>
       <c r="E46" s="3">
-        <v>8677800</v>
+        <v>9584000</v>
       </c>
       <c r="F46" s="3">
-        <v>8822100</v>
+        <v>8775300</v>
       </c>
       <c r="G46" s="3">
-        <v>7878100</v>
+        <v>8921300</v>
       </c>
       <c r="H46" s="3">
-        <v>8449500</v>
+        <v>7966700</v>
       </c>
       <c r="I46" s="3">
-        <v>9020800</v>
+        <v>8544500</v>
       </c>
       <c r="J46" s="3">
+        <v>9122200</v>
+      </c>
+      <c r="K46" s="3">
         <v>7077300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6622000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6511100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1995600</v>
+        <v>1478500</v>
       </c>
       <c r="E47" s="3">
-        <v>983000</v>
+        <v>2018000</v>
       </c>
       <c r="F47" s="3">
-        <v>945100</v>
+        <v>994000</v>
       </c>
       <c r="G47" s="3">
-        <v>925000</v>
+        <v>955800</v>
       </c>
       <c r="H47" s="3">
-        <v>802000</v>
+        <v>935400</v>
       </c>
       <c r="I47" s="3">
-        <v>642300</v>
+        <v>811000</v>
       </c>
       <c r="J47" s="3">
+        <v>649500</v>
+      </c>
+      <c r="K47" s="3">
         <v>572500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>572200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>477700</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>809100</v>
+        <v>2257200</v>
       </c>
       <c r="E48" s="3">
-        <v>732200</v>
+        <v>818200</v>
       </c>
       <c r="F48" s="3">
-        <v>697900</v>
+        <v>740400</v>
       </c>
       <c r="G48" s="3">
-        <v>714500</v>
+        <v>705800</v>
       </c>
       <c r="H48" s="3">
-        <v>702600</v>
+        <v>722500</v>
       </c>
       <c r="I48" s="3">
-        <v>656500</v>
+        <v>710500</v>
       </c>
       <c r="J48" s="3">
+        <v>663900</v>
+      </c>
+      <c r="K48" s="3">
         <v>638800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>644000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>602200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8231800</v>
+        <v>7699900</v>
       </c>
       <c r="E49" s="3">
-        <v>7532700</v>
+        <v>8324400</v>
       </c>
       <c r="F49" s="3">
-        <v>6883300</v>
+        <v>7617400</v>
       </c>
       <c r="G49" s="3">
-        <v>6854900</v>
+        <v>6960700</v>
       </c>
       <c r="H49" s="3">
-        <v>6866700</v>
+        <v>6932000</v>
       </c>
       <c r="I49" s="3">
-        <v>6500000</v>
+        <v>6943900</v>
       </c>
       <c r="J49" s="3">
+        <v>6573100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6306000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6276400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5604900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>147900</v>
+        <v>203400</v>
       </c>
       <c r="E52" s="3">
-        <v>149000</v>
+        <v>149500</v>
       </c>
       <c r="F52" s="3">
-        <v>246000</v>
+        <v>150700</v>
       </c>
       <c r="G52" s="3">
-        <v>375000</v>
+        <v>248800</v>
       </c>
       <c r="H52" s="3">
-        <v>304000</v>
+        <v>379200</v>
       </c>
       <c r="I52" s="3">
-        <v>306400</v>
+        <v>307400</v>
       </c>
       <c r="J52" s="3">
+        <v>309800</v>
+      </c>
+      <c r="K52" s="3">
         <v>319400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>235600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>196000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20661700</v>
+        <v>20757700</v>
       </c>
       <c r="E54" s="3">
-        <v>18074700</v>
+        <v>20894000</v>
       </c>
       <c r="F54" s="3">
-        <v>17594500</v>
+        <v>18277900</v>
       </c>
       <c r="G54" s="3">
-        <v>16747500</v>
+        <v>17792300</v>
       </c>
       <c r="H54" s="3">
-        <v>17124800</v>
+        <v>16935800</v>
       </c>
       <c r="I54" s="3">
-        <v>17126000</v>
+        <v>17317400</v>
       </c>
       <c r="J54" s="3">
+        <v>17318600</v>
+      </c>
+      <c r="K54" s="3">
         <v>14914000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14350300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13392000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2977400</v>
+        <v>2271600</v>
       </c>
       <c r="E57" s="3">
-        <v>2633100</v>
+        <v>3010800</v>
       </c>
       <c r="F57" s="3">
-        <v>2498300</v>
+        <v>2662700</v>
       </c>
       <c r="G57" s="3">
-        <v>2394200</v>
+        <v>2526400</v>
       </c>
       <c r="H57" s="3">
-        <v>2310200</v>
+        <v>2421100</v>
       </c>
       <c r="I57" s="3">
-        <v>2091400</v>
+        <v>2336200</v>
       </c>
       <c r="J57" s="3">
+        <v>2114900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2033400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4852600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4633000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>256700</v>
+        <v>308600</v>
       </c>
       <c r="E58" s="3">
-        <v>529900</v>
+        <v>259600</v>
       </c>
       <c r="F58" s="3">
-        <v>634000</v>
+        <v>535900</v>
       </c>
       <c r="G58" s="3">
-        <v>84000</v>
+        <v>641200</v>
       </c>
       <c r="H58" s="3">
-        <v>418700</v>
+        <v>84900</v>
       </c>
       <c r="I58" s="3">
-        <v>1204200</v>
+        <v>423500</v>
       </c>
       <c r="J58" s="3">
+        <v>1217700</v>
+      </c>
+      <c r="K58" s="3">
         <v>889500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>169400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>205400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6521300</v>
+        <v>6684400</v>
       </c>
       <c r="E59" s="3">
-        <v>5853000</v>
+        <v>6594700</v>
       </c>
       <c r="F59" s="3">
-        <v>5643600</v>
+        <v>5918800</v>
       </c>
       <c r="G59" s="3">
-        <v>5692100</v>
+        <v>5707100</v>
       </c>
       <c r="H59" s="3">
-        <v>5717000</v>
+        <v>5756100</v>
       </c>
       <c r="I59" s="3">
-        <v>5489800</v>
+        <v>5781200</v>
       </c>
       <c r="J59" s="3">
+        <v>5551600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5220100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2046500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2084700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9755400</v>
+        <v>9264600</v>
       </c>
       <c r="E60" s="3">
-        <v>9016100</v>
+        <v>9865100</v>
       </c>
       <c r="F60" s="3">
-        <v>8775900</v>
+        <v>9117400</v>
       </c>
       <c r="G60" s="3">
-        <v>8170300</v>
+        <v>8874600</v>
       </c>
       <c r="H60" s="3">
-        <v>8445900</v>
+        <v>8262200</v>
       </c>
       <c r="I60" s="3">
-        <v>8785400</v>
+        <v>8540900</v>
       </c>
       <c r="J60" s="3">
+        <v>8884200</v>
+      </c>
+      <c r="K60" s="3">
         <v>8143100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7068500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6923100</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4615700</v>
+        <v>7298000</v>
       </c>
       <c r="E61" s="3">
-        <v>4183900</v>
+        <v>4667600</v>
       </c>
       <c r="F61" s="3">
-        <v>3561700</v>
+        <v>4231000</v>
       </c>
       <c r="G61" s="3">
-        <v>2975000</v>
+        <v>3601800</v>
       </c>
       <c r="H61" s="3">
-        <v>3270700</v>
+        <v>3008400</v>
       </c>
       <c r="I61" s="3">
-        <v>3424500</v>
+        <v>3307500</v>
       </c>
       <c r="J61" s="3">
+        <v>3463000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2241600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2861100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2655200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>970000</v>
+        <v>878000</v>
       </c>
       <c r="E62" s="3">
-        <v>938000</v>
+        <v>980900</v>
       </c>
       <c r="F62" s="3">
-        <v>1033900</v>
+        <v>948600</v>
       </c>
       <c r="G62" s="3">
-        <v>1223100</v>
+        <v>1045500</v>
       </c>
       <c r="H62" s="3">
-        <v>979400</v>
+        <v>1236900</v>
       </c>
       <c r="I62" s="3">
-        <v>1106000</v>
+        <v>990500</v>
       </c>
       <c r="J62" s="3">
+        <v>1118400</v>
+      </c>
+      <c r="K62" s="3">
         <v>992500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>977300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>802900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15390700</v>
+        <v>17458500</v>
       </c>
       <c r="E66" s="3">
-        <v>14191300</v>
+        <v>15563800</v>
       </c>
       <c r="F66" s="3">
-        <v>13411700</v>
+        <v>14350800</v>
       </c>
       <c r="G66" s="3">
-        <v>12408600</v>
+        <v>13562500</v>
       </c>
       <c r="H66" s="3">
-        <v>12736300</v>
+        <v>12548100</v>
       </c>
       <c r="I66" s="3">
-        <v>13353800</v>
+        <v>12879500</v>
       </c>
       <c r="J66" s="3">
+        <v>13503900</v>
+      </c>
+      <c r="K66" s="3">
         <v>11420900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10946100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10416400</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5155100</v>
+        <v>3782400</v>
       </c>
       <c r="E72" s="3">
-        <v>4489100</v>
+        <v>5213000</v>
       </c>
       <c r="F72" s="3">
-        <v>4086900</v>
+        <v>4539600</v>
       </c>
       <c r="G72" s="3">
-        <v>3558200</v>
+        <v>4132900</v>
       </c>
       <c r="H72" s="3">
-        <v>3342900</v>
+        <v>3598200</v>
       </c>
       <c r="I72" s="3">
-        <v>2742000</v>
+        <v>3380500</v>
       </c>
       <c r="J72" s="3">
+        <v>2772800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2486500</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5271000</v>
+        <v>3299100</v>
       </c>
       <c r="E76" s="3">
-        <v>3883500</v>
+        <v>5330300</v>
       </c>
       <c r="F76" s="3">
-        <v>4182700</v>
+        <v>3927100</v>
       </c>
       <c r="G76" s="3">
-        <v>4338900</v>
+        <v>4229800</v>
       </c>
       <c r="H76" s="3">
-        <v>4388600</v>
+        <v>4387700</v>
       </c>
       <c r="I76" s="3">
-        <v>3772300</v>
+        <v>4437900</v>
       </c>
       <c r="J76" s="3">
+        <v>3814700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3493100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3404100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2975600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43708</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43343</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42978</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42613</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42247</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41882</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41517</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41152</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40786</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>786600</v>
+        <v>-376800</v>
       </c>
       <c r="E81" s="3">
-        <v>770100</v>
+        <v>795500</v>
       </c>
       <c r="F81" s="3">
-        <v>855200</v>
+        <v>778700</v>
       </c>
       <c r="G81" s="3">
-        <v>753500</v>
+        <v>864900</v>
       </c>
       <c r="H81" s="3">
-        <v>828000</v>
+        <v>762000</v>
       </c>
       <c r="I81" s="3">
-        <v>579600</v>
+        <v>837300</v>
       </c>
       <c r="J81" s="3">
+        <v>586100</v>
+      </c>
+      <c r="K81" s="3">
         <v>519300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>589000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>529400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>431800</v>
+        <v>1071800</v>
       </c>
       <c r="E83" s="3">
-        <v>375000</v>
+        <v>436600</v>
       </c>
       <c r="F83" s="3">
-        <v>332400</v>
+        <v>379200</v>
       </c>
       <c r="G83" s="3">
-        <v>364300</v>
+        <v>336100</v>
       </c>
       <c r="H83" s="3">
-        <v>327700</v>
+        <v>368400</v>
       </c>
       <c r="I83" s="3">
-        <v>295700</v>
+        <v>331300</v>
       </c>
       <c r="J83" s="3">
+        <v>299100</v>
+      </c>
+      <c r="K83" s="3">
         <v>320600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>396100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>286400</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1499900</v>
+        <v>753600</v>
       </c>
       <c r="E89" s="3">
-        <v>1340200</v>
+        <v>1516800</v>
       </c>
       <c r="F89" s="3">
-        <v>1256200</v>
+        <v>1355300</v>
       </c>
       <c r="G89" s="3">
-        <v>1117800</v>
+        <v>1270400</v>
       </c>
       <c r="H89" s="3">
-        <v>1203000</v>
+        <v>1130400</v>
       </c>
       <c r="I89" s="3">
-        <v>975900</v>
+        <v>1216500</v>
       </c>
       <c r="J89" s="3">
+        <v>986900</v>
+      </c>
+      <c r="K89" s="3">
         <v>731000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1142200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>994200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-473200</v>
+        <v>-476100</v>
       </c>
       <c r="E91" s="3">
-        <v>-389200</v>
+        <v>-478500</v>
       </c>
       <c r="F91" s="3">
-        <v>-365500</v>
+        <v>-393500</v>
       </c>
       <c r="G91" s="3">
-        <v>-408100</v>
+        <v>-369600</v>
       </c>
       <c r="H91" s="3">
-        <v>-357200</v>
+        <v>-412700</v>
       </c>
       <c r="I91" s="3">
-        <v>-289800</v>
+        <v>-361300</v>
       </c>
       <c r="J91" s="3">
+        <v>-293100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-285100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-345600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-284100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-957000</v>
+        <v>-514400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1182900</v>
+        <v>-967700</v>
       </c>
       <c r="F94" s="3">
-        <v>-723900</v>
+        <v>-1196200</v>
       </c>
       <c r="G94" s="3">
-        <v>-573700</v>
+        <v>-732100</v>
       </c>
       <c r="H94" s="3">
-        <v>-447100</v>
+        <v>-580200</v>
       </c>
       <c r="I94" s="3">
-        <v>-398600</v>
+        <v>-452200</v>
       </c>
       <c r="J94" s="3">
+        <v>-403100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-372600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-989600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-272300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-476700</v>
+        <v>-508400</v>
       </c>
       <c r="E96" s="3">
-        <v>-486200</v>
+        <v>-482100</v>
       </c>
       <c r="F96" s="3">
-        <v>-424700</v>
+        <v>-491600</v>
       </c>
       <c r="G96" s="3">
-        <v>-396300</v>
+        <v>-429400</v>
       </c>
       <c r="H96" s="3">
-        <v>-326500</v>
+        <v>-400700</v>
       </c>
       <c r="I96" s="3">
-        <v>-293400</v>
+        <v>-330200</v>
       </c>
       <c r="J96" s="3">
+        <v>-296700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-283900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-248000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-244200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-482600</v>
+        <v>236800</v>
       </c>
       <c r="E100" s="3">
-        <v>-408100</v>
+        <v>-488000</v>
       </c>
       <c r="F100" s="3">
-        <v>380900</v>
+        <v>-412700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1302400</v>
+        <v>385200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1614700</v>
+        <v>-1317000</v>
       </c>
       <c r="I100" s="3">
-        <v>1088300</v>
+        <v>-1632800</v>
       </c>
       <c r="J100" s="3">
+        <v>1100500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-322900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-671400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>68600</v>
+        <v>-147100</v>
       </c>
       <c r="E101" s="3">
-        <v>-153800</v>
+        <v>69400</v>
       </c>
       <c r="F101" s="3">
-        <v>-164400</v>
+        <v>-155500</v>
       </c>
       <c r="G101" s="3">
-        <v>22500</v>
+        <v>-166300</v>
       </c>
       <c r="H101" s="3">
-        <v>9500</v>
+        <v>22700</v>
       </c>
       <c r="I101" s="3">
-        <v>-33100</v>
+        <v>9600</v>
       </c>
       <c r="J101" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-188100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>61700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>128900</v>
+        <v>329000</v>
       </c>
       <c r="E102" s="3">
-        <v>-404600</v>
+        <v>130400</v>
       </c>
       <c r="F102" s="3">
-        <v>748800</v>
+        <v>-409100</v>
       </c>
       <c r="G102" s="3">
-        <v>-735800</v>
+        <v>757200</v>
       </c>
       <c r="H102" s="3">
-        <v>-849300</v>
+        <v>-744000</v>
       </c>
       <c r="I102" s="3">
-        <v>1632400</v>
+        <v>-858900</v>
       </c>
       <c r="J102" s="3">
+        <v>1650800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-152600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-51600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23111800</v>
+        <v>22729200</v>
       </c>
       <c r="E8" s="3">
-        <v>26261400</v>
+        <v>25826700</v>
       </c>
       <c r="F8" s="3">
-        <v>24410900</v>
+        <v>24006800</v>
       </c>
       <c r="G8" s="3">
-        <v>24758900</v>
+        <v>24349100</v>
       </c>
       <c r="H8" s="3">
-        <v>24217100</v>
+        <v>23816200</v>
       </c>
       <c r="I8" s="3">
-        <v>23702700</v>
+        <v>23310400</v>
       </c>
       <c r="J8" s="3">
-        <v>21550700</v>
+        <v>21194000</v>
       </c>
       <c r="K8" s="3">
         <v>21761800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20146400</v>
+        <v>19812900</v>
       </c>
       <c r="E9" s="3">
-        <v>22435900</v>
+        <v>22064600</v>
       </c>
       <c r="F9" s="3">
-        <v>20718200</v>
+        <v>20375200</v>
       </c>
       <c r="G9" s="3">
-        <v>20944300</v>
+        <v>20597600</v>
       </c>
       <c r="H9" s="3">
-        <v>20496900</v>
+        <v>20157600</v>
       </c>
       <c r="I9" s="3">
-        <v>19925100</v>
+        <v>19595300</v>
       </c>
       <c r="J9" s="3">
-        <v>18260000</v>
+        <v>17957700</v>
       </c>
       <c r="K9" s="3">
         <v>18513600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2965400</v>
+        <v>2916300</v>
       </c>
       <c r="E10" s="3">
-        <v>3825400</v>
+        <v>3762100</v>
       </c>
       <c r="F10" s="3">
-        <v>3692700</v>
+        <v>3631500</v>
       </c>
       <c r="G10" s="3">
-        <v>3814700</v>
+        <v>3751500</v>
       </c>
       <c r="H10" s="3">
-        <v>3720200</v>
+        <v>3658600</v>
       </c>
       <c r="I10" s="3">
-        <v>3777600</v>
+        <v>3715100</v>
       </c>
       <c r="J10" s="3">
-        <v>3290700</v>
+        <v>3236300</v>
       </c>
       <c r="K10" s="3">
         <v>3248200</v>
@@ -916,16 +916,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>537100</v>
+        <v>528200</v>
       </c>
       <c r="E14" s="3">
-        <v>68200</v>
+        <v>67100</v>
       </c>
       <c r="F14" s="3">
-        <v>95700</v>
+        <v>94100</v>
       </c>
       <c r="G14" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -952,13 +952,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28700</v>
+        <v>28200</v>
       </c>
       <c r="E15" s="3">
-        <v>101700</v>
+        <v>100000</v>
       </c>
       <c r="F15" s="3">
-        <v>58600</v>
+        <v>57600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23034000</v>
+        <v>22652800</v>
       </c>
       <c r="E17" s="3">
-        <v>24994600</v>
+        <v>24580900</v>
       </c>
       <c r="F17" s="3">
-        <v>23218200</v>
+        <v>22833900</v>
       </c>
       <c r="G17" s="3">
-        <v>23349800</v>
+        <v>22963300</v>
       </c>
       <c r="H17" s="3">
-        <v>22907200</v>
+        <v>22528100</v>
       </c>
       <c r="I17" s="3">
-        <v>22343800</v>
+        <v>21974000</v>
       </c>
       <c r="J17" s="3">
-        <v>20434700</v>
+        <v>20096400</v>
       </c>
       <c r="K17" s="3">
         <v>20798900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>77800</v>
+        <v>76500</v>
       </c>
       <c r="E18" s="3">
-        <v>1266800</v>
+        <v>1245800</v>
       </c>
       <c r="F18" s="3">
-        <v>1192600</v>
+        <v>1172900</v>
       </c>
       <c r="G18" s="3">
-        <v>1409100</v>
+        <v>1385800</v>
       </c>
       <c r="H18" s="3">
-        <v>1309800</v>
+        <v>1288200</v>
       </c>
       <c r="I18" s="3">
-        <v>1358900</v>
+        <v>1336400</v>
       </c>
       <c r="J18" s="3">
-        <v>1116100</v>
+        <v>1097600</v>
       </c>
       <c r="K18" s="3">
         <v>962900</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-167500</v>
+        <v>-164700</v>
       </c>
       <c r="E20" s="3">
-        <v>29900</v>
+        <v>29400</v>
       </c>
       <c r="F20" s="3">
-        <v>26300</v>
+        <v>25900</v>
       </c>
       <c r="G20" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>68200</v>
+        <v>67100</v>
       </c>
       <c r="J20" s="3">
         <v>-2400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>977700</v>
+        <v>970100</v>
       </c>
       <c r="E21" s="3">
-        <v>1731500</v>
+        <v>1706400</v>
       </c>
       <c r="F21" s="3">
-        <v>1596600</v>
+        <v>1573200</v>
       </c>
       <c r="G21" s="3">
-        <v>1748700</v>
+        <v>1722400</v>
       </c>
       <c r="H21" s="3">
-        <v>1676800</v>
+        <v>1652000</v>
       </c>
       <c r="I21" s="3">
-        <v>1757100</v>
+        <v>1730600</v>
       </c>
       <c r="J21" s="3">
-        <v>1411500</v>
+        <v>1390500</v>
       </c>
       <c r="K21" s="3">
         <v>1329700</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>174600</v>
+        <v>171800</v>
       </c>
       <c r="E22" s="3">
-        <v>144700</v>
+        <v>142300</v>
       </c>
       <c r="F22" s="3">
-        <v>131600</v>
+        <v>129400</v>
       </c>
       <c r="G22" s="3">
-        <v>112400</v>
+        <v>110600</v>
       </c>
       <c r="H22" s="3">
-        <v>124400</v>
+        <v>122300</v>
       </c>
       <c r="I22" s="3">
-        <v>179400</v>
+        <v>176500</v>
       </c>
       <c r="J22" s="3">
-        <v>187800</v>
+        <v>184700</v>
       </c>
       <c r="K22" s="3">
         <v>186900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-264400</v>
+        <v>-260000</v>
       </c>
       <c r="E23" s="3">
-        <v>1151900</v>
+        <v>1132900</v>
       </c>
       <c r="F23" s="3">
-        <v>1087300</v>
+        <v>1069300</v>
       </c>
       <c r="G23" s="3">
-        <v>1301500</v>
+        <v>1279900</v>
       </c>
       <c r="H23" s="3">
-        <v>1185400</v>
+        <v>1165800</v>
       </c>
       <c r="I23" s="3">
-        <v>1247600</v>
+        <v>1227000</v>
       </c>
       <c r="J23" s="3">
-        <v>925900</v>
+        <v>910500</v>
       </c>
       <c r="K23" s="3">
         <v>822100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117200</v>
+        <v>115300</v>
       </c>
       <c r="E24" s="3">
-        <v>331300</v>
+        <v>325900</v>
       </c>
       <c r="F24" s="3">
-        <v>293100</v>
+        <v>288200</v>
       </c>
       <c r="G24" s="3">
-        <v>410300</v>
+        <v>403500</v>
       </c>
       <c r="H24" s="3">
-        <v>394700</v>
+        <v>388200</v>
       </c>
       <c r="I24" s="3">
-        <v>382800</v>
+        <v>376400</v>
       </c>
       <c r="J24" s="3">
-        <v>317000</v>
+        <v>311700</v>
       </c>
       <c r="K24" s="3">
         <v>275600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-381600</v>
+        <v>-375300</v>
       </c>
       <c r="E26" s="3">
-        <v>820600</v>
+        <v>807000</v>
       </c>
       <c r="F26" s="3">
-        <v>794300</v>
+        <v>781100</v>
       </c>
       <c r="G26" s="3">
-        <v>891200</v>
+        <v>876400</v>
       </c>
       <c r="H26" s="3">
-        <v>790700</v>
+        <v>777600</v>
       </c>
       <c r="I26" s="3">
-        <v>864900</v>
+        <v>850500</v>
       </c>
       <c r="J26" s="3">
-        <v>608900</v>
+        <v>598800</v>
       </c>
       <c r="K26" s="3">
         <v>546500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-376800</v>
+        <v>-370600</v>
       </c>
       <c r="E27" s="3">
-        <v>795500</v>
+        <v>782300</v>
       </c>
       <c r="F27" s="3">
-        <v>778700</v>
+        <v>765800</v>
       </c>
       <c r="G27" s="3">
-        <v>864900</v>
+        <v>850500</v>
       </c>
       <c r="H27" s="3">
-        <v>762000</v>
+        <v>749400</v>
       </c>
       <c r="I27" s="3">
-        <v>837300</v>
+        <v>823500</v>
       </c>
       <c r="J27" s="3">
-        <v>586100</v>
+        <v>576400</v>
       </c>
       <c r="K27" s="3">
         <v>519300</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>167500</v>
+        <v>164700</v>
       </c>
       <c r="E32" s="3">
-        <v>-29900</v>
+        <v>-29400</v>
       </c>
       <c r="F32" s="3">
-        <v>-26300</v>
+        <v>-25900</v>
       </c>
       <c r="G32" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-68200</v>
+        <v>-67100</v>
       </c>
       <c r="J32" s="3">
         <v>2400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-376800</v>
+        <v>-370600</v>
       </c>
       <c r="E33" s="3">
-        <v>795500</v>
+        <v>782300</v>
       </c>
       <c r="F33" s="3">
-        <v>778700</v>
+        <v>765800</v>
       </c>
       <c r="G33" s="3">
-        <v>864900</v>
+        <v>850500</v>
       </c>
       <c r="H33" s="3">
-        <v>762000</v>
+        <v>749400</v>
       </c>
       <c r="I33" s="3">
-        <v>837300</v>
+        <v>823500</v>
       </c>
       <c r="J33" s="3">
-        <v>586100</v>
+        <v>576400</v>
       </c>
       <c r="K33" s="3">
         <v>519300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-376800</v>
+        <v>-370600</v>
       </c>
       <c r="E35" s="3">
-        <v>795500</v>
+        <v>782300</v>
       </c>
       <c r="F35" s="3">
-        <v>778700</v>
+        <v>765800</v>
       </c>
       <c r="G35" s="3">
-        <v>864900</v>
+        <v>850500</v>
       </c>
       <c r="H35" s="3">
-        <v>762000</v>
+        <v>749400</v>
       </c>
       <c r="I35" s="3">
-        <v>837300</v>
+        <v>823500</v>
       </c>
       <c r="J35" s="3">
-        <v>586100</v>
+        <v>576400</v>
       </c>
       <c r="K35" s="3">
         <v>519300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2001200</v>
+        <v>1968100</v>
       </c>
       <c r="E41" s="3">
-        <v>1683100</v>
+        <v>1655200</v>
       </c>
       <c r="F41" s="3">
-        <v>1556300</v>
+        <v>1530500</v>
       </c>
       <c r="G41" s="3">
-        <v>1911500</v>
+        <v>1879900</v>
       </c>
       <c r="H41" s="3">
-        <v>1222500</v>
+        <v>1202300</v>
       </c>
       <c r="I41" s="3">
-        <v>1977300</v>
+        <v>1944600</v>
       </c>
       <c r="J41" s="3">
-        <v>2351700</v>
+        <v>2312800</v>
       </c>
       <c r="K41" s="3">
         <v>1080000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>471300</v>
+        <v>463500</v>
       </c>
       <c r="E42" s="3">
-        <v>516800</v>
+        <v>508200</v>
       </c>
       <c r="F42" s="3">
-        <v>479700</v>
+        <v>471700</v>
       </c>
       <c r="G42" s="3">
-        <v>540700</v>
+        <v>531700</v>
       </c>
       <c r="H42" s="3">
-        <v>474900</v>
+        <v>467000</v>
       </c>
       <c r="I42" s="3">
-        <v>453400</v>
+        <v>445900</v>
       </c>
       <c r="J42" s="3">
-        <v>945000</v>
+        <v>929400</v>
       </c>
       <c r="K42" s="3">
         <v>521700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4760900</v>
+        <v>4682100</v>
       </c>
       <c r="E43" s="3">
-        <v>5329100</v>
+        <v>5240900</v>
       </c>
       <c r="F43" s="3">
-        <v>4886500</v>
+        <v>4805600</v>
       </c>
       <c r="G43" s="3">
-        <v>4839800</v>
+        <v>4759700</v>
       </c>
       <c r="H43" s="3">
-        <v>4801500</v>
+        <v>4722100</v>
       </c>
       <c r="I43" s="3">
-        <v>4607800</v>
+        <v>4531500</v>
       </c>
       <c r="J43" s="3">
-        <v>4398400</v>
+        <v>4325600</v>
       </c>
       <c r="K43" s="3">
         <v>4098700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>309800</v>
+        <v>304700</v>
       </c>
       <c r="E44" s="3">
-        <v>351700</v>
+        <v>345900</v>
       </c>
       <c r="F44" s="3">
-        <v>334900</v>
+        <v>329400</v>
       </c>
       <c r="G44" s="3">
-        <v>307400</v>
+        <v>302300</v>
       </c>
       <c r="H44" s="3">
-        <v>320600</v>
+        <v>315300</v>
       </c>
       <c r="I44" s="3">
-        <v>323000</v>
+        <v>317600</v>
       </c>
       <c r="J44" s="3">
-        <v>317000</v>
+        <v>311700</v>
       </c>
       <c r="K44" s="3">
         <v>320600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1575400</v>
+        <v>1549300</v>
       </c>
       <c r="E45" s="3">
-        <v>1703400</v>
+        <v>1675200</v>
       </c>
       <c r="F45" s="3">
-        <v>1518000</v>
+        <v>1492900</v>
       </c>
       <c r="G45" s="3">
-        <v>1321800</v>
+        <v>1299900</v>
       </c>
       <c r="H45" s="3">
-        <v>1147200</v>
+        <v>1128200</v>
       </c>
       <c r="I45" s="3">
-        <v>1183000</v>
+        <v>1163500</v>
       </c>
       <c r="J45" s="3">
-        <v>1110100</v>
+        <v>1091700</v>
       </c>
       <c r="K45" s="3">
         <v>1056300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9118600</v>
+        <v>8967700</v>
       </c>
       <c r="E46" s="3">
-        <v>9584000</v>
+        <v>9425300</v>
       </c>
       <c r="F46" s="3">
-        <v>8775300</v>
+        <v>8630100</v>
       </c>
       <c r="G46" s="3">
-        <v>8921300</v>
+        <v>8773600</v>
       </c>
       <c r="H46" s="3">
-        <v>7966700</v>
+        <v>7834800</v>
       </c>
       <c r="I46" s="3">
-        <v>8544500</v>
+        <v>8403000</v>
       </c>
       <c r="J46" s="3">
-        <v>9122200</v>
+        <v>8971200</v>
       </c>
       <c r="K46" s="3">
         <v>7077300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1478500</v>
+        <v>1454000</v>
       </c>
       <c r="E47" s="3">
-        <v>2018000</v>
+        <v>1984600</v>
       </c>
       <c r="F47" s="3">
-        <v>994000</v>
+        <v>977600</v>
       </c>
       <c r="G47" s="3">
-        <v>955800</v>
+        <v>939900</v>
       </c>
       <c r="H47" s="3">
-        <v>935400</v>
+        <v>919900</v>
       </c>
       <c r="I47" s="3">
-        <v>811000</v>
+        <v>797600</v>
       </c>
       <c r="J47" s="3">
-        <v>649500</v>
+        <v>638800</v>
       </c>
       <c r="K47" s="3">
         <v>572500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2257200</v>
+        <v>2219900</v>
       </c>
       <c r="E48" s="3">
-        <v>818200</v>
+        <v>804700</v>
       </c>
       <c r="F48" s="3">
-        <v>740400</v>
+        <v>728200</v>
       </c>
       <c r="G48" s="3">
-        <v>705800</v>
+        <v>694100</v>
       </c>
       <c r="H48" s="3">
-        <v>722500</v>
+        <v>710500</v>
       </c>
       <c r="I48" s="3">
-        <v>710500</v>
+        <v>698800</v>
       </c>
       <c r="J48" s="3">
-        <v>663900</v>
+        <v>652900</v>
       </c>
       <c r="K48" s="3">
         <v>638800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7699900</v>
+        <v>7572500</v>
       </c>
       <c r="E49" s="3">
-        <v>8324400</v>
+        <v>8186600</v>
       </c>
       <c r="F49" s="3">
-        <v>7617400</v>
+        <v>7491300</v>
       </c>
       <c r="G49" s="3">
-        <v>6960700</v>
+        <v>6845500</v>
       </c>
       <c r="H49" s="3">
-        <v>6932000</v>
+        <v>6817200</v>
       </c>
       <c r="I49" s="3">
-        <v>6943900</v>
+        <v>6829000</v>
       </c>
       <c r="J49" s="3">
-        <v>6573100</v>
+        <v>6464300</v>
       </c>
       <c r="K49" s="3">
         <v>6306000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>203400</v>
+        <v>200000</v>
       </c>
       <c r="E52" s="3">
-        <v>149500</v>
+        <v>147000</v>
       </c>
       <c r="F52" s="3">
-        <v>150700</v>
+        <v>148200</v>
       </c>
       <c r="G52" s="3">
-        <v>248800</v>
+        <v>244700</v>
       </c>
       <c r="H52" s="3">
-        <v>379200</v>
+        <v>372900</v>
       </c>
       <c r="I52" s="3">
-        <v>307400</v>
+        <v>302300</v>
       </c>
       <c r="J52" s="3">
-        <v>309800</v>
+        <v>304700</v>
       </c>
       <c r="K52" s="3">
         <v>319400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20757700</v>
+        <v>20414100</v>
       </c>
       <c r="E54" s="3">
-        <v>20894000</v>
+        <v>20548200</v>
       </c>
       <c r="F54" s="3">
-        <v>18277900</v>
+        <v>17975400</v>
       </c>
       <c r="G54" s="3">
-        <v>17792300</v>
+        <v>17497800</v>
       </c>
       <c r="H54" s="3">
-        <v>16935800</v>
+        <v>16655500</v>
       </c>
       <c r="I54" s="3">
-        <v>17317400</v>
+        <v>17030700</v>
       </c>
       <c r="J54" s="3">
-        <v>17318600</v>
+        <v>17031900</v>
       </c>
       <c r="K54" s="3">
         <v>14914000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2271600</v>
+        <v>2234000</v>
       </c>
       <c r="E57" s="3">
-        <v>3010800</v>
+        <v>2961000</v>
       </c>
       <c r="F57" s="3">
-        <v>2662700</v>
+        <v>2618700</v>
       </c>
       <c r="G57" s="3">
-        <v>2526400</v>
+        <v>2484600</v>
       </c>
       <c r="H57" s="3">
-        <v>2421100</v>
+        <v>2381000</v>
       </c>
       <c r="I57" s="3">
-        <v>2336200</v>
+        <v>2297500</v>
       </c>
       <c r="J57" s="3">
-        <v>2114900</v>
+        <v>2079900</v>
       </c>
       <c r="K57" s="3">
         <v>2033400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>308600</v>
+        <v>303500</v>
       </c>
       <c r="E58" s="3">
-        <v>259600</v>
+        <v>255300</v>
       </c>
       <c r="F58" s="3">
-        <v>535900</v>
+        <v>527000</v>
       </c>
       <c r="G58" s="3">
-        <v>641200</v>
+        <v>630600</v>
       </c>
       <c r="H58" s="3">
-        <v>84900</v>
+        <v>83500</v>
       </c>
       <c r="I58" s="3">
-        <v>423500</v>
+        <v>416400</v>
       </c>
       <c r="J58" s="3">
-        <v>1217700</v>
+        <v>1197600</v>
       </c>
       <c r="K58" s="3">
         <v>889500</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6684400</v>
+        <v>6573700</v>
       </c>
       <c r="E59" s="3">
-        <v>6594700</v>
+        <v>6485500</v>
       </c>
       <c r="F59" s="3">
-        <v>5918800</v>
+        <v>5820800</v>
       </c>
       <c r="G59" s="3">
-        <v>5707100</v>
+        <v>5612600</v>
       </c>
       <c r="H59" s="3">
-        <v>5756100</v>
+        <v>5660800</v>
       </c>
       <c r="I59" s="3">
-        <v>5781200</v>
+        <v>5685500</v>
       </c>
       <c r="J59" s="3">
-        <v>5551600</v>
+        <v>5459700</v>
       </c>
       <c r="K59" s="3">
         <v>5220100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9264600</v>
+        <v>9111200</v>
       </c>
       <c r="E60" s="3">
-        <v>9865100</v>
+        <v>9701800</v>
       </c>
       <c r="F60" s="3">
-        <v>9117400</v>
+        <v>8966500</v>
       </c>
       <c r="G60" s="3">
-        <v>8874600</v>
+        <v>8727700</v>
       </c>
       <c r="H60" s="3">
-        <v>8262200</v>
+        <v>8125400</v>
       </c>
       <c r="I60" s="3">
-        <v>8540900</v>
+        <v>8399500</v>
       </c>
       <c r="J60" s="3">
-        <v>8884200</v>
+        <v>8737100</v>
       </c>
       <c r="K60" s="3">
         <v>8143100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7298000</v>
+        <v>7177200</v>
       </c>
       <c r="E61" s="3">
-        <v>4667600</v>
+        <v>4590300</v>
       </c>
       <c r="F61" s="3">
-        <v>4231000</v>
+        <v>4160900</v>
       </c>
       <c r="G61" s="3">
-        <v>3601800</v>
+        <v>3542100</v>
       </c>
       <c r="H61" s="3">
-        <v>3008400</v>
+        <v>2958600</v>
       </c>
       <c r="I61" s="3">
-        <v>3307500</v>
+        <v>3252700</v>
       </c>
       <c r="J61" s="3">
-        <v>3463000</v>
+        <v>3405700</v>
       </c>
       <c r="K61" s="3">
         <v>2241600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>878000</v>
+        <v>863500</v>
       </c>
       <c r="E62" s="3">
-        <v>980900</v>
+        <v>964600</v>
       </c>
       <c r="F62" s="3">
-        <v>948600</v>
+        <v>932900</v>
       </c>
       <c r="G62" s="3">
-        <v>1045500</v>
+        <v>1028200</v>
       </c>
       <c r="H62" s="3">
-        <v>1236900</v>
+        <v>1216400</v>
       </c>
       <c r="I62" s="3">
-        <v>990500</v>
+        <v>974100</v>
       </c>
       <c r="J62" s="3">
-        <v>1118400</v>
+        <v>1099900</v>
       </c>
       <c r="K62" s="3">
         <v>992500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17458500</v>
+        <v>17169600</v>
       </c>
       <c r="E66" s="3">
-        <v>15563800</v>
+        <v>15306100</v>
       </c>
       <c r="F66" s="3">
-        <v>14350800</v>
+        <v>14113300</v>
       </c>
       <c r="G66" s="3">
-        <v>13562500</v>
+        <v>13338000</v>
       </c>
       <c r="H66" s="3">
-        <v>12548100</v>
+        <v>12340400</v>
       </c>
       <c r="I66" s="3">
-        <v>12879500</v>
+        <v>12666300</v>
       </c>
       <c r="J66" s="3">
-        <v>13503900</v>
+        <v>13280400</v>
       </c>
       <c r="K66" s="3">
         <v>11420900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3782400</v>
+        <v>3719800</v>
       </c>
       <c r="E72" s="3">
-        <v>5213000</v>
+        <v>5126800</v>
       </c>
       <c r="F72" s="3">
-        <v>4539600</v>
+        <v>4464400</v>
       </c>
       <c r="G72" s="3">
-        <v>4132900</v>
+        <v>4064500</v>
       </c>
       <c r="H72" s="3">
-        <v>3598200</v>
+        <v>3538600</v>
       </c>
       <c r="I72" s="3">
-        <v>3380500</v>
+        <v>3324500</v>
       </c>
       <c r="J72" s="3">
-        <v>2772800</v>
+        <v>2726900</v>
       </c>
       <c r="K72" s="3">
         <v>2486500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3299100</v>
+        <v>3244500</v>
       </c>
       <c r="E76" s="3">
-        <v>5330300</v>
+        <v>5242000</v>
       </c>
       <c r="F76" s="3">
-        <v>3927100</v>
+        <v>3862100</v>
       </c>
       <c r="G76" s="3">
-        <v>4229800</v>
+        <v>4159800</v>
       </c>
       <c r="H76" s="3">
-        <v>4387700</v>
+        <v>4315000</v>
       </c>
       <c r="I76" s="3">
-        <v>4437900</v>
+        <v>4364400</v>
       </c>
       <c r="J76" s="3">
-        <v>3814700</v>
+        <v>3751500</v>
       </c>
       <c r="K76" s="3">
         <v>3493100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-376800</v>
+        <v>-370600</v>
       </c>
       <c r="E81" s="3">
-        <v>795500</v>
+        <v>782300</v>
       </c>
       <c r="F81" s="3">
-        <v>778700</v>
+        <v>765800</v>
       </c>
       <c r="G81" s="3">
-        <v>864900</v>
+        <v>850500</v>
       </c>
       <c r="H81" s="3">
-        <v>762000</v>
+        <v>749400</v>
       </c>
       <c r="I81" s="3">
-        <v>837300</v>
+        <v>823500</v>
       </c>
       <c r="J81" s="3">
-        <v>586100</v>
+        <v>576400</v>
       </c>
       <c r="K81" s="3">
         <v>519300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1071800</v>
+        <v>1054100</v>
       </c>
       <c r="E83" s="3">
-        <v>436600</v>
+        <v>429400</v>
       </c>
       <c r="F83" s="3">
-        <v>379200</v>
+        <v>372900</v>
       </c>
       <c r="G83" s="3">
-        <v>336100</v>
+        <v>330600</v>
       </c>
       <c r="H83" s="3">
-        <v>368400</v>
+        <v>362300</v>
       </c>
       <c r="I83" s="3">
-        <v>331300</v>
+        <v>325900</v>
       </c>
       <c r="J83" s="3">
-        <v>299100</v>
+        <v>294100</v>
       </c>
       <c r="K83" s="3">
         <v>320600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>753600</v>
+        <v>741100</v>
       </c>
       <c r="E89" s="3">
-        <v>1516800</v>
+        <v>1491700</v>
       </c>
       <c r="F89" s="3">
-        <v>1355300</v>
+        <v>1332900</v>
       </c>
       <c r="G89" s="3">
-        <v>1270400</v>
+        <v>1249300</v>
       </c>
       <c r="H89" s="3">
-        <v>1130400</v>
+        <v>1111700</v>
       </c>
       <c r="I89" s="3">
-        <v>1216500</v>
+        <v>1196400</v>
       </c>
       <c r="J89" s="3">
-        <v>986900</v>
+        <v>970500</v>
       </c>
       <c r="K89" s="3">
         <v>731000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-476100</v>
+        <v>-468200</v>
       </c>
       <c r="E91" s="3">
-        <v>-478500</v>
+        <v>-470600</v>
       </c>
       <c r="F91" s="3">
-        <v>-393500</v>
+        <v>-387000</v>
       </c>
       <c r="G91" s="3">
-        <v>-369600</v>
+        <v>-363500</v>
       </c>
       <c r="H91" s="3">
-        <v>-412700</v>
+        <v>-405900</v>
       </c>
       <c r="I91" s="3">
-        <v>-361300</v>
+        <v>-355300</v>
       </c>
       <c r="J91" s="3">
-        <v>-293100</v>
+        <v>-288200</v>
       </c>
       <c r="K91" s="3">
         <v>-285100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-514400</v>
+        <v>-505900</v>
       </c>
       <c r="E94" s="3">
-        <v>-967700</v>
+        <v>-951700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1196200</v>
+        <v>-1176400</v>
       </c>
       <c r="G94" s="3">
-        <v>-732100</v>
+        <v>-720000</v>
       </c>
       <c r="H94" s="3">
-        <v>-580200</v>
+        <v>-570600</v>
       </c>
       <c r="I94" s="3">
-        <v>-452200</v>
+        <v>-444700</v>
       </c>
       <c r="J94" s="3">
-        <v>-403100</v>
+        <v>-396400</v>
       </c>
       <c r="K94" s="3">
         <v>-372600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-508400</v>
+        <v>-500000</v>
       </c>
       <c r="E96" s="3">
-        <v>-482100</v>
+        <v>-474100</v>
       </c>
       <c r="F96" s="3">
-        <v>-491600</v>
+        <v>-483500</v>
       </c>
       <c r="G96" s="3">
-        <v>-429400</v>
+        <v>-422300</v>
       </c>
       <c r="H96" s="3">
-        <v>-400700</v>
+        <v>-394100</v>
       </c>
       <c r="I96" s="3">
-        <v>-330200</v>
+        <v>-324700</v>
       </c>
       <c r="J96" s="3">
-        <v>-296700</v>
+        <v>-291700</v>
       </c>
       <c r="K96" s="3">
         <v>-283900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>236800</v>
+        <v>232900</v>
       </c>
       <c r="E100" s="3">
-        <v>-488000</v>
+        <v>-480000</v>
       </c>
       <c r="F100" s="3">
-        <v>-412700</v>
+        <v>-405900</v>
       </c>
       <c r="G100" s="3">
-        <v>385200</v>
+        <v>378800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1317000</v>
+        <v>-1295200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1632800</v>
+        <v>-1605800</v>
       </c>
       <c r="J100" s="3">
-        <v>1100500</v>
+        <v>1082300</v>
       </c>
       <c r="K100" s="3">
         <v>-322900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-147100</v>
+        <v>-144700</v>
       </c>
       <c r="E101" s="3">
-        <v>69400</v>
+        <v>68200</v>
       </c>
       <c r="F101" s="3">
-        <v>-155500</v>
+        <v>-152900</v>
       </c>
       <c r="G101" s="3">
-        <v>-166300</v>
+        <v>-163500</v>
       </c>
       <c r="H101" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="I101" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="J101" s="3">
-        <v>-33500</v>
+        <v>-32900</v>
       </c>
       <c r="K101" s="3">
         <v>-188100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>329000</v>
+        <v>323500</v>
       </c>
       <c r="E102" s="3">
-        <v>130400</v>
+        <v>128200</v>
       </c>
       <c r="F102" s="3">
-        <v>-409100</v>
+        <v>-402300</v>
       </c>
       <c r="G102" s="3">
-        <v>757200</v>
+        <v>744700</v>
       </c>
       <c r="H102" s="3">
-        <v>-744000</v>
+        <v>-731700</v>
       </c>
       <c r="I102" s="3">
-        <v>-858900</v>
+        <v>-844700</v>
       </c>
       <c r="J102" s="3">
-        <v>1650800</v>
+        <v>1623400</v>
       </c>
       <c r="K102" s="3">
         <v>-152600</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22729200</v>
+        <v>23668000</v>
       </c>
       <c r="E8" s="3">
-        <v>25826700</v>
+        <v>26893400</v>
       </c>
       <c r="F8" s="3">
-        <v>24006800</v>
+        <v>24998400</v>
       </c>
       <c r="G8" s="3">
-        <v>24349100</v>
+        <v>25354800</v>
       </c>
       <c r="H8" s="3">
-        <v>23816200</v>
+        <v>24799900</v>
       </c>
       <c r="I8" s="3">
-        <v>23310400</v>
+        <v>24273200</v>
       </c>
       <c r="J8" s="3">
-        <v>21194000</v>
+        <v>22069400</v>
       </c>
       <c r="K8" s="3">
         <v>21761800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19812900</v>
+        <v>20631300</v>
       </c>
       <c r="E9" s="3">
-        <v>22064600</v>
+        <v>22975900</v>
       </c>
       <c r="F9" s="3">
-        <v>20375200</v>
+        <v>21216800</v>
       </c>
       <c r="G9" s="3">
-        <v>20597600</v>
+        <v>21448300</v>
       </c>
       <c r="H9" s="3">
-        <v>20157600</v>
+        <v>20990200</v>
       </c>
       <c r="I9" s="3">
-        <v>19595300</v>
+        <v>20404700</v>
       </c>
       <c r="J9" s="3">
-        <v>17957700</v>
+        <v>18699500</v>
       </c>
       <c r="K9" s="3">
         <v>18513600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2916300</v>
+        <v>3036800</v>
       </c>
       <c r="E10" s="3">
-        <v>3762100</v>
+        <v>3917500</v>
       </c>
       <c r="F10" s="3">
-        <v>3631500</v>
+        <v>3781500</v>
       </c>
       <c r="G10" s="3">
-        <v>3751500</v>
+        <v>3906500</v>
       </c>
       <c r="H10" s="3">
-        <v>3658600</v>
+        <v>3809700</v>
       </c>
       <c r="I10" s="3">
-        <v>3715100</v>
+        <v>3868500</v>
       </c>
       <c r="J10" s="3">
-        <v>3236300</v>
+        <v>3369900</v>
       </c>
       <c r="K10" s="3">
         <v>3248200</v>
@@ -916,16 +916,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>528200</v>
+        <v>550000</v>
       </c>
       <c r="E14" s="3">
-        <v>67100</v>
+        <v>69800</v>
       </c>
       <c r="F14" s="3">
-        <v>94100</v>
+        <v>98000</v>
       </c>
       <c r="G14" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -952,13 +952,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28200</v>
+        <v>29400</v>
       </c>
       <c r="E15" s="3">
-        <v>100000</v>
+        <v>104100</v>
       </c>
       <c r="F15" s="3">
-        <v>57600</v>
+        <v>60000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22652800</v>
+        <v>23588400</v>
       </c>
       <c r="E17" s="3">
-        <v>24580900</v>
+        <v>25596200</v>
       </c>
       <c r="F17" s="3">
-        <v>22833900</v>
+        <v>23777100</v>
       </c>
       <c r="G17" s="3">
-        <v>22963300</v>
+        <v>23911800</v>
       </c>
       <c r="H17" s="3">
-        <v>22528100</v>
+        <v>23458600</v>
       </c>
       <c r="I17" s="3">
-        <v>21974000</v>
+        <v>22881600</v>
       </c>
       <c r="J17" s="3">
-        <v>20096400</v>
+        <v>20926500</v>
       </c>
       <c r="K17" s="3">
         <v>20798900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>76500</v>
+        <v>79600</v>
       </c>
       <c r="E18" s="3">
-        <v>1245800</v>
+        <v>1297300</v>
       </c>
       <c r="F18" s="3">
-        <v>1172900</v>
+        <v>1221300</v>
       </c>
       <c r="G18" s="3">
-        <v>1385800</v>
+        <v>1443000</v>
       </c>
       <c r="H18" s="3">
-        <v>1288200</v>
+        <v>1341400</v>
       </c>
       <c r="I18" s="3">
-        <v>1336400</v>
+        <v>1391600</v>
       </c>
       <c r="J18" s="3">
-        <v>1097600</v>
+        <v>1142900</v>
       </c>
       <c r="K18" s="3">
         <v>962900</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-164700</v>
+        <v>-171500</v>
       </c>
       <c r="E20" s="3">
-        <v>29400</v>
+        <v>30600</v>
       </c>
       <c r="F20" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="G20" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>67100</v>
+        <v>69800</v>
       </c>
       <c r="J20" s="3">
         <v>-2400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>970100</v>
+        <v>1002600</v>
       </c>
       <c r="E21" s="3">
-        <v>1706400</v>
+        <v>1773700</v>
       </c>
       <c r="F21" s="3">
-        <v>1573200</v>
+        <v>1635500</v>
       </c>
       <c r="G21" s="3">
-        <v>1722400</v>
+        <v>1791200</v>
       </c>
       <c r="H21" s="3">
-        <v>1652000</v>
+        <v>1717600</v>
       </c>
       <c r="I21" s="3">
-        <v>1730600</v>
+        <v>1799800</v>
       </c>
       <c r="J21" s="3">
-        <v>1390500</v>
+        <v>1445800</v>
       </c>
       <c r="K21" s="3">
         <v>1329700</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>171800</v>
+        <v>178800</v>
       </c>
       <c r="E22" s="3">
-        <v>142300</v>
+        <v>148200</v>
       </c>
       <c r="F22" s="3">
-        <v>129400</v>
+        <v>134700</v>
       </c>
       <c r="G22" s="3">
-        <v>110600</v>
+        <v>115100</v>
       </c>
       <c r="H22" s="3">
-        <v>122300</v>
+        <v>127400</v>
       </c>
       <c r="I22" s="3">
-        <v>176500</v>
+        <v>183700</v>
       </c>
       <c r="J22" s="3">
-        <v>184700</v>
+        <v>192300</v>
       </c>
       <c r="K22" s="3">
         <v>186900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-260000</v>
+        <v>-270700</v>
       </c>
       <c r="E23" s="3">
-        <v>1132900</v>
+        <v>1179700</v>
       </c>
       <c r="F23" s="3">
-        <v>1069300</v>
+        <v>1113500</v>
       </c>
       <c r="G23" s="3">
-        <v>1279900</v>
+        <v>1332800</v>
       </c>
       <c r="H23" s="3">
-        <v>1165800</v>
+        <v>1214000</v>
       </c>
       <c r="I23" s="3">
-        <v>1227000</v>
+        <v>1277700</v>
       </c>
       <c r="J23" s="3">
-        <v>910500</v>
+        <v>948100</v>
       </c>
       <c r="K23" s="3">
         <v>822100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115300</v>
+        <v>120000</v>
       </c>
       <c r="E24" s="3">
-        <v>325900</v>
+        <v>339300</v>
       </c>
       <c r="F24" s="3">
-        <v>288200</v>
+        <v>300100</v>
       </c>
       <c r="G24" s="3">
-        <v>403500</v>
+        <v>420200</v>
       </c>
       <c r="H24" s="3">
-        <v>388200</v>
+        <v>404200</v>
       </c>
       <c r="I24" s="3">
-        <v>376400</v>
+        <v>392000</v>
       </c>
       <c r="J24" s="3">
-        <v>311700</v>
+        <v>324600</v>
       </c>
       <c r="K24" s="3">
         <v>275600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-375300</v>
+        <v>-390800</v>
       </c>
       <c r="E26" s="3">
-        <v>807000</v>
+        <v>840300</v>
       </c>
       <c r="F26" s="3">
-        <v>781100</v>
+        <v>813400</v>
       </c>
       <c r="G26" s="3">
-        <v>876400</v>
+        <v>912600</v>
       </c>
       <c r="H26" s="3">
-        <v>777600</v>
+        <v>809700</v>
       </c>
       <c r="I26" s="3">
-        <v>850500</v>
+        <v>885700</v>
       </c>
       <c r="J26" s="3">
-        <v>598800</v>
+        <v>623500</v>
       </c>
       <c r="K26" s="3">
         <v>546500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-370600</v>
+        <v>-385900</v>
       </c>
       <c r="E27" s="3">
-        <v>782300</v>
+        <v>814600</v>
       </c>
       <c r="F27" s="3">
-        <v>765800</v>
+        <v>797500</v>
       </c>
       <c r="G27" s="3">
-        <v>850500</v>
+        <v>885700</v>
       </c>
       <c r="H27" s="3">
-        <v>749400</v>
+        <v>780300</v>
       </c>
       <c r="I27" s="3">
-        <v>823500</v>
+        <v>857500</v>
       </c>
       <c r="J27" s="3">
-        <v>576400</v>
+        <v>600200</v>
       </c>
       <c r="K27" s="3">
         <v>519300</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>164700</v>
+        <v>171500</v>
       </c>
       <c r="E32" s="3">
-        <v>-29400</v>
+        <v>-30600</v>
       </c>
       <c r="F32" s="3">
-        <v>-25900</v>
+        <v>-26900</v>
       </c>
       <c r="G32" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-67100</v>
+        <v>-69800</v>
       </c>
       <c r="J32" s="3">
         <v>2400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-370600</v>
+        <v>-385900</v>
       </c>
       <c r="E33" s="3">
-        <v>782300</v>
+        <v>814600</v>
       </c>
       <c r="F33" s="3">
-        <v>765800</v>
+        <v>797500</v>
       </c>
       <c r="G33" s="3">
-        <v>850500</v>
+        <v>885700</v>
       </c>
       <c r="H33" s="3">
-        <v>749400</v>
+        <v>780300</v>
       </c>
       <c r="I33" s="3">
-        <v>823500</v>
+        <v>857500</v>
       </c>
       <c r="J33" s="3">
-        <v>576400</v>
+        <v>600200</v>
       </c>
       <c r="K33" s="3">
         <v>519300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-370600</v>
+        <v>-385900</v>
       </c>
       <c r="E35" s="3">
-        <v>782300</v>
+        <v>814600</v>
       </c>
       <c r="F35" s="3">
-        <v>765800</v>
+        <v>797500</v>
       </c>
       <c r="G35" s="3">
-        <v>850500</v>
+        <v>885700</v>
       </c>
       <c r="H35" s="3">
-        <v>749400</v>
+        <v>780300</v>
       </c>
       <c r="I35" s="3">
-        <v>823500</v>
+        <v>857500</v>
       </c>
       <c r="J35" s="3">
-        <v>576400</v>
+        <v>600200</v>
       </c>
       <c r="K35" s="3">
         <v>519300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1968100</v>
+        <v>2049400</v>
       </c>
       <c r="E41" s="3">
-        <v>1655200</v>
+        <v>1723600</v>
       </c>
       <c r="F41" s="3">
-        <v>1530500</v>
+        <v>1593700</v>
       </c>
       <c r="G41" s="3">
-        <v>1879900</v>
+        <v>1957500</v>
       </c>
       <c r="H41" s="3">
-        <v>1202300</v>
+        <v>1251900</v>
       </c>
       <c r="I41" s="3">
-        <v>1944600</v>
+        <v>2024900</v>
       </c>
       <c r="J41" s="3">
-        <v>2312800</v>
+        <v>2408300</v>
       </c>
       <c r="K41" s="3">
         <v>1080000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>463500</v>
+        <v>482600</v>
       </c>
       <c r="E42" s="3">
-        <v>508200</v>
+        <v>529200</v>
       </c>
       <c r="F42" s="3">
-        <v>471700</v>
+        <v>491200</v>
       </c>
       <c r="G42" s="3">
-        <v>531700</v>
+        <v>553700</v>
       </c>
       <c r="H42" s="3">
-        <v>467000</v>
+        <v>486300</v>
       </c>
       <c r="I42" s="3">
-        <v>445900</v>
+        <v>464300</v>
       </c>
       <c r="J42" s="3">
-        <v>929400</v>
+        <v>967700</v>
       </c>
       <c r="K42" s="3">
         <v>521700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4682100</v>
+        <v>4875500</v>
       </c>
       <c r="E43" s="3">
-        <v>5240900</v>
+        <v>5457300</v>
       </c>
       <c r="F43" s="3">
-        <v>4805600</v>
+        <v>5004100</v>
       </c>
       <c r="G43" s="3">
-        <v>4759700</v>
+        <v>4956300</v>
       </c>
       <c r="H43" s="3">
-        <v>4722100</v>
+        <v>4917100</v>
       </c>
       <c r="I43" s="3">
-        <v>4531500</v>
+        <v>4718700</v>
       </c>
       <c r="J43" s="3">
-        <v>4325600</v>
+        <v>4504300</v>
       </c>
       <c r="K43" s="3">
         <v>4098700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>304700</v>
+        <v>317300</v>
       </c>
       <c r="E44" s="3">
-        <v>345900</v>
+        <v>360100</v>
       </c>
       <c r="F44" s="3">
-        <v>329400</v>
+        <v>343000</v>
       </c>
       <c r="G44" s="3">
-        <v>302300</v>
+        <v>314800</v>
       </c>
       <c r="H44" s="3">
-        <v>315300</v>
+        <v>328300</v>
       </c>
       <c r="I44" s="3">
-        <v>317600</v>
+        <v>330700</v>
       </c>
       <c r="J44" s="3">
-        <v>311700</v>
+        <v>324600</v>
       </c>
       <c r="K44" s="3">
         <v>320600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1549300</v>
+        <v>1613300</v>
       </c>
       <c r="E45" s="3">
-        <v>1675200</v>
+        <v>1744400</v>
       </c>
       <c r="F45" s="3">
-        <v>1492900</v>
+        <v>1554500</v>
       </c>
       <c r="G45" s="3">
-        <v>1299900</v>
+        <v>1353600</v>
       </c>
       <c r="H45" s="3">
-        <v>1128200</v>
+        <v>1174800</v>
       </c>
       <c r="I45" s="3">
-        <v>1163500</v>
+        <v>1211500</v>
       </c>
       <c r="J45" s="3">
-        <v>1091700</v>
+        <v>1136800</v>
       </c>
       <c r="K45" s="3">
         <v>1056300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8967700</v>
+        <v>9338100</v>
       </c>
       <c r="E46" s="3">
-        <v>9425300</v>
+        <v>9814600</v>
       </c>
       <c r="F46" s="3">
-        <v>8630100</v>
+        <v>8986500</v>
       </c>
       <c r="G46" s="3">
-        <v>8773600</v>
+        <v>9136000</v>
       </c>
       <c r="H46" s="3">
-        <v>7834800</v>
+        <v>8158400</v>
       </c>
       <c r="I46" s="3">
-        <v>8403000</v>
+        <v>8750100</v>
       </c>
       <c r="J46" s="3">
-        <v>8971200</v>
+        <v>9341800</v>
       </c>
       <c r="K46" s="3">
         <v>7077300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1454000</v>
+        <v>1514100</v>
       </c>
       <c r="E47" s="3">
-        <v>1984600</v>
+        <v>2066600</v>
       </c>
       <c r="F47" s="3">
-        <v>977600</v>
+        <v>1018000</v>
       </c>
       <c r="G47" s="3">
-        <v>939900</v>
+        <v>978800</v>
       </c>
       <c r="H47" s="3">
-        <v>919900</v>
+        <v>957900</v>
       </c>
       <c r="I47" s="3">
-        <v>797600</v>
+        <v>830500</v>
       </c>
       <c r="J47" s="3">
-        <v>638800</v>
+        <v>665200</v>
       </c>
       <c r="K47" s="3">
         <v>572500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2219900</v>
+        <v>2311600</v>
       </c>
       <c r="E48" s="3">
-        <v>804700</v>
+        <v>837900</v>
       </c>
       <c r="F48" s="3">
-        <v>728200</v>
+        <v>758300</v>
       </c>
       <c r="G48" s="3">
-        <v>694100</v>
+        <v>722700</v>
       </c>
       <c r="H48" s="3">
-        <v>710500</v>
+        <v>739900</v>
       </c>
       <c r="I48" s="3">
-        <v>698800</v>
+        <v>727600</v>
       </c>
       <c r="J48" s="3">
-        <v>652900</v>
+        <v>679900</v>
       </c>
       <c r="K48" s="3">
         <v>638800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7572500</v>
+        <v>7885300</v>
       </c>
       <c r="E49" s="3">
-        <v>8186600</v>
+        <v>8524700</v>
       </c>
       <c r="F49" s="3">
-        <v>7491300</v>
+        <v>7800700</v>
       </c>
       <c r="G49" s="3">
-        <v>6845500</v>
+        <v>7128200</v>
       </c>
       <c r="H49" s="3">
-        <v>6817200</v>
+        <v>7098800</v>
       </c>
       <c r="I49" s="3">
-        <v>6829000</v>
+        <v>7111100</v>
       </c>
       <c r="J49" s="3">
-        <v>6464300</v>
+        <v>6731300</v>
       </c>
       <c r="K49" s="3">
         <v>6306000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200000</v>
+        <v>208200</v>
       </c>
       <c r="E52" s="3">
-        <v>147000</v>
+        <v>153100</v>
       </c>
       <c r="F52" s="3">
-        <v>148200</v>
+        <v>154300</v>
       </c>
       <c r="G52" s="3">
-        <v>244700</v>
+        <v>254800</v>
       </c>
       <c r="H52" s="3">
-        <v>372900</v>
+        <v>388300</v>
       </c>
       <c r="I52" s="3">
-        <v>302300</v>
+        <v>314800</v>
       </c>
       <c r="J52" s="3">
-        <v>304700</v>
+        <v>317300</v>
       </c>
       <c r="K52" s="3">
         <v>319400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20414100</v>
+        <v>21257300</v>
       </c>
       <c r="E54" s="3">
-        <v>20548200</v>
+        <v>21396900</v>
       </c>
       <c r="F54" s="3">
-        <v>17975400</v>
+        <v>18717800</v>
       </c>
       <c r="G54" s="3">
-        <v>17497800</v>
+        <v>18220500</v>
       </c>
       <c r="H54" s="3">
-        <v>16655500</v>
+        <v>17343400</v>
       </c>
       <c r="I54" s="3">
-        <v>17030700</v>
+        <v>17734200</v>
       </c>
       <c r="J54" s="3">
-        <v>17031900</v>
+        <v>17735400</v>
       </c>
       <c r="K54" s="3">
         <v>14914000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2234000</v>
+        <v>2326300</v>
       </c>
       <c r="E57" s="3">
-        <v>2961000</v>
+        <v>3083300</v>
       </c>
       <c r="F57" s="3">
-        <v>2618700</v>
+        <v>2726800</v>
       </c>
       <c r="G57" s="3">
-        <v>2484600</v>
+        <v>2587200</v>
       </c>
       <c r="H57" s="3">
-        <v>2381000</v>
+        <v>2479400</v>
       </c>
       <c r="I57" s="3">
-        <v>2297500</v>
+        <v>2392400</v>
       </c>
       <c r="J57" s="3">
-        <v>2079900</v>
+        <v>2165800</v>
       </c>
       <c r="K57" s="3">
         <v>2033400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>303500</v>
+        <v>316000</v>
       </c>
       <c r="E58" s="3">
-        <v>255300</v>
+        <v>265800</v>
       </c>
       <c r="F58" s="3">
-        <v>527000</v>
+        <v>548800</v>
       </c>
       <c r="G58" s="3">
-        <v>630600</v>
+        <v>656600</v>
       </c>
       <c r="H58" s="3">
-        <v>83500</v>
+        <v>87000</v>
       </c>
       <c r="I58" s="3">
-        <v>416400</v>
+        <v>433600</v>
       </c>
       <c r="J58" s="3">
-        <v>1197600</v>
+        <v>1247000</v>
       </c>
       <c r="K58" s="3">
         <v>889500</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6573700</v>
+        <v>6845200</v>
       </c>
       <c r="E59" s="3">
-        <v>6485500</v>
+        <v>6753400</v>
       </c>
       <c r="F59" s="3">
-        <v>5820800</v>
+        <v>6061300</v>
       </c>
       <c r="G59" s="3">
-        <v>5612600</v>
+        <v>5844400</v>
       </c>
       <c r="H59" s="3">
-        <v>5660800</v>
+        <v>5894700</v>
       </c>
       <c r="I59" s="3">
-        <v>5685500</v>
+        <v>5920400</v>
       </c>
       <c r="J59" s="3">
-        <v>5459700</v>
+        <v>5685200</v>
       </c>
       <c r="K59" s="3">
         <v>5220100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9111200</v>
+        <v>9487500</v>
       </c>
       <c r="E60" s="3">
-        <v>9701800</v>
+        <v>10102500</v>
       </c>
       <c r="F60" s="3">
-        <v>8966500</v>
+        <v>9336900</v>
       </c>
       <c r="G60" s="3">
-        <v>8727700</v>
+        <v>9088200</v>
       </c>
       <c r="H60" s="3">
-        <v>8125400</v>
+        <v>8461000</v>
       </c>
       <c r="I60" s="3">
-        <v>8399500</v>
+        <v>8746400</v>
       </c>
       <c r="J60" s="3">
-        <v>8737100</v>
+        <v>9098000</v>
       </c>
       <c r="K60" s="3">
         <v>8143100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7177200</v>
+        <v>7473700</v>
       </c>
       <c r="E61" s="3">
-        <v>4590300</v>
+        <v>4779900</v>
       </c>
       <c r="F61" s="3">
-        <v>4160900</v>
+        <v>4332800</v>
       </c>
       <c r="G61" s="3">
-        <v>3542100</v>
+        <v>3688400</v>
       </c>
       <c r="H61" s="3">
-        <v>2958600</v>
+        <v>3080800</v>
       </c>
       <c r="I61" s="3">
-        <v>3252700</v>
+        <v>3387100</v>
       </c>
       <c r="J61" s="3">
-        <v>3405700</v>
+        <v>3546300</v>
       </c>
       <c r="K61" s="3">
         <v>2241600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>863500</v>
+        <v>899100</v>
       </c>
       <c r="E62" s="3">
-        <v>964600</v>
+        <v>1004500</v>
       </c>
       <c r="F62" s="3">
-        <v>932900</v>
+        <v>971400</v>
       </c>
       <c r="G62" s="3">
-        <v>1028200</v>
+        <v>1070600</v>
       </c>
       <c r="H62" s="3">
-        <v>1216400</v>
+        <v>1266600</v>
       </c>
       <c r="I62" s="3">
-        <v>974100</v>
+        <v>1014300</v>
       </c>
       <c r="J62" s="3">
-        <v>1099900</v>
+        <v>1145400</v>
       </c>
       <c r="K62" s="3">
         <v>992500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17169600</v>
+        <v>17878700</v>
       </c>
       <c r="E66" s="3">
-        <v>15306100</v>
+        <v>15938300</v>
       </c>
       <c r="F66" s="3">
-        <v>14113300</v>
+        <v>14696200</v>
       </c>
       <c r="G66" s="3">
-        <v>13338000</v>
+        <v>13888900</v>
       </c>
       <c r="H66" s="3">
-        <v>12340400</v>
+        <v>12850100</v>
       </c>
       <c r="I66" s="3">
-        <v>12666300</v>
+        <v>13189500</v>
       </c>
       <c r="J66" s="3">
-        <v>13280400</v>
+        <v>13828900</v>
       </c>
       <c r="K66" s="3">
         <v>11420900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3719800</v>
+        <v>3873400</v>
       </c>
       <c r="E72" s="3">
-        <v>5126800</v>
+        <v>5338500</v>
       </c>
       <c r="F72" s="3">
-        <v>4464400</v>
+        <v>4648800</v>
       </c>
       <c r="G72" s="3">
-        <v>4064500</v>
+        <v>4232300</v>
       </c>
       <c r="H72" s="3">
-        <v>3538600</v>
+        <v>3684800</v>
       </c>
       <c r="I72" s="3">
-        <v>3324500</v>
+        <v>3461800</v>
       </c>
       <c r="J72" s="3">
-        <v>2726900</v>
+        <v>2839500</v>
       </c>
       <c r="K72" s="3">
         <v>2486500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3244500</v>
+        <v>3378500</v>
       </c>
       <c r="E76" s="3">
-        <v>5242000</v>
+        <v>5458600</v>
       </c>
       <c r="F76" s="3">
-        <v>3862100</v>
+        <v>4021600</v>
       </c>
       <c r="G76" s="3">
-        <v>4159800</v>
+        <v>4331600</v>
       </c>
       <c r="H76" s="3">
-        <v>4315000</v>
+        <v>4493300</v>
       </c>
       <c r="I76" s="3">
-        <v>4364400</v>
+        <v>4544700</v>
       </c>
       <c r="J76" s="3">
-        <v>3751500</v>
+        <v>3906500</v>
       </c>
       <c r="K76" s="3">
         <v>3493100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-370600</v>
+        <v>-385900</v>
       </c>
       <c r="E81" s="3">
-        <v>782300</v>
+        <v>814600</v>
       </c>
       <c r="F81" s="3">
-        <v>765800</v>
+        <v>797500</v>
       </c>
       <c r="G81" s="3">
-        <v>850500</v>
+        <v>885700</v>
       </c>
       <c r="H81" s="3">
-        <v>749400</v>
+        <v>780300</v>
       </c>
       <c r="I81" s="3">
-        <v>823500</v>
+        <v>857500</v>
       </c>
       <c r="J81" s="3">
-        <v>576400</v>
+        <v>600200</v>
       </c>
       <c r="K81" s="3">
         <v>519300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1054100</v>
+        <v>1097600</v>
       </c>
       <c r="E83" s="3">
-        <v>429400</v>
+        <v>447100</v>
       </c>
       <c r="F83" s="3">
-        <v>372900</v>
+        <v>388300</v>
       </c>
       <c r="G83" s="3">
-        <v>330600</v>
+        <v>344200</v>
       </c>
       <c r="H83" s="3">
-        <v>362300</v>
+        <v>377300</v>
       </c>
       <c r="I83" s="3">
-        <v>325900</v>
+        <v>339300</v>
       </c>
       <c r="J83" s="3">
-        <v>294100</v>
+        <v>306200</v>
       </c>
       <c r="K83" s="3">
         <v>320600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>741100</v>
+        <v>771700</v>
       </c>
       <c r="E89" s="3">
-        <v>1491700</v>
+        <v>1553300</v>
       </c>
       <c r="F89" s="3">
-        <v>1332900</v>
+        <v>1387900</v>
       </c>
       <c r="G89" s="3">
-        <v>1249300</v>
+        <v>1300900</v>
       </c>
       <c r="H89" s="3">
-        <v>1111700</v>
+        <v>1157600</v>
       </c>
       <c r="I89" s="3">
-        <v>1196400</v>
+        <v>1245800</v>
       </c>
       <c r="J89" s="3">
-        <v>970500</v>
+        <v>1010600</v>
       </c>
       <c r="K89" s="3">
         <v>731000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-468200</v>
+        <v>-487500</v>
       </c>
       <c r="E91" s="3">
-        <v>-470600</v>
+        <v>-490000</v>
       </c>
       <c r="F91" s="3">
-        <v>-387000</v>
+        <v>-403000</v>
       </c>
       <c r="G91" s="3">
-        <v>-363500</v>
+        <v>-378500</v>
       </c>
       <c r="H91" s="3">
-        <v>-405900</v>
+        <v>-422600</v>
       </c>
       <c r="I91" s="3">
-        <v>-355300</v>
+        <v>-369900</v>
       </c>
       <c r="J91" s="3">
-        <v>-288200</v>
+        <v>-300100</v>
       </c>
       <c r="K91" s="3">
         <v>-285100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-505900</v>
+        <v>-526700</v>
       </c>
       <c r="E94" s="3">
-        <v>-951700</v>
+        <v>-991000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1176400</v>
+        <v>-1225000</v>
       </c>
       <c r="G94" s="3">
-        <v>-720000</v>
+        <v>-749700</v>
       </c>
       <c r="H94" s="3">
-        <v>-570600</v>
+        <v>-594100</v>
       </c>
       <c r="I94" s="3">
-        <v>-444700</v>
+        <v>-463000</v>
       </c>
       <c r="J94" s="3">
-        <v>-396400</v>
+        <v>-412800</v>
       </c>
       <c r="K94" s="3">
         <v>-372600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-500000</v>
+        <v>-520600</v>
       </c>
       <c r="E96" s="3">
-        <v>-474100</v>
+        <v>-493700</v>
       </c>
       <c r="F96" s="3">
-        <v>-483500</v>
+        <v>-503500</v>
       </c>
       <c r="G96" s="3">
-        <v>-422300</v>
+        <v>-439800</v>
       </c>
       <c r="H96" s="3">
-        <v>-394100</v>
+        <v>-410400</v>
       </c>
       <c r="I96" s="3">
-        <v>-324700</v>
+        <v>-338100</v>
       </c>
       <c r="J96" s="3">
-        <v>-291700</v>
+        <v>-303800</v>
       </c>
       <c r="K96" s="3">
         <v>-283900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>232900</v>
+        <v>242500</v>
       </c>
       <c r="E100" s="3">
-        <v>-480000</v>
+        <v>-499800</v>
       </c>
       <c r="F100" s="3">
-        <v>-405900</v>
+        <v>-422600</v>
       </c>
       <c r="G100" s="3">
-        <v>378800</v>
+        <v>394400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1295200</v>
+        <v>-1348700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1605800</v>
+        <v>-1672100</v>
       </c>
       <c r="J100" s="3">
-        <v>1082300</v>
+        <v>1127000</v>
       </c>
       <c r="K100" s="3">
         <v>-322900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-144700</v>
+        <v>-150700</v>
       </c>
       <c r="E101" s="3">
-        <v>68200</v>
+        <v>71000</v>
       </c>
       <c r="F101" s="3">
-        <v>-152900</v>
+        <v>-159200</v>
       </c>
       <c r="G101" s="3">
-        <v>-163500</v>
+        <v>-170300</v>
       </c>
       <c r="H101" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="I101" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="J101" s="3">
-        <v>-32900</v>
+        <v>-34300</v>
       </c>
       <c r="K101" s="3">
         <v>-188100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>323500</v>
+        <v>336900</v>
       </c>
       <c r="E102" s="3">
-        <v>128200</v>
+        <v>133500</v>
       </c>
       <c r="F102" s="3">
-        <v>-402300</v>
+        <v>-418900</v>
       </c>
       <c r="G102" s="3">
-        <v>744700</v>
+        <v>775400</v>
       </c>
       <c r="H102" s="3">
-        <v>-731700</v>
+        <v>-761900</v>
       </c>
       <c r="I102" s="3">
-        <v>-844700</v>
+        <v>-879500</v>
       </c>
       <c r="J102" s="3">
-        <v>1623400</v>
+        <v>1690500</v>
       </c>
       <c r="K102" s="3">
         <v>-152600</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23668000</v>
+        <v>22555500</v>
       </c>
       <c r="E8" s="3">
-        <v>26893400</v>
+        <v>25629300</v>
       </c>
       <c r="F8" s="3">
-        <v>24998400</v>
+        <v>23823300</v>
       </c>
       <c r="G8" s="3">
-        <v>25354800</v>
+        <v>24163100</v>
       </c>
       <c r="H8" s="3">
-        <v>24799900</v>
+        <v>23634200</v>
       </c>
       <c r="I8" s="3">
-        <v>24273200</v>
+        <v>23132200</v>
       </c>
       <c r="J8" s="3">
-        <v>22069400</v>
+        <v>21032100</v>
       </c>
       <c r="K8" s="3">
         <v>21761800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20631300</v>
+        <v>19661500</v>
       </c>
       <c r="E9" s="3">
-        <v>22975900</v>
+        <v>21895900</v>
       </c>
       <c r="F9" s="3">
-        <v>21216800</v>
+        <v>20219500</v>
       </c>
       <c r="G9" s="3">
-        <v>21448300</v>
+        <v>20440200</v>
       </c>
       <c r="H9" s="3">
-        <v>20990200</v>
+        <v>20003600</v>
       </c>
       <c r="I9" s="3">
-        <v>20404700</v>
+        <v>19445500</v>
       </c>
       <c r="J9" s="3">
-        <v>18699500</v>
+        <v>17820500</v>
       </c>
       <c r="K9" s="3">
         <v>18513600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3036800</v>
+        <v>2894000</v>
       </c>
       <c r="E10" s="3">
-        <v>3917500</v>
+        <v>3733400</v>
       </c>
       <c r="F10" s="3">
-        <v>3781500</v>
+        <v>3603800</v>
       </c>
       <c r="G10" s="3">
-        <v>3906500</v>
+        <v>3722900</v>
       </c>
       <c r="H10" s="3">
-        <v>3809700</v>
+        <v>3630600</v>
       </c>
       <c r="I10" s="3">
-        <v>3868500</v>
+        <v>3686700</v>
       </c>
       <c r="J10" s="3">
-        <v>3369900</v>
+        <v>3211500</v>
       </c>
       <c r="K10" s="3">
         <v>3248200</v>
@@ -916,16 +916,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>550000</v>
+        <v>538200</v>
       </c>
       <c r="E14" s="3">
-        <v>69800</v>
+        <v>66500</v>
       </c>
       <c r="F14" s="3">
-        <v>98000</v>
+        <v>93400</v>
       </c>
       <c r="G14" s="3">
-        <v>13500</v>
+        <v>12800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -952,13 +952,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29400</v>
+        <v>28000</v>
       </c>
       <c r="E15" s="3">
-        <v>104100</v>
+        <v>99200</v>
       </c>
       <c r="F15" s="3">
-        <v>60000</v>
+        <v>57200</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23588400</v>
+        <v>22479600</v>
       </c>
       <c r="E17" s="3">
-        <v>25596200</v>
+        <v>24393000</v>
       </c>
       <c r="F17" s="3">
-        <v>23777100</v>
+        <v>22659400</v>
       </c>
       <c r="G17" s="3">
-        <v>23911800</v>
+        <v>22787800</v>
       </c>
       <c r="H17" s="3">
-        <v>23458600</v>
+        <v>22355900</v>
       </c>
       <c r="I17" s="3">
-        <v>22881600</v>
+        <v>21806100</v>
       </c>
       <c r="J17" s="3">
-        <v>20926500</v>
+        <v>19942900</v>
       </c>
       <c r="K17" s="3">
         <v>20798900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="E18" s="3">
-        <v>1297300</v>
+        <v>1236300</v>
       </c>
       <c r="F18" s="3">
-        <v>1221300</v>
+        <v>1163900</v>
       </c>
       <c r="G18" s="3">
-        <v>1443000</v>
+        <v>1375200</v>
       </c>
       <c r="H18" s="3">
-        <v>1341400</v>
+        <v>1278300</v>
       </c>
       <c r="I18" s="3">
-        <v>1391600</v>
+        <v>1326200</v>
       </c>
       <c r="J18" s="3">
-        <v>1142900</v>
+        <v>1089200</v>
       </c>
       <c r="K18" s="3">
         <v>962900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-171500</v>
+        <v>-163400</v>
       </c>
       <c r="E20" s="3">
-        <v>30600</v>
+        <v>29200</v>
       </c>
       <c r="F20" s="3">
-        <v>26900</v>
+        <v>25700</v>
       </c>
       <c r="G20" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>69800</v>
+        <v>66500</v>
       </c>
       <c r="J20" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K20" s="3">
         <v>46100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1002600</v>
+        <v>961700</v>
       </c>
       <c r="E21" s="3">
-        <v>1773700</v>
+        <v>1692900</v>
       </c>
       <c r="F21" s="3">
-        <v>1635500</v>
+        <v>1560800</v>
       </c>
       <c r="G21" s="3">
-        <v>1791200</v>
+        <v>1708900</v>
       </c>
       <c r="H21" s="3">
-        <v>1717600</v>
+        <v>1639000</v>
       </c>
       <c r="I21" s="3">
-        <v>1799800</v>
+        <v>1717100</v>
       </c>
       <c r="J21" s="3">
-        <v>1445800</v>
+        <v>1379600</v>
       </c>
       <c r="K21" s="3">
         <v>1329700</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>178800</v>
+        <v>170400</v>
       </c>
       <c r="E22" s="3">
-        <v>148200</v>
+        <v>141300</v>
       </c>
       <c r="F22" s="3">
-        <v>134700</v>
+        <v>128400</v>
       </c>
       <c r="G22" s="3">
-        <v>115100</v>
+        <v>109700</v>
       </c>
       <c r="H22" s="3">
-        <v>127400</v>
+        <v>121400</v>
       </c>
       <c r="I22" s="3">
-        <v>183700</v>
+        <v>175100</v>
       </c>
       <c r="J22" s="3">
-        <v>192300</v>
+        <v>183300</v>
       </c>
       <c r="K22" s="3">
         <v>186900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-270700</v>
+        <v>-258000</v>
       </c>
       <c r="E23" s="3">
-        <v>1179700</v>
+        <v>1124200</v>
       </c>
       <c r="F23" s="3">
-        <v>1113500</v>
+        <v>1061200</v>
       </c>
       <c r="G23" s="3">
-        <v>1332800</v>
+        <v>1270100</v>
       </c>
       <c r="H23" s="3">
-        <v>1214000</v>
+        <v>1156900</v>
       </c>
       <c r="I23" s="3">
-        <v>1277700</v>
+        <v>1217600</v>
       </c>
       <c r="J23" s="3">
-        <v>948100</v>
+        <v>903600</v>
       </c>
       <c r="K23" s="3">
         <v>822100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>120000</v>
+        <v>114400</v>
       </c>
       <c r="E24" s="3">
-        <v>339300</v>
+        <v>323400</v>
       </c>
       <c r="F24" s="3">
-        <v>300100</v>
+        <v>286000</v>
       </c>
       <c r="G24" s="3">
-        <v>420200</v>
+        <v>400400</v>
       </c>
       <c r="H24" s="3">
-        <v>404200</v>
+        <v>385200</v>
       </c>
       <c r="I24" s="3">
-        <v>392000</v>
+        <v>373600</v>
       </c>
       <c r="J24" s="3">
-        <v>324600</v>
+        <v>309400</v>
       </c>
       <c r="K24" s="3">
         <v>275600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-390800</v>
+        <v>-372400</v>
       </c>
       <c r="E26" s="3">
-        <v>840300</v>
+        <v>800800</v>
       </c>
       <c r="F26" s="3">
-        <v>813400</v>
+        <v>775200</v>
       </c>
       <c r="G26" s="3">
-        <v>912600</v>
+        <v>869700</v>
       </c>
       <c r="H26" s="3">
-        <v>809700</v>
+        <v>771700</v>
       </c>
       <c r="I26" s="3">
-        <v>885700</v>
+        <v>844000</v>
       </c>
       <c r="J26" s="3">
-        <v>623500</v>
+        <v>594200</v>
       </c>
       <c r="K26" s="3">
         <v>546500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-385900</v>
+        <v>-367700</v>
       </c>
       <c r="E27" s="3">
-        <v>814600</v>
+        <v>776300</v>
       </c>
       <c r="F27" s="3">
-        <v>797500</v>
+        <v>760000</v>
       </c>
       <c r="G27" s="3">
-        <v>885700</v>
+        <v>844000</v>
       </c>
       <c r="H27" s="3">
-        <v>780300</v>
+        <v>743600</v>
       </c>
       <c r="I27" s="3">
-        <v>857500</v>
+        <v>817200</v>
       </c>
       <c r="J27" s="3">
-        <v>600200</v>
+        <v>572000</v>
       </c>
       <c r="K27" s="3">
         <v>519300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>171500</v>
+        <v>163400</v>
       </c>
       <c r="E32" s="3">
-        <v>-30600</v>
+        <v>-29200</v>
       </c>
       <c r="F32" s="3">
-        <v>-26900</v>
+        <v>-25700</v>
       </c>
       <c r="G32" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-69800</v>
+        <v>-66500</v>
       </c>
       <c r="J32" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K32" s="3">
         <v>-46100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-385900</v>
+        <v>-367700</v>
       </c>
       <c r="E33" s="3">
-        <v>814600</v>
+        <v>776300</v>
       </c>
       <c r="F33" s="3">
-        <v>797500</v>
+        <v>760000</v>
       </c>
       <c r="G33" s="3">
-        <v>885700</v>
+        <v>844000</v>
       </c>
       <c r="H33" s="3">
-        <v>780300</v>
+        <v>743600</v>
       </c>
       <c r="I33" s="3">
-        <v>857500</v>
+        <v>817200</v>
       </c>
       <c r="J33" s="3">
-        <v>600200</v>
+        <v>572000</v>
       </c>
       <c r="K33" s="3">
         <v>519300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-385900</v>
+        <v>-367700</v>
       </c>
       <c r="E35" s="3">
-        <v>814600</v>
+        <v>776300</v>
       </c>
       <c r="F35" s="3">
-        <v>797500</v>
+        <v>760000</v>
       </c>
       <c r="G35" s="3">
-        <v>885700</v>
+        <v>844000</v>
       </c>
       <c r="H35" s="3">
-        <v>780300</v>
+        <v>743600</v>
       </c>
       <c r="I35" s="3">
-        <v>857500</v>
+        <v>817200</v>
       </c>
       <c r="J35" s="3">
-        <v>600200</v>
+        <v>572000</v>
       </c>
       <c r="K35" s="3">
         <v>519300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2049400</v>
+        <v>1953100</v>
       </c>
       <c r="E41" s="3">
-        <v>1723600</v>
+        <v>1642500</v>
       </c>
       <c r="F41" s="3">
-        <v>1593700</v>
+        <v>1518800</v>
       </c>
       <c r="G41" s="3">
-        <v>1957500</v>
+        <v>1865500</v>
       </c>
       <c r="H41" s="3">
-        <v>1251900</v>
+        <v>1193100</v>
       </c>
       <c r="I41" s="3">
-        <v>2024900</v>
+        <v>1929700</v>
       </c>
       <c r="J41" s="3">
-        <v>2408300</v>
+        <v>2295100</v>
       </c>
       <c r="K41" s="3">
         <v>1080000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>482600</v>
+        <v>460000</v>
       </c>
       <c r="E42" s="3">
-        <v>529200</v>
+        <v>504300</v>
       </c>
       <c r="F42" s="3">
-        <v>491200</v>
+        <v>468100</v>
       </c>
       <c r="G42" s="3">
-        <v>553700</v>
+        <v>527700</v>
       </c>
       <c r="H42" s="3">
-        <v>486300</v>
+        <v>463500</v>
       </c>
       <c r="I42" s="3">
-        <v>464300</v>
+        <v>442400</v>
       </c>
       <c r="J42" s="3">
-        <v>967700</v>
+        <v>922300</v>
       </c>
       <c r="K42" s="3">
         <v>521700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4875500</v>
+        <v>4646300</v>
       </c>
       <c r="E43" s="3">
-        <v>5457300</v>
+        <v>5200800</v>
       </c>
       <c r="F43" s="3">
-        <v>5004100</v>
+        <v>4768900</v>
       </c>
       <c r="G43" s="3">
-        <v>4956300</v>
+        <v>4723300</v>
       </c>
       <c r="H43" s="3">
-        <v>4917100</v>
+        <v>4686000</v>
       </c>
       <c r="I43" s="3">
-        <v>4718700</v>
+        <v>4496900</v>
       </c>
       <c r="J43" s="3">
-        <v>4504300</v>
+        <v>4292600</v>
       </c>
       <c r="K43" s="3">
         <v>4098700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>317300</v>
+        <v>302400</v>
       </c>
       <c r="E44" s="3">
-        <v>360100</v>
+        <v>343200</v>
       </c>
       <c r="F44" s="3">
-        <v>343000</v>
+        <v>326900</v>
       </c>
       <c r="G44" s="3">
-        <v>314800</v>
+        <v>300000</v>
       </c>
       <c r="H44" s="3">
-        <v>328300</v>
+        <v>312900</v>
       </c>
       <c r="I44" s="3">
-        <v>330700</v>
+        <v>315200</v>
       </c>
       <c r="J44" s="3">
-        <v>324600</v>
+        <v>309400</v>
       </c>
       <c r="K44" s="3">
         <v>320600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1613300</v>
+        <v>1537500</v>
       </c>
       <c r="E45" s="3">
-        <v>1744400</v>
+        <v>1662400</v>
       </c>
       <c r="F45" s="3">
-        <v>1554500</v>
+        <v>1481400</v>
       </c>
       <c r="G45" s="3">
-        <v>1353600</v>
+        <v>1290000</v>
       </c>
       <c r="H45" s="3">
-        <v>1174800</v>
+        <v>1119500</v>
       </c>
       <c r="I45" s="3">
-        <v>1211500</v>
+        <v>1154600</v>
       </c>
       <c r="J45" s="3">
-        <v>1136800</v>
+        <v>1083400</v>
       </c>
       <c r="K45" s="3">
         <v>1056300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9338100</v>
+        <v>8899200</v>
       </c>
       <c r="E46" s="3">
-        <v>9814600</v>
+        <v>9353300</v>
       </c>
       <c r="F46" s="3">
-        <v>8986500</v>
+        <v>8564100</v>
       </c>
       <c r="G46" s="3">
-        <v>9136000</v>
+        <v>8706500</v>
       </c>
       <c r="H46" s="3">
-        <v>8158400</v>
+        <v>7775000</v>
       </c>
       <c r="I46" s="3">
-        <v>8750100</v>
+        <v>8338800</v>
       </c>
       <c r="J46" s="3">
-        <v>9341800</v>
+        <v>8902700</v>
       </c>
       <c r="K46" s="3">
         <v>7077300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1514100</v>
+        <v>1442900</v>
       </c>
       <c r="E47" s="3">
-        <v>2066600</v>
+        <v>1969400</v>
       </c>
       <c r="F47" s="3">
-        <v>1018000</v>
+        <v>970100</v>
       </c>
       <c r="G47" s="3">
-        <v>978800</v>
+        <v>932800</v>
       </c>
       <c r="H47" s="3">
-        <v>957900</v>
+        <v>912900</v>
       </c>
       <c r="I47" s="3">
-        <v>830500</v>
+        <v>791500</v>
       </c>
       <c r="J47" s="3">
-        <v>665200</v>
+        <v>633900</v>
       </c>
       <c r="K47" s="3">
         <v>572500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2311600</v>
+        <v>2202900</v>
       </c>
       <c r="E48" s="3">
-        <v>837900</v>
+        <v>798500</v>
       </c>
       <c r="F48" s="3">
-        <v>758300</v>
+        <v>722600</v>
       </c>
       <c r="G48" s="3">
-        <v>722700</v>
+        <v>688800</v>
       </c>
       <c r="H48" s="3">
-        <v>739900</v>
+        <v>705100</v>
       </c>
       <c r="I48" s="3">
-        <v>727600</v>
+        <v>693400</v>
       </c>
       <c r="J48" s="3">
-        <v>679900</v>
+        <v>647900</v>
       </c>
       <c r="K48" s="3">
         <v>638800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7885300</v>
+        <v>7514600</v>
       </c>
       <c r="E49" s="3">
-        <v>8524700</v>
+        <v>8124000</v>
       </c>
       <c r="F49" s="3">
-        <v>7800700</v>
+        <v>7434100</v>
       </c>
       <c r="G49" s="3">
-        <v>7128200</v>
+        <v>6793200</v>
       </c>
       <c r="H49" s="3">
-        <v>7098800</v>
+        <v>6765100</v>
       </c>
       <c r="I49" s="3">
-        <v>7111100</v>
+        <v>6776800</v>
       </c>
       <c r="J49" s="3">
-        <v>6731300</v>
+        <v>6414900</v>
       </c>
       <c r="K49" s="3">
         <v>6306000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>208200</v>
+        <v>198500</v>
       </c>
       <c r="E52" s="3">
-        <v>153100</v>
+        <v>145900</v>
       </c>
       <c r="F52" s="3">
-        <v>154300</v>
+        <v>147100</v>
       </c>
       <c r="G52" s="3">
-        <v>254800</v>
+        <v>242800</v>
       </c>
       <c r="H52" s="3">
-        <v>388300</v>
+        <v>370100</v>
       </c>
       <c r="I52" s="3">
-        <v>314800</v>
+        <v>300000</v>
       </c>
       <c r="J52" s="3">
-        <v>317300</v>
+        <v>302400</v>
       </c>
       <c r="K52" s="3">
         <v>319400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21257300</v>
+        <v>20258100</v>
       </c>
       <c r="E54" s="3">
-        <v>21396900</v>
+        <v>20391200</v>
       </c>
       <c r="F54" s="3">
-        <v>18717800</v>
+        <v>17838000</v>
       </c>
       <c r="G54" s="3">
-        <v>18220500</v>
+        <v>17364100</v>
       </c>
       <c r="H54" s="3">
-        <v>17343400</v>
+        <v>16528200</v>
       </c>
       <c r="I54" s="3">
-        <v>17734200</v>
+        <v>16900600</v>
       </c>
       <c r="J54" s="3">
-        <v>17735400</v>
+        <v>16901800</v>
       </c>
       <c r="K54" s="3">
         <v>14914000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2326300</v>
+        <v>2216900</v>
       </c>
       <c r="E57" s="3">
-        <v>3083300</v>
+        <v>2938400</v>
       </c>
       <c r="F57" s="3">
-        <v>2726800</v>
+        <v>2598700</v>
       </c>
       <c r="G57" s="3">
-        <v>2587200</v>
+        <v>2465600</v>
       </c>
       <c r="H57" s="3">
-        <v>2479400</v>
+        <v>2362800</v>
       </c>
       <c r="I57" s="3">
-        <v>2392400</v>
+        <v>2280000</v>
       </c>
       <c r="J57" s="3">
-        <v>2165800</v>
+        <v>2064000</v>
       </c>
       <c r="K57" s="3">
         <v>2033400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>316000</v>
+        <v>301200</v>
       </c>
       <c r="E58" s="3">
-        <v>265800</v>
+        <v>253300</v>
       </c>
       <c r="F58" s="3">
-        <v>548800</v>
+        <v>523000</v>
       </c>
       <c r="G58" s="3">
-        <v>656600</v>
+        <v>625700</v>
       </c>
       <c r="H58" s="3">
-        <v>87000</v>
+        <v>82900</v>
       </c>
       <c r="I58" s="3">
-        <v>433600</v>
+        <v>413300</v>
       </c>
       <c r="J58" s="3">
-        <v>1247000</v>
+        <v>1188400</v>
       </c>
       <c r="K58" s="3">
         <v>889500</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6845200</v>
+        <v>6523500</v>
       </c>
       <c r="E59" s="3">
-        <v>6753400</v>
+        <v>6435900</v>
       </c>
       <c r="F59" s="3">
-        <v>6061300</v>
+        <v>5776300</v>
       </c>
       <c r="G59" s="3">
-        <v>5844400</v>
+        <v>5569700</v>
       </c>
       <c r="H59" s="3">
-        <v>5894700</v>
+        <v>5617600</v>
       </c>
       <c r="I59" s="3">
-        <v>5920400</v>
+        <v>5642100</v>
       </c>
       <c r="J59" s="3">
-        <v>5685200</v>
+        <v>5417900</v>
       </c>
       <c r="K59" s="3">
         <v>5220100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9487500</v>
+        <v>9041600</v>
       </c>
       <c r="E60" s="3">
-        <v>10102500</v>
+        <v>9627600</v>
       </c>
       <c r="F60" s="3">
-        <v>9336900</v>
+        <v>8898000</v>
       </c>
       <c r="G60" s="3">
-        <v>9088200</v>
+        <v>8661000</v>
       </c>
       <c r="H60" s="3">
-        <v>8461000</v>
+        <v>8063300</v>
       </c>
       <c r="I60" s="3">
-        <v>8746400</v>
+        <v>8335300</v>
       </c>
       <c r="J60" s="3">
-        <v>9098000</v>
+        <v>8670400</v>
       </c>
       <c r="K60" s="3">
         <v>8143100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7473700</v>
+        <v>7122400</v>
       </c>
       <c r="E61" s="3">
-        <v>4779900</v>
+        <v>4555200</v>
       </c>
       <c r="F61" s="3">
-        <v>4332800</v>
+        <v>4129100</v>
       </c>
       <c r="G61" s="3">
-        <v>3688400</v>
+        <v>3515100</v>
       </c>
       <c r="H61" s="3">
-        <v>3080800</v>
+        <v>2936000</v>
       </c>
       <c r="I61" s="3">
-        <v>3387100</v>
+        <v>3227900</v>
       </c>
       <c r="J61" s="3">
-        <v>3546300</v>
+        <v>3379700</v>
       </c>
       <c r="K61" s="3">
         <v>2241600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>899100</v>
+        <v>856900</v>
       </c>
       <c r="E62" s="3">
-        <v>1004500</v>
+        <v>957300</v>
       </c>
       <c r="F62" s="3">
-        <v>971400</v>
+        <v>925800</v>
       </c>
       <c r="G62" s="3">
-        <v>1070600</v>
+        <v>1020300</v>
       </c>
       <c r="H62" s="3">
-        <v>1266600</v>
+        <v>1207100</v>
       </c>
       <c r="I62" s="3">
-        <v>1014300</v>
+        <v>966600</v>
       </c>
       <c r="J62" s="3">
-        <v>1145400</v>
+        <v>1091500</v>
       </c>
       <c r="K62" s="3">
         <v>992500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17878700</v>
+        <v>17038300</v>
       </c>
       <c r="E66" s="3">
-        <v>15938300</v>
+        <v>15189200</v>
       </c>
       <c r="F66" s="3">
-        <v>14696200</v>
+        <v>14005400</v>
       </c>
       <c r="G66" s="3">
-        <v>13888900</v>
+        <v>13236100</v>
       </c>
       <c r="H66" s="3">
-        <v>12850100</v>
+        <v>12246100</v>
       </c>
       <c r="I66" s="3">
-        <v>13189500</v>
+        <v>12569500</v>
       </c>
       <c r="J66" s="3">
-        <v>13828900</v>
+        <v>13178900</v>
       </c>
       <c r="K66" s="3">
         <v>11420900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3873400</v>
+        <v>3691400</v>
       </c>
       <c r="E72" s="3">
-        <v>5338500</v>
+        <v>5087600</v>
       </c>
       <c r="F72" s="3">
-        <v>4648800</v>
+        <v>4430300</v>
       </c>
       <c r="G72" s="3">
-        <v>4232300</v>
+        <v>4033400</v>
       </c>
       <c r="H72" s="3">
-        <v>3684800</v>
+        <v>3511600</v>
       </c>
       <c r="I72" s="3">
-        <v>3461800</v>
+        <v>3299100</v>
       </c>
       <c r="J72" s="3">
-        <v>2839500</v>
+        <v>2706100</v>
       </c>
       <c r="K72" s="3">
         <v>2486500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3378500</v>
+        <v>3219700</v>
       </c>
       <c r="E76" s="3">
-        <v>5458600</v>
+        <v>5202000</v>
       </c>
       <c r="F76" s="3">
-        <v>4021600</v>
+        <v>3832600</v>
       </c>
       <c r="G76" s="3">
-        <v>4331600</v>
+        <v>4128000</v>
       </c>
       <c r="H76" s="3">
-        <v>4493300</v>
+        <v>4282100</v>
       </c>
       <c r="I76" s="3">
-        <v>4544700</v>
+        <v>4331100</v>
       </c>
       <c r="J76" s="3">
-        <v>3906500</v>
+        <v>3722900</v>
       </c>
       <c r="K76" s="3">
         <v>3493100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-385900</v>
+        <v>-367700</v>
       </c>
       <c r="E81" s="3">
-        <v>814600</v>
+        <v>776300</v>
       </c>
       <c r="F81" s="3">
-        <v>797500</v>
+        <v>760000</v>
       </c>
       <c r="G81" s="3">
-        <v>885700</v>
+        <v>844000</v>
       </c>
       <c r="H81" s="3">
-        <v>780300</v>
+        <v>743600</v>
       </c>
       <c r="I81" s="3">
-        <v>857500</v>
+        <v>817200</v>
       </c>
       <c r="J81" s="3">
-        <v>600200</v>
+        <v>572000</v>
       </c>
       <c r="K81" s="3">
         <v>519300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1097600</v>
+        <v>1046000</v>
       </c>
       <c r="E83" s="3">
-        <v>447100</v>
+        <v>426100</v>
       </c>
       <c r="F83" s="3">
-        <v>388300</v>
+        <v>370100</v>
       </c>
       <c r="G83" s="3">
-        <v>344200</v>
+        <v>328000</v>
       </c>
       <c r="H83" s="3">
-        <v>377300</v>
+        <v>359600</v>
       </c>
       <c r="I83" s="3">
-        <v>339300</v>
+        <v>323400</v>
       </c>
       <c r="J83" s="3">
-        <v>306200</v>
+        <v>291900</v>
       </c>
       <c r="K83" s="3">
         <v>320600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>771700</v>
+        <v>735500</v>
       </c>
       <c r="E89" s="3">
-        <v>1553300</v>
+        <v>1480300</v>
       </c>
       <c r="F89" s="3">
-        <v>1387900</v>
+        <v>1322700</v>
       </c>
       <c r="G89" s="3">
-        <v>1300900</v>
+        <v>1239800</v>
       </c>
       <c r="H89" s="3">
-        <v>1157600</v>
+        <v>1103200</v>
       </c>
       <c r="I89" s="3">
-        <v>1245800</v>
+        <v>1187300</v>
       </c>
       <c r="J89" s="3">
-        <v>1010600</v>
+        <v>963100</v>
       </c>
       <c r="K89" s="3">
         <v>731000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-487500</v>
+        <v>-464600</v>
       </c>
       <c r="E91" s="3">
-        <v>-490000</v>
+        <v>-467000</v>
       </c>
       <c r="F91" s="3">
-        <v>-403000</v>
+        <v>-384100</v>
       </c>
       <c r="G91" s="3">
-        <v>-378500</v>
+        <v>-360700</v>
       </c>
       <c r="H91" s="3">
-        <v>-422600</v>
+        <v>-402800</v>
       </c>
       <c r="I91" s="3">
-        <v>-369900</v>
+        <v>-352600</v>
       </c>
       <c r="J91" s="3">
-        <v>-300100</v>
+        <v>-286000</v>
       </c>
       <c r="K91" s="3">
         <v>-285100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-526700</v>
+        <v>-502000</v>
       </c>
       <c r="E94" s="3">
-        <v>-991000</v>
+        <v>-944400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1225000</v>
+        <v>-1167400</v>
       </c>
       <c r="G94" s="3">
-        <v>-749700</v>
+        <v>-714500</v>
       </c>
       <c r="H94" s="3">
-        <v>-594100</v>
+        <v>-566200</v>
       </c>
       <c r="I94" s="3">
-        <v>-463000</v>
+        <v>-441300</v>
       </c>
       <c r="J94" s="3">
-        <v>-412800</v>
+        <v>-393400</v>
       </c>
       <c r="K94" s="3">
         <v>-372600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-520600</v>
+        <v>-496100</v>
       </c>
       <c r="E96" s="3">
-        <v>-493700</v>
+        <v>-470500</v>
       </c>
       <c r="F96" s="3">
-        <v>-503500</v>
+        <v>-479800</v>
       </c>
       <c r="G96" s="3">
-        <v>-439800</v>
+        <v>-419100</v>
       </c>
       <c r="H96" s="3">
-        <v>-410400</v>
+        <v>-391100</v>
       </c>
       <c r="I96" s="3">
-        <v>-338100</v>
+        <v>-322200</v>
       </c>
       <c r="J96" s="3">
-        <v>-303800</v>
+        <v>-289500</v>
       </c>
       <c r="K96" s="3">
         <v>-283900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>242500</v>
+        <v>231100</v>
       </c>
       <c r="E100" s="3">
-        <v>-499800</v>
+        <v>-476300</v>
       </c>
       <c r="F100" s="3">
-        <v>-422600</v>
+        <v>-402800</v>
       </c>
       <c r="G100" s="3">
-        <v>394400</v>
+        <v>375900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1348700</v>
+        <v>-1285300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1672100</v>
+        <v>-1593500</v>
       </c>
       <c r="J100" s="3">
-        <v>1127000</v>
+        <v>1074000</v>
       </c>
       <c r="K100" s="3">
         <v>-322900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-150700</v>
+        <v>-143600</v>
       </c>
       <c r="E101" s="3">
-        <v>71000</v>
+        <v>67700</v>
       </c>
       <c r="F101" s="3">
-        <v>-159200</v>
+        <v>-151800</v>
       </c>
       <c r="G101" s="3">
-        <v>-170300</v>
+        <v>-162300</v>
       </c>
       <c r="H101" s="3">
-        <v>23300</v>
+        <v>22200</v>
       </c>
       <c r="I101" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="J101" s="3">
-        <v>-34300</v>
+        <v>-32700</v>
       </c>
       <c r="K101" s="3">
         <v>-188100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>336900</v>
+        <v>321000</v>
       </c>
       <c r="E102" s="3">
-        <v>133500</v>
+        <v>127200</v>
       </c>
       <c r="F102" s="3">
-        <v>-418900</v>
+        <v>-399300</v>
       </c>
       <c r="G102" s="3">
-        <v>775400</v>
+        <v>739000</v>
       </c>
       <c r="H102" s="3">
-        <v>-761900</v>
+        <v>-726100</v>
       </c>
       <c r="I102" s="3">
-        <v>-879500</v>
+        <v>-838200</v>
       </c>
       <c r="J102" s="3">
-        <v>1690500</v>
+        <v>1611000</v>
       </c>
       <c r="K102" s="3">
         <v>-152600</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43343</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42978</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42613</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42247</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41882</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41517</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41152</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40786</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22555500</v>
+        <v>19678000</v>
       </c>
       <c r="E8" s="3">
-        <v>25629300</v>
+        <v>21815300</v>
       </c>
       <c r="F8" s="3">
-        <v>23823300</v>
+        <v>24788300</v>
       </c>
       <c r="G8" s="3">
-        <v>24163100</v>
+        <v>23041500</v>
       </c>
       <c r="H8" s="3">
-        <v>23634200</v>
+        <v>23370100</v>
       </c>
       <c r="I8" s="3">
-        <v>23132200</v>
+        <v>22858600</v>
       </c>
       <c r="J8" s="3">
+        <v>22373100</v>
+      </c>
+      <c r="K8" s="3">
         <v>21032100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21761800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20460600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18836100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19661500</v>
+        <v>16943300</v>
       </c>
       <c r="E9" s="3">
-        <v>21895900</v>
+        <v>19016300</v>
       </c>
       <c r="F9" s="3">
-        <v>20219500</v>
+        <v>21177400</v>
       </c>
       <c r="G9" s="3">
-        <v>20440200</v>
+        <v>19556000</v>
       </c>
       <c r="H9" s="3">
-        <v>20003600</v>
+        <v>19769400</v>
       </c>
       <c r="I9" s="3">
-        <v>19445500</v>
+        <v>19347100</v>
       </c>
       <c r="J9" s="3">
+        <v>18807400</v>
+      </c>
+      <c r="K9" s="3">
         <v>17820500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18513600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17255100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15880500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2894000</v>
+        <v>2734700</v>
       </c>
       <c r="E10" s="3">
-        <v>3733400</v>
+        <v>2799000</v>
       </c>
       <c r="F10" s="3">
-        <v>3603800</v>
+        <v>3610900</v>
       </c>
       <c r="G10" s="3">
-        <v>3722900</v>
+        <v>3485500</v>
       </c>
       <c r="H10" s="3">
-        <v>3630600</v>
+        <v>3600700</v>
       </c>
       <c r="I10" s="3">
-        <v>3686700</v>
+        <v>3511500</v>
       </c>
       <c r="J10" s="3">
+        <v>3565700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3211500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3248200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3205500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2955700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,26 +925,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>538200</v>
+        <v>245000</v>
       </c>
       <c r="E14" s="3">
-        <v>66500</v>
+        <v>518300</v>
       </c>
       <c r="F14" s="3">
-        <v>93400</v>
+        <v>64400</v>
       </c>
       <c r="G14" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>90300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -939,29 +958,32 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28000</v>
+        <v>37300</v>
       </c>
       <c r="E15" s="3">
-        <v>99200</v>
+        <v>27100</v>
       </c>
       <c r="F15" s="3">
-        <v>57200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>96000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>55300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -978,12 +1000,15 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22479600</v>
+        <v>19295200</v>
       </c>
       <c r="E17" s="3">
-        <v>24393000</v>
+        <v>21741900</v>
       </c>
       <c r="F17" s="3">
-        <v>22659400</v>
+        <v>23592500</v>
       </c>
       <c r="G17" s="3">
-        <v>22787800</v>
+        <v>21915800</v>
       </c>
       <c r="H17" s="3">
-        <v>22355900</v>
+        <v>22040000</v>
       </c>
       <c r="I17" s="3">
-        <v>21806100</v>
+        <v>21622300</v>
       </c>
       <c r="J17" s="3">
+        <v>21090500</v>
+      </c>
+      <c r="K17" s="3">
         <v>19942900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20798900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19356600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17833700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>75900</v>
+        <v>382800</v>
       </c>
       <c r="E18" s="3">
-        <v>1236300</v>
+        <v>73400</v>
       </c>
       <c r="F18" s="3">
-        <v>1163900</v>
+        <v>1195700</v>
       </c>
       <c r="G18" s="3">
-        <v>1375200</v>
+        <v>1125700</v>
       </c>
       <c r="H18" s="3">
-        <v>1278300</v>
+        <v>1330100</v>
       </c>
       <c r="I18" s="3">
-        <v>1326200</v>
+        <v>1236400</v>
       </c>
       <c r="J18" s="3">
+        <v>1282700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1089200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>962900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1104000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1002400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-163400</v>
+        <v>7900</v>
       </c>
       <c r="E20" s="3">
-        <v>29200</v>
+        <v>-158100</v>
       </c>
       <c r="F20" s="3">
-        <v>25700</v>
+        <v>28200</v>
       </c>
       <c r="G20" s="3">
-        <v>4700</v>
+        <v>24800</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I20" s="3">
-        <v>66500</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>46100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>961700</v>
+        <v>1070800</v>
       </c>
       <c r="E21" s="3">
-        <v>1692900</v>
+        <v>929300</v>
       </c>
       <c r="F21" s="3">
-        <v>1560800</v>
+        <v>1637000</v>
       </c>
       <c r="G21" s="3">
-        <v>1708900</v>
+        <v>1509300</v>
       </c>
       <c r="H21" s="3">
-        <v>1639000</v>
+        <v>1652600</v>
       </c>
       <c r="I21" s="3">
-        <v>1717100</v>
+        <v>1584900</v>
       </c>
       <c r="J21" s="3">
+        <v>1660500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1379600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1329700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1537000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1306600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>170400</v>
+        <v>123100</v>
       </c>
       <c r="E22" s="3">
-        <v>141300</v>
+        <v>164800</v>
       </c>
       <c r="F22" s="3">
-        <v>128400</v>
+        <v>136600</v>
       </c>
       <c r="G22" s="3">
-        <v>109700</v>
+        <v>124200</v>
       </c>
       <c r="H22" s="3">
-        <v>121400</v>
+        <v>106100</v>
       </c>
       <c r="I22" s="3">
-        <v>175100</v>
+        <v>117400</v>
       </c>
       <c r="J22" s="3">
+        <v>169400</v>
+      </c>
+      <c r="K22" s="3">
         <v>183300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>186900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>202000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>173700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-258000</v>
+        <v>267600</v>
       </c>
       <c r="E23" s="3">
-        <v>1124200</v>
+        <v>-249500</v>
       </c>
       <c r="F23" s="3">
-        <v>1061200</v>
+        <v>1087300</v>
       </c>
       <c r="G23" s="3">
-        <v>1270100</v>
+        <v>1026400</v>
       </c>
       <c r="H23" s="3">
-        <v>1156900</v>
+        <v>1228500</v>
       </c>
       <c r="I23" s="3">
-        <v>1217600</v>
+        <v>1118900</v>
       </c>
       <c r="J23" s="3">
+        <v>1177700</v>
+      </c>
+      <c r="K23" s="3">
         <v>903600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>822100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>938000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>846300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>114400</v>
+        <v>114000</v>
       </c>
       <c r="E24" s="3">
-        <v>323400</v>
+        <v>110700</v>
       </c>
       <c r="F24" s="3">
-        <v>286000</v>
+        <v>312800</v>
       </c>
       <c r="G24" s="3">
-        <v>400400</v>
+        <v>276600</v>
       </c>
       <c r="H24" s="3">
-        <v>385200</v>
+        <v>387300</v>
       </c>
       <c r="I24" s="3">
-        <v>373600</v>
+        <v>372600</v>
       </c>
       <c r="J24" s="3">
+        <v>361300</v>
+      </c>
+      <c r="K24" s="3">
         <v>309400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>275600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>320900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>293500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-372400</v>
+        <v>153600</v>
       </c>
       <c r="E26" s="3">
-        <v>800800</v>
+        <v>-360200</v>
       </c>
       <c r="F26" s="3">
-        <v>775200</v>
+        <v>774600</v>
       </c>
       <c r="G26" s="3">
-        <v>869700</v>
+        <v>749700</v>
       </c>
       <c r="H26" s="3">
-        <v>771700</v>
+        <v>841200</v>
       </c>
       <c r="I26" s="3">
-        <v>844000</v>
+        <v>746300</v>
       </c>
       <c r="J26" s="3">
+        <v>816300</v>
+      </c>
+      <c r="K26" s="3">
         <v>594200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>546500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>617100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>552900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-367700</v>
+        <v>156900</v>
       </c>
       <c r="E27" s="3">
-        <v>776300</v>
+        <v>-355700</v>
       </c>
       <c r="F27" s="3">
-        <v>760000</v>
+        <v>750900</v>
       </c>
       <c r="G27" s="3">
-        <v>844000</v>
+        <v>735000</v>
       </c>
       <c r="H27" s="3">
-        <v>743600</v>
+        <v>816300</v>
       </c>
       <c r="I27" s="3">
-        <v>817200</v>
+        <v>719200</v>
       </c>
       <c r="J27" s="3">
+        <v>790400</v>
+      </c>
+      <c r="K27" s="3">
         <v>572000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>519300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>589000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>529400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>163400</v>
+        <v>-7900</v>
       </c>
       <c r="E32" s="3">
-        <v>-29200</v>
+        <v>158100</v>
       </c>
       <c r="F32" s="3">
-        <v>-25700</v>
+        <v>-28200</v>
       </c>
       <c r="G32" s="3">
-        <v>-4700</v>
+        <v>-24800</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="I32" s="3">
-        <v>-66500</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-46100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-367700</v>
+        <v>156900</v>
       </c>
       <c r="E33" s="3">
-        <v>776300</v>
+        <v>-355700</v>
       </c>
       <c r="F33" s="3">
-        <v>760000</v>
+        <v>750900</v>
       </c>
       <c r="G33" s="3">
-        <v>844000</v>
+        <v>735000</v>
       </c>
       <c r="H33" s="3">
-        <v>743600</v>
+        <v>816300</v>
       </c>
       <c r="I33" s="3">
-        <v>817200</v>
+        <v>719200</v>
       </c>
       <c r="J33" s="3">
+        <v>790400</v>
+      </c>
+      <c r="K33" s="3">
         <v>572000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>519300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>589000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>529400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-367700</v>
+        <v>156900</v>
       </c>
       <c r="E35" s="3">
-        <v>776300</v>
+        <v>-355700</v>
       </c>
       <c r="F35" s="3">
-        <v>760000</v>
+        <v>750900</v>
       </c>
       <c r="G35" s="3">
-        <v>844000</v>
+        <v>735000</v>
       </c>
       <c r="H35" s="3">
-        <v>743600</v>
+        <v>816300</v>
       </c>
       <c r="I35" s="3">
-        <v>817200</v>
+        <v>719200</v>
       </c>
       <c r="J35" s="3">
+        <v>790400</v>
+      </c>
+      <c r="K35" s="3">
         <v>572000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>519300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>589000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>529400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43343</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42978</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42613</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42247</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41882</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41517</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41152</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40786</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1953100</v>
+        <v>3624400</v>
       </c>
       <c r="E41" s="3">
-        <v>1642500</v>
+        <v>1889000</v>
       </c>
       <c r="F41" s="3">
-        <v>1518800</v>
+        <v>1588600</v>
       </c>
       <c r="G41" s="3">
-        <v>1865500</v>
+        <v>1469000</v>
       </c>
       <c r="H41" s="3">
-        <v>1193100</v>
+        <v>1804300</v>
       </c>
       <c r="I41" s="3">
-        <v>1929700</v>
+        <v>1153900</v>
       </c>
       <c r="J41" s="3">
+        <v>1866400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2295100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1080000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1025500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1177300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>460000</v>
+        <v>415500</v>
       </c>
       <c r="E42" s="3">
-        <v>504300</v>
+        <v>444900</v>
       </c>
       <c r="F42" s="3">
-        <v>468100</v>
+        <v>487800</v>
       </c>
       <c r="G42" s="3">
-        <v>527700</v>
+        <v>452800</v>
       </c>
       <c r="H42" s="3">
-        <v>463500</v>
+        <v>510400</v>
       </c>
       <c r="I42" s="3">
-        <v>442400</v>
+        <v>448300</v>
       </c>
       <c r="J42" s="3">
+        <v>427900</v>
+      </c>
+      <c r="K42" s="3">
         <v>922300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>521700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>607000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>532900</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4646300</v>
+        <v>4781700</v>
       </c>
       <c r="E43" s="3">
-        <v>5200800</v>
+        <v>4493800</v>
       </c>
       <c r="F43" s="3">
-        <v>4768900</v>
+        <v>5030100</v>
       </c>
       <c r="G43" s="3">
-        <v>4723300</v>
+        <v>4612400</v>
       </c>
       <c r="H43" s="3">
-        <v>4686000</v>
+        <v>4568300</v>
       </c>
       <c r="I43" s="3">
-        <v>4496900</v>
+        <v>4532200</v>
       </c>
       <c r="J43" s="3">
+        <v>4349300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4292600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4098700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3839400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3609500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>302400</v>
+        <v>289000</v>
       </c>
       <c r="E44" s="3">
-        <v>343200</v>
+        <v>292400</v>
       </c>
       <c r="F44" s="3">
-        <v>326900</v>
+        <v>332000</v>
       </c>
       <c r="G44" s="3">
-        <v>300000</v>
+        <v>316100</v>
       </c>
       <c r="H44" s="3">
-        <v>312900</v>
+        <v>290200</v>
       </c>
       <c r="I44" s="3">
-        <v>315200</v>
+        <v>302600</v>
       </c>
       <c r="J44" s="3">
+        <v>304900</v>
+      </c>
+      <c r="K44" s="3">
         <v>309400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>320600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>332100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>295800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1537500</v>
+        <v>1764800</v>
       </c>
       <c r="E45" s="3">
-        <v>1662400</v>
+        <v>1487000</v>
       </c>
       <c r="F45" s="3">
-        <v>1481400</v>
+        <v>1607800</v>
       </c>
       <c r="G45" s="3">
-        <v>1290000</v>
+        <v>1432800</v>
       </c>
       <c r="H45" s="3">
-        <v>1119500</v>
+        <v>1247700</v>
       </c>
       <c r="I45" s="3">
-        <v>1154600</v>
+        <v>1082800</v>
       </c>
       <c r="J45" s="3">
+        <v>1116700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1083400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1056300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>817900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>895600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8899200</v>
+        <v>10875500</v>
       </c>
       <c r="E46" s="3">
-        <v>9353300</v>
+        <v>8607100</v>
       </c>
       <c r="F46" s="3">
-        <v>8564100</v>
+        <v>9046300</v>
       </c>
       <c r="G46" s="3">
-        <v>8706500</v>
+        <v>8283100</v>
       </c>
       <c r="H46" s="3">
-        <v>7775000</v>
+        <v>8420800</v>
       </c>
       <c r="I46" s="3">
-        <v>8338800</v>
+        <v>7519800</v>
       </c>
       <c r="J46" s="3">
+        <v>8065200</v>
+      </c>
+      <c r="K46" s="3">
         <v>8902700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7077300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6622000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6511100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1442900</v>
+        <v>1532200</v>
       </c>
       <c r="E47" s="3">
-        <v>1969400</v>
+        <v>1395600</v>
       </c>
       <c r="F47" s="3">
-        <v>970100</v>
+        <v>1904800</v>
       </c>
       <c r="G47" s="3">
-        <v>932800</v>
+        <v>938300</v>
       </c>
       <c r="H47" s="3">
-        <v>912900</v>
+        <v>902200</v>
       </c>
       <c r="I47" s="3">
-        <v>791500</v>
+        <v>883000</v>
       </c>
       <c r="J47" s="3">
+        <v>765500</v>
+      </c>
+      <c r="K47" s="3">
         <v>633900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>572500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>572200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>477700</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2202900</v>
+        <v>1540100</v>
       </c>
       <c r="E48" s="3">
-        <v>798500</v>
+        <v>2130600</v>
       </c>
       <c r="F48" s="3">
-        <v>722600</v>
+        <v>772300</v>
       </c>
       <c r="G48" s="3">
-        <v>688800</v>
+        <v>698900</v>
       </c>
       <c r="H48" s="3">
-        <v>705100</v>
+        <v>666200</v>
       </c>
       <c r="I48" s="3">
-        <v>693400</v>
+        <v>682000</v>
       </c>
       <c r="J48" s="3">
+        <v>670700</v>
+      </c>
+      <c r="K48" s="3">
         <v>647900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>638800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>644000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>602200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7514600</v>
+        <v>7273700</v>
       </c>
       <c r="E49" s="3">
-        <v>8124000</v>
+        <v>7268000</v>
       </c>
       <c r="F49" s="3">
-        <v>7434100</v>
+        <v>7857400</v>
       </c>
       <c r="G49" s="3">
-        <v>6793200</v>
+        <v>7190100</v>
       </c>
       <c r="H49" s="3">
-        <v>6765100</v>
+        <v>6570200</v>
       </c>
       <c r="I49" s="3">
-        <v>6776800</v>
+        <v>6543100</v>
       </c>
       <c r="J49" s="3">
+        <v>6554400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6414900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6306000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6276400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5604900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>198500</v>
+        <v>221300</v>
       </c>
       <c r="E52" s="3">
-        <v>145900</v>
+        <v>191900</v>
       </c>
       <c r="F52" s="3">
-        <v>147100</v>
+        <v>141100</v>
       </c>
       <c r="G52" s="3">
-        <v>242800</v>
+        <v>142300</v>
       </c>
       <c r="H52" s="3">
-        <v>370100</v>
+        <v>234900</v>
       </c>
       <c r="I52" s="3">
-        <v>300000</v>
+        <v>357900</v>
       </c>
       <c r="J52" s="3">
+        <v>290200</v>
+      </c>
+      <c r="K52" s="3">
         <v>302400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>319400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>235600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>196000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20258100</v>
+        <v>21442700</v>
       </c>
       <c r="E54" s="3">
-        <v>20391200</v>
+        <v>19593300</v>
       </c>
       <c r="F54" s="3">
-        <v>17838000</v>
+        <v>19722000</v>
       </c>
       <c r="G54" s="3">
-        <v>17364100</v>
+        <v>17252600</v>
       </c>
       <c r="H54" s="3">
-        <v>16528200</v>
+        <v>16794200</v>
       </c>
       <c r="I54" s="3">
-        <v>16900600</v>
+        <v>15985800</v>
       </c>
       <c r="J54" s="3">
+        <v>16346000</v>
+      </c>
+      <c r="K54" s="3">
         <v>16901800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14914000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14350300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13392000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2216900</v>
+        <v>2460300</v>
       </c>
       <c r="E57" s="3">
-        <v>2938400</v>
+        <v>2144200</v>
       </c>
       <c r="F57" s="3">
-        <v>2598700</v>
+        <v>2841900</v>
       </c>
       <c r="G57" s="3">
-        <v>2465600</v>
+        <v>2513400</v>
       </c>
       <c r="H57" s="3">
-        <v>2362800</v>
+        <v>2384700</v>
       </c>
       <c r="I57" s="3">
-        <v>2280000</v>
+        <v>2285300</v>
       </c>
       <c r="J57" s="3">
+        <v>2205100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2064000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2033400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4852600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4633000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>301200</v>
+        <v>923600</v>
       </c>
       <c r="E58" s="3">
-        <v>253300</v>
+        <v>291300</v>
       </c>
       <c r="F58" s="3">
-        <v>523000</v>
+        <v>245000</v>
       </c>
       <c r="G58" s="3">
-        <v>625700</v>
+        <v>505800</v>
       </c>
       <c r="H58" s="3">
-        <v>82900</v>
+        <v>605200</v>
       </c>
       <c r="I58" s="3">
-        <v>413300</v>
+        <v>80200</v>
       </c>
       <c r="J58" s="3">
+        <v>399700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1188400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>889500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>169400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>205400</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6523500</v>
+        <v>6612000</v>
       </c>
       <c r="E59" s="3">
-        <v>6435900</v>
+        <v>6309400</v>
       </c>
       <c r="F59" s="3">
-        <v>5776300</v>
+        <v>6224700</v>
       </c>
       <c r="G59" s="3">
-        <v>5569700</v>
+        <v>5586800</v>
       </c>
       <c r="H59" s="3">
-        <v>5617600</v>
+        <v>5386900</v>
       </c>
       <c r="I59" s="3">
-        <v>5642100</v>
+        <v>5433200</v>
       </c>
       <c r="J59" s="3">
+        <v>5456900</v>
+      </c>
+      <c r="K59" s="3">
         <v>5417900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5220100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2046500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2084700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9041600</v>
+        <v>9995900</v>
       </c>
       <c r="E60" s="3">
-        <v>9627600</v>
+        <v>8744900</v>
       </c>
       <c r="F60" s="3">
-        <v>8898000</v>
+        <v>9311700</v>
       </c>
       <c r="G60" s="3">
-        <v>8661000</v>
+        <v>8606000</v>
       </c>
       <c r="H60" s="3">
-        <v>8063300</v>
+        <v>8376800</v>
       </c>
       <c r="I60" s="3">
-        <v>8335300</v>
+        <v>7798700</v>
       </c>
       <c r="J60" s="3">
+        <v>8061800</v>
+      </c>
+      <c r="K60" s="3">
         <v>8670400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8143100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7068500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6923100</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7122400</v>
+        <v>7017400</v>
       </c>
       <c r="E61" s="3">
-        <v>4555200</v>
+        <v>6888600</v>
       </c>
       <c r="F61" s="3">
-        <v>4129100</v>
+        <v>4405700</v>
       </c>
       <c r="G61" s="3">
-        <v>3515100</v>
+        <v>3993600</v>
       </c>
       <c r="H61" s="3">
-        <v>2936000</v>
+        <v>3399700</v>
       </c>
       <c r="I61" s="3">
-        <v>3227900</v>
+        <v>2839700</v>
       </c>
       <c r="J61" s="3">
+        <v>3122000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3379700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2241600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2861100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2655200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>856900</v>
+        <v>844600</v>
       </c>
       <c r="E62" s="3">
-        <v>957300</v>
+        <v>828800</v>
       </c>
       <c r="F62" s="3">
-        <v>925800</v>
+        <v>925900</v>
       </c>
       <c r="G62" s="3">
-        <v>1020300</v>
+        <v>895400</v>
       </c>
       <c r="H62" s="3">
-        <v>1207100</v>
+        <v>986800</v>
       </c>
       <c r="I62" s="3">
-        <v>966600</v>
+        <v>1167500</v>
       </c>
       <c r="J62" s="3">
+        <v>934900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1091500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>992500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>977300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>802900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17038300</v>
+        <v>17865700</v>
       </c>
       <c r="E66" s="3">
-        <v>15189200</v>
+        <v>16479200</v>
       </c>
       <c r="F66" s="3">
-        <v>14005400</v>
+        <v>14690700</v>
       </c>
       <c r="G66" s="3">
-        <v>13236100</v>
+        <v>13545800</v>
       </c>
       <c r="H66" s="3">
-        <v>12246100</v>
+        <v>12801700</v>
       </c>
       <c r="I66" s="3">
-        <v>12569500</v>
+        <v>11844300</v>
       </c>
       <c r="J66" s="3">
+        <v>12157000</v>
+      </c>
+      <c r="K66" s="3">
         <v>13178900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11420900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10946100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10416400</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3691400</v>
+        <v>3901000</v>
       </c>
       <c r="E72" s="3">
-        <v>5087600</v>
+        <v>3570200</v>
       </c>
       <c r="F72" s="3">
-        <v>4430300</v>
+        <v>4920600</v>
       </c>
       <c r="G72" s="3">
-        <v>4033400</v>
+        <v>4284900</v>
       </c>
       <c r="H72" s="3">
-        <v>3511600</v>
+        <v>3901000</v>
       </c>
       <c r="I72" s="3">
-        <v>3299100</v>
+        <v>3396300</v>
       </c>
       <c r="J72" s="3">
+        <v>3190800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2706100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2486500</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3219700</v>
+        <v>3577000</v>
       </c>
       <c r="E76" s="3">
-        <v>5202000</v>
+        <v>3114100</v>
       </c>
       <c r="F76" s="3">
-        <v>3832600</v>
+        <v>5031300</v>
       </c>
       <c r="G76" s="3">
-        <v>4128000</v>
+        <v>3706800</v>
       </c>
       <c r="H76" s="3">
-        <v>4282100</v>
+        <v>3992500</v>
       </c>
       <c r="I76" s="3">
-        <v>4331100</v>
+        <v>4141500</v>
       </c>
       <c r="J76" s="3">
+        <v>4189000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3722900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3493100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3404100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2975600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43343</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42978</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42613</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42247</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41882</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41517</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41152</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40786</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-367700</v>
+        <v>156900</v>
       </c>
       <c r="E81" s="3">
-        <v>776300</v>
+        <v>-355700</v>
       </c>
       <c r="F81" s="3">
-        <v>760000</v>
+        <v>750900</v>
       </c>
       <c r="G81" s="3">
-        <v>844000</v>
+        <v>735000</v>
       </c>
       <c r="H81" s="3">
-        <v>743600</v>
+        <v>816300</v>
       </c>
       <c r="I81" s="3">
-        <v>817200</v>
+        <v>719200</v>
       </c>
       <c r="J81" s="3">
+        <v>790400</v>
+      </c>
+      <c r="K81" s="3">
         <v>572000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>519300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>589000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>529400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1046000</v>
+        <v>678600</v>
       </c>
       <c r="E83" s="3">
-        <v>426100</v>
+        <v>1011700</v>
       </c>
       <c r="F83" s="3">
-        <v>370100</v>
+        <v>412100</v>
       </c>
       <c r="G83" s="3">
-        <v>328000</v>
+        <v>357900</v>
       </c>
       <c r="H83" s="3">
-        <v>359600</v>
+        <v>317300</v>
       </c>
       <c r="I83" s="3">
-        <v>323400</v>
+        <v>347800</v>
       </c>
       <c r="J83" s="3">
+        <v>312800</v>
+      </c>
+      <c r="K83" s="3">
         <v>291900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>320600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>396100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>286400</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>735500</v>
+        <v>1107600</v>
       </c>
       <c r="E89" s="3">
-        <v>1480300</v>
+        <v>711300</v>
       </c>
       <c r="F89" s="3">
-        <v>1322700</v>
+        <v>1431700</v>
       </c>
       <c r="G89" s="3">
-        <v>1239800</v>
+        <v>1279300</v>
       </c>
       <c r="H89" s="3">
-        <v>1103200</v>
+        <v>1199100</v>
       </c>
       <c r="I89" s="3">
-        <v>1187300</v>
+        <v>1067000</v>
       </c>
       <c r="J89" s="3">
+        <v>1148300</v>
+      </c>
+      <c r="K89" s="3">
         <v>963100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>731000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1142200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>994200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-464600</v>
+        <v>-334200</v>
       </c>
       <c r="E91" s="3">
-        <v>-467000</v>
+        <v>-449400</v>
       </c>
       <c r="F91" s="3">
-        <v>-384100</v>
+        <v>-451600</v>
       </c>
       <c r="G91" s="3">
-        <v>-360700</v>
+        <v>-371500</v>
       </c>
       <c r="H91" s="3">
-        <v>-402800</v>
+        <v>-348900</v>
       </c>
       <c r="I91" s="3">
-        <v>-352600</v>
+        <v>-389500</v>
       </c>
       <c r="J91" s="3">
+        <v>-341000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-286000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-285100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-345600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-284100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-502000</v>
+        <v>-342100</v>
       </c>
       <c r="E94" s="3">
-        <v>-944400</v>
+        <v>-485500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1167400</v>
+        <v>-913400</v>
       </c>
       <c r="G94" s="3">
-        <v>-714500</v>
+        <v>-1129100</v>
       </c>
       <c r="H94" s="3">
-        <v>-566200</v>
+        <v>-691000</v>
       </c>
       <c r="I94" s="3">
-        <v>-441300</v>
+        <v>-547600</v>
       </c>
       <c r="J94" s="3">
+        <v>-426800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-393400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-372600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-989600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-272300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-496100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-470500</v>
+        <v>-479900</v>
       </c>
       <c r="F96" s="3">
-        <v>-479800</v>
+        <v>-455000</v>
       </c>
       <c r="G96" s="3">
-        <v>-419100</v>
+        <v>-464100</v>
       </c>
       <c r="H96" s="3">
-        <v>-391100</v>
+        <v>-405300</v>
       </c>
       <c r="I96" s="3">
-        <v>-322200</v>
+        <v>-378200</v>
       </c>
       <c r="J96" s="3">
+        <v>-311600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-289500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-283900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-248000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-244200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>231100</v>
+        <v>890900</v>
       </c>
       <c r="E100" s="3">
-        <v>-476300</v>
+        <v>223600</v>
       </c>
       <c r="F100" s="3">
-        <v>-402800</v>
+        <v>-460700</v>
       </c>
       <c r="G100" s="3">
-        <v>375900</v>
+        <v>-389500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1285300</v>
+        <v>363600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1593500</v>
+        <v>-1243100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1541200</v>
+      </c>
+      <c r="K100" s="3">
         <v>1074000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-322900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-671400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-143600</v>
+        <v>49700</v>
       </c>
       <c r="E101" s="3">
-        <v>67700</v>
+        <v>-138900</v>
       </c>
       <c r="F101" s="3">
-        <v>-151800</v>
+        <v>65500</v>
       </c>
       <c r="G101" s="3">
-        <v>-162300</v>
+        <v>-146800</v>
       </c>
       <c r="H101" s="3">
-        <v>22200</v>
+        <v>-156900</v>
       </c>
       <c r="I101" s="3">
-        <v>9300</v>
+        <v>21500</v>
       </c>
       <c r="J101" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-32700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-188100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>61700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>321000</v>
+        <v>1706100</v>
       </c>
       <c r="E102" s="3">
-        <v>127200</v>
+        <v>310500</v>
       </c>
       <c r="F102" s="3">
-        <v>-399300</v>
+        <v>123100</v>
       </c>
       <c r="G102" s="3">
-        <v>739000</v>
+        <v>-386200</v>
       </c>
       <c r="H102" s="3">
-        <v>-726100</v>
+        <v>714700</v>
       </c>
       <c r="I102" s="3">
-        <v>-838200</v>
+        <v>-702300</v>
       </c>
       <c r="J102" s="3">
+        <v>-810700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1611000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-152600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-51600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19678000</v>
+        <v>19012400</v>
       </c>
       <c r="E8" s="3">
-        <v>21815300</v>
+        <v>21077500</v>
       </c>
       <c r="F8" s="3">
-        <v>24788300</v>
+        <v>23949800</v>
       </c>
       <c r="G8" s="3">
-        <v>23041500</v>
+        <v>22262200</v>
       </c>
       <c r="H8" s="3">
-        <v>23370100</v>
+        <v>22579700</v>
       </c>
       <c r="I8" s="3">
-        <v>22858600</v>
+        <v>22085500</v>
       </c>
       <c r="J8" s="3">
-        <v>22373100</v>
+        <v>21616400</v>
       </c>
       <c r="K8" s="3">
         <v>21032100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16943300</v>
+        <v>16370200</v>
       </c>
       <c r="E9" s="3">
-        <v>19016300</v>
+        <v>18373100</v>
       </c>
       <c r="F9" s="3">
-        <v>21177400</v>
+        <v>20461100</v>
       </c>
       <c r="G9" s="3">
-        <v>19556000</v>
+        <v>18894600</v>
       </c>
       <c r="H9" s="3">
-        <v>19769400</v>
+        <v>19100700</v>
       </c>
       <c r="I9" s="3">
-        <v>19347100</v>
+        <v>18692700</v>
       </c>
       <c r="J9" s="3">
-        <v>18807400</v>
+        <v>18171300</v>
       </c>
       <c r="K9" s="3">
         <v>17820500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2734700</v>
+        <v>2642200</v>
       </c>
       <c r="E10" s="3">
-        <v>2799000</v>
+        <v>2704400</v>
       </c>
       <c r="F10" s="3">
-        <v>3610900</v>
+        <v>3488700</v>
       </c>
       <c r="G10" s="3">
-        <v>3485500</v>
+        <v>3367600</v>
       </c>
       <c r="H10" s="3">
-        <v>3600700</v>
+        <v>3478900</v>
       </c>
       <c r="I10" s="3">
-        <v>3511500</v>
+        <v>3392700</v>
       </c>
       <c r="J10" s="3">
-        <v>3565700</v>
+        <v>3445100</v>
       </c>
       <c r="K10" s="3">
         <v>3211500</v>
@@ -935,19 +935,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>245000</v>
+        <v>236700</v>
       </c>
       <c r="E14" s="3">
-        <v>518300</v>
+        <v>500700</v>
       </c>
       <c r="F14" s="3">
-        <v>64400</v>
+        <v>62200</v>
       </c>
       <c r="G14" s="3">
-        <v>90300</v>
+        <v>87300</v>
       </c>
       <c r="H14" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -974,16 +974,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="E15" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="F15" s="3">
-        <v>96000</v>
+        <v>92700</v>
       </c>
       <c r="G15" s="3">
-        <v>55300</v>
+        <v>53500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19295200</v>
+        <v>18642600</v>
       </c>
       <c r="E17" s="3">
-        <v>21741900</v>
+        <v>21006600</v>
       </c>
       <c r="F17" s="3">
-        <v>23592500</v>
+        <v>22794600</v>
       </c>
       <c r="G17" s="3">
-        <v>21915800</v>
+        <v>21174600</v>
       </c>
       <c r="H17" s="3">
-        <v>22040000</v>
+        <v>21294600</v>
       </c>
       <c r="I17" s="3">
-        <v>21622300</v>
+        <v>20890900</v>
       </c>
       <c r="J17" s="3">
-        <v>21090500</v>
+        <v>20377100</v>
       </c>
       <c r="K17" s="3">
         <v>19942900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>382800</v>
+        <v>369800</v>
       </c>
       <c r="E18" s="3">
-        <v>73400</v>
+        <v>70900</v>
       </c>
       <c r="F18" s="3">
-        <v>1195700</v>
+        <v>1155300</v>
       </c>
       <c r="G18" s="3">
-        <v>1125700</v>
+        <v>1087600</v>
       </c>
       <c r="H18" s="3">
-        <v>1330100</v>
+        <v>1285100</v>
       </c>
       <c r="I18" s="3">
-        <v>1236400</v>
+        <v>1194500</v>
       </c>
       <c r="J18" s="3">
-        <v>1282700</v>
+        <v>1239300</v>
       </c>
       <c r="K18" s="3">
         <v>1089200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="E20" s="3">
-        <v>-158100</v>
+        <v>-152700</v>
       </c>
       <c r="F20" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="G20" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="H20" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>64400</v>
+        <v>62200</v>
       </c>
       <c r="K20" s="3">
         <v>-2300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1070800</v>
+        <v>1043100</v>
       </c>
       <c r="E21" s="3">
-        <v>929300</v>
+        <v>910500</v>
       </c>
       <c r="F21" s="3">
-        <v>1637000</v>
+        <v>1586800</v>
       </c>
       <c r="G21" s="3">
-        <v>1509300</v>
+        <v>1462700</v>
       </c>
       <c r="H21" s="3">
-        <v>1652600</v>
+        <v>1600700</v>
       </c>
       <c r="I21" s="3">
-        <v>1584900</v>
+        <v>1535700</v>
       </c>
       <c r="J21" s="3">
-        <v>1660500</v>
+        <v>1608200</v>
       </c>
       <c r="K21" s="3">
         <v>1379600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>123100</v>
+        <v>118900</v>
       </c>
       <c r="E22" s="3">
-        <v>164800</v>
+        <v>159300</v>
       </c>
       <c r="F22" s="3">
-        <v>136600</v>
+        <v>132000</v>
       </c>
       <c r="G22" s="3">
-        <v>124200</v>
+        <v>120000</v>
       </c>
       <c r="H22" s="3">
-        <v>106100</v>
+        <v>102500</v>
       </c>
       <c r="I22" s="3">
-        <v>117400</v>
+        <v>113500</v>
       </c>
       <c r="J22" s="3">
-        <v>169400</v>
+        <v>163600</v>
       </c>
       <c r="K22" s="3">
         <v>183300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>267600</v>
+        <v>258500</v>
       </c>
       <c r="E23" s="3">
-        <v>-249500</v>
+        <v>-241100</v>
       </c>
       <c r="F23" s="3">
-        <v>1087300</v>
+        <v>1050500</v>
       </c>
       <c r="G23" s="3">
-        <v>1026400</v>
+        <v>991600</v>
       </c>
       <c r="H23" s="3">
-        <v>1228500</v>
+        <v>1186900</v>
       </c>
       <c r="I23" s="3">
-        <v>1118900</v>
+        <v>1081100</v>
       </c>
       <c r="J23" s="3">
-        <v>1177700</v>
+        <v>1137800</v>
       </c>
       <c r="K23" s="3">
         <v>903600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>114000</v>
+        <v>110200</v>
       </c>
       <c r="E24" s="3">
-        <v>110700</v>
+        <v>106900</v>
       </c>
       <c r="F24" s="3">
-        <v>312800</v>
+        <v>302200</v>
       </c>
       <c r="G24" s="3">
-        <v>276600</v>
+        <v>267300</v>
       </c>
       <c r="H24" s="3">
-        <v>387300</v>
+        <v>374200</v>
       </c>
       <c r="I24" s="3">
-        <v>372600</v>
+        <v>360000</v>
       </c>
       <c r="J24" s="3">
-        <v>361300</v>
+        <v>349100</v>
       </c>
       <c r="K24" s="3">
         <v>309400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>153600</v>
+        <v>148400</v>
       </c>
       <c r="E26" s="3">
-        <v>-360200</v>
+        <v>-348000</v>
       </c>
       <c r="F26" s="3">
-        <v>774600</v>
+        <v>748400</v>
       </c>
       <c r="G26" s="3">
-        <v>749700</v>
+        <v>724400</v>
       </c>
       <c r="H26" s="3">
-        <v>841200</v>
+        <v>812700</v>
       </c>
       <c r="I26" s="3">
-        <v>746300</v>
+        <v>721100</v>
       </c>
       <c r="J26" s="3">
-        <v>816300</v>
+        <v>788700</v>
       </c>
       <c r="K26" s="3">
         <v>594200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>156900</v>
+        <v>151600</v>
       </c>
       <c r="E27" s="3">
-        <v>-355700</v>
+        <v>-343600</v>
       </c>
       <c r="F27" s="3">
-        <v>750900</v>
+        <v>725500</v>
       </c>
       <c r="G27" s="3">
-        <v>735000</v>
+        <v>710200</v>
       </c>
       <c r="H27" s="3">
-        <v>816300</v>
+        <v>788700</v>
       </c>
       <c r="I27" s="3">
-        <v>719200</v>
+        <v>694900</v>
       </c>
       <c r="J27" s="3">
-        <v>790400</v>
+        <v>763600</v>
       </c>
       <c r="K27" s="3">
         <v>572000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="E32" s="3">
-        <v>158100</v>
+        <v>152700</v>
       </c>
       <c r="F32" s="3">
-        <v>-28200</v>
+        <v>-27300</v>
       </c>
       <c r="G32" s="3">
-        <v>-24800</v>
+        <v>-24000</v>
       </c>
       <c r="H32" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-64400</v>
+        <v>-62200</v>
       </c>
       <c r="K32" s="3">
         <v>2300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>156900</v>
+        <v>151600</v>
       </c>
       <c r="E33" s="3">
-        <v>-355700</v>
+        <v>-343600</v>
       </c>
       <c r="F33" s="3">
-        <v>750900</v>
+        <v>725500</v>
       </c>
       <c r="G33" s="3">
-        <v>735000</v>
+        <v>710200</v>
       </c>
       <c r="H33" s="3">
-        <v>816300</v>
+        <v>788700</v>
       </c>
       <c r="I33" s="3">
-        <v>719200</v>
+        <v>694900</v>
       </c>
       <c r="J33" s="3">
-        <v>790400</v>
+        <v>763600</v>
       </c>
       <c r="K33" s="3">
         <v>572000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>156900</v>
+        <v>151600</v>
       </c>
       <c r="E35" s="3">
-        <v>-355700</v>
+        <v>-343600</v>
       </c>
       <c r="F35" s="3">
-        <v>750900</v>
+        <v>725500</v>
       </c>
       <c r="G35" s="3">
-        <v>735000</v>
+        <v>710200</v>
       </c>
       <c r="H35" s="3">
-        <v>816300</v>
+        <v>788700</v>
       </c>
       <c r="I35" s="3">
-        <v>719200</v>
+        <v>694900</v>
       </c>
       <c r="J35" s="3">
-        <v>790400</v>
+        <v>763600</v>
       </c>
       <c r="K35" s="3">
         <v>572000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3624400</v>
+        <v>3501800</v>
       </c>
       <c r="E41" s="3">
-        <v>1889000</v>
+        <v>1825100</v>
       </c>
       <c r="F41" s="3">
-        <v>1588600</v>
+        <v>1534900</v>
       </c>
       <c r="G41" s="3">
-        <v>1469000</v>
+        <v>1419300</v>
       </c>
       <c r="H41" s="3">
-        <v>1804300</v>
+        <v>1743300</v>
       </c>
       <c r="I41" s="3">
-        <v>1153900</v>
+        <v>1114900</v>
       </c>
       <c r="J41" s="3">
-        <v>1866400</v>
+        <v>1803300</v>
       </c>
       <c r="K41" s="3">
         <v>2295100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>415500</v>
+        <v>401500</v>
       </c>
       <c r="E42" s="3">
-        <v>444900</v>
+        <v>429800</v>
       </c>
       <c r="F42" s="3">
-        <v>487800</v>
+        <v>471300</v>
       </c>
       <c r="G42" s="3">
-        <v>452800</v>
+        <v>437500</v>
       </c>
       <c r="H42" s="3">
-        <v>510400</v>
+        <v>493100</v>
       </c>
       <c r="I42" s="3">
-        <v>448300</v>
+        <v>433100</v>
       </c>
       <c r="J42" s="3">
-        <v>427900</v>
+        <v>413500</v>
       </c>
       <c r="K42" s="3">
         <v>922300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4781700</v>
+        <v>4620000</v>
       </c>
       <c r="E43" s="3">
-        <v>4493800</v>
+        <v>4341800</v>
       </c>
       <c r="F43" s="3">
-        <v>5030100</v>
+        <v>4860000</v>
       </c>
       <c r="G43" s="3">
-        <v>4612400</v>
+        <v>4456400</v>
       </c>
       <c r="H43" s="3">
-        <v>4568300</v>
+        <v>4413800</v>
       </c>
       <c r="I43" s="3">
-        <v>4532200</v>
+        <v>4378900</v>
       </c>
       <c r="J43" s="3">
-        <v>4349300</v>
+        <v>4202200</v>
       </c>
       <c r="K43" s="3">
         <v>4292600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>289000</v>
+        <v>279300</v>
       </c>
       <c r="E44" s="3">
+        <v>282500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>320700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>305500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>280400</v>
+      </c>
+      <c r="I44" s="3">
         <v>292400</v>
       </c>
-      <c r="F44" s="3">
-        <v>332000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>316100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>290200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>302600</v>
-      </c>
       <c r="J44" s="3">
-        <v>304900</v>
+        <v>294500</v>
       </c>
       <c r="K44" s="3">
         <v>309400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1764800</v>
+        <v>1705100</v>
       </c>
       <c r="E45" s="3">
-        <v>1487000</v>
+        <v>1436700</v>
       </c>
       <c r="F45" s="3">
-        <v>1607800</v>
+        <v>1553500</v>
       </c>
       <c r="G45" s="3">
-        <v>1432800</v>
+        <v>1384400</v>
       </c>
       <c r="H45" s="3">
-        <v>1247700</v>
+        <v>1205500</v>
       </c>
       <c r="I45" s="3">
-        <v>1082800</v>
+        <v>1046200</v>
       </c>
       <c r="J45" s="3">
-        <v>1116700</v>
+        <v>1078900</v>
       </c>
       <c r="K45" s="3">
         <v>1083400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10875500</v>
+        <v>10507600</v>
       </c>
       <c r="E46" s="3">
-        <v>8607100</v>
+        <v>8316000</v>
       </c>
       <c r="F46" s="3">
-        <v>9046300</v>
+        <v>8740400</v>
       </c>
       <c r="G46" s="3">
-        <v>8283100</v>
+        <v>8002900</v>
       </c>
       <c r="H46" s="3">
-        <v>8420800</v>
+        <v>8136000</v>
       </c>
       <c r="I46" s="3">
-        <v>7519800</v>
+        <v>7265500</v>
       </c>
       <c r="J46" s="3">
-        <v>8065200</v>
+        <v>7792400</v>
       </c>
       <c r="K46" s="3">
         <v>8902700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1532200</v>
+        <v>1480400</v>
       </c>
       <c r="E47" s="3">
-        <v>1395600</v>
+        <v>1348400</v>
       </c>
       <c r="F47" s="3">
-        <v>1904800</v>
+        <v>1840400</v>
       </c>
       <c r="G47" s="3">
-        <v>938300</v>
+        <v>906500</v>
       </c>
       <c r="H47" s="3">
-        <v>902200</v>
+        <v>871600</v>
       </c>
       <c r="I47" s="3">
-        <v>883000</v>
+        <v>853100</v>
       </c>
       <c r="J47" s="3">
-        <v>765500</v>
+        <v>739600</v>
       </c>
       <c r="K47" s="3">
         <v>633900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1540100</v>
+        <v>1488000</v>
       </c>
       <c r="E48" s="3">
-        <v>2130600</v>
+        <v>2058500</v>
       </c>
       <c r="F48" s="3">
-        <v>772300</v>
+        <v>746200</v>
       </c>
       <c r="G48" s="3">
-        <v>698900</v>
+        <v>675300</v>
       </c>
       <c r="H48" s="3">
-        <v>666200</v>
+        <v>643600</v>
       </c>
       <c r="I48" s="3">
-        <v>682000</v>
+        <v>658900</v>
       </c>
       <c r="J48" s="3">
-        <v>670700</v>
+        <v>648000</v>
       </c>
       <c r="K48" s="3">
         <v>647900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7273700</v>
+        <v>7027600</v>
       </c>
       <c r="E49" s="3">
-        <v>7268000</v>
+        <v>7022200</v>
       </c>
       <c r="F49" s="3">
-        <v>7857400</v>
+        <v>7591600</v>
       </c>
       <c r="G49" s="3">
-        <v>7190100</v>
+        <v>6946900</v>
       </c>
       <c r="H49" s="3">
-        <v>6570200</v>
+        <v>6348000</v>
       </c>
       <c r="I49" s="3">
-        <v>6543100</v>
+        <v>6321800</v>
       </c>
       <c r="J49" s="3">
-        <v>6554400</v>
+        <v>6332700</v>
       </c>
       <c r="K49" s="3">
         <v>6414900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>221300</v>
+        <v>213800</v>
       </c>
       <c r="E52" s="3">
-        <v>191900</v>
+        <v>185500</v>
       </c>
       <c r="F52" s="3">
-        <v>141100</v>
+        <v>136400</v>
       </c>
       <c r="G52" s="3">
-        <v>142300</v>
+        <v>137500</v>
       </c>
       <c r="H52" s="3">
-        <v>234900</v>
+        <v>226900</v>
       </c>
       <c r="I52" s="3">
-        <v>357900</v>
+        <v>345800</v>
       </c>
       <c r="J52" s="3">
-        <v>290200</v>
+        <v>280400</v>
       </c>
       <c r="K52" s="3">
         <v>302400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21442700</v>
+        <v>20717500</v>
       </c>
       <c r="E54" s="3">
-        <v>19593300</v>
+        <v>18930600</v>
       </c>
       <c r="F54" s="3">
-        <v>19722000</v>
+        <v>19054900</v>
       </c>
       <c r="G54" s="3">
-        <v>17252600</v>
+        <v>16669100</v>
       </c>
       <c r="H54" s="3">
-        <v>16794200</v>
+        <v>16226200</v>
       </c>
       <c r="I54" s="3">
-        <v>15985800</v>
+        <v>15445100</v>
       </c>
       <c r="J54" s="3">
-        <v>16346000</v>
+        <v>15793100</v>
       </c>
       <c r="K54" s="3">
         <v>16901800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2460300</v>
+        <v>2377100</v>
       </c>
       <c r="E57" s="3">
-        <v>2144200</v>
+        <v>2071600</v>
       </c>
       <c r="F57" s="3">
-        <v>2841900</v>
+        <v>2745800</v>
       </c>
       <c r="G57" s="3">
-        <v>2513400</v>
+        <v>2428400</v>
       </c>
       <c r="H57" s="3">
-        <v>2384700</v>
+        <v>2304000</v>
       </c>
       <c r="I57" s="3">
-        <v>2285300</v>
+        <v>2208000</v>
       </c>
       <c r="J57" s="3">
-        <v>2205100</v>
+        <v>2130500</v>
       </c>
       <c r="K57" s="3">
         <v>2064000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>923600</v>
+        <v>892400</v>
       </c>
       <c r="E58" s="3">
-        <v>291300</v>
+        <v>281500</v>
       </c>
       <c r="F58" s="3">
-        <v>245000</v>
+        <v>236700</v>
       </c>
       <c r="G58" s="3">
-        <v>505800</v>
+        <v>488700</v>
       </c>
       <c r="H58" s="3">
-        <v>605200</v>
+        <v>584700</v>
       </c>
       <c r="I58" s="3">
-        <v>80200</v>
+        <v>77500</v>
       </c>
       <c r="J58" s="3">
-        <v>399700</v>
+        <v>386200</v>
       </c>
       <c r="K58" s="3">
         <v>1188400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6612000</v>
+        <v>6388400</v>
       </c>
       <c r="E59" s="3">
-        <v>6309400</v>
+        <v>6096000</v>
       </c>
       <c r="F59" s="3">
-        <v>6224700</v>
+        <v>6014200</v>
       </c>
       <c r="G59" s="3">
-        <v>5586800</v>
+        <v>5397800</v>
       </c>
       <c r="H59" s="3">
-        <v>5386900</v>
+        <v>5204700</v>
       </c>
       <c r="I59" s="3">
-        <v>5433200</v>
+        <v>5249500</v>
       </c>
       <c r="J59" s="3">
-        <v>5456900</v>
+        <v>5272400</v>
       </c>
       <c r="K59" s="3">
         <v>5417900</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9995900</v>
+        <v>9657800</v>
       </c>
       <c r="E60" s="3">
-        <v>8744900</v>
+        <v>8449100</v>
       </c>
       <c r="F60" s="3">
-        <v>9311700</v>
+        <v>8996700</v>
       </c>
       <c r="G60" s="3">
-        <v>8606000</v>
+        <v>8314900</v>
       </c>
       <c r="H60" s="3">
-        <v>8376800</v>
+        <v>8093500</v>
       </c>
       <c r="I60" s="3">
-        <v>7798700</v>
+        <v>7534900</v>
       </c>
       <c r="J60" s="3">
-        <v>8061800</v>
+        <v>7789100</v>
       </c>
       <c r="K60" s="3">
         <v>8670400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7017400</v>
+        <v>6780000</v>
       </c>
       <c r="E61" s="3">
-        <v>6888600</v>
+        <v>6655600</v>
       </c>
       <c r="F61" s="3">
-        <v>4405700</v>
+        <v>4256700</v>
       </c>
       <c r="G61" s="3">
-        <v>3993600</v>
+        <v>3858500</v>
       </c>
       <c r="H61" s="3">
-        <v>3399700</v>
+        <v>3284700</v>
       </c>
       <c r="I61" s="3">
-        <v>2839700</v>
+        <v>2743600</v>
       </c>
       <c r="J61" s="3">
-        <v>3122000</v>
+        <v>3016400</v>
       </c>
       <c r="K61" s="3">
         <v>3379700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>844600</v>
+        <v>816000</v>
       </c>
       <c r="E62" s="3">
-        <v>828800</v>
+        <v>800700</v>
       </c>
       <c r="F62" s="3">
-        <v>925900</v>
+        <v>894500</v>
       </c>
       <c r="G62" s="3">
-        <v>895400</v>
+        <v>865100</v>
       </c>
       <c r="H62" s="3">
-        <v>986800</v>
+        <v>953500</v>
       </c>
       <c r="I62" s="3">
-        <v>1167500</v>
+        <v>1128000</v>
       </c>
       <c r="J62" s="3">
-        <v>934900</v>
+        <v>903300</v>
       </c>
       <c r="K62" s="3">
         <v>1091500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17865700</v>
+        <v>17261500</v>
       </c>
       <c r="E66" s="3">
-        <v>16479200</v>
+        <v>15921800</v>
       </c>
       <c r="F66" s="3">
-        <v>14690700</v>
+        <v>14193800</v>
       </c>
       <c r="G66" s="3">
-        <v>13545800</v>
+        <v>13087600</v>
       </c>
       <c r="H66" s="3">
-        <v>12801700</v>
+        <v>12368700</v>
       </c>
       <c r="I66" s="3">
-        <v>11844300</v>
+        <v>11443600</v>
       </c>
       <c r="J66" s="3">
-        <v>12157000</v>
+        <v>11745800</v>
       </c>
       <c r="K66" s="3">
         <v>13178900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3901000</v>
+        <v>3769100</v>
       </c>
       <c r="E72" s="3">
-        <v>3570200</v>
+        <v>3449500</v>
       </c>
       <c r="F72" s="3">
-        <v>4920600</v>
+        <v>4754200</v>
       </c>
       <c r="G72" s="3">
-        <v>4284900</v>
+        <v>4140000</v>
       </c>
       <c r="H72" s="3">
-        <v>3901000</v>
+        <v>3769100</v>
       </c>
       <c r="I72" s="3">
-        <v>3396300</v>
+        <v>3281500</v>
       </c>
       <c r="J72" s="3">
-        <v>3190800</v>
+        <v>3082900</v>
       </c>
       <c r="K72" s="3">
         <v>2706100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3577000</v>
+        <v>3456000</v>
       </c>
       <c r="E76" s="3">
-        <v>3114100</v>
+        <v>3008700</v>
       </c>
       <c r="F76" s="3">
-        <v>5031300</v>
+        <v>4861100</v>
       </c>
       <c r="G76" s="3">
-        <v>3706800</v>
+        <v>3581500</v>
       </c>
       <c r="H76" s="3">
-        <v>3992500</v>
+        <v>3857500</v>
       </c>
       <c r="I76" s="3">
-        <v>4141500</v>
+        <v>4001500</v>
       </c>
       <c r="J76" s="3">
-        <v>4189000</v>
+        <v>4047300</v>
       </c>
       <c r="K76" s="3">
         <v>3722900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>156900</v>
+        <v>151600</v>
       </c>
       <c r="E81" s="3">
-        <v>-355700</v>
+        <v>-343600</v>
       </c>
       <c r="F81" s="3">
-        <v>750900</v>
+        <v>725500</v>
       </c>
       <c r="G81" s="3">
-        <v>735000</v>
+        <v>710200</v>
       </c>
       <c r="H81" s="3">
-        <v>816300</v>
+        <v>788700</v>
       </c>
       <c r="I81" s="3">
-        <v>719200</v>
+        <v>694900</v>
       </c>
       <c r="J81" s="3">
-        <v>790400</v>
+        <v>763600</v>
       </c>
       <c r="K81" s="3">
         <v>572000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>678600</v>
+        <v>655600</v>
       </c>
       <c r="E83" s="3">
-        <v>1011700</v>
+        <v>977500</v>
       </c>
       <c r="F83" s="3">
-        <v>412100</v>
+        <v>398200</v>
       </c>
       <c r="G83" s="3">
-        <v>357900</v>
+        <v>345800</v>
       </c>
       <c r="H83" s="3">
-        <v>317300</v>
+        <v>306500</v>
       </c>
       <c r="I83" s="3">
-        <v>347800</v>
+        <v>336000</v>
       </c>
       <c r="J83" s="3">
-        <v>312800</v>
+        <v>302200</v>
       </c>
       <c r="K83" s="3">
         <v>291900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1107600</v>
+        <v>1070200</v>
       </c>
       <c r="E89" s="3">
-        <v>711300</v>
+        <v>687300</v>
       </c>
       <c r="F89" s="3">
-        <v>1431700</v>
+        <v>1383300</v>
       </c>
       <c r="G89" s="3">
-        <v>1279300</v>
+        <v>1236000</v>
       </c>
       <c r="H89" s="3">
-        <v>1199100</v>
+        <v>1158500</v>
       </c>
       <c r="I89" s="3">
-        <v>1067000</v>
+        <v>1030900</v>
       </c>
       <c r="J89" s="3">
-        <v>1148300</v>
+        <v>1109500</v>
       </c>
       <c r="K89" s="3">
         <v>963100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-334200</v>
+        <v>-322900</v>
       </c>
       <c r="E91" s="3">
-        <v>-449400</v>
+        <v>-434200</v>
       </c>
       <c r="F91" s="3">
-        <v>-451600</v>
+        <v>-436400</v>
       </c>
       <c r="G91" s="3">
-        <v>-371500</v>
+        <v>-358900</v>
       </c>
       <c r="H91" s="3">
-        <v>-348900</v>
+        <v>-337100</v>
       </c>
       <c r="I91" s="3">
-        <v>-389500</v>
+        <v>-376400</v>
       </c>
       <c r="J91" s="3">
-        <v>-341000</v>
+        <v>-329500</v>
       </c>
       <c r="K91" s="3">
         <v>-286000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-342100</v>
+        <v>-330500</v>
       </c>
       <c r="E94" s="3">
-        <v>-485500</v>
+        <v>-469100</v>
       </c>
       <c r="F94" s="3">
-        <v>-913400</v>
+        <v>-882500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1129100</v>
+        <v>-1090900</v>
       </c>
       <c r="H94" s="3">
-        <v>-691000</v>
+        <v>-667600</v>
       </c>
       <c r="I94" s="3">
-        <v>-547600</v>
+        <v>-529100</v>
       </c>
       <c r="J94" s="3">
-        <v>-426800</v>
+        <v>-412400</v>
       </c>
       <c r="K94" s="3">
         <v>-393400</v>
@@ -3767,22 +3767,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-479900</v>
+        <v>-463600</v>
       </c>
       <c r="F96" s="3">
-        <v>-455000</v>
+        <v>-439600</v>
       </c>
       <c r="G96" s="3">
-        <v>-464100</v>
+        <v>-448400</v>
       </c>
       <c r="H96" s="3">
-        <v>-405300</v>
+        <v>-391600</v>
       </c>
       <c r="I96" s="3">
-        <v>-378200</v>
+        <v>-365500</v>
       </c>
       <c r="J96" s="3">
-        <v>-311600</v>
+        <v>-301100</v>
       </c>
       <c r="K96" s="3">
         <v>-289500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>890900</v>
+        <v>860700</v>
       </c>
       <c r="E100" s="3">
-        <v>223600</v>
+        <v>216000</v>
       </c>
       <c r="F100" s="3">
-        <v>-460700</v>
+        <v>-445100</v>
       </c>
       <c r="G100" s="3">
-        <v>-389500</v>
+        <v>-376400</v>
       </c>
       <c r="H100" s="3">
-        <v>363600</v>
+        <v>351300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1243100</v>
+        <v>-1201100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1541200</v>
+        <v>-1489100</v>
       </c>
       <c r="K100" s="3">
         <v>1074000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>49700</v>
+        <v>48000</v>
       </c>
       <c r="E101" s="3">
-        <v>-138900</v>
+        <v>-134200</v>
       </c>
       <c r="F101" s="3">
-        <v>65500</v>
+        <v>63300</v>
       </c>
       <c r="G101" s="3">
-        <v>-146800</v>
+        <v>-141800</v>
       </c>
       <c r="H101" s="3">
-        <v>-156900</v>
+        <v>-151600</v>
       </c>
       <c r="I101" s="3">
-        <v>21500</v>
+        <v>20700</v>
       </c>
       <c r="J101" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="K101" s="3">
         <v>-32700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1706100</v>
+        <v>1648400</v>
       </c>
       <c r="E102" s="3">
-        <v>310500</v>
+        <v>300000</v>
       </c>
       <c r="F102" s="3">
-        <v>123100</v>
+        <v>118900</v>
       </c>
       <c r="G102" s="3">
-        <v>-386200</v>
+        <v>-373100</v>
       </c>
       <c r="H102" s="3">
-        <v>714700</v>
+        <v>690500</v>
       </c>
       <c r="I102" s="3">
-        <v>-702300</v>
+        <v>-678500</v>
       </c>
       <c r="J102" s="3">
-        <v>-810700</v>
+        <v>-783300</v>
       </c>
       <c r="K102" s="3">
         <v>1611000</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19012400</v>
+        <v>18088500</v>
       </c>
       <c r="E8" s="3">
-        <v>21077500</v>
+        <v>20053300</v>
       </c>
       <c r="F8" s="3">
-        <v>23949800</v>
+        <v>22786100</v>
       </c>
       <c r="G8" s="3">
-        <v>22262200</v>
+        <v>21180400</v>
       </c>
       <c r="H8" s="3">
-        <v>22579700</v>
+        <v>21482500</v>
       </c>
       <c r="I8" s="3">
-        <v>22085500</v>
+        <v>21012300</v>
       </c>
       <c r="J8" s="3">
-        <v>21616400</v>
+        <v>20566000</v>
       </c>
       <c r="K8" s="3">
         <v>21032100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16370200</v>
+        <v>15574700</v>
       </c>
       <c r="E9" s="3">
-        <v>18373100</v>
+        <v>17480300</v>
       </c>
       <c r="F9" s="3">
-        <v>20461100</v>
+        <v>19466900</v>
       </c>
       <c r="G9" s="3">
-        <v>18894600</v>
+        <v>17976400</v>
       </c>
       <c r="H9" s="3">
-        <v>19100700</v>
+        <v>18172600</v>
       </c>
       <c r="I9" s="3">
-        <v>18692700</v>
+        <v>17784400</v>
       </c>
       <c r="J9" s="3">
-        <v>18171300</v>
+        <v>17288300</v>
       </c>
       <c r="K9" s="3">
         <v>17820500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2642200</v>
+        <v>2513800</v>
       </c>
       <c r="E10" s="3">
-        <v>2704400</v>
+        <v>2573000</v>
       </c>
       <c r="F10" s="3">
-        <v>3488700</v>
+        <v>3319200</v>
       </c>
       <c r="G10" s="3">
-        <v>3367600</v>
+        <v>3204000</v>
       </c>
       <c r="H10" s="3">
-        <v>3478900</v>
+        <v>3309900</v>
       </c>
       <c r="I10" s="3">
-        <v>3392700</v>
+        <v>3227900</v>
       </c>
       <c r="J10" s="3">
-        <v>3445100</v>
+        <v>3277700</v>
       </c>
       <c r="K10" s="3">
         <v>3211500</v>
@@ -935,19 +935,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>236700</v>
+        <v>225200</v>
       </c>
       <c r="E14" s="3">
-        <v>500700</v>
+        <v>476400</v>
       </c>
       <c r="F14" s="3">
-        <v>62200</v>
+        <v>59200</v>
       </c>
       <c r="G14" s="3">
-        <v>87300</v>
+        <v>83000</v>
       </c>
       <c r="H14" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -974,16 +974,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>36000</v>
+        <v>34300</v>
       </c>
       <c r="E15" s="3">
-        <v>26200</v>
+        <v>24900</v>
       </c>
       <c r="F15" s="3">
-        <v>92700</v>
+        <v>88200</v>
       </c>
       <c r="G15" s="3">
-        <v>53500</v>
+        <v>50900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18642600</v>
+        <v>17736700</v>
       </c>
       <c r="E17" s="3">
-        <v>21006600</v>
+        <v>19985800</v>
       </c>
       <c r="F17" s="3">
-        <v>22794600</v>
+        <v>21686900</v>
       </c>
       <c r="G17" s="3">
-        <v>21174600</v>
+        <v>20145600</v>
       </c>
       <c r="H17" s="3">
-        <v>21294600</v>
+        <v>20259800</v>
       </c>
       <c r="I17" s="3">
-        <v>20890900</v>
+        <v>19875800</v>
       </c>
       <c r="J17" s="3">
-        <v>20377100</v>
+        <v>19386900</v>
       </c>
       <c r="K17" s="3">
         <v>19942900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>369800</v>
+        <v>351800</v>
       </c>
       <c r="E18" s="3">
-        <v>70900</v>
+        <v>67500</v>
       </c>
       <c r="F18" s="3">
-        <v>1155300</v>
+        <v>1099100</v>
       </c>
       <c r="G18" s="3">
-        <v>1087600</v>
+        <v>1034800</v>
       </c>
       <c r="H18" s="3">
-        <v>1285100</v>
+        <v>1222600</v>
       </c>
       <c r="I18" s="3">
-        <v>1194500</v>
+        <v>1136500</v>
       </c>
       <c r="J18" s="3">
-        <v>1239300</v>
+        <v>1179100</v>
       </c>
       <c r="K18" s="3">
         <v>1089200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="E20" s="3">
-        <v>-152700</v>
+        <v>-145300</v>
       </c>
       <c r="F20" s="3">
-        <v>27300</v>
+        <v>25900</v>
       </c>
       <c r="G20" s="3">
-        <v>24000</v>
+        <v>22800</v>
       </c>
       <c r="H20" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>62200</v>
+        <v>59200</v>
       </c>
       <c r="K20" s="3">
         <v>-2300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1043100</v>
+        <v>990800</v>
       </c>
       <c r="E21" s="3">
-        <v>910500</v>
+        <v>863900</v>
       </c>
       <c r="F21" s="3">
-        <v>1586800</v>
+        <v>1508700</v>
       </c>
       <c r="G21" s="3">
-        <v>1462700</v>
+        <v>1390800</v>
       </c>
       <c r="H21" s="3">
-        <v>1600700</v>
+        <v>1522200</v>
       </c>
       <c r="I21" s="3">
-        <v>1535700</v>
+        <v>1460200</v>
       </c>
       <c r="J21" s="3">
-        <v>1608200</v>
+        <v>1529400</v>
       </c>
       <c r="K21" s="3">
         <v>1379600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>118900</v>
+        <v>113100</v>
       </c>
       <c r="E22" s="3">
-        <v>159300</v>
+        <v>151500</v>
       </c>
       <c r="F22" s="3">
-        <v>132000</v>
+        <v>125600</v>
       </c>
       <c r="G22" s="3">
-        <v>120000</v>
+        <v>114200</v>
       </c>
       <c r="H22" s="3">
-        <v>102500</v>
+        <v>97600</v>
       </c>
       <c r="I22" s="3">
-        <v>113500</v>
+        <v>107900</v>
       </c>
       <c r="J22" s="3">
-        <v>163600</v>
+        <v>155700</v>
       </c>
       <c r="K22" s="3">
         <v>183300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>258500</v>
+        <v>246000</v>
       </c>
       <c r="E23" s="3">
-        <v>-241100</v>
+        <v>-229400</v>
       </c>
       <c r="F23" s="3">
-        <v>1050500</v>
+        <v>999500</v>
       </c>
       <c r="G23" s="3">
-        <v>991600</v>
+        <v>943500</v>
       </c>
       <c r="H23" s="3">
-        <v>1186900</v>
+        <v>1129200</v>
       </c>
       <c r="I23" s="3">
-        <v>1081100</v>
+        <v>1028600</v>
       </c>
       <c r="J23" s="3">
-        <v>1137800</v>
+        <v>1082500</v>
       </c>
       <c r="K23" s="3">
         <v>903600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>110200</v>
+        <v>104800</v>
       </c>
       <c r="E24" s="3">
-        <v>106900</v>
+        <v>101700</v>
       </c>
       <c r="F24" s="3">
-        <v>302200</v>
+        <v>287500</v>
       </c>
       <c r="G24" s="3">
-        <v>267300</v>
+        <v>254300</v>
       </c>
       <c r="H24" s="3">
-        <v>374200</v>
+        <v>356000</v>
       </c>
       <c r="I24" s="3">
-        <v>360000</v>
+        <v>342500</v>
       </c>
       <c r="J24" s="3">
-        <v>349100</v>
+        <v>332100</v>
       </c>
       <c r="K24" s="3">
         <v>309400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>148400</v>
+        <v>141200</v>
       </c>
       <c r="E26" s="3">
-        <v>-348000</v>
+        <v>-331100</v>
       </c>
       <c r="F26" s="3">
-        <v>748400</v>
+        <v>712000</v>
       </c>
       <c r="G26" s="3">
-        <v>724400</v>
+        <v>689200</v>
       </c>
       <c r="H26" s="3">
-        <v>812700</v>
+        <v>773200</v>
       </c>
       <c r="I26" s="3">
-        <v>721100</v>
+        <v>686100</v>
       </c>
       <c r="J26" s="3">
-        <v>788700</v>
+        <v>750400</v>
       </c>
       <c r="K26" s="3">
         <v>594200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>151600</v>
+        <v>144300</v>
       </c>
       <c r="E27" s="3">
-        <v>-343600</v>
+        <v>-326900</v>
       </c>
       <c r="F27" s="3">
-        <v>725500</v>
+        <v>690200</v>
       </c>
       <c r="G27" s="3">
-        <v>710200</v>
+        <v>675700</v>
       </c>
       <c r="H27" s="3">
-        <v>788700</v>
+        <v>750400</v>
       </c>
       <c r="I27" s="3">
-        <v>694900</v>
+        <v>661100</v>
       </c>
       <c r="J27" s="3">
-        <v>763600</v>
+        <v>726500</v>
       </c>
       <c r="K27" s="3">
         <v>572000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7600</v>
+        <v>-7300</v>
       </c>
       <c r="E32" s="3">
-        <v>152700</v>
+        <v>145300</v>
       </c>
       <c r="F32" s="3">
-        <v>-27300</v>
+        <v>-25900</v>
       </c>
       <c r="G32" s="3">
-        <v>-24000</v>
+        <v>-22800</v>
       </c>
       <c r="H32" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-62200</v>
+        <v>-59200</v>
       </c>
       <c r="K32" s="3">
         <v>2300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>151600</v>
+        <v>144300</v>
       </c>
       <c r="E33" s="3">
-        <v>-343600</v>
+        <v>-326900</v>
       </c>
       <c r="F33" s="3">
-        <v>725500</v>
+        <v>690200</v>
       </c>
       <c r="G33" s="3">
-        <v>710200</v>
+        <v>675700</v>
       </c>
       <c r="H33" s="3">
-        <v>788700</v>
+        <v>750400</v>
       </c>
       <c r="I33" s="3">
-        <v>694900</v>
+        <v>661100</v>
       </c>
       <c r="J33" s="3">
-        <v>763600</v>
+        <v>726500</v>
       </c>
       <c r="K33" s="3">
         <v>572000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>151600</v>
+        <v>144300</v>
       </c>
       <c r="E35" s="3">
-        <v>-343600</v>
+        <v>-326900</v>
       </c>
       <c r="F35" s="3">
-        <v>725500</v>
+        <v>690200</v>
       </c>
       <c r="G35" s="3">
-        <v>710200</v>
+        <v>675700</v>
       </c>
       <c r="H35" s="3">
-        <v>788700</v>
+        <v>750400</v>
       </c>
       <c r="I35" s="3">
-        <v>694900</v>
+        <v>661100</v>
       </c>
       <c r="J35" s="3">
-        <v>763600</v>
+        <v>726500</v>
       </c>
       <c r="K35" s="3">
         <v>572000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3501800</v>
+        <v>3331700</v>
       </c>
       <c r="E41" s="3">
-        <v>1825100</v>
+        <v>1736400</v>
       </c>
       <c r="F41" s="3">
-        <v>1534900</v>
+        <v>1460300</v>
       </c>
       <c r="G41" s="3">
-        <v>1419300</v>
+        <v>1350300</v>
       </c>
       <c r="H41" s="3">
-        <v>1743300</v>
+        <v>1658600</v>
       </c>
       <c r="I41" s="3">
-        <v>1114900</v>
+        <v>1060700</v>
       </c>
       <c r="J41" s="3">
-        <v>1803300</v>
+        <v>1715600</v>
       </c>
       <c r="K41" s="3">
         <v>2295100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>401500</v>
+        <v>381900</v>
       </c>
       <c r="E42" s="3">
-        <v>429800</v>
+        <v>408900</v>
       </c>
       <c r="F42" s="3">
-        <v>471300</v>
+        <v>448400</v>
       </c>
       <c r="G42" s="3">
-        <v>437500</v>
+        <v>416200</v>
       </c>
       <c r="H42" s="3">
-        <v>493100</v>
+        <v>469100</v>
       </c>
       <c r="I42" s="3">
-        <v>433100</v>
+        <v>412000</v>
       </c>
       <c r="J42" s="3">
-        <v>413500</v>
+        <v>393400</v>
       </c>
       <c r="K42" s="3">
         <v>922300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4620000</v>
+        <v>4395500</v>
       </c>
       <c r="E43" s="3">
-        <v>4341800</v>
+        <v>4130800</v>
       </c>
       <c r="F43" s="3">
-        <v>4860000</v>
+        <v>4623800</v>
       </c>
       <c r="G43" s="3">
-        <v>4456400</v>
+        <v>4239800</v>
       </c>
       <c r="H43" s="3">
-        <v>4413800</v>
+        <v>4199300</v>
       </c>
       <c r="I43" s="3">
-        <v>4378900</v>
+        <v>4166100</v>
       </c>
       <c r="J43" s="3">
-        <v>4202200</v>
+        <v>3998000</v>
       </c>
       <c r="K43" s="3">
         <v>4292600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>279300</v>
+        <v>265700</v>
       </c>
       <c r="E44" s="3">
-        <v>282500</v>
+        <v>268800</v>
       </c>
       <c r="F44" s="3">
-        <v>320700</v>
+        <v>305100</v>
       </c>
       <c r="G44" s="3">
-        <v>305500</v>
+        <v>290600</v>
       </c>
       <c r="H44" s="3">
-        <v>280400</v>
+        <v>266700</v>
       </c>
       <c r="I44" s="3">
-        <v>292400</v>
+        <v>278200</v>
       </c>
       <c r="J44" s="3">
-        <v>294500</v>
+        <v>280200</v>
       </c>
       <c r="K44" s="3">
         <v>309400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1705100</v>
+        <v>1622200</v>
       </c>
       <c r="E45" s="3">
-        <v>1436700</v>
+        <v>1366900</v>
       </c>
       <c r="F45" s="3">
-        <v>1553500</v>
+        <v>1478000</v>
       </c>
       <c r="G45" s="3">
-        <v>1384400</v>
+        <v>1317100</v>
       </c>
       <c r="H45" s="3">
-        <v>1205500</v>
+        <v>1146900</v>
       </c>
       <c r="I45" s="3">
-        <v>1046200</v>
+        <v>995300</v>
       </c>
       <c r="J45" s="3">
-        <v>1078900</v>
+        <v>1026500</v>
       </c>
       <c r="K45" s="3">
         <v>1083400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10507600</v>
+        <v>9997100</v>
       </c>
       <c r="E46" s="3">
-        <v>8316000</v>
+        <v>7911900</v>
       </c>
       <c r="F46" s="3">
-        <v>8740400</v>
+        <v>8315700</v>
       </c>
       <c r="G46" s="3">
-        <v>8002900</v>
+        <v>7614000</v>
       </c>
       <c r="H46" s="3">
-        <v>8136000</v>
+        <v>7740700</v>
       </c>
       <c r="I46" s="3">
-        <v>7265500</v>
+        <v>6912400</v>
       </c>
       <c r="J46" s="3">
-        <v>7792400</v>
+        <v>7413700</v>
       </c>
       <c r="K46" s="3">
         <v>8902700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1480400</v>
+        <v>1408400</v>
       </c>
       <c r="E47" s="3">
-        <v>1348400</v>
+        <v>1282800</v>
       </c>
       <c r="F47" s="3">
-        <v>1840400</v>
+        <v>1750900</v>
       </c>
       <c r="G47" s="3">
-        <v>906500</v>
+        <v>862500</v>
       </c>
       <c r="H47" s="3">
-        <v>871600</v>
+        <v>829300</v>
       </c>
       <c r="I47" s="3">
-        <v>853100</v>
+        <v>811600</v>
       </c>
       <c r="J47" s="3">
-        <v>739600</v>
+        <v>703700</v>
       </c>
       <c r="K47" s="3">
         <v>633900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1488000</v>
+        <v>1415700</v>
       </c>
       <c r="E48" s="3">
-        <v>2058500</v>
+        <v>1958500</v>
       </c>
       <c r="F48" s="3">
-        <v>746200</v>
+        <v>709900</v>
       </c>
       <c r="G48" s="3">
-        <v>675300</v>
+        <v>642500</v>
       </c>
       <c r="H48" s="3">
-        <v>643600</v>
+        <v>612400</v>
       </c>
       <c r="I48" s="3">
-        <v>658900</v>
+        <v>626900</v>
       </c>
       <c r="J48" s="3">
-        <v>648000</v>
+        <v>616500</v>
       </c>
       <c r="K48" s="3">
         <v>647900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7027600</v>
+        <v>6686200</v>
       </c>
       <c r="E49" s="3">
-        <v>7022200</v>
+        <v>6681000</v>
       </c>
       <c r="F49" s="3">
-        <v>7591600</v>
+        <v>7222700</v>
       </c>
       <c r="G49" s="3">
-        <v>6946900</v>
+        <v>6609300</v>
       </c>
       <c r="H49" s="3">
-        <v>6348000</v>
+        <v>6039500</v>
       </c>
       <c r="I49" s="3">
-        <v>6321800</v>
+        <v>6014600</v>
       </c>
       <c r="J49" s="3">
-        <v>6332700</v>
+        <v>6025000</v>
       </c>
       <c r="K49" s="3">
         <v>6414900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>213800</v>
+        <v>203400</v>
       </c>
       <c r="E52" s="3">
-        <v>185500</v>
+        <v>176400</v>
       </c>
       <c r="F52" s="3">
-        <v>136400</v>
+        <v>129700</v>
       </c>
       <c r="G52" s="3">
-        <v>137500</v>
+        <v>130800</v>
       </c>
       <c r="H52" s="3">
-        <v>226900</v>
+        <v>215900</v>
       </c>
       <c r="I52" s="3">
-        <v>345800</v>
+        <v>329000</v>
       </c>
       <c r="J52" s="3">
-        <v>280400</v>
+        <v>266700</v>
       </c>
       <c r="K52" s="3">
         <v>302400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20717500</v>
+        <v>19710800</v>
       </c>
       <c r="E54" s="3">
-        <v>18930600</v>
+        <v>18010700</v>
       </c>
       <c r="F54" s="3">
-        <v>19054900</v>
+        <v>18129000</v>
       </c>
       <c r="G54" s="3">
-        <v>16669100</v>
+        <v>15859100</v>
       </c>
       <c r="H54" s="3">
-        <v>16226200</v>
+        <v>15437700</v>
       </c>
       <c r="I54" s="3">
-        <v>15445100</v>
+        <v>14694600</v>
       </c>
       <c r="J54" s="3">
-        <v>15793100</v>
+        <v>15025700</v>
       </c>
       <c r="K54" s="3">
         <v>16901800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2377100</v>
+        <v>2261600</v>
       </c>
       <c r="E57" s="3">
-        <v>2071600</v>
+        <v>1971000</v>
       </c>
       <c r="F57" s="3">
-        <v>2745800</v>
+        <v>2612400</v>
       </c>
       <c r="G57" s="3">
-        <v>2428400</v>
+        <v>2310400</v>
       </c>
       <c r="H57" s="3">
-        <v>2304000</v>
+        <v>2192000</v>
       </c>
       <c r="I57" s="3">
-        <v>2208000</v>
+        <v>2100700</v>
       </c>
       <c r="J57" s="3">
-        <v>2130500</v>
+        <v>2027000</v>
       </c>
       <c r="K57" s="3">
         <v>2064000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>892400</v>
+        <v>849000</v>
       </c>
       <c r="E58" s="3">
-        <v>281500</v>
+        <v>267800</v>
       </c>
       <c r="F58" s="3">
-        <v>236700</v>
+        <v>225200</v>
       </c>
       <c r="G58" s="3">
-        <v>488700</v>
+        <v>465000</v>
       </c>
       <c r="H58" s="3">
-        <v>584700</v>
+        <v>556300</v>
       </c>
       <c r="I58" s="3">
-        <v>77500</v>
+        <v>73700</v>
       </c>
       <c r="J58" s="3">
-        <v>386200</v>
+        <v>367400</v>
       </c>
       <c r="K58" s="3">
         <v>1188400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6388400</v>
+        <v>6077900</v>
       </c>
       <c r="E59" s="3">
-        <v>6096000</v>
+        <v>5799800</v>
       </c>
       <c r="F59" s="3">
-        <v>6014200</v>
+        <v>5721900</v>
       </c>
       <c r="G59" s="3">
-        <v>5397800</v>
+        <v>5135500</v>
       </c>
       <c r="H59" s="3">
-        <v>5204700</v>
+        <v>4951800</v>
       </c>
       <c r="I59" s="3">
-        <v>5249500</v>
+        <v>4994400</v>
       </c>
       <c r="J59" s="3">
-        <v>5272400</v>
+        <v>5016200</v>
       </c>
       <c r="K59" s="3">
         <v>5417900</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9657800</v>
+        <v>9188500</v>
       </c>
       <c r="E60" s="3">
-        <v>8449100</v>
+        <v>8038500</v>
       </c>
       <c r="F60" s="3">
-        <v>8996700</v>
+        <v>8559600</v>
       </c>
       <c r="G60" s="3">
-        <v>8314900</v>
+        <v>7910900</v>
       </c>
       <c r="H60" s="3">
-        <v>8093500</v>
+        <v>7700200</v>
       </c>
       <c r="I60" s="3">
-        <v>7534900</v>
+        <v>7168800</v>
       </c>
       <c r="J60" s="3">
-        <v>7789100</v>
+        <v>7410600</v>
       </c>
       <c r="K60" s="3">
         <v>8670400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6780000</v>
+        <v>6450500</v>
       </c>
       <c r="E61" s="3">
-        <v>6655600</v>
+        <v>6332200</v>
       </c>
       <c r="F61" s="3">
-        <v>4256700</v>
+        <v>4049900</v>
       </c>
       <c r="G61" s="3">
-        <v>3858500</v>
+        <v>3671100</v>
       </c>
       <c r="H61" s="3">
-        <v>3284700</v>
+        <v>3125100</v>
       </c>
       <c r="I61" s="3">
-        <v>2743600</v>
+        <v>2610300</v>
       </c>
       <c r="J61" s="3">
-        <v>3016400</v>
+        <v>2869800</v>
       </c>
       <c r="K61" s="3">
         <v>3379700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>816000</v>
+        <v>776300</v>
       </c>
       <c r="E62" s="3">
-        <v>800700</v>
+        <v>761800</v>
       </c>
       <c r="F62" s="3">
-        <v>894500</v>
+        <v>851100</v>
       </c>
       <c r="G62" s="3">
-        <v>865100</v>
+        <v>823100</v>
       </c>
       <c r="H62" s="3">
-        <v>953500</v>
+        <v>907100</v>
       </c>
       <c r="I62" s="3">
-        <v>1128000</v>
+        <v>1073200</v>
       </c>
       <c r="J62" s="3">
-        <v>903300</v>
+        <v>859400</v>
       </c>
       <c r="K62" s="3">
         <v>1091500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17261500</v>
+        <v>16422700</v>
       </c>
       <c r="E66" s="3">
-        <v>15921800</v>
+        <v>15148200</v>
       </c>
       <c r="F66" s="3">
-        <v>14193800</v>
+        <v>13504100</v>
       </c>
       <c r="G66" s="3">
-        <v>13087600</v>
+        <v>12451700</v>
       </c>
       <c r="H66" s="3">
-        <v>12368700</v>
+        <v>11767700</v>
       </c>
       <c r="I66" s="3">
-        <v>11443600</v>
+        <v>10887600</v>
       </c>
       <c r="J66" s="3">
-        <v>11745800</v>
+        <v>11175100</v>
       </c>
       <c r="K66" s="3">
         <v>13178900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3769100</v>
+        <v>3585900</v>
       </c>
       <c r="E72" s="3">
-        <v>3449500</v>
+        <v>3281800</v>
       </c>
       <c r="F72" s="3">
-        <v>4754200</v>
+        <v>4523200</v>
       </c>
       <c r="G72" s="3">
-        <v>4140000</v>
+        <v>3938800</v>
       </c>
       <c r="H72" s="3">
-        <v>3769100</v>
+        <v>3585900</v>
       </c>
       <c r="I72" s="3">
-        <v>3281500</v>
+        <v>3122000</v>
       </c>
       <c r="J72" s="3">
-        <v>3082900</v>
+        <v>2933100</v>
       </c>
       <c r="K72" s="3">
         <v>2706100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3456000</v>
+        <v>3288100</v>
       </c>
       <c r="E76" s="3">
-        <v>3008700</v>
+        <v>2862500</v>
       </c>
       <c r="F76" s="3">
-        <v>4861100</v>
+        <v>4624900</v>
       </c>
       <c r="G76" s="3">
-        <v>3581500</v>
+        <v>3407400</v>
       </c>
       <c r="H76" s="3">
-        <v>3857500</v>
+        <v>3670000</v>
       </c>
       <c r="I76" s="3">
-        <v>4001500</v>
+        <v>3807000</v>
       </c>
       <c r="J76" s="3">
-        <v>4047300</v>
+        <v>3850600</v>
       </c>
       <c r="K76" s="3">
         <v>3722900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>151600</v>
+        <v>144300</v>
       </c>
       <c r="E81" s="3">
-        <v>-343600</v>
+        <v>-326900</v>
       </c>
       <c r="F81" s="3">
-        <v>725500</v>
+        <v>690200</v>
       </c>
       <c r="G81" s="3">
-        <v>710200</v>
+        <v>675700</v>
       </c>
       <c r="H81" s="3">
-        <v>788700</v>
+        <v>750400</v>
       </c>
       <c r="I81" s="3">
-        <v>694900</v>
+        <v>661100</v>
       </c>
       <c r="J81" s="3">
-        <v>763600</v>
+        <v>726500</v>
       </c>
       <c r="K81" s="3">
         <v>572000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>655600</v>
+        <v>623800</v>
       </c>
       <c r="E83" s="3">
-        <v>977500</v>
+        <v>930000</v>
       </c>
       <c r="F83" s="3">
-        <v>398200</v>
+        <v>378800</v>
       </c>
       <c r="G83" s="3">
-        <v>345800</v>
+        <v>329000</v>
       </c>
       <c r="H83" s="3">
-        <v>306500</v>
+        <v>291600</v>
       </c>
       <c r="I83" s="3">
-        <v>336000</v>
+        <v>319700</v>
       </c>
       <c r="J83" s="3">
-        <v>302200</v>
+        <v>287500</v>
       </c>
       <c r="K83" s="3">
         <v>291900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1070200</v>
+        <v>1018200</v>
       </c>
       <c r="E89" s="3">
-        <v>687300</v>
+        <v>653900</v>
       </c>
       <c r="F89" s="3">
-        <v>1383300</v>
+        <v>1316100</v>
       </c>
       <c r="G89" s="3">
-        <v>1236000</v>
+        <v>1175900</v>
       </c>
       <c r="H89" s="3">
-        <v>1158500</v>
+        <v>1102200</v>
       </c>
       <c r="I89" s="3">
-        <v>1030900</v>
+        <v>980800</v>
       </c>
       <c r="J89" s="3">
-        <v>1109500</v>
+        <v>1055500</v>
       </c>
       <c r="K89" s="3">
         <v>963100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-322900</v>
+        <v>-307200</v>
       </c>
       <c r="E91" s="3">
-        <v>-434200</v>
+        <v>-413100</v>
       </c>
       <c r="F91" s="3">
-        <v>-436400</v>
+        <v>-415200</v>
       </c>
       <c r="G91" s="3">
-        <v>-358900</v>
+        <v>-341500</v>
       </c>
       <c r="H91" s="3">
-        <v>-337100</v>
+        <v>-320700</v>
       </c>
       <c r="I91" s="3">
-        <v>-376400</v>
+        <v>-358100</v>
       </c>
       <c r="J91" s="3">
-        <v>-329500</v>
+        <v>-313400</v>
       </c>
       <c r="K91" s="3">
         <v>-286000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-330500</v>
+        <v>-314500</v>
       </c>
       <c r="E94" s="3">
-        <v>-469100</v>
+        <v>-446300</v>
       </c>
       <c r="F94" s="3">
-        <v>-882500</v>
+        <v>-839700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1090900</v>
+        <v>-1037900</v>
       </c>
       <c r="H94" s="3">
-        <v>-667600</v>
+        <v>-635200</v>
       </c>
       <c r="I94" s="3">
-        <v>-529100</v>
+        <v>-503400</v>
       </c>
       <c r="J94" s="3">
-        <v>-412400</v>
+        <v>-392300</v>
       </c>
       <c r="K94" s="3">
         <v>-393400</v>
@@ -3767,22 +3767,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-463600</v>
+        <v>-441100</v>
       </c>
       <c r="F96" s="3">
-        <v>-439600</v>
+        <v>-418300</v>
       </c>
       <c r="G96" s="3">
-        <v>-448400</v>
+        <v>-426600</v>
       </c>
       <c r="H96" s="3">
-        <v>-391600</v>
+        <v>-372600</v>
       </c>
       <c r="I96" s="3">
-        <v>-365500</v>
+        <v>-347700</v>
       </c>
       <c r="J96" s="3">
-        <v>-301100</v>
+        <v>-286500</v>
       </c>
       <c r="K96" s="3">
         <v>-289500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>860700</v>
+        <v>818900</v>
       </c>
       <c r="E100" s="3">
-        <v>216000</v>
+        <v>205500</v>
       </c>
       <c r="F100" s="3">
-        <v>-445100</v>
+        <v>-423500</v>
       </c>
       <c r="G100" s="3">
-        <v>-376400</v>
+        <v>-358100</v>
       </c>
       <c r="H100" s="3">
-        <v>351300</v>
+        <v>334200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1201100</v>
+        <v>-1142700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1489100</v>
+        <v>-1416700</v>
       </c>
       <c r="K100" s="3">
         <v>1074000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>48000</v>
+        <v>45700</v>
       </c>
       <c r="E101" s="3">
-        <v>-134200</v>
+        <v>-127700</v>
       </c>
       <c r="F101" s="3">
-        <v>63300</v>
+        <v>60200</v>
       </c>
       <c r="G101" s="3">
-        <v>-141800</v>
+        <v>-134900</v>
       </c>
       <c r="H101" s="3">
-        <v>-151600</v>
+        <v>-144300</v>
       </c>
       <c r="I101" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="J101" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="K101" s="3">
         <v>-32700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1648400</v>
+        <v>1568300</v>
       </c>
       <c r="E102" s="3">
-        <v>300000</v>
+        <v>285400</v>
       </c>
       <c r="F102" s="3">
-        <v>118900</v>
+        <v>113100</v>
       </c>
       <c r="G102" s="3">
-        <v>-373100</v>
+        <v>-355000</v>
       </c>
       <c r="H102" s="3">
-        <v>690500</v>
+        <v>657000</v>
       </c>
       <c r="I102" s="3">
-        <v>-678500</v>
+        <v>-645600</v>
       </c>
       <c r="J102" s="3">
-        <v>-783300</v>
+        <v>-745200</v>
       </c>
       <c r="K102" s="3">
         <v>1611000</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18088500</v>
+        <v>17382700</v>
       </c>
       <c r="E8" s="3">
-        <v>20053300</v>
+        <v>19270800</v>
       </c>
       <c r="F8" s="3">
-        <v>22786100</v>
+        <v>21896900</v>
       </c>
       <c r="G8" s="3">
-        <v>21180400</v>
+        <v>20353900</v>
       </c>
       <c r="H8" s="3">
-        <v>21482500</v>
+        <v>20644200</v>
       </c>
       <c r="I8" s="3">
-        <v>21012300</v>
+        <v>20192400</v>
       </c>
       <c r="J8" s="3">
-        <v>20566000</v>
+        <v>19763500</v>
       </c>
       <c r="K8" s="3">
         <v>21032100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15574700</v>
+        <v>14967000</v>
       </c>
       <c r="E9" s="3">
-        <v>17480300</v>
+        <v>16798200</v>
       </c>
       <c r="F9" s="3">
-        <v>19466900</v>
+        <v>18707200</v>
       </c>
       <c r="G9" s="3">
-        <v>17976400</v>
+        <v>17275000</v>
       </c>
       <c r="H9" s="3">
-        <v>18172600</v>
+        <v>17463500</v>
       </c>
       <c r="I9" s="3">
-        <v>17784400</v>
+        <v>17090400</v>
       </c>
       <c r="J9" s="3">
-        <v>17288300</v>
+        <v>16613700</v>
       </c>
       <c r="K9" s="3">
         <v>17820500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2513800</v>
+        <v>2415700</v>
       </c>
       <c r="E10" s="3">
-        <v>2573000</v>
+        <v>2472600</v>
       </c>
       <c r="F10" s="3">
-        <v>3319200</v>
+        <v>3189700</v>
       </c>
       <c r="G10" s="3">
-        <v>3204000</v>
+        <v>3079000</v>
       </c>
       <c r="H10" s="3">
-        <v>3309900</v>
+        <v>3180700</v>
       </c>
       <c r="I10" s="3">
-        <v>3227900</v>
+        <v>3101900</v>
       </c>
       <c r="J10" s="3">
-        <v>3277700</v>
+        <v>3149800</v>
       </c>
       <c r="K10" s="3">
         <v>3211500</v>
@@ -935,19 +935,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>225200</v>
+        <v>216400</v>
       </c>
       <c r="E14" s="3">
-        <v>476400</v>
+        <v>457800</v>
       </c>
       <c r="F14" s="3">
-        <v>59200</v>
+        <v>56900</v>
       </c>
       <c r="G14" s="3">
-        <v>83000</v>
+        <v>79800</v>
       </c>
       <c r="H14" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -974,16 +974,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>34300</v>
+        <v>32900</v>
       </c>
       <c r="E15" s="3">
-        <v>24900</v>
+        <v>23900</v>
       </c>
       <c r="F15" s="3">
-        <v>88200</v>
+        <v>84800</v>
       </c>
       <c r="G15" s="3">
-        <v>50900</v>
+        <v>48900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17736700</v>
+        <v>17044600</v>
       </c>
       <c r="E17" s="3">
-        <v>19985800</v>
+        <v>19205900</v>
       </c>
       <c r="F17" s="3">
-        <v>21686900</v>
+        <v>20840700</v>
       </c>
       <c r="G17" s="3">
-        <v>20145600</v>
+        <v>19359500</v>
       </c>
       <c r="H17" s="3">
-        <v>20259800</v>
+        <v>19469200</v>
       </c>
       <c r="I17" s="3">
-        <v>19875800</v>
+        <v>19100200</v>
       </c>
       <c r="J17" s="3">
-        <v>19386900</v>
+        <v>18630400</v>
       </c>
       <c r="K17" s="3">
         <v>19942900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>351800</v>
+        <v>338100</v>
       </c>
       <c r="E18" s="3">
-        <v>67500</v>
+        <v>64800</v>
       </c>
       <c r="F18" s="3">
-        <v>1099100</v>
+        <v>1056200</v>
       </c>
       <c r="G18" s="3">
-        <v>1034800</v>
+        <v>994400</v>
       </c>
       <c r="H18" s="3">
-        <v>1222600</v>
+        <v>1174900</v>
       </c>
       <c r="I18" s="3">
-        <v>1136500</v>
+        <v>1092200</v>
       </c>
       <c r="J18" s="3">
-        <v>1179100</v>
+        <v>1133000</v>
       </c>
       <c r="K18" s="3">
         <v>1089200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>-145300</v>
+        <v>-139600</v>
       </c>
       <c r="F20" s="3">
-        <v>25900</v>
+        <v>24900</v>
       </c>
       <c r="G20" s="3">
-        <v>22800</v>
+        <v>21900</v>
       </c>
       <c r="H20" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>59200</v>
+        <v>56900</v>
       </c>
       <c r="K20" s="3">
         <v>-2300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>990800</v>
+        <v>944000</v>
       </c>
       <c r="E21" s="3">
-        <v>863900</v>
+        <v>818100</v>
       </c>
       <c r="F21" s="3">
-        <v>1508700</v>
+        <v>1444900</v>
       </c>
       <c r="G21" s="3">
-        <v>1390800</v>
+        <v>1332200</v>
       </c>
       <c r="H21" s="3">
-        <v>1522200</v>
+        <v>1458900</v>
       </c>
       <c r="I21" s="3">
-        <v>1460200</v>
+        <v>1399100</v>
       </c>
       <c r="J21" s="3">
-        <v>1529400</v>
+        <v>1465900</v>
       </c>
       <c r="K21" s="3">
         <v>1379600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>113100</v>
+        <v>108700</v>
       </c>
       <c r="E22" s="3">
-        <v>151500</v>
+        <v>145600</v>
       </c>
       <c r="F22" s="3">
-        <v>125600</v>
+        <v>120700</v>
       </c>
       <c r="G22" s="3">
-        <v>114200</v>
+        <v>109700</v>
       </c>
       <c r="H22" s="3">
-        <v>97600</v>
+        <v>93800</v>
       </c>
       <c r="I22" s="3">
-        <v>107900</v>
+        <v>103700</v>
       </c>
       <c r="J22" s="3">
-        <v>155700</v>
+        <v>149600</v>
       </c>
       <c r="K22" s="3">
         <v>183300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>246000</v>
+        <v>236400</v>
       </c>
       <c r="E23" s="3">
-        <v>-229400</v>
+        <v>-220400</v>
       </c>
       <c r="F23" s="3">
-        <v>999500</v>
+        <v>960500</v>
       </c>
       <c r="G23" s="3">
-        <v>943500</v>
+        <v>906600</v>
       </c>
       <c r="H23" s="3">
-        <v>1129200</v>
+        <v>1085200</v>
       </c>
       <c r="I23" s="3">
-        <v>1028600</v>
+        <v>988400</v>
       </c>
       <c r="J23" s="3">
-        <v>1082500</v>
+        <v>1040300</v>
       </c>
       <c r="K23" s="3">
         <v>903600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104800</v>
+        <v>100700</v>
       </c>
       <c r="E24" s="3">
-        <v>101700</v>
+        <v>97700</v>
       </c>
       <c r="F24" s="3">
-        <v>287500</v>
+        <v>276300</v>
       </c>
       <c r="G24" s="3">
-        <v>254300</v>
+        <v>244400</v>
       </c>
       <c r="H24" s="3">
-        <v>356000</v>
+        <v>342100</v>
       </c>
       <c r="I24" s="3">
-        <v>342500</v>
+        <v>329100</v>
       </c>
       <c r="J24" s="3">
-        <v>332100</v>
+        <v>319200</v>
       </c>
       <c r="K24" s="3">
         <v>309400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>141200</v>
+        <v>135600</v>
       </c>
       <c r="E26" s="3">
-        <v>-331100</v>
+        <v>-318200</v>
       </c>
       <c r="F26" s="3">
-        <v>712000</v>
+        <v>684200</v>
       </c>
       <c r="G26" s="3">
-        <v>689200</v>
+        <v>662300</v>
       </c>
       <c r="H26" s="3">
-        <v>773200</v>
+        <v>743100</v>
       </c>
       <c r="I26" s="3">
-        <v>686100</v>
+        <v>659300</v>
       </c>
       <c r="J26" s="3">
-        <v>750400</v>
+        <v>721100</v>
       </c>
       <c r="K26" s="3">
         <v>594200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>144300</v>
+        <v>138600</v>
       </c>
       <c r="E27" s="3">
-        <v>-326900</v>
+        <v>-314200</v>
       </c>
       <c r="F27" s="3">
-        <v>690200</v>
+        <v>663300</v>
       </c>
       <c r="G27" s="3">
-        <v>675700</v>
+        <v>649300</v>
       </c>
       <c r="H27" s="3">
-        <v>750400</v>
+        <v>721100</v>
       </c>
       <c r="I27" s="3">
-        <v>661100</v>
+        <v>635300</v>
       </c>
       <c r="J27" s="3">
-        <v>726500</v>
+        <v>698200</v>
       </c>
       <c r="K27" s="3">
         <v>572000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>145300</v>
+        <v>139600</v>
       </c>
       <c r="F32" s="3">
-        <v>-25900</v>
+        <v>-24900</v>
       </c>
       <c r="G32" s="3">
-        <v>-22800</v>
+        <v>-21900</v>
       </c>
       <c r="H32" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-59200</v>
+        <v>-56900</v>
       </c>
       <c r="K32" s="3">
         <v>2300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>144300</v>
+        <v>138600</v>
       </c>
       <c r="E33" s="3">
-        <v>-326900</v>
+        <v>-314200</v>
       </c>
       <c r="F33" s="3">
-        <v>690200</v>
+        <v>663300</v>
       </c>
       <c r="G33" s="3">
-        <v>675700</v>
+        <v>649300</v>
       </c>
       <c r="H33" s="3">
-        <v>750400</v>
+        <v>721100</v>
       </c>
       <c r="I33" s="3">
-        <v>661100</v>
+        <v>635300</v>
       </c>
       <c r="J33" s="3">
-        <v>726500</v>
+        <v>698200</v>
       </c>
       <c r="K33" s="3">
         <v>572000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>144300</v>
+        <v>138600</v>
       </c>
       <c r="E35" s="3">
-        <v>-326900</v>
+        <v>-314200</v>
       </c>
       <c r="F35" s="3">
-        <v>690200</v>
+        <v>663300</v>
       </c>
       <c r="G35" s="3">
-        <v>675700</v>
+        <v>649300</v>
       </c>
       <c r="H35" s="3">
-        <v>750400</v>
+        <v>721100</v>
       </c>
       <c r="I35" s="3">
-        <v>661100</v>
+        <v>635300</v>
       </c>
       <c r="J35" s="3">
-        <v>726500</v>
+        <v>698200</v>
       </c>
       <c r="K35" s="3">
         <v>572000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3331700</v>
+        <v>3201700</v>
       </c>
       <c r="E41" s="3">
-        <v>1736400</v>
+        <v>1668700</v>
       </c>
       <c r="F41" s="3">
-        <v>1460300</v>
+        <v>1403300</v>
       </c>
       <c r="G41" s="3">
-        <v>1350300</v>
+        <v>1297600</v>
       </c>
       <c r="H41" s="3">
-        <v>1658600</v>
+        <v>1593800</v>
       </c>
       <c r="I41" s="3">
-        <v>1060700</v>
+        <v>1019300</v>
       </c>
       <c r="J41" s="3">
-        <v>1715600</v>
+        <v>1648700</v>
       </c>
       <c r="K41" s="3">
         <v>2295100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>381900</v>
+        <v>367000</v>
       </c>
       <c r="E42" s="3">
-        <v>408900</v>
+        <v>393000</v>
       </c>
       <c r="F42" s="3">
-        <v>448400</v>
+        <v>430900</v>
       </c>
       <c r="G42" s="3">
-        <v>416200</v>
+        <v>400000</v>
       </c>
       <c r="H42" s="3">
-        <v>469100</v>
+        <v>450800</v>
       </c>
       <c r="I42" s="3">
-        <v>412000</v>
+        <v>396000</v>
       </c>
       <c r="J42" s="3">
-        <v>393400</v>
+        <v>378000</v>
       </c>
       <c r="K42" s="3">
         <v>922300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4395500</v>
+        <v>4224000</v>
       </c>
       <c r="E43" s="3">
-        <v>4130800</v>
+        <v>3969700</v>
       </c>
       <c r="F43" s="3">
-        <v>4623800</v>
+        <v>4443400</v>
       </c>
       <c r="G43" s="3">
-        <v>4239800</v>
+        <v>4074400</v>
       </c>
       <c r="H43" s="3">
-        <v>4199300</v>
+        <v>4035500</v>
       </c>
       <c r="I43" s="3">
-        <v>4166100</v>
+        <v>4003600</v>
       </c>
       <c r="J43" s="3">
-        <v>3998000</v>
+        <v>3842000</v>
       </c>
       <c r="K43" s="3">
         <v>4292600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>265700</v>
+        <v>255300</v>
       </c>
       <c r="E44" s="3">
-        <v>268800</v>
+        <v>258300</v>
       </c>
       <c r="F44" s="3">
-        <v>305100</v>
+        <v>293200</v>
       </c>
       <c r="G44" s="3">
-        <v>290600</v>
+        <v>279300</v>
       </c>
       <c r="H44" s="3">
-        <v>266700</v>
+        <v>256300</v>
       </c>
       <c r="I44" s="3">
-        <v>278200</v>
+        <v>267300</v>
       </c>
       <c r="J44" s="3">
-        <v>280200</v>
+        <v>269300</v>
       </c>
       <c r="K44" s="3">
         <v>309400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1622200</v>
+        <v>1558900</v>
       </c>
       <c r="E45" s="3">
-        <v>1366900</v>
+        <v>1313600</v>
       </c>
       <c r="F45" s="3">
-        <v>1478000</v>
+        <v>1420300</v>
       </c>
       <c r="G45" s="3">
-        <v>1317100</v>
+        <v>1265700</v>
       </c>
       <c r="H45" s="3">
-        <v>1146900</v>
+        <v>1102100</v>
       </c>
       <c r="I45" s="3">
-        <v>995300</v>
+        <v>956500</v>
       </c>
       <c r="J45" s="3">
-        <v>1026500</v>
+        <v>986400</v>
       </c>
       <c r="K45" s="3">
         <v>1083400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9997100</v>
+        <v>9607000</v>
       </c>
       <c r="E46" s="3">
-        <v>7911900</v>
+        <v>7603200</v>
       </c>
       <c r="F46" s="3">
-        <v>8315700</v>
+        <v>7991200</v>
       </c>
       <c r="G46" s="3">
-        <v>7614000</v>
+        <v>7316900</v>
       </c>
       <c r="H46" s="3">
-        <v>7740700</v>
+        <v>7438600</v>
       </c>
       <c r="I46" s="3">
-        <v>6912400</v>
+        <v>6642700</v>
       </c>
       <c r="J46" s="3">
-        <v>7413700</v>
+        <v>7124400</v>
       </c>
       <c r="K46" s="3">
         <v>8902700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1408400</v>
+        <v>1353500</v>
       </c>
       <c r="E47" s="3">
-        <v>1282800</v>
+        <v>1232800</v>
       </c>
       <c r="F47" s="3">
-        <v>1750900</v>
+        <v>1682600</v>
       </c>
       <c r="G47" s="3">
-        <v>862500</v>
+        <v>828800</v>
       </c>
       <c r="H47" s="3">
-        <v>829300</v>
+        <v>796900</v>
       </c>
       <c r="I47" s="3">
-        <v>811600</v>
+        <v>780000</v>
       </c>
       <c r="J47" s="3">
-        <v>703700</v>
+        <v>676200</v>
       </c>
       <c r="K47" s="3">
         <v>633900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1415700</v>
+        <v>1360500</v>
       </c>
       <c r="E48" s="3">
-        <v>1958500</v>
+        <v>1882100</v>
       </c>
       <c r="F48" s="3">
-        <v>709900</v>
+        <v>682200</v>
       </c>
       <c r="G48" s="3">
-        <v>642500</v>
+        <v>617400</v>
       </c>
       <c r="H48" s="3">
-        <v>612400</v>
+        <v>588500</v>
       </c>
       <c r="I48" s="3">
-        <v>626900</v>
+        <v>602400</v>
       </c>
       <c r="J48" s="3">
-        <v>616500</v>
+        <v>592500</v>
       </c>
       <c r="K48" s="3">
         <v>647900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6686200</v>
+        <v>6425300</v>
       </c>
       <c r="E49" s="3">
-        <v>6681000</v>
+        <v>6420300</v>
       </c>
       <c r="F49" s="3">
-        <v>7222700</v>
+        <v>6940900</v>
       </c>
       <c r="G49" s="3">
-        <v>6609300</v>
+        <v>6351400</v>
       </c>
       <c r="H49" s="3">
-        <v>6039500</v>
+        <v>5803900</v>
       </c>
       <c r="I49" s="3">
-        <v>6014600</v>
+        <v>5779900</v>
       </c>
       <c r="J49" s="3">
-        <v>6025000</v>
+        <v>5789900</v>
       </c>
       <c r="K49" s="3">
         <v>6414900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>203400</v>
+        <v>195500</v>
       </c>
       <c r="E52" s="3">
-        <v>176400</v>
+        <v>169600</v>
       </c>
       <c r="F52" s="3">
-        <v>129700</v>
+        <v>124700</v>
       </c>
       <c r="G52" s="3">
-        <v>130800</v>
+        <v>125700</v>
       </c>
       <c r="H52" s="3">
-        <v>215900</v>
+        <v>207500</v>
       </c>
       <c r="I52" s="3">
-        <v>329000</v>
+        <v>316200</v>
       </c>
       <c r="J52" s="3">
-        <v>266700</v>
+        <v>256300</v>
       </c>
       <c r="K52" s="3">
         <v>302400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19710800</v>
+        <v>18941600</v>
       </c>
       <c r="E54" s="3">
-        <v>18010700</v>
+        <v>17307900</v>
       </c>
       <c r="F54" s="3">
-        <v>18129000</v>
+        <v>17421600</v>
       </c>
       <c r="G54" s="3">
-        <v>15859100</v>
+        <v>15240300</v>
       </c>
       <c r="H54" s="3">
-        <v>15437700</v>
+        <v>14835300</v>
       </c>
       <c r="I54" s="3">
-        <v>14694600</v>
+        <v>14121200</v>
       </c>
       <c r="J54" s="3">
-        <v>15025700</v>
+        <v>14439400</v>
       </c>
       <c r="K54" s="3">
         <v>16901800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2261600</v>
+        <v>2173300</v>
       </c>
       <c r="E57" s="3">
-        <v>1971000</v>
+        <v>1894100</v>
       </c>
       <c r="F57" s="3">
-        <v>2612400</v>
+        <v>2510500</v>
       </c>
       <c r="G57" s="3">
-        <v>2310400</v>
+        <v>2220200</v>
       </c>
       <c r="H57" s="3">
-        <v>2192000</v>
+        <v>2106500</v>
       </c>
       <c r="I57" s="3">
-        <v>2100700</v>
+        <v>2018700</v>
       </c>
       <c r="J57" s="3">
-        <v>2027000</v>
+        <v>1947900</v>
       </c>
       <c r="K57" s="3">
         <v>2064000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>849000</v>
+        <v>815900</v>
       </c>
       <c r="E58" s="3">
-        <v>267800</v>
+        <v>257300</v>
       </c>
       <c r="F58" s="3">
-        <v>225200</v>
+        <v>216400</v>
       </c>
       <c r="G58" s="3">
-        <v>465000</v>
+        <v>446800</v>
       </c>
       <c r="H58" s="3">
-        <v>556300</v>
+        <v>534600</v>
       </c>
       <c r="I58" s="3">
-        <v>73700</v>
+        <v>70800</v>
       </c>
       <c r="J58" s="3">
-        <v>367400</v>
+        <v>353100</v>
       </c>
       <c r="K58" s="3">
         <v>1188400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6077900</v>
+        <v>5840800</v>
       </c>
       <c r="E59" s="3">
-        <v>5799800</v>
+        <v>5573500</v>
       </c>
       <c r="F59" s="3">
-        <v>5721900</v>
+        <v>5498700</v>
       </c>
       <c r="G59" s="3">
-        <v>5135500</v>
+        <v>4935100</v>
       </c>
       <c r="H59" s="3">
-        <v>4951800</v>
+        <v>4758600</v>
       </c>
       <c r="I59" s="3">
-        <v>4994400</v>
+        <v>4799500</v>
       </c>
       <c r="J59" s="3">
-        <v>5016200</v>
+        <v>4820400</v>
       </c>
       <c r="K59" s="3">
         <v>5417900</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9188500</v>
+        <v>8830000</v>
       </c>
       <c r="E60" s="3">
-        <v>8038500</v>
+        <v>7724900</v>
       </c>
       <c r="F60" s="3">
-        <v>8559600</v>
+        <v>8225600</v>
       </c>
       <c r="G60" s="3">
-        <v>7910900</v>
+        <v>7602200</v>
       </c>
       <c r="H60" s="3">
-        <v>7700200</v>
+        <v>7399700</v>
       </c>
       <c r="I60" s="3">
-        <v>7168800</v>
+        <v>6889000</v>
       </c>
       <c r="J60" s="3">
-        <v>7410600</v>
+        <v>7121400</v>
       </c>
       <c r="K60" s="3">
         <v>8670400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6450500</v>
+        <v>6198800</v>
       </c>
       <c r="E61" s="3">
-        <v>6332200</v>
+        <v>6085100</v>
       </c>
       <c r="F61" s="3">
-        <v>4049900</v>
+        <v>3891900</v>
       </c>
       <c r="G61" s="3">
-        <v>3671100</v>
+        <v>3527800</v>
       </c>
       <c r="H61" s="3">
-        <v>3125100</v>
+        <v>3003200</v>
       </c>
       <c r="I61" s="3">
-        <v>2610300</v>
+        <v>2508500</v>
       </c>
       <c r="J61" s="3">
-        <v>2869800</v>
+        <v>2757800</v>
       </c>
       <c r="K61" s="3">
         <v>3379700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>776300</v>
+        <v>746100</v>
       </c>
       <c r="E62" s="3">
-        <v>761800</v>
+        <v>732100</v>
       </c>
       <c r="F62" s="3">
-        <v>851100</v>
+        <v>817900</v>
       </c>
       <c r="G62" s="3">
-        <v>823100</v>
+        <v>790900</v>
       </c>
       <c r="H62" s="3">
-        <v>907100</v>
+        <v>871700</v>
       </c>
       <c r="I62" s="3">
-        <v>1073200</v>
+        <v>1031300</v>
       </c>
       <c r="J62" s="3">
-        <v>859400</v>
+        <v>825800</v>
       </c>
       <c r="K62" s="3">
         <v>1091500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16422700</v>
+        <v>15781900</v>
       </c>
       <c r="E66" s="3">
-        <v>15148200</v>
+        <v>14557100</v>
       </c>
       <c r="F66" s="3">
-        <v>13504100</v>
+        <v>12977200</v>
       </c>
       <c r="G66" s="3">
-        <v>12451700</v>
+        <v>11965800</v>
       </c>
       <c r="H66" s="3">
-        <v>11767700</v>
+        <v>11308500</v>
       </c>
       <c r="I66" s="3">
-        <v>10887600</v>
+        <v>10462700</v>
       </c>
       <c r="J66" s="3">
-        <v>11175100</v>
+        <v>10739000</v>
       </c>
       <c r="K66" s="3">
         <v>13178900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3585900</v>
+        <v>3446000</v>
       </c>
       <c r="E72" s="3">
-        <v>3281800</v>
+        <v>3153800</v>
       </c>
       <c r="F72" s="3">
-        <v>4523200</v>
+        <v>4346700</v>
       </c>
       <c r="G72" s="3">
-        <v>3938800</v>
+        <v>3785100</v>
       </c>
       <c r="H72" s="3">
-        <v>3585900</v>
+        <v>3446000</v>
       </c>
       <c r="I72" s="3">
-        <v>3122000</v>
+        <v>3000200</v>
       </c>
       <c r="J72" s="3">
-        <v>2933100</v>
+        <v>2818700</v>
       </c>
       <c r="K72" s="3">
         <v>2706100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3288100</v>
+        <v>3159800</v>
       </c>
       <c r="E76" s="3">
-        <v>2862500</v>
+        <v>2750800</v>
       </c>
       <c r="F76" s="3">
-        <v>4624900</v>
+        <v>4444400</v>
       </c>
       <c r="G76" s="3">
-        <v>3407400</v>
+        <v>3274500</v>
       </c>
       <c r="H76" s="3">
-        <v>3670000</v>
+        <v>3526800</v>
       </c>
       <c r="I76" s="3">
-        <v>3807000</v>
+        <v>3658500</v>
       </c>
       <c r="J76" s="3">
-        <v>3850600</v>
+        <v>3700400</v>
       </c>
       <c r="K76" s="3">
         <v>3722900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>144300</v>
+        <v>138600</v>
       </c>
       <c r="E81" s="3">
-        <v>-326900</v>
+        <v>-314200</v>
       </c>
       <c r="F81" s="3">
-        <v>690200</v>
+        <v>663300</v>
       </c>
       <c r="G81" s="3">
-        <v>675700</v>
+        <v>649300</v>
       </c>
       <c r="H81" s="3">
-        <v>750400</v>
+        <v>721100</v>
       </c>
       <c r="I81" s="3">
-        <v>661100</v>
+        <v>635300</v>
       </c>
       <c r="J81" s="3">
-        <v>726500</v>
+        <v>698200</v>
       </c>
       <c r="K81" s="3">
         <v>572000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>623800</v>
+        <v>599400</v>
       </c>
       <c r="E83" s="3">
-        <v>930000</v>
+        <v>893700</v>
       </c>
       <c r="F83" s="3">
-        <v>378800</v>
+        <v>364100</v>
       </c>
       <c r="G83" s="3">
-        <v>329000</v>
+        <v>316200</v>
       </c>
       <c r="H83" s="3">
-        <v>291600</v>
+        <v>280300</v>
       </c>
       <c r="I83" s="3">
-        <v>319700</v>
+        <v>307200</v>
       </c>
       <c r="J83" s="3">
-        <v>287500</v>
+        <v>276300</v>
       </c>
       <c r="K83" s="3">
         <v>291900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1018200</v>
+        <v>978400</v>
       </c>
       <c r="E89" s="3">
-        <v>653900</v>
+        <v>628400</v>
       </c>
       <c r="F89" s="3">
-        <v>1316100</v>
+        <v>1264700</v>
       </c>
       <c r="G89" s="3">
-        <v>1175900</v>
+        <v>1130100</v>
       </c>
       <c r="H89" s="3">
-        <v>1102200</v>
+        <v>1059200</v>
       </c>
       <c r="I89" s="3">
-        <v>980800</v>
+        <v>942500</v>
       </c>
       <c r="J89" s="3">
-        <v>1055500</v>
+        <v>1014400</v>
       </c>
       <c r="K89" s="3">
         <v>963100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-307200</v>
+        <v>-295200</v>
       </c>
       <c r="E91" s="3">
-        <v>-413100</v>
+        <v>-397000</v>
       </c>
       <c r="F91" s="3">
-        <v>-415200</v>
+        <v>-399000</v>
       </c>
       <c r="G91" s="3">
-        <v>-341500</v>
+        <v>-328100</v>
       </c>
       <c r="H91" s="3">
-        <v>-320700</v>
+        <v>-308200</v>
       </c>
       <c r="I91" s="3">
-        <v>-358100</v>
+        <v>-344100</v>
       </c>
       <c r="J91" s="3">
-        <v>-313400</v>
+        <v>-301200</v>
       </c>
       <c r="K91" s="3">
         <v>-286000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-314500</v>
+        <v>-302200</v>
       </c>
       <c r="E94" s="3">
-        <v>-446300</v>
+        <v>-428900</v>
       </c>
       <c r="F94" s="3">
-        <v>-839700</v>
+        <v>-806900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1037900</v>
+        <v>-997400</v>
       </c>
       <c r="H94" s="3">
-        <v>-635200</v>
+        <v>-610400</v>
       </c>
       <c r="I94" s="3">
-        <v>-503400</v>
+        <v>-483700</v>
       </c>
       <c r="J94" s="3">
-        <v>-392300</v>
+        <v>-377000</v>
       </c>
       <c r="K94" s="3">
         <v>-393400</v>
@@ -3767,22 +3767,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-441100</v>
+        <v>-423900</v>
       </c>
       <c r="F96" s="3">
-        <v>-418300</v>
+        <v>-402000</v>
       </c>
       <c r="G96" s="3">
-        <v>-426600</v>
+        <v>-409900</v>
       </c>
       <c r="H96" s="3">
-        <v>-372600</v>
+        <v>-358100</v>
       </c>
       <c r="I96" s="3">
-        <v>-347700</v>
+        <v>-334100</v>
       </c>
       <c r="J96" s="3">
-        <v>-286500</v>
+        <v>-275300</v>
       </c>
       <c r="K96" s="3">
         <v>-289500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>818900</v>
+        <v>786900</v>
       </c>
       <c r="E100" s="3">
-        <v>205500</v>
+        <v>197500</v>
       </c>
       <c r="F100" s="3">
-        <v>-423500</v>
+        <v>-406900</v>
       </c>
       <c r="G100" s="3">
-        <v>-358100</v>
+        <v>-344100</v>
       </c>
       <c r="H100" s="3">
-        <v>334200</v>
+        <v>321200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1142700</v>
+        <v>-1098100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1416700</v>
+        <v>-1361500</v>
       </c>
       <c r="K100" s="3">
         <v>1074000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>45700</v>
+        <v>43900</v>
       </c>
       <c r="E101" s="3">
-        <v>-127700</v>
+        <v>-122700</v>
       </c>
       <c r="F101" s="3">
-        <v>60200</v>
+        <v>57800</v>
       </c>
       <c r="G101" s="3">
-        <v>-134900</v>
+        <v>-129700</v>
       </c>
       <c r="H101" s="3">
-        <v>-144300</v>
+        <v>-138600</v>
       </c>
       <c r="I101" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="J101" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="K101" s="3">
         <v>-32700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1568300</v>
+        <v>1507100</v>
       </c>
       <c r="E102" s="3">
-        <v>285400</v>
+        <v>274300</v>
       </c>
       <c r="F102" s="3">
-        <v>113100</v>
+        <v>108700</v>
       </c>
       <c r="G102" s="3">
-        <v>-355000</v>
+        <v>-341100</v>
       </c>
       <c r="H102" s="3">
-        <v>657000</v>
+        <v>631400</v>
       </c>
       <c r="I102" s="3">
-        <v>-645600</v>
+        <v>-620400</v>
       </c>
       <c r="J102" s="3">
-        <v>-745200</v>
+        <v>-716100</v>
       </c>
       <c r="K102" s="3">
         <v>1611000</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43343</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42978</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42613</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42247</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41882</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41517</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41152</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40786</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17382700</v>
+        <v>21564400</v>
       </c>
       <c r="E8" s="3">
-        <v>19270800</v>
+        <v>17790500</v>
       </c>
       <c r="F8" s="3">
-        <v>21896900</v>
+        <v>19722900</v>
       </c>
       <c r="G8" s="3">
-        <v>20353900</v>
+        <v>22410600</v>
       </c>
       <c r="H8" s="3">
-        <v>20644200</v>
+        <v>20831500</v>
       </c>
       <c r="I8" s="3">
-        <v>20192400</v>
+        <v>21128500</v>
       </c>
       <c r="J8" s="3">
+        <v>20666100</v>
+      </c>
+      <c r="K8" s="3">
         <v>19763500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21032100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21761800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20460600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18836100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14967000</v>
+        <v>18464200</v>
       </c>
       <c r="E9" s="3">
-        <v>16798200</v>
+        <v>15318100</v>
       </c>
       <c r="F9" s="3">
-        <v>18707200</v>
+        <v>17192300</v>
       </c>
       <c r="G9" s="3">
-        <v>17275000</v>
+        <v>19146100</v>
       </c>
       <c r="H9" s="3">
-        <v>17463500</v>
+        <v>17680300</v>
       </c>
       <c r="I9" s="3">
-        <v>17090400</v>
+        <v>17873200</v>
       </c>
       <c r="J9" s="3">
+        <v>17491400</v>
+      </c>
+      <c r="K9" s="3">
         <v>16613700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17820500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18513600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17255100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15880500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2415700</v>
+        <v>3100200</v>
       </c>
       <c r="E10" s="3">
-        <v>2472600</v>
+        <v>2472400</v>
       </c>
       <c r="F10" s="3">
-        <v>3189700</v>
+        <v>2530600</v>
       </c>
       <c r="G10" s="3">
-        <v>3079000</v>
+        <v>3264500</v>
       </c>
       <c r="H10" s="3">
-        <v>3180700</v>
+        <v>3151200</v>
       </c>
       <c r="I10" s="3">
-        <v>3101900</v>
+        <v>3255300</v>
       </c>
       <c r="J10" s="3">
+        <v>3174700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3149800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3211500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3248200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3205500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2955700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,29 +944,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>216400</v>
+        <v>-36700</v>
       </c>
       <c r="E14" s="3">
-        <v>457800</v>
+        <v>221500</v>
       </c>
       <c r="F14" s="3">
-        <v>56900</v>
+        <v>468500</v>
       </c>
       <c r="G14" s="3">
-        <v>79800</v>
+        <v>58200</v>
       </c>
       <c r="H14" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>81700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>11200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -961,32 +980,35 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1200</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>32900</v>
+        <v>47000</v>
       </c>
       <c r="E15" s="3">
-        <v>23900</v>
+        <v>33700</v>
       </c>
       <c r="F15" s="3">
-        <v>84800</v>
+        <v>24500</v>
       </c>
       <c r="G15" s="3">
-        <v>48900</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>86800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>50000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1003,12 +1025,15 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17044600</v>
+        <v>20488500</v>
       </c>
       <c r="E17" s="3">
-        <v>19205900</v>
+        <v>17444500</v>
       </c>
       <c r="F17" s="3">
-        <v>20840700</v>
+        <v>19656500</v>
       </c>
       <c r="G17" s="3">
-        <v>19359500</v>
+        <v>21329600</v>
       </c>
       <c r="H17" s="3">
-        <v>19469200</v>
+        <v>19813700</v>
       </c>
       <c r="I17" s="3">
-        <v>19100200</v>
+        <v>19926000</v>
       </c>
       <c r="J17" s="3">
+        <v>19548300</v>
+      </c>
+      <c r="K17" s="3">
         <v>18630400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19942900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20798900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19356600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17833700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>338100</v>
+        <v>1075900</v>
       </c>
       <c r="E18" s="3">
-        <v>64800</v>
+        <v>346100</v>
       </c>
       <c r="F18" s="3">
-        <v>1056200</v>
+        <v>66400</v>
       </c>
       <c r="G18" s="3">
-        <v>994400</v>
+        <v>1081000</v>
       </c>
       <c r="H18" s="3">
-        <v>1174900</v>
+        <v>1017700</v>
       </c>
       <c r="I18" s="3">
-        <v>1092200</v>
+        <v>1202500</v>
       </c>
       <c r="J18" s="3">
+        <v>1117800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1133000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1089200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>962900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1104000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1002400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="E20" s="3">
-        <v>-139600</v>
+        <v>7100</v>
       </c>
       <c r="F20" s="3">
-        <v>24900</v>
+        <v>-142900</v>
       </c>
       <c r="G20" s="3">
-        <v>21900</v>
+        <v>25500</v>
       </c>
       <c r="H20" s="3">
-        <v>4000</v>
+        <v>22500</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>56900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>46100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>944000</v>
+        <v>1622000</v>
       </c>
       <c r="E21" s="3">
-        <v>818100</v>
+        <v>954900</v>
       </c>
       <c r="F21" s="3">
-        <v>1444900</v>
+        <v>820400</v>
       </c>
       <c r="G21" s="3">
-        <v>1332200</v>
+        <v>1471900</v>
       </c>
       <c r="H21" s="3">
-        <v>1458900</v>
+        <v>1357500</v>
       </c>
       <c r="I21" s="3">
-        <v>1399100</v>
+        <v>1487900</v>
       </c>
       <c r="J21" s="3">
+        <v>1426100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1465900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1379600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1329700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1537000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1306600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>108700</v>
+        <v>110200</v>
       </c>
       <c r="E22" s="3">
-        <v>145600</v>
+        <v>111300</v>
       </c>
       <c r="F22" s="3">
-        <v>120700</v>
+        <v>149000</v>
       </c>
       <c r="G22" s="3">
-        <v>109700</v>
+        <v>123500</v>
       </c>
       <c r="H22" s="3">
-        <v>93800</v>
+        <v>112300</v>
       </c>
       <c r="I22" s="3">
-        <v>103700</v>
+        <v>96000</v>
       </c>
       <c r="J22" s="3">
+        <v>106200</v>
+      </c>
+      <c r="K22" s="3">
         <v>149600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>183300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>186900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>202000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>173700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>236400</v>
+        <v>988100</v>
       </c>
       <c r="E23" s="3">
-        <v>-220400</v>
+        <v>241900</v>
       </c>
       <c r="F23" s="3">
-        <v>960500</v>
+        <v>-225600</v>
       </c>
       <c r="G23" s="3">
-        <v>906600</v>
+        <v>983000</v>
       </c>
       <c r="H23" s="3">
-        <v>1085200</v>
+        <v>927900</v>
       </c>
       <c r="I23" s="3">
-        <v>988400</v>
+        <v>1110600</v>
       </c>
       <c r="J23" s="3">
+        <v>1011600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1040300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>903600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>822100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>938000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>846300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100700</v>
+        <v>269500</v>
       </c>
       <c r="E24" s="3">
-        <v>97700</v>
+        <v>103100</v>
       </c>
       <c r="F24" s="3">
-        <v>276300</v>
+        <v>100000</v>
       </c>
       <c r="G24" s="3">
-        <v>244400</v>
+        <v>282800</v>
       </c>
       <c r="H24" s="3">
-        <v>342100</v>
+        <v>250100</v>
       </c>
       <c r="I24" s="3">
-        <v>329100</v>
+        <v>350100</v>
       </c>
       <c r="J24" s="3">
+        <v>336900</v>
+      </c>
+      <c r="K24" s="3">
         <v>319200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>309400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>275600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>320900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>293500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>135600</v>
+        <v>718600</v>
       </c>
       <c r="E26" s="3">
-        <v>-318200</v>
+        <v>138800</v>
       </c>
       <c r="F26" s="3">
-        <v>684200</v>
+        <v>-325600</v>
       </c>
       <c r="G26" s="3">
-        <v>662300</v>
+        <v>700300</v>
       </c>
       <c r="H26" s="3">
-        <v>743100</v>
+        <v>677800</v>
       </c>
       <c r="I26" s="3">
-        <v>659300</v>
+        <v>760500</v>
       </c>
       <c r="J26" s="3">
+        <v>674700</v>
+      </c>
+      <c r="K26" s="3">
         <v>721100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>594200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>546500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>617100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>552900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>138600</v>
+        <v>709500</v>
       </c>
       <c r="E27" s="3">
-        <v>-314200</v>
+        <v>141900</v>
       </c>
       <c r="F27" s="3">
-        <v>663300</v>
+        <v>-321600</v>
       </c>
       <c r="G27" s="3">
-        <v>649300</v>
+        <v>678800</v>
       </c>
       <c r="H27" s="3">
-        <v>721100</v>
+        <v>664500</v>
       </c>
       <c r="I27" s="3">
-        <v>635300</v>
+        <v>738000</v>
       </c>
       <c r="J27" s="3">
+        <v>650200</v>
+      </c>
+      <c r="K27" s="3">
         <v>698200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>572000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>519300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>589000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>529400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-22500</v>
       </c>
       <c r="E32" s="3">
-        <v>139600</v>
+        <v>-7100</v>
       </c>
       <c r="F32" s="3">
-        <v>-24900</v>
+        <v>142900</v>
       </c>
       <c r="G32" s="3">
-        <v>-21900</v>
+        <v>-25500</v>
       </c>
       <c r="H32" s="3">
-        <v>-4000</v>
+        <v>-22500</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-56900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-46100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>138600</v>
+        <v>709500</v>
       </c>
       <c r="E33" s="3">
-        <v>-314200</v>
+        <v>141900</v>
       </c>
       <c r="F33" s="3">
-        <v>663300</v>
+        <v>-321600</v>
       </c>
       <c r="G33" s="3">
-        <v>649300</v>
+        <v>678800</v>
       </c>
       <c r="H33" s="3">
-        <v>721100</v>
+        <v>664500</v>
       </c>
       <c r="I33" s="3">
-        <v>635300</v>
+        <v>738000</v>
       </c>
       <c r="J33" s="3">
+        <v>650200</v>
+      </c>
+      <c r="K33" s="3">
         <v>698200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>572000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>519300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>589000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>529400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>138600</v>
+        <v>709500</v>
       </c>
       <c r="E35" s="3">
-        <v>-314200</v>
+        <v>141900</v>
       </c>
       <c r="F35" s="3">
-        <v>663300</v>
+        <v>-321600</v>
       </c>
       <c r="G35" s="3">
-        <v>649300</v>
+        <v>678800</v>
       </c>
       <c r="H35" s="3">
-        <v>721100</v>
+        <v>664500</v>
       </c>
       <c r="I35" s="3">
-        <v>635300</v>
+        <v>738000</v>
       </c>
       <c r="J35" s="3">
+        <v>650200</v>
+      </c>
+      <c r="K35" s="3">
         <v>698200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>572000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>519300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>589000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>529400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43343</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42978</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42613</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42247</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41882</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41517</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41152</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40786</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3201700</v>
+        <v>2757200</v>
       </c>
       <c r="E41" s="3">
-        <v>1668700</v>
+        <v>3276800</v>
       </c>
       <c r="F41" s="3">
-        <v>1403300</v>
+        <v>1707800</v>
       </c>
       <c r="G41" s="3">
-        <v>1297600</v>
+        <v>1436300</v>
       </c>
       <c r="H41" s="3">
-        <v>1593800</v>
+        <v>1328100</v>
       </c>
       <c r="I41" s="3">
-        <v>1019300</v>
+        <v>1631200</v>
       </c>
       <c r="J41" s="3">
+        <v>1043300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1648700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2295100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1080000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1025500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1177300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>367000</v>
+        <v>593100</v>
       </c>
       <c r="E42" s="3">
-        <v>393000</v>
+        <v>375700</v>
       </c>
       <c r="F42" s="3">
-        <v>430900</v>
+        <v>402200</v>
       </c>
       <c r="G42" s="3">
-        <v>400000</v>
+        <v>441000</v>
       </c>
       <c r="H42" s="3">
-        <v>450800</v>
+        <v>409300</v>
       </c>
       <c r="I42" s="3">
-        <v>396000</v>
+        <v>461400</v>
       </c>
       <c r="J42" s="3">
+        <v>405300</v>
+      </c>
+      <c r="K42" s="3">
         <v>378000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>922300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>521700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>607000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>532900</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4224000</v>
+        <v>5091800</v>
       </c>
       <c r="E43" s="3">
-        <v>3969700</v>
+        <v>4323100</v>
       </c>
       <c r="F43" s="3">
-        <v>4443400</v>
+        <v>4062800</v>
       </c>
       <c r="G43" s="3">
-        <v>4074400</v>
+        <v>4547700</v>
       </c>
       <c r="H43" s="3">
-        <v>4035500</v>
+        <v>4170000</v>
       </c>
       <c r="I43" s="3">
-        <v>4003600</v>
+        <v>4130200</v>
       </c>
       <c r="J43" s="3">
+        <v>4097500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3842000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4292600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4098700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3839400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3609500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>255300</v>
+        <v>359300</v>
       </c>
       <c r="E44" s="3">
-        <v>258300</v>
+        <v>261300</v>
       </c>
       <c r="F44" s="3">
-        <v>293200</v>
+        <v>264400</v>
       </c>
       <c r="G44" s="3">
-        <v>279300</v>
+        <v>300100</v>
       </c>
       <c r="H44" s="3">
-        <v>256300</v>
+        <v>285800</v>
       </c>
       <c r="I44" s="3">
-        <v>267300</v>
+        <v>262300</v>
       </c>
       <c r="J44" s="3">
+        <v>273600</v>
+      </c>
+      <c r="K44" s="3">
         <v>269300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>309400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>320600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>332100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>295800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1558900</v>
+        <v>1544500</v>
       </c>
       <c r="E45" s="3">
-        <v>1313600</v>
+        <v>1595500</v>
       </c>
       <c r="F45" s="3">
-        <v>1420300</v>
+        <v>1344400</v>
       </c>
       <c r="G45" s="3">
-        <v>1265700</v>
+        <v>1453600</v>
       </c>
       <c r="H45" s="3">
-        <v>1102100</v>
+        <v>1295400</v>
       </c>
       <c r="I45" s="3">
-        <v>956500</v>
+        <v>1128000</v>
       </c>
       <c r="J45" s="3">
+        <v>978900</v>
+      </c>
+      <c r="K45" s="3">
         <v>986400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1083400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1056300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>817900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>895600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9607000</v>
+        <v>10345800</v>
       </c>
       <c r="E46" s="3">
-        <v>7603200</v>
+        <v>9832300</v>
       </c>
       <c r="F46" s="3">
-        <v>7991200</v>
+        <v>7781600</v>
       </c>
       <c r="G46" s="3">
-        <v>7316900</v>
+        <v>8178600</v>
       </c>
       <c r="H46" s="3">
-        <v>7438600</v>
+        <v>7488600</v>
       </c>
       <c r="I46" s="3">
-        <v>6642700</v>
+        <v>7613100</v>
       </c>
       <c r="J46" s="3">
+        <v>6798500</v>
+      </c>
+      <c r="K46" s="3">
         <v>7124400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8902700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7077300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6622000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6511100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1353500</v>
+        <v>1801700</v>
       </c>
       <c r="E47" s="3">
-        <v>1232800</v>
+        <v>1385200</v>
       </c>
       <c r="F47" s="3">
-        <v>1682600</v>
+        <v>1261700</v>
       </c>
       <c r="G47" s="3">
-        <v>828800</v>
+        <v>1722100</v>
       </c>
       <c r="H47" s="3">
-        <v>796900</v>
+        <v>848300</v>
       </c>
       <c r="I47" s="3">
-        <v>780000</v>
+        <v>815600</v>
       </c>
       <c r="J47" s="3">
+        <v>798300</v>
+      </c>
+      <c r="K47" s="3">
         <v>676200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>633900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>572500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>572200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>477700</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1360500</v>
+        <v>1434200</v>
       </c>
       <c r="E48" s="3">
-        <v>1882100</v>
+        <v>1392400</v>
       </c>
       <c r="F48" s="3">
-        <v>682200</v>
+        <v>1926200</v>
       </c>
       <c r="G48" s="3">
-        <v>617400</v>
+        <v>698200</v>
       </c>
       <c r="H48" s="3">
-        <v>588500</v>
+        <v>631900</v>
       </c>
       <c r="I48" s="3">
-        <v>602400</v>
+        <v>602300</v>
       </c>
       <c r="J48" s="3">
+        <v>616600</v>
+      </c>
+      <c r="K48" s="3">
         <v>592500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>647900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>638800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>644000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>602200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6425300</v>
+        <v>7440600</v>
       </c>
       <c r="E49" s="3">
-        <v>6420300</v>
+        <v>6576000</v>
       </c>
       <c r="F49" s="3">
-        <v>6940900</v>
+        <v>6570900</v>
       </c>
       <c r="G49" s="3">
-        <v>6351400</v>
+        <v>7103700</v>
       </c>
       <c r="H49" s="3">
-        <v>5803900</v>
+        <v>6500500</v>
       </c>
       <c r="I49" s="3">
-        <v>5779900</v>
+        <v>5940000</v>
       </c>
       <c r="J49" s="3">
+        <v>5915500</v>
+      </c>
+      <c r="K49" s="3">
         <v>5789900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6414900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6306000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6276400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5604900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>195500</v>
+        <v>332800</v>
       </c>
       <c r="E52" s="3">
-        <v>169600</v>
+        <v>200100</v>
       </c>
       <c r="F52" s="3">
-        <v>124700</v>
+        <v>173500</v>
       </c>
       <c r="G52" s="3">
-        <v>125700</v>
+        <v>127600</v>
       </c>
       <c r="H52" s="3">
-        <v>207500</v>
+        <v>128600</v>
       </c>
       <c r="I52" s="3">
-        <v>316200</v>
+        <v>212300</v>
       </c>
       <c r="J52" s="3">
+        <v>323600</v>
+      </c>
+      <c r="K52" s="3">
         <v>256300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>302400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>319400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>235600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>196000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18941600</v>
+        <v>21355100</v>
       </c>
       <c r="E54" s="3">
-        <v>17307900</v>
+        <v>19386000</v>
       </c>
       <c r="F54" s="3">
-        <v>17421600</v>
+        <v>17713900</v>
       </c>
       <c r="G54" s="3">
-        <v>15240300</v>
+        <v>17830300</v>
       </c>
       <c r="H54" s="3">
-        <v>14835300</v>
+        <v>15597800</v>
       </c>
       <c r="I54" s="3">
-        <v>14121200</v>
+        <v>15183400</v>
       </c>
       <c r="J54" s="3">
+        <v>14452500</v>
+      </c>
+      <c r="K54" s="3">
         <v>14439400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16901800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14914000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14350300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13392000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2173300</v>
+        <v>2763300</v>
       </c>
       <c r="E57" s="3">
-        <v>1894100</v>
+        <v>2224300</v>
       </c>
       <c r="F57" s="3">
-        <v>2510500</v>
+        <v>1938500</v>
       </c>
       <c r="G57" s="3">
-        <v>2220200</v>
+        <v>2569400</v>
       </c>
       <c r="H57" s="3">
-        <v>2106500</v>
+        <v>2272300</v>
       </c>
       <c r="I57" s="3">
-        <v>2018700</v>
+        <v>2155900</v>
       </c>
       <c r="J57" s="3">
+        <v>2066100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1947900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2064000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2033400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4852600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4633000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>815900</v>
+        <v>231700</v>
       </c>
       <c r="E58" s="3">
-        <v>257300</v>
+        <v>835000</v>
       </c>
       <c r="F58" s="3">
-        <v>216400</v>
+        <v>263400</v>
       </c>
       <c r="G58" s="3">
-        <v>446800</v>
+        <v>221500</v>
       </c>
       <c r="H58" s="3">
-        <v>534600</v>
+        <v>457300</v>
       </c>
       <c r="I58" s="3">
-        <v>70800</v>
+        <v>547100</v>
       </c>
       <c r="J58" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K58" s="3">
         <v>353100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1188400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>889500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>169400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>205400</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5840800</v>
+        <v>6469800</v>
       </c>
       <c r="E59" s="3">
-        <v>5573500</v>
+        <v>5977800</v>
       </c>
       <c r="F59" s="3">
-        <v>5498700</v>
+        <v>5704200</v>
       </c>
       <c r="G59" s="3">
-        <v>4935100</v>
+        <v>5627700</v>
       </c>
       <c r="H59" s="3">
-        <v>4758600</v>
+        <v>5050900</v>
       </c>
       <c r="I59" s="3">
-        <v>4799500</v>
+        <v>4870200</v>
       </c>
       <c r="J59" s="3">
+        <v>4912100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4820400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5417900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5220100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2046500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2084700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8830000</v>
+        <v>9464900</v>
       </c>
       <c r="E60" s="3">
-        <v>7724900</v>
+        <v>9037100</v>
       </c>
       <c r="F60" s="3">
-        <v>8225600</v>
+        <v>7906100</v>
       </c>
       <c r="G60" s="3">
-        <v>7602200</v>
+        <v>8418500</v>
       </c>
       <c r="H60" s="3">
-        <v>7399700</v>
+        <v>7780500</v>
       </c>
       <c r="I60" s="3">
-        <v>6889000</v>
+        <v>7573300</v>
       </c>
       <c r="J60" s="3">
+        <v>7050700</v>
+      </c>
+      <c r="K60" s="3">
         <v>7121400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8670400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8143100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7068500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6923100</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6198800</v>
+        <v>6600500</v>
       </c>
       <c r="E61" s="3">
-        <v>6085100</v>
+        <v>6344300</v>
       </c>
       <c r="F61" s="3">
-        <v>3891900</v>
+        <v>6227900</v>
       </c>
       <c r="G61" s="3">
-        <v>3527800</v>
+        <v>3983200</v>
       </c>
       <c r="H61" s="3">
-        <v>3003200</v>
+        <v>3610600</v>
       </c>
       <c r="I61" s="3">
-        <v>2508500</v>
+        <v>3073600</v>
       </c>
       <c r="J61" s="3">
+        <v>2567300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2757800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3379700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2241600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2861100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2655200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>746100</v>
+        <v>772700</v>
       </c>
       <c r="E62" s="3">
-        <v>732100</v>
+        <v>763600</v>
       </c>
       <c r="F62" s="3">
-        <v>817900</v>
+        <v>749300</v>
       </c>
       <c r="G62" s="3">
-        <v>790900</v>
+        <v>837100</v>
       </c>
       <c r="H62" s="3">
-        <v>871700</v>
+        <v>809500</v>
       </c>
       <c r="I62" s="3">
-        <v>1031300</v>
+        <v>892200</v>
       </c>
       <c r="J62" s="3">
+        <v>1055500</v>
+      </c>
+      <c r="K62" s="3">
         <v>825800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1091500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>992500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>977300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>802900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15781900</v>
+        <v>16848300</v>
       </c>
       <c r="E66" s="3">
-        <v>14557100</v>
+        <v>16152100</v>
       </c>
       <c r="F66" s="3">
-        <v>12977200</v>
+        <v>14898600</v>
       </c>
       <c r="G66" s="3">
-        <v>11965800</v>
+        <v>13281600</v>
       </c>
       <c r="H66" s="3">
-        <v>11308500</v>
+        <v>12246500</v>
       </c>
       <c r="I66" s="3">
-        <v>10462700</v>
+        <v>11573800</v>
       </c>
       <c r="J66" s="3">
+        <v>10708200</v>
+      </c>
+      <c r="K66" s="3">
         <v>10739000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13178900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11420900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10946100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10416400</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3446000</v>
+        <v>4075000</v>
       </c>
       <c r="E72" s="3">
-        <v>3153800</v>
+        <v>3526900</v>
       </c>
       <c r="F72" s="3">
-        <v>4346700</v>
+        <v>3227800</v>
       </c>
       <c r="G72" s="3">
-        <v>3785100</v>
+        <v>4448600</v>
       </c>
       <c r="H72" s="3">
-        <v>3446000</v>
+        <v>3873900</v>
       </c>
       <c r="I72" s="3">
-        <v>3000200</v>
+        <v>3526900</v>
       </c>
       <c r="J72" s="3">
+        <v>3070600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2818700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2706100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2486500</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3159800</v>
+        <v>4506800</v>
       </c>
       <c r="E76" s="3">
-        <v>2750800</v>
+        <v>3233900</v>
       </c>
       <c r="F76" s="3">
-        <v>4444400</v>
+        <v>2815400</v>
       </c>
       <c r="G76" s="3">
-        <v>3274500</v>
+        <v>4548700</v>
       </c>
       <c r="H76" s="3">
-        <v>3526800</v>
+        <v>3351300</v>
       </c>
       <c r="I76" s="3">
-        <v>3658500</v>
+        <v>3609500</v>
       </c>
       <c r="J76" s="3">
+        <v>3744300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3700400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3722900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3493100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3404100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2975600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43343</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42978</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42613</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42247</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41882</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41517</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41152</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40786</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>138600</v>
+        <v>709500</v>
       </c>
       <c r="E81" s="3">
-        <v>-314200</v>
+        <v>141900</v>
       </c>
       <c r="F81" s="3">
-        <v>663300</v>
+        <v>-321600</v>
       </c>
       <c r="G81" s="3">
-        <v>649300</v>
+        <v>678800</v>
       </c>
       <c r="H81" s="3">
-        <v>721100</v>
+        <v>664500</v>
       </c>
       <c r="I81" s="3">
-        <v>635300</v>
+        <v>738000</v>
       </c>
       <c r="J81" s="3">
+        <v>650200</v>
+      </c>
+      <c r="K81" s="3">
         <v>698200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>572000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>519300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>589000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>529400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>599400</v>
+        <v>533900</v>
       </c>
       <c r="E83" s="3">
-        <v>893700</v>
+        <v>613500</v>
       </c>
       <c r="F83" s="3">
-        <v>364100</v>
+        <v>914600</v>
       </c>
       <c r="G83" s="3">
-        <v>316200</v>
+        <v>372600</v>
       </c>
       <c r="H83" s="3">
-        <v>280300</v>
+        <v>323600</v>
       </c>
       <c r="I83" s="3">
-        <v>307200</v>
+        <v>286800</v>
       </c>
       <c r="J83" s="3">
+        <v>314400</v>
+      </c>
+      <c r="K83" s="3">
         <v>276300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>291900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>320600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>396100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>286400</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>978400</v>
+        <v>1056500</v>
       </c>
       <c r="E89" s="3">
-        <v>628400</v>
+        <v>1001400</v>
       </c>
       <c r="F89" s="3">
-        <v>1264700</v>
+        <v>643100</v>
       </c>
       <c r="G89" s="3">
-        <v>1130100</v>
+        <v>1294400</v>
       </c>
       <c r="H89" s="3">
-        <v>1059200</v>
+        <v>1156600</v>
       </c>
       <c r="I89" s="3">
-        <v>942500</v>
+        <v>1084100</v>
       </c>
       <c r="J89" s="3">
+        <v>964700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1014400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>963100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>731000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1142200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>994200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-295200</v>
+        <v>-352200</v>
       </c>
       <c r="E91" s="3">
-        <v>-397000</v>
+        <v>-302200</v>
       </c>
       <c r="F91" s="3">
-        <v>-399000</v>
+        <v>-406300</v>
       </c>
       <c r="G91" s="3">
-        <v>-328100</v>
+        <v>-408300</v>
       </c>
       <c r="H91" s="3">
-        <v>-308200</v>
+        <v>-335800</v>
       </c>
       <c r="I91" s="3">
-        <v>-344100</v>
+        <v>-315400</v>
       </c>
       <c r="J91" s="3">
+        <v>-352200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-301200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-286000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-285100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-345600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-284100</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-302200</v>
+        <v>-394000</v>
       </c>
       <c r="E94" s="3">
-        <v>-428900</v>
+        <v>-309300</v>
       </c>
       <c r="F94" s="3">
-        <v>-806900</v>
+        <v>-438900</v>
       </c>
       <c r="G94" s="3">
-        <v>-997400</v>
+        <v>-825800</v>
       </c>
       <c r="H94" s="3">
-        <v>-610400</v>
+        <v>-1020800</v>
       </c>
       <c r="I94" s="3">
-        <v>-483700</v>
+        <v>-624700</v>
       </c>
       <c r="J94" s="3">
+        <v>-495100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-377000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-393400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-372600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-989600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-272300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-300100</v>
       </c>
       <c r="E96" s="3">
-        <v>-423900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-402000</v>
+        <v>-433800</v>
       </c>
       <c r="G96" s="3">
-        <v>-409900</v>
+        <v>-411400</v>
       </c>
       <c r="H96" s="3">
-        <v>-358100</v>
+        <v>-419500</v>
       </c>
       <c r="I96" s="3">
-        <v>-334100</v>
+        <v>-366500</v>
       </c>
       <c r="J96" s="3">
+        <v>-342000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-275300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-289500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-283900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-248000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-244200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>786900</v>
+        <v>-1132100</v>
       </c>
       <c r="E100" s="3">
-        <v>197500</v>
+        <v>805400</v>
       </c>
       <c r="F100" s="3">
-        <v>-406900</v>
+        <v>202100</v>
       </c>
       <c r="G100" s="3">
-        <v>-344100</v>
+        <v>-416500</v>
       </c>
       <c r="H100" s="3">
-        <v>321200</v>
+        <v>-352200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1098100</v>
+        <v>328700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1123900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1361500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1074000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-322900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-671400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43900</v>
+        <v>148000</v>
       </c>
       <c r="E101" s="3">
-        <v>-122700</v>
+        <v>44900</v>
       </c>
       <c r="F101" s="3">
-        <v>57800</v>
+        <v>-125600</v>
       </c>
       <c r="G101" s="3">
-        <v>-129700</v>
+        <v>59200</v>
       </c>
       <c r="H101" s="3">
-        <v>-138600</v>
+        <v>-132700</v>
       </c>
       <c r="I101" s="3">
-        <v>19000</v>
+        <v>-141900</v>
       </c>
       <c r="J101" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-32700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-188100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>61700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1507100</v>
+        <v>-321600</v>
       </c>
       <c r="E102" s="3">
-        <v>274300</v>
+        <v>1542400</v>
       </c>
       <c r="F102" s="3">
-        <v>108700</v>
+        <v>280700</v>
       </c>
       <c r="G102" s="3">
-        <v>-341100</v>
+        <v>111300</v>
       </c>
       <c r="H102" s="3">
-        <v>631400</v>
+        <v>-349100</v>
       </c>
       <c r="I102" s="3">
-        <v>-620400</v>
+        <v>646200</v>
       </c>
       <c r="J102" s="3">
+        <v>-634900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-716100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1611000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-152600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-51600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21564400</v>
+        <v>22350300</v>
       </c>
       <c r="E8" s="3">
-        <v>17790500</v>
+        <v>18438800</v>
       </c>
       <c r="F8" s="3">
-        <v>19722900</v>
+        <v>20441600</v>
       </c>
       <c r="G8" s="3">
-        <v>22410600</v>
+        <v>23227300</v>
       </c>
       <c r="H8" s="3">
-        <v>20831500</v>
+        <v>21590600</v>
       </c>
       <c r="I8" s="3">
-        <v>21128500</v>
+        <v>21898500</v>
       </c>
       <c r="J8" s="3">
-        <v>20666100</v>
+        <v>21419200</v>
       </c>
       <c r="K8" s="3">
         <v>19763500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18464200</v>
+        <v>19137100</v>
       </c>
       <c r="E9" s="3">
-        <v>15318100</v>
+        <v>15876300</v>
       </c>
       <c r="F9" s="3">
-        <v>17192300</v>
+        <v>17818800</v>
       </c>
       <c r="G9" s="3">
-        <v>19146100</v>
+        <v>19843800</v>
       </c>
       <c r="H9" s="3">
-        <v>17680300</v>
+        <v>18324600</v>
       </c>
       <c r="I9" s="3">
-        <v>17873200</v>
+        <v>18524500</v>
       </c>
       <c r="J9" s="3">
-        <v>17491400</v>
+        <v>18128800</v>
       </c>
       <c r="K9" s="3">
         <v>16613700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3100200</v>
+        <v>3213100</v>
       </c>
       <c r="E10" s="3">
-        <v>2472400</v>
+        <v>2562500</v>
       </c>
       <c r="F10" s="3">
-        <v>2530600</v>
+        <v>2622800</v>
       </c>
       <c r="G10" s="3">
-        <v>3264500</v>
+        <v>3383500</v>
       </c>
       <c r="H10" s="3">
-        <v>3151200</v>
+        <v>3266000</v>
       </c>
       <c r="I10" s="3">
-        <v>3255300</v>
+        <v>3374000</v>
       </c>
       <c r="J10" s="3">
-        <v>3174700</v>
+        <v>3290400</v>
       </c>
       <c r="K10" s="3">
         <v>3149800</v>
@@ -954,22 +954,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-36700</v>
+        <v>-38100</v>
       </c>
       <c r="E14" s="3">
-        <v>221500</v>
+        <v>229600</v>
       </c>
       <c r="F14" s="3">
-        <v>468500</v>
+        <v>485600</v>
       </c>
       <c r="G14" s="3">
-        <v>58200</v>
+        <v>60300</v>
       </c>
       <c r="H14" s="3">
-        <v>81700</v>
+        <v>84600</v>
       </c>
       <c r="I14" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -996,19 +996,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47000</v>
+        <v>48700</v>
       </c>
       <c r="E15" s="3">
-        <v>33700</v>
+        <v>34900</v>
       </c>
       <c r="F15" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="G15" s="3">
-        <v>86800</v>
+        <v>89900</v>
       </c>
       <c r="H15" s="3">
-        <v>50000</v>
+        <v>51800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20488500</v>
+        <v>21235100</v>
       </c>
       <c r="E17" s="3">
-        <v>17444500</v>
+        <v>18080200</v>
       </c>
       <c r="F17" s="3">
-        <v>19656500</v>
+        <v>20372800</v>
       </c>
       <c r="G17" s="3">
-        <v>21329600</v>
+        <v>22106900</v>
       </c>
       <c r="H17" s="3">
-        <v>19813700</v>
+        <v>20535800</v>
       </c>
       <c r="I17" s="3">
-        <v>19926000</v>
+        <v>20652200</v>
       </c>
       <c r="J17" s="3">
-        <v>19548300</v>
+        <v>20260700</v>
       </c>
       <c r="K17" s="3">
         <v>18630400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1075900</v>
+        <v>1115100</v>
       </c>
       <c r="E18" s="3">
-        <v>346100</v>
+        <v>358700</v>
       </c>
       <c r="F18" s="3">
-        <v>66400</v>
+        <v>68800</v>
       </c>
       <c r="G18" s="3">
-        <v>1081000</v>
+        <v>1120400</v>
       </c>
       <c r="H18" s="3">
-        <v>1017700</v>
+        <v>1054800</v>
       </c>
       <c r="I18" s="3">
-        <v>1202500</v>
+        <v>1246300</v>
       </c>
       <c r="J18" s="3">
-        <v>1117800</v>
+        <v>1158500</v>
       </c>
       <c r="K18" s="3">
         <v>1133000</v>
@@ -1155,22 +1155,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="E20" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F20" s="3">
-        <v>-142900</v>
+        <v>-148100</v>
       </c>
       <c r="G20" s="3">
-        <v>25500</v>
+        <v>26400</v>
       </c>
       <c r="H20" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="I20" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1622000</v>
+        <v>1689900</v>
       </c>
       <c r="E21" s="3">
-        <v>954900</v>
+        <v>999800</v>
       </c>
       <c r="F21" s="3">
-        <v>820400</v>
+        <v>865400</v>
       </c>
       <c r="G21" s="3">
-        <v>1471900</v>
+        <v>1531700</v>
       </c>
       <c r="H21" s="3">
-        <v>1357500</v>
+        <v>1412300</v>
       </c>
       <c r="I21" s="3">
-        <v>1487900</v>
+        <v>1546800</v>
       </c>
       <c r="J21" s="3">
-        <v>1426100</v>
+        <v>1483300</v>
       </c>
       <c r="K21" s="3">
         <v>1465900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>110200</v>
+        <v>114300</v>
       </c>
       <c r="E22" s="3">
-        <v>111300</v>
+        <v>115300</v>
       </c>
       <c r="F22" s="3">
-        <v>149000</v>
+        <v>154500</v>
       </c>
       <c r="G22" s="3">
-        <v>123500</v>
+        <v>128000</v>
       </c>
       <c r="H22" s="3">
-        <v>112300</v>
+        <v>116400</v>
       </c>
       <c r="I22" s="3">
-        <v>96000</v>
+        <v>99500</v>
       </c>
       <c r="J22" s="3">
-        <v>106200</v>
+        <v>110000</v>
       </c>
       <c r="K22" s="3">
         <v>149600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>988100</v>
+        <v>1024100</v>
       </c>
       <c r="E23" s="3">
-        <v>241900</v>
+        <v>250700</v>
       </c>
       <c r="F23" s="3">
-        <v>-225600</v>
+        <v>-233800</v>
       </c>
       <c r="G23" s="3">
-        <v>983000</v>
+        <v>1018900</v>
       </c>
       <c r="H23" s="3">
-        <v>927900</v>
+        <v>961700</v>
       </c>
       <c r="I23" s="3">
-        <v>1110600</v>
+        <v>1151100</v>
       </c>
       <c r="J23" s="3">
-        <v>1011600</v>
+        <v>1048500</v>
       </c>
       <c r="K23" s="3">
         <v>1040300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>269500</v>
+        <v>279300</v>
       </c>
       <c r="E24" s="3">
-        <v>103100</v>
+        <v>106900</v>
       </c>
       <c r="F24" s="3">
-        <v>100000</v>
+        <v>103700</v>
       </c>
       <c r="G24" s="3">
-        <v>282800</v>
+        <v>293100</v>
       </c>
       <c r="H24" s="3">
-        <v>250100</v>
+        <v>259200</v>
       </c>
       <c r="I24" s="3">
-        <v>350100</v>
+        <v>362900</v>
       </c>
       <c r="J24" s="3">
-        <v>336900</v>
+        <v>349100</v>
       </c>
       <c r="K24" s="3">
         <v>319200</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>718600</v>
+        <v>744800</v>
       </c>
       <c r="E26" s="3">
-        <v>138800</v>
+        <v>143900</v>
       </c>
       <c r="F26" s="3">
-        <v>-325600</v>
+        <v>-337500</v>
       </c>
       <c r="G26" s="3">
-        <v>700300</v>
+        <v>725800</v>
       </c>
       <c r="H26" s="3">
-        <v>677800</v>
+        <v>702500</v>
       </c>
       <c r="I26" s="3">
-        <v>760500</v>
+        <v>788200</v>
       </c>
       <c r="J26" s="3">
-        <v>674700</v>
+        <v>699300</v>
       </c>
       <c r="K26" s="3">
         <v>721100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>709500</v>
+        <v>735300</v>
       </c>
       <c r="E27" s="3">
-        <v>141900</v>
+        <v>147100</v>
       </c>
       <c r="F27" s="3">
-        <v>-321600</v>
+        <v>-333300</v>
       </c>
       <c r="G27" s="3">
-        <v>678800</v>
+        <v>703600</v>
       </c>
       <c r="H27" s="3">
-        <v>664500</v>
+        <v>688800</v>
       </c>
       <c r="I27" s="3">
-        <v>738000</v>
+        <v>764900</v>
       </c>
       <c r="J27" s="3">
-        <v>650200</v>
+        <v>673900</v>
       </c>
       <c r="K27" s="3">
         <v>698200</v>
@@ -1659,22 +1659,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22500</v>
+        <v>-23300</v>
       </c>
       <c r="E32" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="F32" s="3">
-        <v>142900</v>
+        <v>148100</v>
       </c>
       <c r="G32" s="3">
-        <v>-25500</v>
+        <v>-26400</v>
       </c>
       <c r="H32" s="3">
-        <v>-22500</v>
+        <v>-23300</v>
       </c>
       <c r="I32" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>709500</v>
+        <v>735300</v>
       </c>
       <c r="E33" s="3">
-        <v>141900</v>
+        <v>147100</v>
       </c>
       <c r="F33" s="3">
-        <v>-321600</v>
+        <v>-333300</v>
       </c>
       <c r="G33" s="3">
-        <v>678800</v>
+        <v>703600</v>
       </c>
       <c r="H33" s="3">
-        <v>664500</v>
+        <v>688800</v>
       </c>
       <c r="I33" s="3">
-        <v>738000</v>
+        <v>764900</v>
       </c>
       <c r="J33" s="3">
-        <v>650200</v>
+        <v>673900</v>
       </c>
       <c r="K33" s="3">
         <v>698200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>709500</v>
+        <v>735300</v>
       </c>
       <c r="E35" s="3">
-        <v>141900</v>
+        <v>147100</v>
       </c>
       <c r="F35" s="3">
-        <v>-321600</v>
+        <v>-333300</v>
       </c>
       <c r="G35" s="3">
-        <v>678800</v>
+        <v>703600</v>
       </c>
       <c r="H35" s="3">
-        <v>664500</v>
+        <v>688800</v>
       </c>
       <c r="I35" s="3">
-        <v>738000</v>
+        <v>764900</v>
       </c>
       <c r="J35" s="3">
-        <v>650200</v>
+        <v>673900</v>
       </c>
       <c r="K35" s="3">
         <v>698200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2757200</v>
+        <v>2857700</v>
       </c>
       <c r="E41" s="3">
-        <v>3276800</v>
+        <v>3396200</v>
       </c>
       <c r="F41" s="3">
-        <v>1707800</v>
+        <v>1770000</v>
       </c>
       <c r="G41" s="3">
-        <v>1436300</v>
+        <v>1488600</v>
       </c>
       <c r="H41" s="3">
-        <v>1328100</v>
+        <v>1376500</v>
       </c>
       <c r="I41" s="3">
-        <v>1631200</v>
+        <v>1690700</v>
       </c>
       <c r="J41" s="3">
-        <v>1043300</v>
+        <v>1081300</v>
       </c>
       <c r="K41" s="3">
         <v>1648700</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>593100</v>
+        <v>614700</v>
       </c>
       <c r="E42" s="3">
-        <v>375700</v>
+        <v>389300</v>
       </c>
       <c r="F42" s="3">
-        <v>402200</v>
+        <v>416900</v>
       </c>
       <c r="G42" s="3">
-        <v>441000</v>
+        <v>457100</v>
       </c>
       <c r="H42" s="3">
-        <v>409300</v>
+        <v>424300</v>
       </c>
       <c r="I42" s="3">
-        <v>461400</v>
+        <v>478200</v>
       </c>
       <c r="J42" s="3">
-        <v>405300</v>
+        <v>420000</v>
       </c>
       <c r="K42" s="3">
         <v>378000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5091800</v>
+        <v>5277300</v>
       </c>
       <c r="E43" s="3">
-        <v>4323100</v>
+        <v>4480600</v>
       </c>
       <c r="F43" s="3">
-        <v>4062800</v>
+        <v>4210800</v>
       </c>
       <c r="G43" s="3">
-        <v>4547700</v>
+        <v>4713400</v>
       </c>
       <c r="H43" s="3">
-        <v>4170000</v>
+        <v>4321900</v>
       </c>
       <c r="I43" s="3">
-        <v>4130200</v>
+        <v>4280700</v>
       </c>
       <c r="J43" s="3">
-        <v>4097500</v>
+        <v>4246800</v>
       </c>
       <c r="K43" s="3">
         <v>3842000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>359300</v>
+        <v>372400</v>
       </c>
       <c r="E44" s="3">
-        <v>261300</v>
+        <v>270800</v>
       </c>
       <c r="F44" s="3">
-        <v>264400</v>
+        <v>274000</v>
       </c>
       <c r="G44" s="3">
-        <v>300100</v>
+        <v>311100</v>
       </c>
       <c r="H44" s="3">
-        <v>285800</v>
+        <v>296200</v>
       </c>
       <c r="I44" s="3">
-        <v>262300</v>
+        <v>271900</v>
       </c>
       <c r="J44" s="3">
-        <v>273600</v>
+        <v>283500</v>
       </c>
       <c r="K44" s="3">
         <v>269300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1544500</v>
+        <v>1600800</v>
       </c>
       <c r="E45" s="3">
-        <v>1595500</v>
+        <v>1653700</v>
       </c>
       <c r="F45" s="3">
-        <v>1344400</v>
+        <v>1393400</v>
       </c>
       <c r="G45" s="3">
-        <v>1453600</v>
+        <v>1506600</v>
       </c>
       <c r="H45" s="3">
-        <v>1295400</v>
+        <v>1342600</v>
       </c>
       <c r="I45" s="3">
-        <v>1128000</v>
+        <v>1169100</v>
       </c>
       <c r="J45" s="3">
-        <v>978900</v>
+        <v>1014600</v>
       </c>
       <c r="K45" s="3">
         <v>986400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10345800</v>
+        <v>10722800</v>
       </c>
       <c r="E46" s="3">
-        <v>9832300</v>
+        <v>10190700</v>
       </c>
       <c r="F46" s="3">
-        <v>7781600</v>
+        <v>8065100</v>
       </c>
       <c r="G46" s="3">
-        <v>8178600</v>
+        <v>8476700</v>
       </c>
       <c r="H46" s="3">
-        <v>7488600</v>
+        <v>7761500</v>
       </c>
       <c r="I46" s="3">
-        <v>7613100</v>
+        <v>7890600</v>
       </c>
       <c r="J46" s="3">
-        <v>6798500</v>
+        <v>7046300</v>
       </c>
       <c r="K46" s="3">
         <v>7124400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1801700</v>
+        <v>1867400</v>
       </c>
       <c r="E47" s="3">
-        <v>1385200</v>
+        <v>1435700</v>
       </c>
       <c r="F47" s="3">
-        <v>1261700</v>
+        <v>1307700</v>
       </c>
       <c r="G47" s="3">
-        <v>1722100</v>
+        <v>1784800</v>
       </c>
       <c r="H47" s="3">
-        <v>848300</v>
+        <v>879200</v>
       </c>
       <c r="I47" s="3">
-        <v>815600</v>
+        <v>845300</v>
       </c>
       <c r="J47" s="3">
-        <v>798300</v>
+        <v>827400</v>
       </c>
       <c r="K47" s="3">
         <v>676200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1434200</v>
+        <v>1486500</v>
       </c>
       <c r="E48" s="3">
-        <v>1392400</v>
+        <v>1443100</v>
       </c>
       <c r="F48" s="3">
-        <v>1926200</v>
+        <v>1996400</v>
       </c>
       <c r="G48" s="3">
-        <v>698200</v>
+        <v>723700</v>
       </c>
       <c r="H48" s="3">
-        <v>631900</v>
+        <v>654900</v>
       </c>
       <c r="I48" s="3">
-        <v>602300</v>
+        <v>624200</v>
       </c>
       <c r="J48" s="3">
-        <v>616600</v>
+        <v>639000</v>
       </c>
       <c r="K48" s="3">
         <v>592500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7440600</v>
+        <v>7711800</v>
       </c>
       <c r="E49" s="3">
-        <v>6576000</v>
+        <v>6815600</v>
       </c>
       <c r="F49" s="3">
-        <v>6570900</v>
+        <v>6810300</v>
       </c>
       <c r="G49" s="3">
-        <v>7103700</v>
+        <v>7362600</v>
       </c>
       <c r="H49" s="3">
-        <v>6500500</v>
+        <v>6737300</v>
       </c>
       <c r="I49" s="3">
-        <v>5940000</v>
+        <v>6156500</v>
       </c>
       <c r="J49" s="3">
-        <v>5915500</v>
+        <v>6131100</v>
       </c>
       <c r="K49" s="3">
         <v>5789900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>332800</v>
+        <v>344900</v>
       </c>
       <c r="E52" s="3">
-        <v>200100</v>
+        <v>207400</v>
       </c>
       <c r="F52" s="3">
-        <v>173500</v>
+        <v>179900</v>
       </c>
       <c r="G52" s="3">
-        <v>127600</v>
+        <v>132300</v>
       </c>
       <c r="H52" s="3">
-        <v>128600</v>
+        <v>133300</v>
       </c>
       <c r="I52" s="3">
-        <v>212300</v>
+        <v>220100</v>
       </c>
       <c r="J52" s="3">
-        <v>323600</v>
+        <v>335400</v>
       </c>
       <c r="K52" s="3">
         <v>256300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21355100</v>
+        <v>22133400</v>
       </c>
       <c r="E54" s="3">
-        <v>19386000</v>
+        <v>20092500</v>
       </c>
       <c r="F54" s="3">
-        <v>17713900</v>
+        <v>18359500</v>
       </c>
       <c r="G54" s="3">
-        <v>17830300</v>
+        <v>18480100</v>
       </c>
       <c r="H54" s="3">
-        <v>15597800</v>
+        <v>16166200</v>
       </c>
       <c r="I54" s="3">
-        <v>15183400</v>
+        <v>15736700</v>
       </c>
       <c r="J54" s="3">
-        <v>14452500</v>
+        <v>14979200</v>
       </c>
       <c r="K54" s="3">
         <v>14439400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2763300</v>
+        <v>2864000</v>
       </c>
       <c r="E57" s="3">
-        <v>2224300</v>
+        <v>2305400</v>
       </c>
       <c r="F57" s="3">
-        <v>1938500</v>
+        <v>2009100</v>
       </c>
       <c r="G57" s="3">
-        <v>2569400</v>
+        <v>2663000</v>
       </c>
       <c r="H57" s="3">
-        <v>2272300</v>
+        <v>2355100</v>
       </c>
       <c r="I57" s="3">
-        <v>2155900</v>
+        <v>2234500</v>
       </c>
       <c r="J57" s="3">
-        <v>2066100</v>
+        <v>2141400</v>
       </c>
       <c r="K57" s="3">
         <v>1947900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>231700</v>
+        <v>240200</v>
       </c>
       <c r="E58" s="3">
-        <v>835000</v>
+        <v>865400</v>
       </c>
       <c r="F58" s="3">
-        <v>263400</v>
+        <v>273000</v>
       </c>
       <c r="G58" s="3">
-        <v>221500</v>
+        <v>229600</v>
       </c>
       <c r="H58" s="3">
-        <v>457300</v>
+        <v>474000</v>
       </c>
       <c r="I58" s="3">
-        <v>547100</v>
+        <v>567100</v>
       </c>
       <c r="J58" s="3">
-        <v>72500</v>
+        <v>75100</v>
       </c>
       <c r="K58" s="3">
         <v>353100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6469800</v>
+        <v>6705600</v>
       </c>
       <c r="E59" s="3">
-        <v>5977800</v>
+        <v>6195600</v>
       </c>
       <c r="F59" s="3">
-        <v>5704200</v>
+        <v>5912100</v>
       </c>
       <c r="G59" s="3">
-        <v>5627700</v>
+        <v>5832800</v>
       </c>
       <c r="H59" s="3">
-        <v>5050900</v>
+        <v>5235000</v>
       </c>
       <c r="I59" s="3">
-        <v>4870200</v>
+        <v>5047700</v>
       </c>
       <c r="J59" s="3">
-        <v>4912100</v>
+        <v>5091100</v>
       </c>
       <c r="K59" s="3">
         <v>4820400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9464900</v>
+        <v>9809800</v>
       </c>
       <c r="E60" s="3">
-        <v>9037100</v>
+        <v>9366500</v>
       </c>
       <c r="F60" s="3">
-        <v>7906100</v>
+        <v>8194200</v>
       </c>
       <c r="G60" s="3">
-        <v>8418500</v>
+        <v>8725300</v>
       </c>
       <c r="H60" s="3">
-        <v>7780500</v>
+        <v>8064100</v>
       </c>
       <c r="I60" s="3">
-        <v>7573300</v>
+        <v>7849300</v>
       </c>
       <c r="J60" s="3">
-        <v>7050700</v>
+        <v>7307600</v>
       </c>
       <c r="K60" s="3">
         <v>7121400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6600500</v>
+        <v>6841000</v>
       </c>
       <c r="E61" s="3">
-        <v>6344300</v>
+        <v>6575500</v>
       </c>
       <c r="F61" s="3">
-        <v>6227900</v>
+        <v>6454900</v>
       </c>
       <c r="G61" s="3">
-        <v>3983200</v>
+        <v>4128300</v>
       </c>
       <c r="H61" s="3">
-        <v>3610600</v>
+        <v>3742100</v>
       </c>
       <c r="I61" s="3">
-        <v>3073600</v>
+        <v>3185600</v>
       </c>
       <c r="J61" s="3">
-        <v>2567300</v>
+        <v>2660900</v>
       </c>
       <c r="K61" s="3">
         <v>2757800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>772700</v>
+        <v>800900</v>
       </c>
       <c r="E62" s="3">
-        <v>763600</v>
+        <v>791400</v>
       </c>
       <c r="F62" s="3">
-        <v>749300</v>
+        <v>776600</v>
       </c>
       <c r="G62" s="3">
-        <v>837100</v>
+        <v>867600</v>
       </c>
       <c r="H62" s="3">
-        <v>809500</v>
+        <v>839000</v>
       </c>
       <c r="I62" s="3">
-        <v>892200</v>
+        <v>924700</v>
       </c>
       <c r="J62" s="3">
-        <v>1055500</v>
+        <v>1094000</v>
       </c>
       <c r="K62" s="3">
         <v>825800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16848300</v>
+        <v>17462300</v>
       </c>
       <c r="E66" s="3">
-        <v>16152100</v>
+        <v>16740700</v>
       </c>
       <c r="F66" s="3">
-        <v>14898600</v>
+        <v>15441500</v>
       </c>
       <c r="G66" s="3">
-        <v>13281600</v>
+        <v>13765600</v>
       </c>
       <c r="H66" s="3">
-        <v>12246500</v>
+        <v>12692800</v>
       </c>
       <c r="I66" s="3">
-        <v>11573800</v>
+        <v>11995600</v>
       </c>
       <c r="J66" s="3">
-        <v>10708200</v>
+        <v>11098400</v>
       </c>
       <c r="K66" s="3">
         <v>10739000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4075000</v>
+        <v>4223500</v>
       </c>
       <c r="E72" s="3">
-        <v>3526900</v>
+        <v>3655400</v>
       </c>
       <c r="F72" s="3">
-        <v>3227800</v>
+        <v>3345400</v>
       </c>
       <c r="G72" s="3">
-        <v>4448600</v>
+        <v>4610800</v>
       </c>
       <c r="H72" s="3">
-        <v>3873900</v>
+        <v>4015100</v>
       </c>
       <c r="I72" s="3">
-        <v>3526900</v>
+        <v>3655400</v>
       </c>
       <c r="J72" s="3">
-        <v>3070600</v>
+        <v>3182500</v>
       </c>
       <c r="K72" s="3">
         <v>2818700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4506800</v>
+        <v>4671100</v>
       </c>
       <c r="E76" s="3">
-        <v>3233900</v>
+        <v>3351700</v>
       </c>
       <c r="F76" s="3">
-        <v>2815400</v>
+        <v>2918000</v>
       </c>
       <c r="G76" s="3">
-        <v>4548700</v>
+        <v>4714400</v>
       </c>
       <c r="H76" s="3">
-        <v>3351300</v>
+        <v>3473400</v>
       </c>
       <c r="I76" s="3">
-        <v>3609500</v>
+        <v>3741100</v>
       </c>
       <c r="J76" s="3">
-        <v>3744300</v>
+        <v>3880700</v>
       </c>
       <c r="K76" s="3">
         <v>3700400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>709500</v>
+        <v>735300</v>
       </c>
       <c r="E81" s="3">
-        <v>141900</v>
+        <v>147100</v>
       </c>
       <c r="F81" s="3">
-        <v>-321600</v>
+        <v>-333300</v>
       </c>
       <c r="G81" s="3">
-        <v>678800</v>
+        <v>703600</v>
       </c>
       <c r="H81" s="3">
-        <v>664500</v>
+        <v>688800</v>
       </c>
       <c r="I81" s="3">
-        <v>738000</v>
+        <v>764900</v>
       </c>
       <c r="J81" s="3">
-        <v>650200</v>
+        <v>673900</v>
       </c>
       <c r="K81" s="3">
         <v>698200</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>533900</v>
+        <v>553300</v>
       </c>
       <c r="E83" s="3">
-        <v>613500</v>
+        <v>635900</v>
       </c>
       <c r="F83" s="3">
-        <v>914600</v>
+        <v>948000</v>
       </c>
       <c r="G83" s="3">
-        <v>372600</v>
+        <v>386200</v>
       </c>
       <c r="H83" s="3">
-        <v>323600</v>
+        <v>335400</v>
       </c>
       <c r="I83" s="3">
-        <v>286800</v>
+        <v>297300</v>
       </c>
       <c r="J83" s="3">
-        <v>314400</v>
+        <v>325900</v>
       </c>
       <c r="K83" s="3">
         <v>276300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1056500</v>
+        <v>1095000</v>
       </c>
       <c r="E89" s="3">
-        <v>1001400</v>
+        <v>1037900</v>
       </c>
       <c r="F89" s="3">
-        <v>643100</v>
+        <v>666500</v>
       </c>
       <c r="G89" s="3">
-        <v>1294400</v>
+        <v>1341500</v>
       </c>
       <c r="H89" s="3">
-        <v>1156600</v>
+        <v>1198700</v>
       </c>
       <c r="I89" s="3">
-        <v>1084100</v>
+        <v>1123600</v>
       </c>
       <c r="J89" s="3">
-        <v>964700</v>
+        <v>999800</v>
       </c>
       <c r="K89" s="3">
         <v>1014400</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-352200</v>
+        <v>-365000</v>
       </c>
       <c r="E91" s="3">
-        <v>-302200</v>
+        <v>-313200</v>
       </c>
       <c r="F91" s="3">
-        <v>-406300</v>
+        <v>-421100</v>
       </c>
       <c r="G91" s="3">
-        <v>-408300</v>
+        <v>-423200</v>
       </c>
       <c r="H91" s="3">
-        <v>-335800</v>
+        <v>-348100</v>
       </c>
       <c r="I91" s="3">
-        <v>-315400</v>
+        <v>-326900</v>
       </c>
       <c r="J91" s="3">
-        <v>-352200</v>
+        <v>-365000</v>
       </c>
       <c r="K91" s="3">
         <v>-301200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-394000</v>
+        <v>-408400</v>
       </c>
       <c r="E94" s="3">
-        <v>-309300</v>
+        <v>-320600</v>
       </c>
       <c r="F94" s="3">
-        <v>-438900</v>
+        <v>-454900</v>
       </c>
       <c r="G94" s="3">
-        <v>-825800</v>
+        <v>-855900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1020800</v>
+        <v>-1058000</v>
       </c>
       <c r="I94" s="3">
-        <v>-624700</v>
+        <v>-647500</v>
       </c>
       <c r="J94" s="3">
-        <v>-495100</v>
+        <v>-513100</v>
       </c>
       <c r="K94" s="3">
         <v>-377000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-300100</v>
+        <v>-311100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-433800</v>
+        <v>-449700</v>
       </c>
       <c r="G96" s="3">
-        <v>-411400</v>
+        <v>-426400</v>
       </c>
       <c r="H96" s="3">
-        <v>-419500</v>
+        <v>-434800</v>
       </c>
       <c r="I96" s="3">
-        <v>-366500</v>
+        <v>-379800</v>
       </c>
       <c r="J96" s="3">
-        <v>-342000</v>
+        <v>-354400</v>
       </c>
       <c r="K96" s="3">
         <v>-275300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1132100</v>
+        <v>-1173300</v>
       </c>
       <c r="E100" s="3">
-        <v>805400</v>
+        <v>834800</v>
       </c>
       <c r="F100" s="3">
-        <v>202100</v>
+        <v>209500</v>
       </c>
       <c r="G100" s="3">
-        <v>-416500</v>
+        <v>-431700</v>
       </c>
       <c r="H100" s="3">
-        <v>-352200</v>
+        <v>-365000</v>
       </c>
       <c r="I100" s="3">
-        <v>328700</v>
+        <v>340700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1123900</v>
+        <v>-1164900</v>
       </c>
       <c r="K100" s="3">
         <v>-1361500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>148000</v>
+        <v>153400</v>
       </c>
       <c r="E101" s="3">
-        <v>44900</v>
+        <v>46600</v>
       </c>
       <c r="F101" s="3">
-        <v>-125600</v>
+        <v>-130100</v>
       </c>
       <c r="G101" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="H101" s="3">
-        <v>-132700</v>
+        <v>-137500</v>
       </c>
       <c r="I101" s="3">
-        <v>-141900</v>
+        <v>-147100</v>
       </c>
       <c r="J101" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="K101" s="3">
         <v>8000</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-321600</v>
+        <v>-333300</v>
       </c>
       <c r="E102" s="3">
-        <v>1542400</v>
+        <v>1598600</v>
       </c>
       <c r="F102" s="3">
-        <v>280700</v>
+        <v>291000</v>
       </c>
       <c r="G102" s="3">
-        <v>111300</v>
+        <v>115300</v>
       </c>
       <c r="H102" s="3">
-        <v>-349100</v>
+        <v>-361800</v>
       </c>
       <c r="I102" s="3">
-        <v>646200</v>
+        <v>669700</v>
       </c>
       <c r="J102" s="3">
-        <v>-634900</v>
+        <v>-658100</v>
       </c>
       <c r="K102" s="3">
         <v>-716100</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22350300</v>
+        <v>22749500</v>
       </c>
       <c r="E8" s="3">
-        <v>18438800</v>
+        <v>18768200</v>
       </c>
       <c r="F8" s="3">
-        <v>20441600</v>
+        <v>20806800</v>
       </c>
       <c r="G8" s="3">
-        <v>23227300</v>
+        <v>23642300</v>
       </c>
       <c r="H8" s="3">
-        <v>21590600</v>
+        <v>21976300</v>
       </c>
       <c r="I8" s="3">
-        <v>21898500</v>
+        <v>22289700</v>
       </c>
       <c r="J8" s="3">
-        <v>21419200</v>
+        <v>21801800</v>
       </c>
       <c r="K8" s="3">
         <v>19763500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19137100</v>
+        <v>19479000</v>
       </c>
       <c r="E9" s="3">
-        <v>15876300</v>
+        <v>16160000</v>
       </c>
       <c r="F9" s="3">
-        <v>17818800</v>
+        <v>18137100</v>
       </c>
       <c r="G9" s="3">
-        <v>19843800</v>
+        <v>20198300</v>
       </c>
       <c r="H9" s="3">
-        <v>18324600</v>
+        <v>18651900</v>
       </c>
       <c r="I9" s="3">
-        <v>18524500</v>
+        <v>18855400</v>
       </c>
       <c r="J9" s="3">
-        <v>18128800</v>
+        <v>18452700</v>
       </c>
       <c r="K9" s="3">
         <v>16613700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3213100</v>
+        <v>3270500</v>
       </c>
       <c r="E10" s="3">
-        <v>2562500</v>
+        <v>2608300</v>
       </c>
       <c r="F10" s="3">
-        <v>2622800</v>
+        <v>2669600</v>
       </c>
       <c r="G10" s="3">
-        <v>3383500</v>
+        <v>3443900</v>
       </c>
       <c r="H10" s="3">
-        <v>3266000</v>
+        <v>3324400</v>
       </c>
       <c r="I10" s="3">
-        <v>3374000</v>
+        <v>3434200</v>
       </c>
       <c r="J10" s="3">
-        <v>3290400</v>
+        <v>3349200</v>
       </c>
       <c r="K10" s="3">
         <v>3149800</v>
@@ -954,22 +954,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-38100</v>
+        <v>-38800</v>
       </c>
       <c r="E14" s="3">
-        <v>229600</v>
+        <v>233700</v>
       </c>
       <c r="F14" s="3">
-        <v>485600</v>
+        <v>494300</v>
       </c>
       <c r="G14" s="3">
-        <v>60300</v>
+        <v>61400</v>
       </c>
       <c r="H14" s="3">
-        <v>84600</v>
+        <v>86200</v>
       </c>
       <c r="I14" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -996,19 +996,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>48700</v>
+        <v>49500</v>
       </c>
       <c r="E15" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="F15" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="G15" s="3">
-        <v>89900</v>
+        <v>91500</v>
       </c>
       <c r="H15" s="3">
-        <v>51800</v>
+        <v>52800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21235100</v>
+        <v>21614500</v>
       </c>
       <c r="E17" s="3">
-        <v>18080200</v>
+        <v>18403100</v>
       </c>
       <c r="F17" s="3">
-        <v>20372800</v>
+        <v>20736800</v>
       </c>
       <c r="G17" s="3">
-        <v>22106900</v>
+        <v>22501800</v>
       </c>
       <c r="H17" s="3">
-        <v>20535800</v>
+        <v>20902600</v>
       </c>
       <c r="I17" s="3">
-        <v>20652200</v>
+        <v>21021100</v>
       </c>
       <c r="J17" s="3">
-        <v>20260700</v>
+        <v>20622600</v>
       </c>
       <c r="K17" s="3">
         <v>18630400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1115100</v>
+        <v>1135100</v>
       </c>
       <c r="E18" s="3">
-        <v>358700</v>
+        <v>365100</v>
       </c>
       <c r="F18" s="3">
-        <v>68800</v>
+        <v>70000</v>
       </c>
       <c r="G18" s="3">
-        <v>1120400</v>
+        <v>1140400</v>
       </c>
       <c r="H18" s="3">
-        <v>1054800</v>
+        <v>1073700</v>
       </c>
       <c r="I18" s="3">
-        <v>1246300</v>
+        <v>1268600</v>
       </c>
       <c r="J18" s="3">
-        <v>1158500</v>
+        <v>1179200</v>
       </c>
       <c r="K18" s="3">
         <v>1133000</v>
@@ -1155,22 +1155,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="E20" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="F20" s="3">
-        <v>-148100</v>
+        <v>-150800</v>
       </c>
       <c r="G20" s="3">
-        <v>26400</v>
+        <v>26900</v>
       </c>
       <c r="H20" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="I20" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1689900</v>
+        <v>1725600</v>
       </c>
       <c r="E21" s="3">
-        <v>999800</v>
+        <v>1024000</v>
       </c>
       <c r="F21" s="3">
-        <v>865400</v>
+        <v>890400</v>
       </c>
       <c r="G21" s="3">
-        <v>1531700</v>
+        <v>1563000</v>
       </c>
       <c r="H21" s="3">
-        <v>1412300</v>
+        <v>1441000</v>
       </c>
       <c r="I21" s="3">
-        <v>1546800</v>
+        <v>1577500</v>
       </c>
       <c r="J21" s="3">
-        <v>1483300</v>
+        <v>1513000</v>
       </c>
       <c r="K21" s="3">
         <v>1465900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>114300</v>
+        <v>116300</v>
       </c>
       <c r="E22" s="3">
-        <v>115300</v>
+        <v>117400</v>
       </c>
       <c r="F22" s="3">
-        <v>154500</v>
+        <v>157200</v>
       </c>
       <c r="G22" s="3">
-        <v>128000</v>
+        <v>130300</v>
       </c>
       <c r="H22" s="3">
-        <v>116400</v>
+        <v>118500</v>
       </c>
       <c r="I22" s="3">
-        <v>99500</v>
+        <v>101200</v>
       </c>
       <c r="J22" s="3">
-        <v>110000</v>
+        <v>112000</v>
       </c>
       <c r="K22" s="3">
         <v>149600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1024100</v>
+        <v>1042400</v>
       </c>
       <c r="E23" s="3">
-        <v>250700</v>
+        <v>255200</v>
       </c>
       <c r="F23" s="3">
-        <v>-233800</v>
+        <v>-238000</v>
       </c>
       <c r="G23" s="3">
-        <v>1018900</v>
+        <v>1037100</v>
       </c>
       <c r="H23" s="3">
-        <v>961700</v>
+        <v>978900</v>
       </c>
       <c r="I23" s="3">
-        <v>1151100</v>
+        <v>1171700</v>
       </c>
       <c r="J23" s="3">
-        <v>1048500</v>
+        <v>1067200</v>
       </c>
       <c r="K23" s="3">
         <v>1040300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>279300</v>
+        <v>284300</v>
       </c>
       <c r="E24" s="3">
-        <v>106900</v>
+        <v>108800</v>
       </c>
       <c r="F24" s="3">
-        <v>103700</v>
+        <v>105500</v>
       </c>
       <c r="G24" s="3">
-        <v>293100</v>
+        <v>298300</v>
       </c>
       <c r="H24" s="3">
-        <v>259200</v>
+        <v>263800</v>
       </c>
       <c r="I24" s="3">
-        <v>362900</v>
+        <v>369400</v>
       </c>
       <c r="J24" s="3">
-        <v>349100</v>
+        <v>355400</v>
       </c>
       <c r="K24" s="3">
         <v>319200</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>744800</v>
+        <v>758100</v>
       </c>
       <c r="E26" s="3">
-        <v>143900</v>
+        <v>146500</v>
       </c>
       <c r="F26" s="3">
-        <v>-337500</v>
+        <v>-343500</v>
       </c>
       <c r="G26" s="3">
-        <v>725800</v>
+        <v>738800</v>
       </c>
       <c r="H26" s="3">
-        <v>702500</v>
+        <v>715100</v>
       </c>
       <c r="I26" s="3">
-        <v>788200</v>
+        <v>802300</v>
       </c>
       <c r="J26" s="3">
-        <v>699300</v>
+        <v>711800</v>
       </c>
       <c r="K26" s="3">
         <v>721100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>735300</v>
+        <v>748400</v>
       </c>
       <c r="E27" s="3">
-        <v>147100</v>
+        <v>149700</v>
       </c>
       <c r="F27" s="3">
-        <v>-333300</v>
+        <v>-339200</v>
       </c>
       <c r="G27" s="3">
-        <v>703600</v>
+        <v>716100</v>
       </c>
       <c r="H27" s="3">
-        <v>688800</v>
+        <v>701100</v>
       </c>
       <c r="I27" s="3">
-        <v>764900</v>
+        <v>778600</v>
       </c>
       <c r="J27" s="3">
-        <v>673900</v>
+        <v>686000</v>
       </c>
       <c r="K27" s="3">
         <v>698200</v>
@@ -1659,22 +1659,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23300</v>
+        <v>-23700</v>
       </c>
       <c r="E32" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="F32" s="3">
-        <v>148100</v>
+        <v>150800</v>
       </c>
       <c r="G32" s="3">
-        <v>-26400</v>
+        <v>-26900</v>
       </c>
       <c r="H32" s="3">
-        <v>-23300</v>
+        <v>-23700</v>
       </c>
       <c r="I32" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>735300</v>
+        <v>748400</v>
       </c>
       <c r="E33" s="3">
-        <v>147100</v>
+        <v>149700</v>
       </c>
       <c r="F33" s="3">
-        <v>-333300</v>
+        <v>-339200</v>
       </c>
       <c r="G33" s="3">
-        <v>703600</v>
+        <v>716100</v>
       </c>
       <c r="H33" s="3">
-        <v>688800</v>
+        <v>701100</v>
       </c>
       <c r="I33" s="3">
-        <v>764900</v>
+        <v>778600</v>
       </c>
       <c r="J33" s="3">
-        <v>673900</v>
+        <v>686000</v>
       </c>
       <c r="K33" s="3">
         <v>698200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>735300</v>
+        <v>748400</v>
       </c>
       <c r="E35" s="3">
-        <v>147100</v>
+        <v>149700</v>
       </c>
       <c r="F35" s="3">
-        <v>-333300</v>
+        <v>-339200</v>
       </c>
       <c r="G35" s="3">
-        <v>703600</v>
+        <v>716100</v>
       </c>
       <c r="H35" s="3">
-        <v>688800</v>
+        <v>701100</v>
       </c>
       <c r="I35" s="3">
-        <v>764900</v>
+        <v>778600</v>
       </c>
       <c r="J35" s="3">
-        <v>673900</v>
+        <v>686000</v>
       </c>
       <c r="K35" s="3">
         <v>698200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2857700</v>
+        <v>2908700</v>
       </c>
       <c r="E41" s="3">
-        <v>3396200</v>
+        <v>3456800</v>
       </c>
       <c r="F41" s="3">
-        <v>1770000</v>
+        <v>1801700</v>
       </c>
       <c r="G41" s="3">
-        <v>1488600</v>
+        <v>1515200</v>
       </c>
       <c r="H41" s="3">
-        <v>1376500</v>
+        <v>1401000</v>
       </c>
       <c r="I41" s="3">
-        <v>1690700</v>
+        <v>1720900</v>
       </c>
       <c r="J41" s="3">
-        <v>1081300</v>
+        <v>1100600</v>
       </c>
       <c r="K41" s="3">
         <v>1648700</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>614700</v>
+        <v>625700</v>
       </c>
       <c r="E42" s="3">
-        <v>389300</v>
+        <v>396300</v>
       </c>
       <c r="F42" s="3">
-        <v>416900</v>
+        <v>424300</v>
       </c>
       <c r="G42" s="3">
-        <v>457100</v>
+        <v>465200</v>
       </c>
       <c r="H42" s="3">
-        <v>424300</v>
+        <v>431800</v>
       </c>
       <c r="I42" s="3">
-        <v>478200</v>
+        <v>486800</v>
       </c>
       <c r="J42" s="3">
-        <v>420000</v>
+        <v>427500</v>
       </c>
       <c r="K42" s="3">
         <v>378000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5277300</v>
+        <v>5371600</v>
       </c>
       <c r="E43" s="3">
-        <v>4480600</v>
+        <v>4560700</v>
       </c>
       <c r="F43" s="3">
-        <v>4210800</v>
+        <v>4286100</v>
       </c>
       <c r="G43" s="3">
-        <v>4713400</v>
+        <v>4797600</v>
       </c>
       <c r="H43" s="3">
-        <v>4321900</v>
+        <v>4399100</v>
       </c>
       <c r="I43" s="3">
-        <v>4280700</v>
+        <v>4357100</v>
       </c>
       <c r="J43" s="3">
-        <v>4246800</v>
+        <v>4322700</v>
       </c>
       <c r="K43" s="3">
         <v>3842000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>372400</v>
+        <v>379100</v>
       </c>
       <c r="E44" s="3">
-        <v>270800</v>
+        <v>275700</v>
       </c>
       <c r="F44" s="3">
-        <v>274000</v>
+        <v>278900</v>
       </c>
       <c r="G44" s="3">
-        <v>311100</v>
+        <v>316600</v>
       </c>
       <c r="H44" s="3">
-        <v>296200</v>
+        <v>301500</v>
       </c>
       <c r="I44" s="3">
-        <v>271900</v>
+        <v>276800</v>
       </c>
       <c r="J44" s="3">
-        <v>283500</v>
+        <v>288600</v>
       </c>
       <c r="K44" s="3">
         <v>269300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1600800</v>
+        <v>1629300</v>
       </c>
       <c r="E45" s="3">
-        <v>1653700</v>
+        <v>1683200</v>
       </c>
       <c r="F45" s="3">
-        <v>1393400</v>
+        <v>1418300</v>
       </c>
       <c r="G45" s="3">
-        <v>1506600</v>
+        <v>1533500</v>
       </c>
       <c r="H45" s="3">
-        <v>1342600</v>
+        <v>1366600</v>
       </c>
       <c r="I45" s="3">
-        <v>1169100</v>
+        <v>1190000</v>
       </c>
       <c r="J45" s="3">
-        <v>1014600</v>
+        <v>1032700</v>
       </c>
       <c r="K45" s="3">
         <v>986400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10722800</v>
+        <v>10914400</v>
       </c>
       <c r="E46" s="3">
-        <v>10190700</v>
+        <v>10372700</v>
       </c>
       <c r="F46" s="3">
-        <v>8065100</v>
+        <v>8209200</v>
       </c>
       <c r="G46" s="3">
-        <v>8476700</v>
+        <v>8628100</v>
       </c>
       <c r="H46" s="3">
-        <v>7761500</v>
+        <v>7900100</v>
       </c>
       <c r="I46" s="3">
-        <v>7890600</v>
+        <v>8031500</v>
       </c>
       <c r="J46" s="3">
-        <v>7046300</v>
+        <v>7172200</v>
       </c>
       <c r="K46" s="3">
         <v>7124400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1867400</v>
+        <v>1900700</v>
       </c>
       <c r="E47" s="3">
-        <v>1435700</v>
+        <v>1461400</v>
       </c>
       <c r="F47" s="3">
-        <v>1307700</v>
+        <v>1331000</v>
       </c>
       <c r="G47" s="3">
-        <v>1784800</v>
+        <v>1816700</v>
       </c>
       <c r="H47" s="3">
-        <v>879200</v>
+        <v>894900</v>
       </c>
       <c r="I47" s="3">
-        <v>845300</v>
+        <v>860400</v>
       </c>
       <c r="J47" s="3">
-        <v>827400</v>
+        <v>842100</v>
       </c>
       <c r="K47" s="3">
         <v>676200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1486500</v>
+        <v>1513000</v>
       </c>
       <c r="E48" s="3">
-        <v>1443100</v>
+        <v>1468900</v>
       </c>
       <c r="F48" s="3">
-        <v>1996400</v>
+        <v>2032100</v>
       </c>
       <c r="G48" s="3">
-        <v>723700</v>
+        <v>736600</v>
       </c>
       <c r="H48" s="3">
-        <v>654900</v>
+        <v>666600</v>
       </c>
       <c r="I48" s="3">
-        <v>624200</v>
+        <v>635400</v>
       </c>
       <c r="J48" s="3">
-        <v>639000</v>
+        <v>650400</v>
       </c>
       <c r="K48" s="3">
         <v>592500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7711800</v>
+        <v>7849500</v>
       </c>
       <c r="E49" s="3">
-        <v>6815600</v>
+        <v>6937400</v>
       </c>
       <c r="F49" s="3">
-        <v>6810300</v>
+        <v>6932000</v>
       </c>
       <c r="G49" s="3">
-        <v>7362600</v>
+        <v>7494100</v>
       </c>
       <c r="H49" s="3">
-        <v>6737300</v>
+        <v>6857700</v>
       </c>
       <c r="I49" s="3">
-        <v>6156500</v>
+        <v>6266500</v>
       </c>
       <c r="J49" s="3">
-        <v>6131100</v>
+        <v>6240600</v>
       </c>
       <c r="K49" s="3">
         <v>5789900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>344900</v>
+        <v>351100</v>
       </c>
       <c r="E52" s="3">
-        <v>207400</v>
+        <v>211100</v>
       </c>
       <c r="F52" s="3">
-        <v>179900</v>
+        <v>183100</v>
       </c>
       <c r="G52" s="3">
-        <v>132300</v>
+        <v>134600</v>
       </c>
       <c r="H52" s="3">
-        <v>133300</v>
+        <v>135700</v>
       </c>
       <c r="I52" s="3">
-        <v>220100</v>
+        <v>224000</v>
       </c>
       <c r="J52" s="3">
-        <v>335400</v>
+        <v>341400</v>
       </c>
       <c r="K52" s="3">
         <v>256300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22133400</v>
+        <v>22528700</v>
       </c>
       <c r="E54" s="3">
-        <v>20092500</v>
+        <v>20451400</v>
       </c>
       <c r="F54" s="3">
-        <v>18359500</v>
+        <v>18687400</v>
       </c>
       <c r="G54" s="3">
-        <v>18480100</v>
+        <v>18810200</v>
       </c>
       <c r="H54" s="3">
-        <v>16166200</v>
+        <v>16455000</v>
       </c>
       <c r="I54" s="3">
-        <v>15736700</v>
+        <v>16017800</v>
       </c>
       <c r="J54" s="3">
-        <v>14979200</v>
+        <v>15246800</v>
       </c>
       <c r="K54" s="3">
         <v>14439400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2864000</v>
+        <v>2915200</v>
       </c>
       <c r="E57" s="3">
-        <v>2305400</v>
+        <v>2346600</v>
       </c>
       <c r="F57" s="3">
-        <v>2009100</v>
+        <v>2045000</v>
       </c>
       <c r="G57" s="3">
-        <v>2663000</v>
+        <v>2710600</v>
       </c>
       <c r="H57" s="3">
-        <v>2355100</v>
+        <v>2397200</v>
       </c>
       <c r="I57" s="3">
-        <v>2234500</v>
+        <v>2274400</v>
       </c>
       <c r="J57" s="3">
-        <v>2141400</v>
+        <v>2179600</v>
       </c>
       <c r="K57" s="3">
         <v>1947900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>240200</v>
+        <v>244500</v>
       </c>
       <c r="E58" s="3">
-        <v>865400</v>
+        <v>880900</v>
       </c>
       <c r="F58" s="3">
-        <v>273000</v>
+        <v>277800</v>
       </c>
       <c r="G58" s="3">
-        <v>229600</v>
+        <v>233700</v>
       </c>
       <c r="H58" s="3">
-        <v>474000</v>
+        <v>482500</v>
       </c>
       <c r="I58" s="3">
-        <v>567100</v>
+        <v>577200</v>
       </c>
       <c r="J58" s="3">
-        <v>75100</v>
+        <v>76500</v>
       </c>
       <c r="K58" s="3">
         <v>353100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6705600</v>
+        <v>6825400</v>
       </c>
       <c r="E59" s="3">
-        <v>6195600</v>
+        <v>6306300</v>
       </c>
       <c r="F59" s="3">
-        <v>5912100</v>
+        <v>6017700</v>
       </c>
       <c r="G59" s="3">
-        <v>5832800</v>
+        <v>5936900</v>
       </c>
       <c r="H59" s="3">
-        <v>5235000</v>
+        <v>5328500</v>
       </c>
       <c r="I59" s="3">
-        <v>5047700</v>
+        <v>5137900</v>
       </c>
       <c r="J59" s="3">
-        <v>5091100</v>
+        <v>5182000</v>
       </c>
       <c r="K59" s="3">
         <v>4820400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9809800</v>
+        <v>9985000</v>
       </c>
       <c r="E60" s="3">
-        <v>9366500</v>
+        <v>9533800</v>
       </c>
       <c r="F60" s="3">
-        <v>8194200</v>
+        <v>8340600</v>
       </c>
       <c r="G60" s="3">
-        <v>8725300</v>
+        <v>8881200</v>
       </c>
       <c r="H60" s="3">
-        <v>8064100</v>
+        <v>8208100</v>
       </c>
       <c r="I60" s="3">
-        <v>7849300</v>
+        <v>7989500</v>
       </c>
       <c r="J60" s="3">
-        <v>7307600</v>
+        <v>7438100</v>
       </c>
       <c r="K60" s="3">
         <v>7121400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6841000</v>
+        <v>6963200</v>
       </c>
       <c r="E61" s="3">
-        <v>6575500</v>
+        <v>6692900</v>
       </c>
       <c r="F61" s="3">
-        <v>6454900</v>
+        <v>6570200</v>
       </c>
       <c r="G61" s="3">
-        <v>4128300</v>
+        <v>4202100</v>
       </c>
       <c r="H61" s="3">
-        <v>3742100</v>
+        <v>3809000</v>
       </c>
       <c r="I61" s="3">
-        <v>3185600</v>
+        <v>3242500</v>
       </c>
       <c r="J61" s="3">
-        <v>2660900</v>
+        <v>2708400</v>
       </c>
       <c r="K61" s="3">
         <v>2757800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800900</v>
+        <v>815200</v>
       </c>
       <c r="E62" s="3">
-        <v>791400</v>
+        <v>805500</v>
       </c>
       <c r="F62" s="3">
-        <v>776600</v>
+        <v>790400</v>
       </c>
       <c r="G62" s="3">
-        <v>867600</v>
+        <v>883100</v>
       </c>
       <c r="H62" s="3">
-        <v>839000</v>
+        <v>854000</v>
       </c>
       <c r="I62" s="3">
-        <v>924700</v>
+        <v>941200</v>
       </c>
       <c r="J62" s="3">
-        <v>1094000</v>
+        <v>1113500</v>
       </c>
       <c r="K62" s="3">
         <v>825800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17462300</v>
+        <v>17774200</v>
       </c>
       <c r="E66" s="3">
-        <v>16740700</v>
+        <v>17039800</v>
       </c>
       <c r="F66" s="3">
-        <v>15441500</v>
+        <v>15717400</v>
       </c>
       <c r="G66" s="3">
-        <v>13765600</v>
+        <v>14011500</v>
       </c>
       <c r="H66" s="3">
-        <v>12692800</v>
+        <v>12919600</v>
       </c>
       <c r="I66" s="3">
-        <v>11995600</v>
+        <v>12209900</v>
       </c>
       <c r="J66" s="3">
-        <v>11098400</v>
+        <v>11296700</v>
       </c>
       <c r="K66" s="3">
         <v>10739000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4223500</v>
+        <v>4299000</v>
       </c>
       <c r="E72" s="3">
-        <v>3655400</v>
+        <v>3720700</v>
       </c>
       <c r="F72" s="3">
-        <v>3345400</v>
+        <v>3405200</v>
       </c>
       <c r="G72" s="3">
-        <v>4610800</v>
+        <v>4693100</v>
       </c>
       <c r="H72" s="3">
-        <v>4015100</v>
+        <v>4086800</v>
       </c>
       <c r="I72" s="3">
-        <v>3655400</v>
+        <v>3720700</v>
       </c>
       <c r="J72" s="3">
-        <v>3182500</v>
+        <v>3239300</v>
       </c>
       <c r="K72" s="3">
         <v>2818700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4671100</v>
+        <v>4754500</v>
       </c>
       <c r="E76" s="3">
-        <v>3351700</v>
+        <v>3411600</v>
       </c>
       <c r="F76" s="3">
-        <v>2918000</v>
+        <v>2970100</v>
       </c>
       <c r="G76" s="3">
-        <v>4714400</v>
+        <v>4798700</v>
       </c>
       <c r="H76" s="3">
-        <v>3473400</v>
+        <v>3535500</v>
       </c>
       <c r="I76" s="3">
-        <v>3741100</v>
+        <v>3807900</v>
       </c>
       <c r="J76" s="3">
-        <v>3880700</v>
+        <v>3950100</v>
       </c>
       <c r="K76" s="3">
         <v>3700400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>735300</v>
+        <v>748400</v>
       </c>
       <c r="E81" s="3">
-        <v>147100</v>
+        <v>149700</v>
       </c>
       <c r="F81" s="3">
-        <v>-333300</v>
+        <v>-339200</v>
       </c>
       <c r="G81" s="3">
-        <v>703600</v>
+        <v>716100</v>
       </c>
       <c r="H81" s="3">
-        <v>688800</v>
+        <v>701100</v>
       </c>
       <c r="I81" s="3">
-        <v>764900</v>
+        <v>778600</v>
       </c>
       <c r="J81" s="3">
-        <v>673900</v>
+        <v>686000</v>
       </c>
       <c r="K81" s="3">
         <v>698200</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>553300</v>
+        <v>563200</v>
       </c>
       <c r="E83" s="3">
-        <v>635900</v>
+        <v>647200</v>
       </c>
       <c r="F83" s="3">
-        <v>948000</v>
+        <v>964900</v>
       </c>
       <c r="G83" s="3">
-        <v>386200</v>
+        <v>393100</v>
       </c>
       <c r="H83" s="3">
-        <v>335400</v>
+        <v>341400</v>
       </c>
       <c r="I83" s="3">
-        <v>297300</v>
+        <v>302600</v>
       </c>
       <c r="J83" s="3">
-        <v>325900</v>
+        <v>331700</v>
       </c>
       <c r="K83" s="3">
         <v>276300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1095000</v>
+        <v>1114600</v>
       </c>
       <c r="E89" s="3">
-        <v>1037900</v>
+        <v>1056400</v>
       </c>
       <c r="F89" s="3">
-        <v>666500</v>
+        <v>678400</v>
       </c>
       <c r="G89" s="3">
-        <v>1341500</v>
+        <v>1365500</v>
       </c>
       <c r="H89" s="3">
-        <v>1198700</v>
+        <v>1220100</v>
       </c>
       <c r="I89" s="3">
-        <v>1123600</v>
+        <v>1143700</v>
       </c>
       <c r="J89" s="3">
-        <v>999800</v>
+        <v>1017700</v>
       </c>
       <c r="K89" s="3">
         <v>1014400</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-365000</v>
+        <v>-371500</v>
       </c>
       <c r="E91" s="3">
-        <v>-313200</v>
+        <v>-318800</v>
       </c>
       <c r="F91" s="3">
-        <v>-421100</v>
+        <v>-428600</v>
       </c>
       <c r="G91" s="3">
-        <v>-423200</v>
+        <v>-430800</v>
       </c>
       <c r="H91" s="3">
-        <v>-348100</v>
+        <v>-354300</v>
       </c>
       <c r="I91" s="3">
-        <v>-326900</v>
+        <v>-332800</v>
       </c>
       <c r="J91" s="3">
-        <v>-365000</v>
+        <v>-371500</v>
       </c>
       <c r="K91" s="3">
         <v>-301200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-408400</v>
+        <v>-415700</v>
       </c>
       <c r="E94" s="3">
-        <v>-320600</v>
+        <v>-326300</v>
       </c>
       <c r="F94" s="3">
-        <v>-454900</v>
+        <v>-463100</v>
       </c>
       <c r="G94" s="3">
-        <v>-855900</v>
+        <v>-871200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1058000</v>
+        <v>-1076900</v>
       </c>
       <c r="I94" s="3">
-        <v>-647500</v>
+        <v>-659100</v>
       </c>
       <c r="J94" s="3">
-        <v>-513100</v>
+        <v>-522300</v>
       </c>
       <c r="K94" s="3">
         <v>-377000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-311100</v>
+        <v>-316600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-449700</v>
+        <v>-457700</v>
       </c>
       <c r="G96" s="3">
-        <v>-426400</v>
+        <v>-434000</v>
       </c>
       <c r="H96" s="3">
-        <v>-434800</v>
+        <v>-442600</v>
       </c>
       <c r="I96" s="3">
-        <v>-379800</v>
+        <v>-386600</v>
       </c>
       <c r="J96" s="3">
-        <v>-354400</v>
+        <v>-360800</v>
       </c>
       <c r="K96" s="3">
         <v>-275300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1173300</v>
+        <v>-1194300</v>
       </c>
       <c r="E100" s="3">
-        <v>834800</v>
+        <v>849700</v>
       </c>
       <c r="F100" s="3">
-        <v>209500</v>
+        <v>213200</v>
       </c>
       <c r="G100" s="3">
-        <v>-431700</v>
+        <v>-439400</v>
       </c>
       <c r="H100" s="3">
-        <v>-365000</v>
+        <v>-371500</v>
       </c>
       <c r="I100" s="3">
-        <v>340700</v>
+        <v>346800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1164900</v>
+        <v>-1185700</v>
       </c>
       <c r="K100" s="3">
         <v>-1361500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="E101" s="3">
-        <v>46600</v>
+        <v>47400</v>
       </c>
       <c r="F101" s="3">
-        <v>-130100</v>
+        <v>-132500</v>
       </c>
       <c r="G101" s="3">
-        <v>61400</v>
+        <v>62500</v>
       </c>
       <c r="H101" s="3">
-        <v>-137500</v>
+        <v>-140000</v>
       </c>
       <c r="I101" s="3">
-        <v>-147100</v>
+        <v>-149700</v>
       </c>
       <c r="J101" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="K101" s="3">
         <v>8000</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-333300</v>
+        <v>-339200</v>
       </c>
       <c r="E102" s="3">
-        <v>1598600</v>
+        <v>1627200</v>
       </c>
       <c r="F102" s="3">
-        <v>291000</v>
+        <v>296100</v>
       </c>
       <c r="G102" s="3">
-        <v>115300</v>
+        <v>117400</v>
       </c>
       <c r="H102" s="3">
-        <v>-361800</v>
+        <v>-368300</v>
       </c>
       <c r="I102" s="3">
-        <v>669700</v>
+        <v>681700</v>
       </c>
       <c r="J102" s="3">
-        <v>-658100</v>
+        <v>-669800</v>
       </c>
       <c r="K102" s="3">
         <v>-716100</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22749500</v>
+        <v>22901600</v>
       </c>
       <c r="E8" s="3">
-        <v>18768200</v>
+        <v>18893700</v>
       </c>
       <c r="F8" s="3">
-        <v>20806800</v>
+        <v>20945900</v>
       </c>
       <c r="G8" s="3">
-        <v>23642300</v>
+        <v>23800300</v>
       </c>
       <c r="H8" s="3">
-        <v>21976300</v>
+        <v>22123200</v>
       </c>
       <c r="I8" s="3">
-        <v>22289700</v>
+        <v>22438700</v>
       </c>
       <c r="J8" s="3">
-        <v>21801800</v>
+        <v>21947600</v>
       </c>
       <c r="K8" s="3">
         <v>19763500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19479000</v>
+        <v>19609200</v>
       </c>
       <c r="E9" s="3">
-        <v>16160000</v>
+        <v>16268000</v>
       </c>
       <c r="F9" s="3">
-        <v>18137100</v>
+        <v>18258400</v>
       </c>
       <c r="G9" s="3">
-        <v>20198300</v>
+        <v>20333400</v>
       </c>
       <c r="H9" s="3">
-        <v>18651900</v>
+        <v>18776600</v>
       </c>
       <c r="I9" s="3">
-        <v>18855400</v>
+        <v>18981500</v>
       </c>
       <c r="J9" s="3">
-        <v>18452700</v>
+        <v>18576100</v>
       </c>
       <c r="K9" s="3">
         <v>16613700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3270500</v>
+        <v>3292400</v>
       </c>
       <c r="E10" s="3">
-        <v>2608300</v>
+        <v>2625700</v>
       </c>
       <c r="F10" s="3">
-        <v>2669600</v>
+        <v>2687500</v>
       </c>
       <c r="G10" s="3">
-        <v>3443900</v>
+        <v>3467000</v>
       </c>
       <c r="H10" s="3">
-        <v>3324400</v>
+        <v>3346600</v>
       </c>
       <c r="I10" s="3">
-        <v>3434200</v>
+        <v>3457200</v>
       </c>
       <c r="J10" s="3">
-        <v>3349200</v>
+        <v>3371600</v>
       </c>
       <c r="K10" s="3">
         <v>3149800</v>
@@ -954,22 +954,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-38800</v>
+        <v>-39000</v>
       </c>
       <c r="E14" s="3">
-        <v>233700</v>
+        <v>235200</v>
       </c>
       <c r="F14" s="3">
-        <v>494300</v>
+        <v>497600</v>
       </c>
       <c r="G14" s="3">
-        <v>61400</v>
+        <v>61800</v>
       </c>
       <c r="H14" s="3">
-        <v>86200</v>
+        <v>86700</v>
       </c>
       <c r="I14" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -996,19 +996,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="E15" s="3">
-        <v>35500</v>
+        <v>35800</v>
       </c>
       <c r="F15" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="G15" s="3">
-        <v>91500</v>
+        <v>92100</v>
       </c>
       <c r="H15" s="3">
-        <v>52800</v>
+        <v>53100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21614500</v>
+        <v>21759000</v>
       </c>
       <c r="E17" s="3">
-        <v>18403100</v>
+        <v>18526200</v>
       </c>
       <c r="F17" s="3">
-        <v>20736800</v>
+        <v>20875400</v>
       </c>
       <c r="G17" s="3">
-        <v>22501800</v>
+        <v>22652300</v>
       </c>
       <c r="H17" s="3">
-        <v>20902600</v>
+        <v>21042400</v>
       </c>
       <c r="I17" s="3">
-        <v>21021100</v>
+        <v>21161600</v>
       </c>
       <c r="J17" s="3">
-        <v>20622600</v>
+        <v>20760500</v>
       </c>
       <c r="K17" s="3">
         <v>18630400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1135100</v>
+        <v>1142600</v>
       </c>
       <c r="E18" s="3">
-        <v>365100</v>
+        <v>367500</v>
       </c>
       <c r="F18" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="G18" s="3">
-        <v>1140400</v>
+        <v>1148100</v>
       </c>
       <c r="H18" s="3">
-        <v>1073700</v>
+        <v>1080800</v>
       </c>
       <c r="I18" s="3">
-        <v>1268600</v>
+        <v>1277100</v>
       </c>
       <c r="J18" s="3">
-        <v>1179200</v>
+        <v>1187100</v>
       </c>
       <c r="K18" s="3">
         <v>1133000</v>
@@ -1155,19 +1155,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="E20" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F20" s="3">
-        <v>-150800</v>
+        <v>-151800</v>
       </c>
       <c r="G20" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="H20" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="I20" s="3">
         <v>4300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1725600</v>
+        <v>1733500</v>
       </c>
       <c r="E21" s="3">
-        <v>1024000</v>
+        <v>1026600</v>
       </c>
       <c r="F21" s="3">
-        <v>890400</v>
+        <v>890000</v>
       </c>
       <c r="G21" s="3">
-        <v>1563000</v>
+        <v>1570900</v>
       </c>
       <c r="H21" s="3">
-        <v>1441000</v>
+        <v>1448400</v>
       </c>
       <c r="I21" s="3">
-        <v>1577500</v>
+        <v>1586000</v>
       </c>
       <c r="J21" s="3">
-        <v>1513000</v>
+        <v>1521000</v>
       </c>
       <c r="K21" s="3">
         <v>1465900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>116300</v>
+        <v>117100</v>
       </c>
       <c r="E22" s="3">
-        <v>117400</v>
+        <v>118200</v>
       </c>
       <c r="F22" s="3">
-        <v>157200</v>
+        <v>158300</v>
       </c>
       <c r="G22" s="3">
-        <v>130300</v>
+        <v>131200</v>
       </c>
       <c r="H22" s="3">
-        <v>118500</v>
+        <v>119300</v>
       </c>
       <c r="I22" s="3">
-        <v>101200</v>
+        <v>101900</v>
       </c>
       <c r="J22" s="3">
-        <v>112000</v>
+        <v>112700</v>
       </c>
       <c r="K22" s="3">
         <v>149600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1042400</v>
+        <v>1049400</v>
       </c>
       <c r="E23" s="3">
-        <v>255200</v>
+        <v>256900</v>
       </c>
       <c r="F23" s="3">
-        <v>-238000</v>
+        <v>-239600</v>
       </c>
       <c r="G23" s="3">
-        <v>1037100</v>
+        <v>1044000</v>
       </c>
       <c r="H23" s="3">
-        <v>978900</v>
+        <v>985400</v>
       </c>
       <c r="I23" s="3">
-        <v>1171700</v>
+        <v>1179500</v>
       </c>
       <c r="J23" s="3">
-        <v>1067200</v>
+        <v>1074300</v>
       </c>
       <c r="K23" s="3">
         <v>1040300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>284300</v>
+        <v>286200</v>
       </c>
       <c r="E24" s="3">
-        <v>108800</v>
+        <v>109500</v>
       </c>
       <c r="F24" s="3">
-        <v>105500</v>
+        <v>106200</v>
       </c>
       <c r="G24" s="3">
-        <v>298300</v>
+        <v>300300</v>
       </c>
       <c r="H24" s="3">
-        <v>263800</v>
+        <v>265600</v>
       </c>
       <c r="I24" s="3">
-        <v>369400</v>
+        <v>371800</v>
       </c>
       <c r="J24" s="3">
-        <v>355400</v>
+        <v>357800</v>
       </c>
       <c r="K24" s="3">
         <v>319200</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>758100</v>
+        <v>763200</v>
       </c>
       <c r="E26" s="3">
-        <v>146500</v>
+        <v>147400</v>
       </c>
       <c r="F26" s="3">
-        <v>-343500</v>
+        <v>-345800</v>
       </c>
       <c r="G26" s="3">
-        <v>738800</v>
+        <v>743700</v>
       </c>
       <c r="H26" s="3">
-        <v>715100</v>
+        <v>719800</v>
       </c>
       <c r="I26" s="3">
-        <v>802300</v>
+        <v>807700</v>
       </c>
       <c r="J26" s="3">
-        <v>711800</v>
+        <v>716600</v>
       </c>
       <c r="K26" s="3">
         <v>721100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>748400</v>
+        <v>753400</v>
       </c>
       <c r="E27" s="3">
-        <v>149700</v>
+        <v>150700</v>
       </c>
       <c r="F27" s="3">
-        <v>-339200</v>
+        <v>-341500</v>
       </c>
       <c r="G27" s="3">
-        <v>716100</v>
+        <v>720900</v>
       </c>
       <c r="H27" s="3">
-        <v>701100</v>
+        <v>705700</v>
       </c>
       <c r="I27" s="3">
-        <v>778600</v>
+        <v>783800</v>
       </c>
       <c r="J27" s="3">
-        <v>686000</v>
+        <v>690600</v>
       </c>
       <c r="K27" s="3">
         <v>698200</v>
@@ -1659,19 +1659,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23700</v>
+        <v>-23900</v>
       </c>
       <c r="E32" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F32" s="3">
-        <v>150800</v>
+        <v>151800</v>
       </c>
       <c r="G32" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="H32" s="3">
-        <v>-23700</v>
+        <v>-23900</v>
       </c>
       <c r="I32" s="3">
         <v>-4300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>748400</v>
+        <v>753400</v>
       </c>
       <c r="E33" s="3">
-        <v>149700</v>
+        <v>150700</v>
       </c>
       <c r="F33" s="3">
-        <v>-339200</v>
+        <v>-341500</v>
       </c>
       <c r="G33" s="3">
-        <v>716100</v>
+        <v>720900</v>
       </c>
       <c r="H33" s="3">
-        <v>701100</v>
+        <v>705700</v>
       </c>
       <c r="I33" s="3">
-        <v>778600</v>
+        <v>783800</v>
       </c>
       <c r="J33" s="3">
-        <v>686000</v>
+        <v>690600</v>
       </c>
       <c r="K33" s="3">
         <v>698200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>748400</v>
+        <v>753400</v>
       </c>
       <c r="E35" s="3">
-        <v>149700</v>
+        <v>150700</v>
       </c>
       <c r="F35" s="3">
-        <v>-339200</v>
+        <v>-341500</v>
       </c>
       <c r="G35" s="3">
-        <v>716100</v>
+        <v>720900</v>
       </c>
       <c r="H35" s="3">
-        <v>701100</v>
+        <v>705700</v>
       </c>
       <c r="I35" s="3">
-        <v>778600</v>
+        <v>783800</v>
       </c>
       <c r="J35" s="3">
-        <v>686000</v>
+        <v>690600</v>
       </c>
       <c r="K35" s="3">
         <v>698200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2908700</v>
+        <v>2928200</v>
       </c>
       <c r="E41" s="3">
-        <v>3456800</v>
+        <v>3480000</v>
       </c>
       <c r="F41" s="3">
-        <v>1801700</v>
+        <v>1813700</v>
       </c>
       <c r="G41" s="3">
-        <v>1515200</v>
+        <v>1525300</v>
       </c>
       <c r="H41" s="3">
-        <v>1401000</v>
+        <v>1410400</v>
       </c>
       <c r="I41" s="3">
-        <v>1720900</v>
+        <v>1732400</v>
       </c>
       <c r="J41" s="3">
-        <v>1100600</v>
+        <v>1108000</v>
       </c>
       <c r="K41" s="3">
         <v>1648700</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>625700</v>
+        <v>629900</v>
       </c>
       <c r="E42" s="3">
-        <v>396300</v>
+        <v>398900</v>
       </c>
       <c r="F42" s="3">
-        <v>424300</v>
+        <v>427100</v>
       </c>
       <c r="G42" s="3">
-        <v>465200</v>
+        <v>468300</v>
       </c>
       <c r="H42" s="3">
-        <v>431800</v>
+        <v>434700</v>
       </c>
       <c r="I42" s="3">
-        <v>486800</v>
+        <v>490000</v>
       </c>
       <c r="J42" s="3">
-        <v>427500</v>
+        <v>430400</v>
       </c>
       <c r="K42" s="3">
         <v>378000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5371600</v>
+        <v>5407500</v>
       </c>
       <c r="E43" s="3">
-        <v>4560700</v>
+        <v>4591200</v>
       </c>
       <c r="F43" s="3">
-        <v>4286100</v>
+        <v>4314700</v>
       </c>
       <c r="G43" s="3">
-        <v>4797600</v>
+        <v>4829700</v>
       </c>
       <c r="H43" s="3">
-        <v>4399100</v>
+        <v>4428500</v>
       </c>
       <c r="I43" s="3">
-        <v>4357100</v>
+        <v>4386300</v>
       </c>
       <c r="J43" s="3">
-        <v>4322700</v>
+        <v>4351600</v>
       </c>
       <c r="K43" s="3">
         <v>3842000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>379100</v>
+        <v>381600</v>
       </c>
       <c r="E44" s="3">
-        <v>275700</v>
+        <v>277500</v>
       </c>
       <c r="F44" s="3">
-        <v>278900</v>
+        <v>280800</v>
       </c>
       <c r="G44" s="3">
-        <v>316600</v>
+        <v>318700</v>
       </c>
       <c r="H44" s="3">
-        <v>301500</v>
+        <v>303500</v>
       </c>
       <c r="I44" s="3">
-        <v>276800</v>
+        <v>278600</v>
       </c>
       <c r="J44" s="3">
-        <v>288600</v>
+        <v>290500</v>
       </c>
       <c r="K44" s="3">
         <v>269300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1629300</v>
+        <v>1640200</v>
       </c>
       <c r="E45" s="3">
-        <v>1683200</v>
+        <v>1694400</v>
       </c>
       <c r="F45" s="3">
-        <v>1418300</v>
+        <v>1427800</v>
       </c>
       <c r="G45" s="3">
-        <v>1533500</v>
+        <v>1543800</v>
       </c>
       <c r="H45" s="3">
-        <v>1366600</v>
+        <v>1375700</v>
       </c>
       <c r="I45" s="3">
-        <v>1190000</v>
+        <v>1197900</v>
       </c>
       <c r="J45" s="3">
-        <v>1032700</v>
+        <v>1039700</v>
       </c>
       <c r="K45" s="3">
         <v>986400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10914400</v>
+        <v>10987400</v>
       </c>
       <c r="E46" s="3">
-        <v>10372700</v>
+        <v>10442100</v>
       </c>
       <c r="F46" s="3">
-        <v>8209200</v>
+        <v>8264100</v>
       </c>
       <c r="G46" s="3">
-        <v>8628100</v>
+        <v>8685800</v>
       </c>
       <c r="H46" s="3">
-        <v>7900100</v>
+        <v>7953000</v>
       </c>
       <c r="I46" s="3">
-        <v>8031500</v>
+        <v>8085200</v>
       </c>
       <c r="J46" s="3">
-        <v>7172200</v>
+        <v>7220100</v>
       </c>
       <c r="K46" s="3">
         <v>7124400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1900700</v>
+        <v>1913400</v>
       </c>
       <c r="E47" s="3">
-        <v>1461400</v>
+        <v>1471100</v>
       </c>
       <c r="F47" s="3">
-        <v>1331000</v>
+        <v>1339900</v>
       </c>
       <c r="G47" s="3">
-        <v>1816700</v>
+        <v>1828900</v>
       </c>
       <c r="H47" s="3">
-        <v>894900</v>
+        <v>900900</v>
       </c>
       <c r="I47" s="3">
-        <v>860400</v>
+        <v>866200</v>
       </c>
       <c r="J47" s="3">
-        <v>842100</v>
+        <v>847800</v>
       </c>
       <c r="K47" s="3">
         <v>676200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1513000</v>
+        <v>1523200</v>
       </c>
       <c r="E48" s="3">
-        <v>1468900</v>
+        <v>1478700</v>
       </c>
       <c r="F48" s="3">
-        <v>2032100</v>
+        <v>2045700</v>
       </c>
       <c r="G48" s="3">
-        <v>736600</v>
+        <v>741500</v>
       </c>
       <c r="H48" s="3">
-        <v>666600</v>
+        <v>671100</v>
       </c>
       <c r="I48" s="3">
-        <v>635400</v>
+        <v>639600</v>
       </c>
       <c r="J48" s="3">
-        <v>650400</v>
+        <v>654800</v>
       </c>
       <c r="K48" s="3">
         <v>592500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7849500</v>
+        <v>7902000</v>
       </c>
       <c r="E49" s="3">
-        <v>6937400</v>
+        <v>6983800</v>
       </c>
       <c r="F49" s="3">
-        <v>6932000</v>
+        <v>6978400</v>
       </c>
       <c r="G49" s="3">
-        <v>7494100</v>
+        <v>7544300</v>
       </c>
       <c r="H49" s="3">
-        <v>6857700</v>
+        <v>6903500</v>
       </c>
       <c r="I49" s="3">
-        <v>6266500</v>
+        <v>6308400</v>
       </c>
       <c r="J49" s="3">
-        <v>6240600</v>
+        <v>6282400</v>
       </c>
       <c r="K49" s="3">
         <v>5789900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>351100</v>
+        <v>353400</v>
       </c>
       <c r="E52" s="3">
-        <v>211100</v>
+        <v>212500</v>
       </c>
       <c r="F52" s="3">
-        <v>183100</v>
+        <v>184300</v>
       </c>
       <c r="G52" s="3">
-        <v>134600</v>
+        <v>135500</v>
       </c>
       <c r="H52" s="3">
-        <v>135700</v>
+        <v>136600</v>
       </c>
       <c r="I52" s="3">
-        <v>224000</v>
+        <v>225500</v>
       </c>
       <c r="J52" s="3">
-        <v>341400</v>
+        <v>343700</v>
       </c>
       <c r="K52" s="3">
         <v>256300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22528700</v>
+        <v>22679400</v>
       </c>
       <c r="E54" s="3">
-        <v>20451400</v>
+        <v>20588100</v>
       </c>
       <c r="F54" s="3">
-        <v>18687400</v>
+        <v>18812400</v>
       </c>
       <c r="G54" s="3">
-        <v>18810200</v>
+        <v>18936000</v>
       </c>
       <c r="H54" s="3">
-        <v>16455000</v>
+        <v>16565000</v>
       </c>
       <c r="I54" s="3">
-        <v>16017800</v>
+        <v>16124900</v>
       </c>
       <c r="J54" s="3">
-        <v>15246800</v>
+        <v>15348700</v>
       </c>
       <c r="K54" s="3">
         <v>14439400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2915200</v>
+        <v>2934700</v>
       </c>
       <c r="E57" s="3">
-        <v>2346600</v>
+        <v>2362300</v>
       </c>
       <c r="F57" s="3">
-        <v>2045000</v>
+        <v>2058700</v>
       </c>
       <c r="G57" s="3">
-        <v>2710600</v>
+        <v>2728700</v>
       </c>
       <c r="H57" s="3">
-        <v>2397200</v>
+        <v>2413200</v>
       </c>
       <c r="I57" s="3">
-        <v>2274400</v>
+        <v>2289600</v>
       </c>
       <c r="J57" s="3">
-        <v>2179600</v>
+        <v>2194200</v>
       </c>
       <c r="K57" s="3">
         <v>1947900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>244500</v>
+        <v>246100</v>
       </c>
       <c r="E58" s="3">
-        <v>880900</v>
+        <v>886800</v>
       </c>
       <c r="F58" s="3">
-        <v>277800</v>
+        <v>279700</v>
       </c>
       <c r="G58" s="3">
-        <v>233700</v>
+        <v>235200</v>
       </c>
       <c r="H58" s="3">
-        <v>482500</v>
+        <v>485700</v>
       </c>
       <c r="I58" s="3">
-        <v>577200</v>
+        <v>581100</v>
       </c>
       <c r="J58" s="3">
-        <v>76500</v>
+        <v>77000</v>
       </c>
       <c r="K58" s="3">
         <v>353100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6825400</v>
+        <v>6871000</v>
       </c>
       <c r="E59" s="3">
-        <v>6306300</v>
+        <v>6348500</v>
       </c>
       <c r="F59" s="3">
-        <v>6017700</v>
+        <v>6058000</v>
       </c>
       <c r="G59" s="3">
-        <v>5936900</v>
+        <v>5976600</v>
       </c>
       <c r="H59" s="3">
-        <v>5328500</v>
+        <v>5364100</v>
       </c>
       <c r="I59" s="3">
-        <v>5137900</v>
+        <v>5172200</v>
       </c>
       <c r="J59" s="3">
-        <v>5182000</v>
+        <v>5216700</v>
       </c>
       <c r="K59" s="3">
         <v>4820400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9985000</v>
+        <v>10051800</v>
       </c>
       <c r="E60" s="3">
-        <v>9533800</v>
+        <v>9597500</v>
       </c>
       <c r="F60" s="3">
-        <v>8340600</v>
+        <v>8396400</v>
       </c>
       <c r="G60" s="3">
-        <v>8881200</v>
+        <v>8940600</v>
       </c>
       <c r="H60" s="3">
-        <v>8208100</v>
+        <v>8263000</v>
       </c>
       <c r="I60" s="3">
-        <v>7989500</v>
+        <v>8042900</v>
       </c>
       <c r="J60" s="3">
-        <v>7438100</v>
+        <v>7487900</v>
       </c>
       <c r="K60" s="3">
         <v>7121400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6963200</v>
+        <v>7009800</v>
       </c>
       <c r="E61" s="3">
-        <v>6692900</v>
+        <v>6737700</v>
       </c>
       <c r="F61" s="3">
-        <v>6570200</v>
+        <v>6614100</v>
       </c>
       <c r="G61" s="3">
-        <v>4202100</v>
+        <v>4230200</v>
       </c>
       <c r="H61" s="3">
-        <v>3809000</v>
+        <v>3834500</v>
       </c>
       <c r="I61" s="3">
-        <v>3242500</v>
+        <v>3264200</v>
       </c>
       <c r="J61" s="3">
-        <v>2708400</v>
+        <v>2726500</v>
       </c>
       <c r="K61" s="3">
         <v>2757800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>815200</v>
+        <v>820700</v>
       </c>
       <c r="E62" s="3">
-        <v>805500</v>
+        <v>810900</v>
       </c>
       <c r="F62" s="3">
-        <v>790400</v>
+        <v>795700</v>
       </c>
       <c r="G62" s="3">
-        <v>883100</v>
+        <v>889000</v>
       </c>
       <c r="H62" s="3">
-        <v>854000</v>
+        <v>859700</v>
       </c>
       <c r="I62" s="3">
-        <v>941200</v>
+        <v>947500</v>
       </c>
       <c r="J62" s="3">
-        <v>1113500</v>
+        <v>1121000</v>
       </c>
       <c r="K62" s="3">
         <v>825800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17774200</v>
+        <v>17893100</v>
       </c>
       <c r="E66" s="3">
-        <v>17039800</v>
+        <v>17153700</v>
       </c>
       <c r="F66" s="3">
-        <v>15717400</v>
+        <v>15822400</v>
       </c>
       <c r="G66" s="3">
-        <v>14011500</v>
+        <v>14105200</v>
       </c>
       <c r="H66" s="3">
-        <v>12919600</v>
+        <v>13005900</v>
       </c>
       <c r="I66" s="3">
-        <v>12209900</v>
+        <v>12291500</v>
       </c>
       <c r="J66" s="3">
-        <v>11296700</v>
+        <v>11372200</v>
       </c>
       <c r="K66" s="3">
         <v>10739000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4299000</v>
+        <v>4327700</v>
       </c>
       <c r="E72" s="3">
-        <v>3720700</v>
+        <v>3745600</v>
       </c>
       <c r="F72" s="3">
-        <v>3405200</v>
+        <v>3427900</v>
       </c>
       <c r="G72" s="3">
-        <v>4693100</v>
+        <v>4724500</v>
       </c>
       <c r="H72" s="3">
-        <v>4086800</v>
+        <v>4114200</v>
       </c>
       <c r="I72" s="3">
-        <v>3720700</v>
+        <v>3745600</v>
       </c>
       <c r="J72" s="3">
-        <v>3239300</v>
+        <v>3261000</v>
       </c>
       <c r="K72" s="3">
         <v>2818700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4754500</v>
+        <v>4786300</v>
       </c>
       <c r="E76" s="3">
-        <v>3411600</v>
+        <v>3434400</v>
       </c>
       <c r="F76" s="3">
-        <v>2970100</v>
+        <v>2989900</v>
       </c>
       <c r="G76" s="3">
-        <v>4798700</v>
+        <v>4830700</v>
       </c>
       <c r="H76" s="3">
-        <v>3535500</v>
+        <v>3559100</v>
       </c>
       <c r="I76" s="3">
-        <v>3807900</v>
+        <v>3833400</v>
       </c>
       <c r="J76" s="3">
-        <v>3950100</v>
+        <v>3976500</v>
       </c>
       <c r="K76" s="3">
         <v>3700400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>748400</v>
+        <v>753400</v>
       </c>
       <c r="E81" s="3">
-        <v>149700</v>
+        <v>150700</v>
       </c>
       <c r="F81" s="3">
-        <v>-339200</v>
+        <v>-341500</v>
       </c>
       <c r="G81" s="3">
-        <v>716100</v>
+        <v>720900</v>
       </c>
       <c r="H81" s="3">
-        <v>701100</v>
+        <v>705700</v>
       </c>
       <c r="I81" s="3">
-        <v>778600</v>
+        <v>783800</v>
       </c>
       <c r="J81" s="3">
-        <v>686000</v>
+        <v>690600</v>
       </c>
       <c r="K81" s="3">
         <v>698200</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>563200</v>
+        <v>567000</v>
       </c>
       <c r="E83" s="3">
-        <v>647200</v>
+        <v>651500</v>
       </c>
       <c r="F83" s="3">
-        <v>964900</v>
+        <v>971400</v>
       </c>
       <c r="G83" s="3">
-        <v>393100</v>
+        <v>395700</v>
       </c>
       <c r="H83" s="3">
-        <v>341400</v>
+        <v>343700</v>
       </c>
       <c r="I83" s="3">
-        <v>302600</v>
+        <v>304600</v>
       </c>
       <c r="J83" s="3">
-        <v>331700</v>
+        <v>333900</v>
       </c>
       <c r="K83" s="3">
         <v>276300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1114600</v>
+        <v>1122000</v>
       </c>
       <c r="E89" s="3">
-        <v>1056400</v>
+        <v>1063500</v>
       </c>
       <c r="F89" s="3">
-        <v>678400</v>
+        <v>683000</v>
       </c>
       <c r="G89" s="3">
-        <v>1365500</v>
+        <v>1374600</v>
       </c>
       <c r="H89" s="3">
-        <v>1220100</v>
+        <v>1228300</v>
       </c>
       <c r="I89" s="3">
-        <v>1143700</v>
+        <v>1151300</v>
       </c>
       <c r="J89" s="3">
-        <v>1017700</v>
+        <v>1024500</v>
       </c>
       <c r="K89" s="3">
         <v>1014400</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-371500</v>
+        <v>-374000</v>
       </c>
       <c r="E91" s="3">
-        <v>-318800</v>
+        <v>-320900</v>
       </c>
       <c r="F91" s="3">
-        <v>-428600</v>
+        <v>-431500</v>
       </c>
       <c r="G91" s="3">
-        <v>-430800</v>
+        <v>-433600</v>
       </c>
       <c r="H91" s="3">
-        <v>-354300</v>
+        <v>-356700</v>
       </c>
       <c r="I91" s="3">
-        <v>-332800</v>
+        <v>-335000</v>
       </c>
       <c r="J91" s="3">
-        <v>-371500</v>
+        <v>-374000</v>
       </c>
       <c r="K91" s="3">
         <v>-301200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-415700</v>
+        <v>-418500</v>
       </c>
       <c r="E94" s="3">
-        <v>-326300</v>
+        <v>-328500</v>
       </c>
       <c r="F94" s="3">
-        <v>-463100</v>
+        <v>-466200</v>
       </c>
       <c r="G94" s="3">
-        <v>-871200</v>
+        <v>-877000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1076900</v>
+        <v>-1084100</v>
       </c>
       <c r="I94" s="3">
-        <v>-659100</v>
+        <v>-663500</v>
       </c>
       <c r="J94" s="3">
-        <v>-522300</v>
+        <v>-525800</v>
       </c>
       <c r="K94" s="3">
         <v>-377000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-316600</v>
+        <v>-318700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-457700</v>
+        <v>-460700</v>
       </c>
       <c r="G96" s="3">
-        <v>-434000</v>
+        <v>-436900</v>
       </c>
       <c r="H96" s="3">
-        <v>-442600</v>
+        <v>-445600</v>
       </c>
       <c r="I96" s="3">
-        <v>-386600</v>
+        <v>-389200</v>
       </c>
       <c r="J96" s="3">
-        <v>-360800</v>
+        <v>-363200</v>
       </c>
       <c r="K96" s="3">
         <v>-275300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1194300</v>
+        <v>-1202300</v>
       </c>
       <c r="E100" s="3">
-        <v>849700</v>
+        <v>855400</v>
       </c>
       <c r="F100" s="3">
-        <v>213200</v>
+        <v>214700</v>
       </c>
       <c r="G100" s="3">
-        <v>-439400</v>
+        <v>-442300</v>
       </c>
       <c r="H100" s="3">
-        <v>-371500</v>
+        <v>-374000</v>
       </c>
       <c r="I100" s="3">
-        <v>346800</v>
+        <v>349100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1185700</v>
+        <v>-1193600</v>
       </c>
       <c r="K100" s="3">
         <v>-1361500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>156200</v>
+        <v>157200</v>
       </c>
       <c r="E101" s="3">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="F101" s="3">
-        <v>-132500</v>
+        <v>-133300</v>
       </c>
       <c r="G101" s="3">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="H101" s="3">
-        <v>-140000</v>
+        <v>-140900</v>
       </c>
       <c r="I101" s="3">
-        <v>-149700</v>
+        <v>-150700</v>
       </c>
       <c r="J101" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="K101" s="3">
         <v>8000</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-339200</v>
+        <v>-341500</v>
       </c>
       <c r="E102" s="3">
-        <v>1627200</v>
+        <v>1638100</v>
       </c>
       <c r="F102" s="3">
-        <v>296100</v>
+        <v>298100</v>
       </c>
       <c r="G102" s="3">
-        <v>117400</v>
+        <v>118200</v>
       </c>
       <c r="H102" s="3">
-        <v>-368300</v>
+        <v>-370800</v>
       </c>
       <c r="I102" s="3">
-        <v>681700</v>
+        <v>686200</v>
       </c>
       <c r="J102" s="3">
-        <v>-669800</v>
+        <v>-674300</v>
       </c>
       <c r="K102" s="3">
         <v>-716100</v>

--- a/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SDXAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,201 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42978</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42613</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42247</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41882</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41517</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41152</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40786</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22901600</v>
+        <v>24561100</v>
       </c>
       <c r="E8" s="3">
-        <v>18893700</v>
+        <v>21985400</v>
       </c>
       <c r="F8" s="3">
-        <v>20945900</v>
+        <v>18909400</v>
       </c>
       <c r="G8" s="3">
-        <v>23800300</v>
+        <v>20963300</v>
       </c>
       <c r="H8" s="3">
-        <v>22123200</v>
+        <v>23820100</v>
       </c>
       <c r="I8" s="3">
-        <v>22438700</v>
+        <v>22141600</v>
       </c>
       <c r="J8" s="3">
+        <v>22457300</v>
+      </c>
+      <c r="K8" s="3">
         <v>21947600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19763500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21032100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21761800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20460600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18836100</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19609200</v>
+        <v>21609900</v>
       </c>
       <c r="E9" s="3">
-        <v>16268000</v>
+        <v>19320600</v>
       </c>
       <c r="F9" s="3">
-        <v>18258400</v>
+        <v>16281500</v>
       </c>
       <c r="G9" s="3">
-        <v>20333400</v>
+        <v>18273600</v>
       </c>
       <c r="H9" s="3">
-        <v>18776600</v>
+        <v>20350300</v>
       </c>
       <c r="I9" s="3">
-        <v>18981500</v>
+        <v>18792200</v>
       </c>
       <c r="J9" s="3">
+        <v>18997300</v>
+      </c>
+      <c r="K9" s="3">
         <v>18576100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16613700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17820500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18513600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17255100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15880500</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3292400</v>
+        <v>2951200</v>
       </c>
       <c r="E10" s="3">
-        <v>2625700</v>
+        <v>2664800</v>
       </c>
       <c r="F10" s="3">
-        <v>2687500</v>
+        <v>2627900</v>
       </c>
       <c r="G10" s="3">
-        <v>3467000</v>
+        <v>2689700</v>
       </c>
       <c r="H10" s="3">
-        <v>3346600</v>
+        <v>3469800</v>
       </c>
       <c r="I10" s="3">
-        <v>3457200</v>
+        <v>3349400</v>
       </c>
       <c r="J10" s="3">
+        <v>3460100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3371600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3149800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3211500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3248200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3205500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2955700</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +876,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,9 +918,12 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,32 +963,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-39000</v>
+        <v>100900</v>
       </c>
       <c r="E14" s="3">
-        <v>235200</v>
+        <v>-36900</v>
       </c>
       <c r="F14" s="3">
-        <v>497600</v>
+        <v>235400</v>
       </c>
       <c r="G14" s="3">
+        <v>498000</v>
+      </c>
+      <c r="H14" s="3">
         <v>61800</v>
       </c>
-      <c r="H14" s="3">
-        <v>86700</v>
-      </c>
       <c r="I14" s="3">
+        <v>86800</v>
+      </c>
+      <c r="J14" s="3">
         <v>11900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -983,35 +1002,38 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1200</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>49900</v>
+        <v>39100</v>
       </c>
       <c r="E15" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F15" s="3">
         <v>35800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>26000</v>
       </c>
-      <c r="G15" s="3">
-        <v>92100</v>
-      </c>
       <c r="H15" s="3">
-        <v>53100</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>92200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>53200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1028,12 +1050,15 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,92 +1072,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21759000</v>
+        <v>23642200</v>
       </c>
       <c r="E17" s="3">
-        <v>18526200</v>
+        <v>21104300</v>
       </c>
       <c r="F17" s="3">
-        <v>20875400</v>
+        <v>18541600</v>
       </c>
       <c r="G17" s="3">
-        <v>22652300</v>
+        <v>20892800</v>
       </c>
       <c r="H17" s="3">
-        <v>21042400</v>
+        <v>22671100</v>
       </c>
       <c r="I17" s="3">
-        <v>21161600</v>
+        <v>21059900</v>
       </c>
       <c r="J17" s="3">
+        <v>21179200</v>
+      </c>
+      <c r="K17" s="3">
         <v>20760500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18630400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19942900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20798900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19356600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17833700</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1142600</v>
+        <v>919000</v>
       </c>
       <c r="E18" s="3">
-        <v>367500</v>
+        <v>881000</v>
       </c>
       <c r="F18" s="3">
+        <v>367800</v>
+      </c>
+      <c r="G18" s="3">
         <v>70500</v>
       </c>
-      <c r="G18" s="3">
-        <v>1148100</v>
-      </c>
       <c r="H18" s="3">
-        <v>1080800</v>
+        <v>1149000</v>
       </c>
       <c r="I18" s="3">
-        <v>1277100</v>
+        <v>1081700</v>
       </c>
       <c r="J18" s="3">
+        <v>1278100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1187100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1133000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1089200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>962900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1104000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1002400</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1149,218 +1181,234 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E20" s="3">
         <v>23900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7600</v>
       </c>
-      <c r="F20" s="3">
-        <v>-151800</v>
-      </c>
       <c r="G20" s="3">
+        <v>-151900</v>
+      </c>
+      <c r="H20" s="3">
         <v>27100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>23900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>56900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>46100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>17600</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1733500</v>
+        <v>1481900</v>
       </c>
       <c r="E21" s="3">
-        <v>1026600</v>
+        <v>1472100</v>
       </c>
       <c r="F21" s="3">
-        <v>890000</v>
+        <v>1027300</v>
       </c>
       <c r="G21" s="3">
-        <v>1570900</v>
+        <v>890400</v>
       </c>
       <c r="H21" s="3">
-        <v>1448400</v>
+        <v>1572000</v>
       </c>
       <c r="I21" s="3">
-        <v>1586000</v>
+        <v>1449400</v>
       </c>
       <c r="J21" s="3">
+        <v>1587200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1521000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1465900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1379600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1329700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1537000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1306600</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>117100</v>
+        <v>172500</v>
       </c>
       <c r="E22" s="3">
-        <v>118200</v>
+        <v>117200</v>
       </c>
       <c r="F22" s="3">
-        <v>158300</v>
+        <v>118300</v>
       </c>
       <c r="G22" s="3">
-        <v>131200</v>
+        <v>158400</v>
       </c>
       <c r="H22" s="3">
-        <v>119300</v>
+        <v>131300</v>
       </c>
       <c r="I22" s="3">
-        <v>101900</v>
+        <v>119400</v>
       </c>
       <c r="J22" s="3">
+        <v>102000</v>
+      </c>
+      <c r="K22" s="3">
         <v>112700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>149600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>183300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>186900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>202000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>173700</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1049400</v>
+        <v>812700</v>
       </c>
       <c r="E23" s="3">
-        <v>256900</v>
+        <v>787700</v>
       </c>
       <c r="F23" s="3">
-        <v>-239600</v>
+        <v>257100</v>
       </c>
       <c r="G23" s="3">
-        <v>1044000</v>
+        <v>-239800</v>
       </c>
       <c r="H23" s="3">
-        <v>985400</v>
+        <v>1044900</v>
       </c>
       <c r="I23" s="3">
-        <v>1179500</v>
+        <v>986300</v>
       </c>
       <c r="J23" s="3">
+        <v>1180500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1074300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1040300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>903600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>822100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>938000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>846300</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>286200</v>
+        <v>196400</v>
       </c>
       <c r="E24" s="3">
-        <v>109500</v>
+        <v>223500</v>
       </c>
       <c r="F24" s="3">
-        <v>106200</v>
+        <v>109600</v>
       </c>
       <c r="G24" s="3">
-        <v>300300</v>
+        <v>106300</v>
       </c>
       <c r="H24" s="3">
-        <v>265600</v>
+        <v>300500</v>
       </c>
       <c r="I24" s="3">
-        <v>371800</v>
+        <v>265800</v>
       </c>
       <c r="J24" s="3">
+        <v>372200</v>
+      </c>
+      <c r="K24" s="3">
         <v>357800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>319200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>309400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>275600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>320900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>293500</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1400,93 +1448,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>763200</v>
+        <v>616300</v>
       </c>
       <c r="E26" s="3">
-        <v>147400</v>
+        <v>564200</v>
       </c>
       <c r="F26" s="3">
-        <v>-345800</v>
+        <v>147600</v>
       </c>
       <c r="G26" s="3">
-        <v>743700</v>
+        <v>-346100</v>
       </c>
       <c r="H26" s="3">
-        <v>719800</v>
+        <v>744300</v>
       </c>
       <c r="I26" s="3">
-        <v>807700</v>
+        <v>720400</v>
       </c>
       <c r="J26" s="3">
+        <v>808300</v>
+      </c>
+      <c r="K26" s="3">
         <v>716600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>721100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>594200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>546500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>617100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>552900</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>753400</v>
+        <v>607600</v>
       </c>
       <c r="E27" s="3">
-        <v>150700</v>
+        <v>557700</v>
       </c>
       <c r="F27" s="3">
-        <v>-341500</v>
+        <v>150800</v>
       </c>
       <c r="G27" s="3">
-        <v>720900</v>
+        <v>-341800</v>
       </c>
       <c r="H27" s="3">
-        <v>705700</v>
+        <v>721500</v>
       </c>
       <c r="I27" s="3">
-        <v>783800</v>
+        <v>706300</v>
       </c>
       <c r="J27" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K27" s="3">
         <v>690600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>698200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>572000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>519300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>589000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>529400</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1526,32 +1583,35 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>253900</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>196400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1568,9 +1628,12 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1610,9 +1673,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1652,93 +1718,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-23900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7600</v>
       </c>
-      <c r="F32" s="3">
-        <v>151800</v>
-      </c>
       <c r="G32" s="3">
+        <v>151900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-27100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-23900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-56900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-46100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-17600</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>753400</v>
+        <v>861500</v>
       </c>
       <c r="E33" s="3">
-        <v>150700</v>
+        <v>754100</v>
       </c>
       <c r="F33" s="3">
-        <v>-341500</v>
+        <v>150800</v>
       </c>
       <c r="G33" s="3">
-        <v>720900</v>
+        <v>-341800</v>
       </c>
       <c r="H33" s="3">
-        <v>705700</v>
+        <v>721500</v>
       </c>
       <c r="I33" s="3">
-        <v>783800</v>
+        <v>706300</v>
       </c>
       <c r="J33" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K33" s="3">
         <v>690600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>698200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>572000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>519300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>589000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>529400</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1778,98 +1853,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>753400</v>
+        <v>861500</v>
       </c>
       <c r="E35" s="3">
-        <v>150700</v>
+        <v>754100</v>
       </c>
       <c r="F35" s="3">
-        <v>-341500</v>
+        <v>150800</v>
       </c>
       <c r="G35" s="3">
-        <v>720900</v>
+        <v>-341800</v>
       </c>
       <c r="H35" s="3">
-        <v>705700</v>
+        <v>721500</v>
       </c>
       <c r="I35" s="3">
-        <v>783800</v>
+        <v>706300</v>
       </c>
       <c r="J35" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K35" s="3">
         <v>690600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>698200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>572000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>519300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>589000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>529400</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42978</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42613</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42247</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41882</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41517</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41152</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40786</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1886,8 +1970,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1904,386 +1989,414 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2928200</v>
+        <v>2160200</v>
       </c>
       <c r="E41" s="3">
-        <v>3480000</v>
+        <v>2930600</v>
       </c>
       <c r="F41" s="3">
-        <v>1813700</v>
+        <v>3482800</v>
       </c>
       <c r="G41" s="3">
-        <v>1525300</v>
+        <v>1815200</v>
       </c>
       <c r="H41" s="3">
-        <v>1410400</v>
+        <v>1526600</v>
       </c>
       <c r="I41" s="3">
-        <v>1732400</v>
+        <v>1411600</v>
       </c>
       <c r="J41" s="3">
+        <v>1733800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1108000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1648700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2295100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1080000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1025500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1177300</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>629900</v>
+        <v>117200</v>
       </c>
       <c r="E42" s="3">
-        <v>398900</v>
+        <v>630400</v>
       </c>
       <c r="F42" s="3">
-        <v>427100</v>
+        <v>399300</v>
       </c>
       <c r="G42" s="3">
-        <v>468300</v>
+        <v>427500</v>
       </c>
       <c r="H42" s="3">
-        <v>434700</v>
+        <v>468700</v>
       </c>
       <c r="I42" s="3">
-        <v>490000</v>
+        <v>435100</v>
       </c>
       <c r="J42" s="3">
+        <v>490400</v>
+      </c>
+      <c r="K42" s="3">
         <v>430400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>378000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>922300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>521700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>607000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>532900</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5407500</v>
+        <v>3714000</v>
       </c>
       <c r="E43" s="3">
-        <v>4591200</v>
+        <v>5412000</v>
       </c>
       <c r="F43" s="3">
-        <v>4314700</v>
+        <v>4595000</v>
       </c>
       <c r="G43" s="3">
-        <v>4829700</v>
+        <v>4318300</v>
       </c>
       <c r="H43" s="3">
-        <v>4428500</v>
+        <v>4833700</v>
       </c>
       <c r="I43" s="3">
-        <v>4386300</v>
+        <v>4432200</v>
       </c>
       <c r="J43" s="3">
+        <v>4389900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4351600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3842000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4292600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4098700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3839400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3609500</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>381600</v>
+        <v>351500</v>
       </c>
       <c r="E44" s="3">
-        <v>277500</v>
+        <v>381900</v>
       </c>
       <c r="F44" s="3">
-        <v>280800</v>
+        <v>277800</v>
       </c>
       <c r="G44" s="3">
-        <v>318700</v>
+        <v>281000</v>
       </c>
       <c r="H44" s="3">
-        <v>303500</v>
+        <v>319000</v>
       </c>
       <c r="I44" s="3">
-        <v>278600</v>
+        <v>303800</v>
       </c>
       <c r="J44" s="3">
+        <v>278800</v>
+      </c>
+      <c r="K44" s="3">
         <v>290500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>269300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>309400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>320600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>332100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>295800</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1640200</v>
+        <v>6013100</v>
       </c>
       <c r="E45" s="3">
-        <v>1694400</v>
+        <v>1641600</v>
       </c>
       <c r="F45" s="3">
-        <v>1427800</v>
+        <v>1695900</v>
       </c>
       <c r="G45" s="3">
-        <v>1543800</v>
+        <v>1428900</v>
       </c>
       <c r="H45" s="3">
-        <v>1375700</v>
+        <v>1545000</v>
       </c>
       <c r="I45" s="3">
-        <v>1197900</v>
+        <v>1376900</v>
       </c>
       <c r="J45" s="3">
+        <v>1198900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1039700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>986400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1083400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1056300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>817900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>895600</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10987400</v>
+        <v>12356000</v>
       </c>
       <c r="E46" s="3">
-        <v>10442100</v>
+        <v>10996500</v>
       </c>
       <c r="F46" s="3">
-        <v>8264100</v>
+        <v>10450700</v>
       </c>
       <c r="G46" s="3">
-        <v>8685800</v>
+        <v>8271000</v>
       </c>
       <c r="H46" s="3">
-        <v>7953000</v>
+        <v>8693000</v>
       </c>
       <c r="I46" s="3">
-        <v>8085200</v>
+        <v>7959600</v>
       </c>
       <c r="J46" s="3">
+        <v>8091900</v>
+      </c>
+      <c r="K46" s="3">
         <v>7220100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7124400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8902700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7077300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6622000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6511100</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1913400</v>
+        <v>1976900</v>
       </c>
       <c r="E47" s="3">
-        <v>1471100</v>
+        <v>1915000</v>
       </c>
       <c r="F47" s="3">
-        <v>1339900</v>
+        <v>1472300</v>
       </c>
       <c r="G47" s="3">
-        <v>1828900</v>
+        <v>1341100</v>
       </c>
       <c r="H47" s="3">
-        <v>900900</v>
+        <v>1830400</v>
       </c>
       <c r="I47" s="3">
-        <v>866200</v>
+        <v>901600</v>
       </c>
       <c r="J47" s="3">
+        <v>866900</v>
+      </c>
+      <c r="K47" s="3">
         <v>847800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>676200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>633900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>572500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>572200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>477700</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1523200</v>
+        <v>1407200</v>
       </c>
       <c r="E48" s="3">
-        <v>1478700</v>
+        <v>1524400</v>
       </c>
       <c r="F48" s="3">
-        <v>2045700</v>
+        <v>1479900</v>
       </c>
       <c r="G48" s="3">
-        <v>741500</v>
+        <v>2047400</v>
       </c>
       <c r="H48" s="3">
-        <v>671100</v>
+        <v>742100</v>
       </c>
       <c r="I48" s="3">
-        <v>639600</v>
+        <v>671600</v>
       </c>
       <c r="J48" s="3">
+        <v>640100</v>
+      </c>
+      <c r="K48" s="3">
         <v>654800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>592500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>647900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>638800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>644000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>602200</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7902000</v>
+        <v>6527400</v>
       </c>
       <c r="E49" s="3">
-        <v>6983800</v>
+        <v>7908600</v>
       </c>
       <c r="F49" s="3">
-        <v>6978400</v>
+        <v>6989600</v>
       </c>
       <c r="G49" s="3">
-        <v>7544300</v>
+        <v>6984100</v>
       </c>
       <c r="H49" s="3">
-        <v>6903500</v>
+        <v>7550500</v>
       </c>
       <c r="I49" s="3">
-        <v>6308400</v>
+        <v>6909300</v>
       </c>
       <c r="J49" s="3">
+        <v>6313600</v>
+      </c>
+      <c r="K49" s="3">
         <v>6282400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5789900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6414900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6306000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6276400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5604900</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2323,9 +2436,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2365,51 +2481,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>353400</v>
+        <v>294000</v>
       </c>
       <c r="E52" s="3">
-        <v>212500</v>
+        <v>353700</v>
       </c>
       <c r="F52" s="3">
-        <v>184300</v>
+        <v>212700</v>
       </c>
       <c r="G52" s="3">
-        <v>135500</v>
+        <v>184400</v>
       </c>
       <c r="H52" s="3">
-        <v>136600</v>
+        <v>135600</v>
       </c>
       <c r="I52" s="3">
-        <v>225500</v>
+        <v>136700</v>
       </c>
       <c r="J52" s="3">
+        <v>225700</v>
+      </c>
+      <c r="K52" s="3">
         <v>343700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>256300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>302400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>319400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>235600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>196000</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2449,51 +2571,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22679400</v>
+        <v>22561500</v>
       </c>
       <c r="E54" s="3">
-        <v>20588100</v>
+        <v>22698200</v>
       </c>
       <c r="F54" s="3">
-        <v>18812400</v>
+        <v>20605200</v>
       </c>
       <c r="G54" s="3">
-        <v>18936000</v>
+        <v>18828000</v>
       </c>
       <c r="H54" s="3">
-        <v>16565000</v>
+        <v>18951700</v>
       </c>
       <c r="I54" s="3">
-        <v>16124900</v>
+        <v>16578800</v>
       </c>
       <c r="J54" s="3">
+        <v>16138300</v>
+      </c>
+      <c r="K54" s="3">
         <v>15348700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14439400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16901800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14914000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14350300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13392000</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2510,8 +2638,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2528,260 +2657,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2934700</v>
+        <v>2714700</v>
       </c>
       <c r="E57" s="3">
-        <v>2362300</v>
+        <v>2937100</v>
       </c>
       <c r="F57" s="3">
-        <v>2058700</v>
+        <v>2364200</v>
       </c>
       <c r="G57" s="3">
-        <v>2728700</v>
+        <v>2060400</v>
       </c>
       <c r="H57" s="3">
-        <v>2413200</v>
+        <v>2730900</v>
       </c>
       <c r="I57" s="3">
-        <v>2289600</v>
+        <v>2415200</v>
       </c>
       <c r="J57" s="3">
+        <v>2291500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2194200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1947900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2064000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2033400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4852600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4633000</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>246100</v>
+        <v>743200</v>
       </c>
       <c r="E58" s="3">
-        <v>886800</v>
+        <v>246300</v>
       </c>
       <c r="F58" s="3">
-        <v>279700</v>
+        <v>887500</v>
       </c>
       <c r="G58" s="3">
-        <v>235200</v>
+        <v>279900</v>
       </c>
       <c r="H58" s="3">
-        <v>485700</v>
+        <v>235400</v>
       </c>
       <c r="I58" s="3">
-        <v>581100</v>
+        <v>486100</v>
       </c>
       <c r="J58" s="3">
+        <v>581600</v>
+      </c>
+      <c r="K58" s="3">
         <v>77000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>353100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1188400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>889500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>169400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>205400</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6871000</v>
+        <v>7175100</v>
       </c>
       <c r="E59" s="3">
-        <v>6348500</v>
+        <v>6876700</v>
       </c>
       <c r="F59" s="3">
-        <v>6058000</v>
+        <v>6353800</v>
       </c>
       <c r="G59" s="3">
-        <v>5976600</v>
+        <v>6063000</v>
       </c>
       <c r="H59" s="3">
-        <v>5364100</v>
+        <v>5981600</v>
       </c>
       <c r="I59" s="3">
-        <v>5172200</v>
+        <v>5368600</v>
       </c>
       <c r="J59" s="3">
+        <v>5176500</v>
+      </c>
+      <c r="K59" s="3">
         <v>5216700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4820400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5417900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5220100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2046500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2084700</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10051800</v>
+        <v>10633000</v>
       </c>
       <c r="E60" s="3">
-        <v>9597500</v>
+        <v>10060100</v>
       </c>
       <c r="F60" s="3">
-        <v>8396400</v>
+        <v>9605500</v>
       </c>
       <c r="G60" s="3">
-        <v>8940600</v>
+        <v>8403300</v>
       </c>
       <c r="H60" s="3">
-        <v>8263000</v>
+        <v>8948000</v>
       </c>
       <c r="I60" s="3">
-        <v>8042900</v>
+        <v>8269900</v>
       </c>
       <c r="J60" s="3">
+        <v>8049600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7487900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7121400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8670400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8143100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7068500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6923100</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7009800</v>
+        <v>6226800</v>
       </c>
       <c r="E61" s="3">
-        <v>6737700</v>
+        <v>7015600</v>
       </c>
       <c r="F61" s="3">
-        <v>6614100</v>
+        <v>6743300</v>
       </c>
       <c r="G61" s="3">
-        <v>4230200</v>
+        <v>6619600</v>
       </c>
       <c r="H61" s="3">
-        <v>3834500</v>
+        <v>4233700</v>
       </c>
       <c r="I61" s="3">
-        <v>3264200</v>
+        <v>3837600</v>
       </c>
       <c r="J61" s="3">
+        <v>3266900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2726500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2757800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3379700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2241600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2861100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2655200</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>820700</v>
+        <v>760600</v>
       </c>
       <c r="E62" s="3">
-        <v>810900</v>
+        <v>821300</v>
       </c>
       <c r="F62" s="3">
-        <v>795700</v>
+        <v>811600</v>
       </c>
       <c r="G62" s="3">
-        <v>889000</v>
+        <v>796400</v>
       </c>
       <c r="H62" s="3">
-        <v>859700</v>
+        <v>889700</v>
       </c>
       <c r="I62" s="3">
-        <v>947500</v>
+        <v>860400</v>
       </c>
       <c r="J62" s="3">
+        <v>948300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1121000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>825800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1091500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>992500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>977300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>802900</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2821,9 +2969,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2863,9 +3014,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2905,51 +3059,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17893100</v>
+        <v>17633400</v>
       </c>
       <c r="E66" s="3">
-        <v>17153700</v>
+        <v>17907900</v>
       </c>
       <c r="F66" s="3">
-        <v>15822400</v>
+        <v>17168000</v>
       </c>
       <c r="G66" s="3">
-        <v>14105200</v>
+        <v>15835600</v>
       </c>
       <c r="H66" s="3">
-        <v>13005900</v>
+        <v>14116900</v>
       </c>
       <c r="I66" s="3">
-        <v>12291500</v>
+        <v>13016700</v>
       </c>
       <c r="J66" s="3">
+        <v>12301700</v>
+      </c>
+      <c r="K66" s="3">
         <v>11372200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10739000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13178900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11420900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10946100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10416400</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2966,8 +3126,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3007,9 +3168,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3049,9 +3213,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3091,9 +3258,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3133,51 +3303,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4327700</v>
+        <v>4898800</v>
       </c>
       <c r="E72" s="3">
-        <v>3745600</v>
+        <v>4331300</v>
       </c>
       <c r="F72" s="3">
-        <v>3427900</v>
+        <v>3748700</v>
       </c>
       <c r="G72" s="3">
-        <v>4724500</v>
+        <v>3430800</v>
       </c>
       <c r="H72" s="3">
-        <v>4114200</v>
+        <v>4728400</v>
       </c>
       <c r="I72" s="3">
-        <v>3745600</v>
+        <v>4117600</v>
       </c>
       <c r="J72" s="3">
+        <v>3748700</v>
+      </c>
+      <c r="K72" s="3">
         <v>3261000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2818700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2706100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2486500</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3217,9 +3393,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3259,9 +3438,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3301,51 +3483,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4786300</v>
+        <v>4928100</v>
       </c>
       <c r="E76" s="3">
-        <v>3434400</v>
+        <v>4790300</v>
       </c>
       <c r="F76" s="3">
-        <v>2989900</v>
+        <v>3437300</v>
       </c>
       <c r="G76" s="3">
-        <v>4830700</v>
+        <v>2992400</v>
       </c>
       <c r="H76" s="3">
-        <v>3559100</v>
+        <v>4834800</v>
       </c>
       <c r="I76" s="3">
-        <v>3833400</v>
+        <v>3562100</v>
       </c>
       <c r="J76" s="3">
+        <v>3836600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3976500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3700400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3722900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3493100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3404100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2975600</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3385,98 +3573,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42978</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42613</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42247</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41882</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41517</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41152</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40786</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>753400</v>
+        <v>861500</v>
       </c>
       <c r="E81" s="3">
-        <v>150700</v>
+        <v>754100</v>
       </c>
       <c r="F81" s="3">
-        <v>-341500</v>
+        <v>150800</v>
       </c>
       <c r="G81" s="3">
-        <v>720900</v>
+        <v>-341800</v>
       </c>
       <c r="H81" s="3">
-        <v>705700</v>
+        <v>721500</v>
       </c>
       <c r="I81" s="3">
-        <v>783800</v>
+        <v>706300</v>
       </c>
       <c r="J81" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K81" s="3">
         <v>690600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>698200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>572000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>519300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>589000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>529400</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3493,50 +3690,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>567000</v>
+        <v>496900</v>
       </c>
       <c r="E83" s="3">
-        <v>651500</v>
+        <v>567500</v>
       </c>
       <c r="F83" s="3">
-        <v>971400</v>
+        <v>652100</v>
       </c>
       <c r="G83" s="3">
-        <v>395700</v>
+        <v>972200</v>
       </c>
       <c r="H83" s="3">
-        <v>343700</v>
+        <v>396000</v>
       </c>
       <c r="I83" s="3">
-        <v>304600</v>
+        <v>343900</v>
       </c>
       <c r="J83" s="3">
+        <v>304900</v>
+      </c>
+      <c r="K83" s="3">
         <v>333900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>276300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>291900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>320600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>396100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>286400</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3576,9 +3777,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3618,9 +3822,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3660,9 +3867,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3702,9 +3912,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3744,51 +3957,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1122000</v>
+        <v>1493000</v>
       </c>
       <c r="E89" s="3">
-        <v>1063500</v>
+        <v>1123000</v>
       </c>
       <c r="F89" s="3">
-        <v>683000</v>
+        <v>1064400</v>
       </c>
       <c r="G89" s="3">
-        <v>1374600</v>
+        <v>683600</v>
       </c>
       <c r="H89" s="3">
-        <v>1228300</v>
+        <v>1375800</v>
       </c>
       <c r="I89" s="3">
-        <v>1151300</v>
+        <v>1229300</v>
       </c>
       <c r="J89" s="3">
+        <v>1152300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1024500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1014400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>963100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>731000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1142200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>994200</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3805,50 +4024,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-366700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-374300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-321200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-431800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-434000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-357000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-335300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-374000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-320900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-431500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-433600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-356700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-335000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-374000</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-301200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-286000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-285100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-345600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-284100</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3888,9 +4111,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3930,51 +4156,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-418500</v>
+        <v>-570700</v>
       </c>
       <c r="E94" s="3">
-        <v>-328500</v>
+        <v>-418800</v>
       </c>
       <c r="F94" s="3">
-        <v>-466200</v>
+        <v>-328800</v>
       </c>
       <c r="G94" s="3">
-        <v>-877000</v>
+        <v>-466600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1084100</v>
+        <v>-877800</v>
       </c>
       <c r="I94" s="3">
-        <v>-663500</v>
+        <v>-1085000</v>
       </c>
       <c r="J94" s="3">
+        <v>-664000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-525800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-377000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-393400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-372600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-989600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-272300</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3991,50 +4223,54 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-318700</v>
+        <v>-381900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-319000</v>
       </c>
       <c r="F96" s="3">
-        <v>-460700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-436900</v>
+        <v>-461100</v>
       </c>
       <c r="H96" s="3">
-        <v>-445600</v>
+        <v>-437300</v>
       </c>
       <c r="I96" s="3">
-        <v>-389200</v>
+        <v>-445900</v>
       </c>
       <c r="J96" s="3">
+        <v>-389500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-363200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-275300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-289500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-283900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-248000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-244200</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4074,9 +4310,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4116,9 +4355,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4158,133 +4400,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1202300</v>
+        <v>-700900</v>
       </c>
       <c r="E100" s="3">
-        <v>855400</v>
+        <v>-1203300</v>
       </c>
       <c r="F100" s="3">
-        <v>214700</v>
+        <v>856100</v>
       </c>
       <c r="G100" s="3">
-        <v>-442300</v>
+        <v>214800</v>
       </c>
       <c r="H100" s="3">
-        <v>-374000</v>
+        <v>-442700</v>
       </c>
       <c r="I100" s="3">
-        <v>349100</v>
+        <v>-374300</v>
       </c>
       <c r="J100" s="3">
+        <v>349400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1193600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1361500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1074000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-322900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-671400</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>157200</v>
+        <v>-207200</v>
       </c>
       <c r="E101" s="3">
+        <v>157300</v>
+      </c>
+      <c r="F101" s="3">
         <v>47700</v>
       </c>
-      <c r="F101" s="3">
-        <v>-133300</v>
-      </c>
       <c r="G101" s="3">
+        <v>-133500</v>
+      </c>
+      <c r="H101" s="3">
         <v>62900</v>
       </c>
-      <c r="H101" s="3">
-        <v>-140900</v>
-      </c>
       <c r="I101" s="3">
-        <v>-150700</v>
+        <v>-141100</v>
       </c>
       <c r="J101" s="3">
+        <v>-150800</v>
+      </c>
+      <c r="K101" s="3">
         <v>20600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-32700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-188100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>61700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100900</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-341500</v>
+        <v>14100</v>
       </c>
       <c r="E102" s="3">
-        <v>1638100</v>
+        <v>-341800</v>
       </c>
       <c r="F102" s="3">
-        <v>298100</v>
+        <v>1639400</v>
       </c>
       <c r="G102" s="3">
-        <v>118200</v>
+        <v>298400</v>
       </c>
       <c r="H102" s="3">
-        <v>-370800</v>
+        <v>118300</v>
       </c>
       <c r="I102" s="3">
-        <v>686200</v>
+        <v>-371100</v>
       </c>
       <c r="J102" s="3">
+        <v>686800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-674300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-716100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1611000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-152600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-51600</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
